--- a/data/Calculs.xlsx
+++ b/data/Calculs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benda\OneDrive\Documents\GitHub\MEC8211DEV3\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{070A8F8E-D183-447E-A3A8-C248685BF587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E36F2DC-65C6-49F3-9E35-11B026BFA8CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -1609,16 +1609,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T25" sqref="T25"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1648,7 +1648,7 @@
       <c r="W1" s="2"/>
       <c r="X1" s="3"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="C2" t="s">
         <v>1</v>
@@ -1663,7 +1663,7 @@
       <c r="R2" s="4"/>
       <c r="X2" s="5"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="C3">
         <v>600</v>
@@ -1685,7 +1685,7 @@
       </c>
       <c r="X3" s="5"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="C4">
         <v>300</v>
@@ -1701,7 +1701,7 @@
       <c r="R4" s="4"/>
       <c r="X4" s="5"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="C5">
         <v>150</v>
@@ -1723,7 +1723,7 @@
       </c>
       <c r="X5" s="5"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="C6">
         <v>75</v>
@@ -1739,13 +1739,13 @@
       <c r="R6" s="4"/>
       <c r="X6" s="5"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="Q7" s="5"/>
       <c r="R7" s="4"/>
       <c r="X7" s="5"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="4"/>
@@ -1754,25 +1754,25 @@
       </c>
       <c r="X8" s="5"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="Q9" s="5"/>
       <c r="R9" s="4"/>
       <c r="X9" s="5"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="Q10" s="5"/>
       <c r="R10" s="4"/>
       <c r="X10" s="5"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="Q11" s="5"/>
       <c r="R11" s="4"/>
       <c r="X11" s="5"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="Q12" s="5"/>
       <c r="R12" s="4"/>
@@ -1784,13 +1784,13 @@
       </c>
       <c r="X12" s="5"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="4"/>
       <c r="X13" s="5"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="C14" t="s">
         <v>4</v>
@@ -1803,7 +1803,7 @@
       <c r="R14" s="4"/>
       <c r="X14" s="5"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="C15" t="s">
         <v>5</v>
@@ -1815,19 +1815,19 @@
       <c r="R15" s="4"/>
       <c r="X15" s="5"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="4"/>
       <c r="X16" s="5"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="4"/>
       <c r="X17" s="5"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="C18" t="s">
         <v>6</v>
@@ -1840,13 +1840,13 @@
       <c r="R18" s="4"/>
       <c r="X18" s="5"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="Q19" s="5"/>
       <c r="R19" s="4"/>
       <c r="X19" s="5"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="C20" t="s">
         <v>7</v>
@@ -1858,7 +1858,7 @@
       <c r="R20" s="4"/>
       <c r="X20" s="5"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="C21" t="s">
         <v>8</v>
@@ -1870,13 +1870,13 @@
       <c r="R21" s="4"/>
       <c r="X21" s="5"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="Q22" s="5"/>
       <c r="R22" s="4"/>
       <c r="X22" s="5"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="C23" t="s">
         <v>9</v>
@@ -1889,13 +1889,13 @@
       <c r="R23" s="4"/>
       <c r="X23" s="5"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="Q24" s="5"/>
       <c r="R24" s="4"/>
       <c r="X24" s="5"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="C25" s="10" t="s">
         <v>10</v>
@@ -1906,16 +1906,16 @@
       </c>
       <c r="Q25" s="5"/>
       <c r="R25" s="4"/>
-      <c r="S25" t="s">
+      <c r="S25" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="T25">
+      <c r="T25" s="10">
         <f>(T5^2+T12^2)^0.5</f>
         <v>17.778920102188433</v>
       </c>
       <c r="X25" s="5"/>
     </row>
-    <row r="26" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="7"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>

--- a/data/Calculs.xlsx
+++ b/data/Calculs.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benda\OneDrive\Documents\GitHub\MEC8211DEV3\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcd\Documents\GitHub\MEC8211DEV3\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E36F2DC-65C6-49F3-9E35-11B026BFA8CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E2A85C5-90AB-42F6-9DF5-1B76F268AFC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Données" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>Seed</t>
   </si>
@@ -88,11 +89,29 @@
   <si>
     <t>Ud</t>
   </si>
+  <si>
+    <t>Npts</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>Ordre de convergence formel</t>
+  </si>
+  <si>
+    <t>Ordre de convergence observé</t>
+  </si>
+  <si>
+    <t>Écart relatif</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -216,7 +235,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -228,10 +247,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -249,7 +277,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -342,7 +370,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -525,7 +553,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -563,7 +591,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="936369311"/>
@@ -650,7 +678,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -688,7 +716,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="936366911"/>
@@ -736,7 +764,524 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Convergence</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> de la permeabilite en fonction de </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="el-GR" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Δ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>x </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>k</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Données!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3.3333332999999999E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9999999999999998E-7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.6666667000000002E-7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3333333000000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.6666667000000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.9999999999999998E-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Données!$C$2:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>19.542286000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.559256999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.588958999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.726541000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.7942</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.250312999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21.342282999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22.851299000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CDAF-40FD-82AC-4C7900BE6A5A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="936366911"/>
+        <c:axId val="936369311"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="936366911"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="el-GR"/>
+                  <a:t>Δ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>x [m]</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-CA"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="936369311"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="936369311"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>k[</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="el-GR"/>
+                  <a:t>μ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>m^2]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="936366911"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -787,7 +1332,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1328,6 +2429,49 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{228416B4-BB62-4075-B8CB-FF367754B402}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1609,16 +2753,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T25" sqref="T25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1648,7 +2792,7 @@
       <c r="W1" s="2"/>
       <c r="X1" s="3"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="C2" t="s">
         <v>1</v>
@@ -1663,7 +2807,7 @@
       <c r="R2" s="4"/>
       <c r="X2" s="5"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="C3">
         <v>600</v>
@@ -1685,7 +2829,7 @@
       </c>
       <c r="X3" s="5"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="C4">
         <v>300</v>
@@ -1701,7 +2845,7 @@
       <c r="R4" s="4"/>
       <c r="X4" s="5"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="C5">
         <v>150</v>
@@ -1723,7 +2867,7 @@
       </c>
       <c r="X5" s="5"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="C6">
         <v>75</v>
@@ -1739,13 +2883,13 @@
       <c r="R6" s="4"/>
       <c r="X6" s="5"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="Q7" s="5"/>
       <c r="R7" s="4"/>
       <c r="X7" s="5"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="4"/>
@@ -1754,25 +2898,25 @@
       </c>
       <c r="X8" s="5"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="Q9" s="5"/>
       <c r="R9" s="4"/>
       <c r="X9" s="5"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="Q10" s="5"/>
       <c r="R10" s="4"/>
       <c r="X10" s="5"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="Q11" s="5"/>
       <c r="R11" s="4"/>
       <c r="X11" s="5"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="Q12" s="5"/>
       <c r="R12" s="4"/>
@@ -1784,26 +2928,26 @@
       </c>
       <c r="X12" s="5"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="4"/>
       <c r="X13" s="5"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14">
-        <f>LOG((E5-E4)/(E4-E3))/LOG(2)</f>
-        <v>1.7783796926991149</v>
+        <f>LN((E5-E4)/(E4-E3))/LN(2)</f>
+        <v>1.7783796926991151</v>
       </c>
       <c r="Q14" s="5"/>
       <c r="R14" s="4"/>
       <c r="X14" s="5"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="C15" t="s">
         <v>5</v>
@@ -1815,38 +2959,38 @@
       <c r="R15" s="4"/>
       <c r="X15" s="5"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="4"/>
       <c r="X16" s="5"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="4"/>
       <c r="X17" s="5"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="C18" t="s">
         <v>6</v>
       </c>
       <c r="E18" s="6">
         <f>ABS(D14-D15)/D15</f>
-        <v>0.11081015365044256</v>
+        <v>0.11081015365044244</v>
       </c>
       <c r="Q18" s="5"/>
       <c r="R18" s="4"/>
       <c r="X18" s="5"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="Q19" s="5"/>
       <c r="R19" s="4"/>
       <c r="X19" s="5"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="C20" t="s">
         <v>7</v>
@@ -1858,7 +3002,7 @@
       <c r="R20" s="4"/>
       <c r="X20" s="5"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="C21" t="s">
         <v>8</v>
@@ -1870,13 +3014,13 @@
       <c r="R21" s="4"/>
       <c r="X21" s="5"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="Q22" s="5"/>
       <c r="R22" s="4"/>
       <c r="X22" s="5"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="C23" t="s">
         <v>9</v>
@@ -1889,13 +3033,13 @@
       <c r="R23" s="4"/>
       <c r="X23" s="5"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="Q24" s="5"/>
       <c r="R24" s="4"/>
       <c r="X24" s="5"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="C25" s="10" t="s">
         <v>10</v>
@@ -1915,7 +3059,7 @@
       </c>
       <c r="X25" s="5"/>
     </row>
-    <row r="26" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -1945,4 +3089,191 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC78AAC4-D1E3-4EE4-8A9E-B4DBED4ACCA1}">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="12">
+        <v>600</v>
+      </c>
+      <c r="B2" s="11">
+        <v>3.3333332999999999E-7</v>
+      </c>
+      <c r="C2" s="12">
+        <v>19.542286000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
+        <v>400</v>
+      </c>
+      <c r="B3" s="11">
+        <v>4.9999999999999998E-7</v>
+      </c>
+      <c r="C3" s="12">
+        <v>19.559256999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>300</v>
+      </c>
+      <c r="B4" s="11">
+        <v>6.6666667000000002E-7</v>
+      </c>
+      <c r="C4" s="12">
+        <v>19.588958999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>200</v>
+      </c>
+      <c r="B5" s="11">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C5" s="12">
+        <v>19.726541000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
+        <v>150</v>
+      </c>
+      <c r="B6" s="11">
+        <v>1.3333333000000001E-6</v>
+      </c>
+      <c r="C6" s="12">
+        <v>19.7942</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
+        <v>100</v>
+      </c>
+      <c r="B7" s="11">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="C7" s="12">
+        <v>20.250312999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
+        <v>75</v>
+      </c>
+      <c r="B8" s="11">
+        <v>2.6666667000000001E-6</v>
+      </c>
+      <c r="C8" s="12">
+        <v>21.342282999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <v>50</v>
+      </c>
+      <c r="B9" s="11">
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="C9" s="12">
+        <v>22.851299000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="D14" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <f>LN((C6-C4)/(C4-C2))/LN(E15)</f>
+        <v>2.1366588524410277</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="D15" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="15">
+        <f>(E14-E15)/E15</f>
+        <v>6.8329426220513856E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18">
+        <f>E15</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20">
+        <f>E17/((E19^E18)-1)*ABS(C3-C2)</f>
+        <v>7.0712499999991962E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21">
+        <f>E20/2</f>
+        <v>3.5356249999995981E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/data/Calculs.xlsx
+++ b/data/Calculs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcd\Documents\GitHub\MEC8211DEV3\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benda\OneDrive\Documents\GitHub\MEC8211DEV3\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E2A85C5-90AB-42F6-9DF5-1B76F268AFC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E4CAF5-1192-4EE1-89B6-180806C988D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -110,7 +110,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -235,7 +235,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -248,18 +248,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -277,7 +276,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -370,7 +369,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -450,7 +449,7 @@
                   <c:v>19.588999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.749199999999998</c:v>
+                  <c:v>19.7942</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>21.342300000000002</c:v>
@@ -553,7 +552,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="fr-FR"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -591,7 +590,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="936369311"/>
@@ -678,7 +677,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="fr-FR"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -716,7 +715,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="936366911"/>
@@ -764,7 +763,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -778,7 +777,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -871,7 +870,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1070,7 +1069,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="fr-FR"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1108,7 +1107,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="936369311"/>
@@ -1195,7 +1194,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="fr-FR"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1233,7 +1232,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="936366911"/>
@@ -1281,7 +1280,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2753,16 +2752,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T25" sqref="T25"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2792,7 +2791,7 @@
       <c r="W1" s="2"/>
       <c r="X1" s="3"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="C2" t="s">
         <v>1</v>
@@ -2807,7 +2806,7 @@
       <c r="R2" s="4"/>
       <c r="X2" s="5"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="C3">
         <v>600</v>
@@ -2829,7 +2828,7 @@
       </c>
       <c r="X3" s="5"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="C4">
         <v>300</v>
@@ -2845,7 +2844,7 @@
       <c r="R4" s="4"/>
       <c r="X4" s="5"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="C5">
         <v>150</v>
@@ -2855,7 +2854,7 @@
         <v>1.3333333333333332E-6</v>
       </c>
       <c r="E5">
-        <v>19.749199999999998</v>
+        <v>19.7942</v>
       </c>
       <c r="Q5" s="5"/>
       <c r="R5" s="4"/>
@@ -2867,7 +2866,7 @@
       </c>
       <c r="X5" s="5"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="C6">
         <v>75</v>
@@ -2883,13 +2882,13 @@
       <c r="R6" s="4"/>
       <c r="X6" s="5"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="Q7" s="5"/>
       <c r="R7" s="4"/>
       <c r="X7" s="5"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="4"/>
@@ -2898,25 +2897,25 @@
       </c>
       <c r="X8" s="5"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="Q9" s="5"/>
       <c r="R9" s="4"/>
       <c r="X9" s="5"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="Q10" s="5"/>
       <c r="R10" s="4"/>
       <c r="X10" s="5"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="Q11" s="5"/>
       <c r="R11" s="4"/>
       <c r="X11" s="5"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="Q12" s="5"/>
       <c r="R12" s="4"/>
@@ -2928,26 +2927,26 @@
       </c>
       <c r="X12" s="5"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="4"/>
       <c r="X13" s="5"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14">
         <f>LN((E5-E4)/(E4-E3))/LN(2)</f>
-        <v>1.7783796926991151</v>
+        <v>2.1355362758974716</v>
       </c>
       <c r="Q14" s="5"/>
       <c r="R14" s="4"/>
       <c r="X14" s="5"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="C15" t="s">
         <v>5</v>
@@ -2959,38 +2958,38 @@
       <c r="R15" s="4"/>
       <c r="X15" s="5"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="4"/>
       <c r="X16" s="5"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="4"/>
       <c r="X17" s="5"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="C18" t="s">
         <v>6</v>
       </c>
       <c r="E18" s="6">
         <f>ABS(D14-D15)/D15</f>
-        <v>0.11081015365044244</v>
+        <v>6.7768137948735818E-2</v>
       </c>
       <c r="Q18" s="5"/>
       <c r="R18" s="4"/>
       <c r="X18" s="5"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="Q19" s="5"/>
       <c r="R19" s="4"/>
       <c r="X19" s="5"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="C20" t="s">
         <v>7</v>
@@ -3002,7 +3001,7 @@
       <c r="R20" s="4"/>
       <c r="X20" s="5"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="C21" t="s">
         <v>8</v>
@@ -3014,13 +3013,13 @@
       <c r="R21" s="4"/>
       <c r="X21" s="5"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="Q22" s="5"/>
       <c r="R22" s="4"/>
       <c r="X22" s="5"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="C23" t="s">
         <v>9</v>
@@ -3033,13 +3032,13 @@
       <c r="R23" s="4"/>
       <c r="X23" s="5"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="Q24" s="5"/>
       <c r="R24" s="4"/>
       <c r="X24" s="5"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="C25" s="10" t="s">
         <v>10</v>
@@ -3059,7 +3058,7 @@
       </c>
       <c r="X25" s="5"/>
     </row>
-    <row r="26" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="7"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -3095,16 +3094,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC78AAC4-D1E3-4EE4-8A9E-B4DBED4ACCA1}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -3115,96 +3114,96 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>600</v>
       </c>
       <c r="B2" s="11">
         <v>3.3333332999999999E-7</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2">
         <v>19.542286000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>400</v>
       </c>
       <c r="B3" s="11">
         <v>4.9999999999999998E-7</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3">
         <v>19.559256999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>300</v>
       </c>
       <c r="B4" s="11">
         <v>6.6666667000000002E-7</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4">
         <v>19.588958999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>200</v>
       </c>
       <c r="B5" s="11">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5">
         <v>19.726541000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>150</v>
       </c>
       <c r="B6" s="11">
         <v>1.3333333000000001E-6</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6">
         <v>19.7942</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>100</v>
       </c>
       <c r="B7" s="11">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7">
         <v>20.250312999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>75</v>
       </c>
       <c r="B8" s="11">
         <v>2.6666667000000001E-6</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8">
         <v>21.342282999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
         <v>50</v>
       </c>
       <c r="B9" s="11">
         <v>3.9999999999999998E-6</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9">
         <v>22.851299000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="D14" s="13" t="s">
+    <row r="14" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D14" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E14">
@@ -3212,24 +3211,24 @@
         <v>2.1366588524410277</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="D15" s="13" t="s">
+    <row r="15" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D15" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="13">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="14">
         <f>(E14-E15)/E15</f>
         <v>6.8329426220513856E-2</v>
       </c>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
         <v>7</v>
       </c>
@@ -3237,7 +3236,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
         <v>18</v>
       </c>
@@ -3246,7 +3245,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
         <v>8</v>
       </c>
@@ -3254,7 +3253,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
         <v>9</v>
       </c>
@@ -3263,7 +3262,7 @@
         <v>7.0712499999991962E-3</v>
       </c>
     </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
         <v>10</v>
       </c>

--- a/data/Calculs.xlsx
+++ b/data/Calculs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benda\OneDrive\Documents\GitHub\MEC8211DEV3\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E4CAF5-1192-4EE1-89B6-180806C988D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB83921B-BFAE-47AA-9EBE-A6D85FFE9742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -417,42 +417,66 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Feuil1!$D$3:$D$6</c:f>
+              <c:f>Feuil1!$D$3:$D$10</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>3.333333333333333E-7</c:v>
+                  <c:v>3.3333332999999999E-7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.666666666666666E-7</c:v>
+                  <c:v>4.9999999999999998E-7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3333333333333332E-6</c:v>
+                  <c:v>6.6666667000000002E-7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.6666666666666664E-6</c:v>
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3333333000000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.6666667000000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.9999999999999998E-6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Feuil1!$E$3:$E$6</c:f>
+              <c:f>Feuil1!$E$3:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>19.542300000000001</c:v>
+                  <c:v>19.542286000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.588999999999999</c:v>
+                  <c:v>19.559256999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>19.588958999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.726541000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>19.7942</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>21.342300000000002</c:v>
+                <c:pt idx="5">
+                  <c:v>20.250312999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21.342282999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22.851299000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -556,7 +580,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2752,8 +2776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2811,12 +2835,11 @@
       <c r="C3">
         <v>600</v>
       </c>
-      <c r="D3">
-        <f>0.000002*100/C3</f>
-        <v>3.333333333333333E-7</v>
+      <c r="D3" s="11">
+        <v>3.3333332999999999E-7</v>
       </c>
       <c r="E3">
-        <v>19.542300000000001</v>
+        <v>19.542286000000001</v>
       </c>
       <c r="Q3" s="5"/>
       <c r="R3" s="4"/>
@@ -2831,14 +2854,13 @@
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="C4">
-        <v>300</v>
-      </c>
-      <c r="D4">
-        <f t="shared" ref="D4:D6" si="0">0.000002*100/C4</f>
-        <v>6.666666666666666E-7</v>
+        <v>400</v>
+      </c>
+      <c r="D4" s="11">
+        <v>4.9999999999999998E-7</v>
       </c>
       <c r="E4">
-        <v>19.588999999999999</v>
+        <v>19.559256999999999</v>
       </c>
       <c r="Q4" s="5"/>
       <c r="R4" s="4"/>
@@ -2847,14 +2869,13 @@
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="C5">
-        <v>150</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>1.3333333333333332E-6</v>
+        <v>300</v>
+      </c>
+      <c r="D5" s="11">
+        <v>6.6666667000000002E-7</v>
       </c>
       <c r="E5">
-        <v>19.7942</v>
+        <v>19.588958999999999</v>
       </c>
       <c r="Q5" s="5"/>
       <c r="R5" s="4"/>
@@ -2869,14 +2890,13 @@
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="C6">
-        <v>75</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>2.6666666666666664E-6</v>
+        <v>200</v>
+      </c>
+      <c r="D6" s="11">
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="E6">
-        <v>21.342300000000002</v>
+        <v>19.726541000000001</v>
       </c>
       <c r="Q6" s="5"/>
       <c r="R6" s="4"/>
@@ -2884,12 +2904,30 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
+      <c r="C7">
+        <v>150</v>
+      </c>
+      <c r="D7" s="11">
+        <v>1.3333333000000001E-6</v>
+      </c>
+      <c r="E7">
+        <v>19.7942</v>
+      </c>
       <c r="Q7" s="5"/>
       <c r="R7" s="4"/>
       <c r="X7" s="5"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
+      <c r="C8">
+        <v>100</v>
+      </c>
+      <c r="D8" s="11">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="E8">
+        <v>20.250312999999998</v>
+      </c>
       <c r="Q8" s="5"/>
       <c r="R8" s="4"/>
       <c r="S8" t="s">
@@ -2899,12 +2937,30 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
+      <c r="C9">
+        <v>75</v>
+      </c>
+      <c r="D9" s="11">
+        <v>2.6666667000000001E-6</v>
+      </c>
+      <c r="E9">
+        <v>21.342282999999998</v>
+      </c>
       <c r="Q9" s="5"/>
       <c r="R9" s="4"/>
       <c r="X9" s="5"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
+      <c r="C10">
+        <v>50</v>
+      </c>
+      <c r="D10" s="11">
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="E10">
+        <v>22.851299000000001</v>
+      </c>
       <c r="Q10" s="5"/>
       <c r="R10" s="4"/>
       <c r="X10" s="5"/>
@@ -2940,7 +2996,7 @@
       </c>
       <c r="D14">
         <f>LN((E5-E4)/(E4-E3))/LN(2)</f>
-        <v>2.1355362758974716</v>
+        <v>0.8074885021210082</v>
       </c>
       <c r="Q14" s="5"/>
       <c r="R14" s="4"/>
@@ -2977,7 +3033,7 @@
       </c>
       <c r="E18" s="6">
         <f>ABS(D14-D15)/D15</f>
-        <v>6.7768137948735818E-2</v>
+        <v>0.59625574893949596</v>
       </c>
       <c r="Q18" s="5"/>
       <c r="R18" s="4"/>
@@ -2995,7 +3051,7 @@
         <v>7</v>
       </c>
       <c r="D20">
-        <v>3</v>
+        <v>1.25</v>
       </c>
       <c r="Q20" s="5"/>
       <c r="R20" s="4"/>
@@ -3026,7 +3082,7 @@
       </c>
       <c r="D23">
         <f>(D20/(D21^D15 -1))*ABS(E4-E3)</f>
-        <v>4.6699999999997743E-2</v>
+        <v>7.0712499999991962E-3</v>
       </c>
       <c r="Q23" s="5"/>
       <c r="R23" s="4"/>
@@ -3045,7 +3101,7 @@
       </c>
       <c r="D25" s="10">
         <f>D23/2</f>
-        <v>2.3349999999998872E-2</v>
+        <v>3.5356249999995981E-3</v>
       </c>
       <c r="Q25" s="5"/>
       <c r="R25" s="4"/>
@@ -3095,7 +3151,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="A2" sqref="A2:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/Calculs.xlsx
+++ b/data/Calculs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benda\OneDrive\Documents\GitHub\MEC8211DEV3\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB83921B-BFAE-47AA-9EBE-A6D85FFE9742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14422298-40DE-4572-8CD2-31B836750EB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -109,8 +109,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="169" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -235,7 +236,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -255,6 +256,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2777,7 +2779,7 @@
   <dimension ref="A1:X26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2994,9 +2996,9 @@
       <c r="C14" t="s">
         <v>4</v>
       </c>
-      <c r="D14">
-        <f>LN((E5-E4)/(E4-E3))/LN(2)</f>
-        <v>0.8074885021210082</v>
+      <c r="D14" s="15">
+        <f>LN((E7-E5)/(E5-E3))/LN(2)</f>
+        <v>2.1366588524410277</v>
       </c>
       <c r="Q14" s="5"/>
       <c r="R14" s="4"/>
@@ -3033,7 +3035,7 @@
       </c>
       <c r="E18" s="6">
         <f>ABS(D14-D15)/D15</f>
-        <v>0.59625574893949596</v>
+        <v>6.8329426220513856E-2</v>
       </c>
       <c r="Q18" s="5"/>
       <c r="R18" s="4"/>

--- a/data/Calculs.xlsx
+++ b/data/Calculs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcd\Documents\GitHub\MEC8211DEV3\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96FFF7F8-9023-493A-B523-7D15A36A17E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{013DF6F3-E5B0-4B3B-981D-A91A854A3870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,6 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">'Monte-Carlo'!$A$1</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">'Monte-Carlo'!$A$2:$A$223</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Monte-Carlo'!$N$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Monte-Carlo'!$N$2:$N$223</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Monte-Carlo'!$A$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Monte-Carlo'!$A$2:$A$223</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
   <si>
     <t>Seed</t>
   </si>
@@ -151,6 +147,12 @@
   </si>
   <si>
     <t>y(k)</t>
+  </si>
+  <si>
+    <t>uinput-</t>
+  </si>
+  <si>
+    <t>uinput+</t>
   </si>
 </sst>
 </file>
@@ -284,7 +286,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -305,11 +307,9 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10071,8 +10071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10385,6 +10385,13 @@
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
+      <c r="F24" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G24" s="10">
+        <f>'Monte-Carlo'!I2-'Monte-Carlo'!I5</f>
+        <v>14.180517665716144</v>
+      </c>
       <c r="Q24" s="5"/>
       <c r="R24" s="4"/>
       <c r="X24" s="5"/>
@@ -10397,6 +10404,13 @@
       <c r="D25" s="10">
         <f>D23/2</f>
         <v>3.5356249999995981E-3</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G25" s="10">
+        <f>'Monte-Carlo'!I4-'Monte-Carlo'!I2</f>
+        <v>30.453257403387408</v>
       </c>
       <c r="Q25" s="5"/>
       <c r="R25" s="4"/>
@@ -10630,9 +10644,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ADCF979-8E9B-4297-ACF4-8361D98B7E9B}">
-  <dimension ref="A1:S223"/>
+  <dimension ref="A1:Q223"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
@@ -10645,7 +10659,7 @@
     <col min="14" max="17" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -10664,15 +10678,14 @@
       <c r="O1" t="s">
         <v>30</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="P1" t="s">
         <v>30</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="Q1" t="s">
         <v>30</v>
       </c>
-      <c r="S1" s="18"/>
-    </row>
-    <row r="2" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <v>35.911845</v>
       </c>
@@ -10681,67 +10694,65 @@
         <v>3.5810671853642795</v>
       </c>
       <c r="C2">
-        <f>_xlfn.LOGNORM.DIST(A2,$G$2,$G$3,FALSE)</f>
+        <f t="shared" ref="C2:C65" si="0">_xlfn.LOGNORM.DIST(A2,$G$2,$G$3,FALSE)</f>
         <v>2.1250756941957744E-2</v>
       </c>
       <c r="D2">
-        <f>_xlfn.LOGNORM.DIST(A2,$G$2,$G$3,TRUE)</f>
+        <f t="shared" ref="D2:D65" si="1">_xlfn.LOGNORM.DIST(A2,$G$2,$G$3,TRUE)</f>
         <v>0.78568553481319203</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="16">
+      <c r="G2">
         <f>AVERAGE(B$2:B$1048576)</f>
         <v>3.2785706920586115</v>
       </c>
       <c r="H2" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="16">
+      <c r="I2">
         <f>EXP(G2)</f>
         <v>26.537814870081345</v>
       </c>
-      <c r="M2" s="18"/>
-      <c r="N2" s="17" t="s">
+      <c r="N2" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="17"/>
+      <c r="O2" s="16"/>
       <c r="P2" s="12" t="s">
         <v>32</v>
       </c>
       <c r="Q2" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="S2" s="18"/>
-    </row>
-    <row r="3" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>33.538131</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B66" si="0">LN(A3)</f>
+        <f t="shared" ref="B3:B66" si="2">LN(A3)</f>
         <v>3.5126830303343448</v>
       </c>
       <c r="C3">
-        <f>_xlfn.LOGNORM.DIST(A3,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>2.5800793019603547E-2</v>
       </c>
       <c r="D3">
-        <f>_xlfn.LOGNORM.DIST(A3,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="1"/>
         <v>0.72992949858748146</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G3">
         <f>_xlfn.STDEV.S(B$2:B$1048576)</f>
         <v>0.38216196836371663</v>
       </c>
       <c r="H3" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="16">
+      <c r="I3">
         <f>EXP(G3)</f>
         <v>1.4654494223569288</v>
       </c>
@@ -10750,36 +10761,36 @@
         <v>1</v>
       </c>
       <c r="N3">
-        <f>_xlfn.LOGNORM.DIST(M3,$G$2,$G$3,FALSE)</f>
+        <f t="shared" ref="N3:N34" si="3">_xlfn.LOGNORM.DIST(M3,$G$2,$G$3,FALSE)</f>
         <v>1.08832754299644E-16</v>
       </c>
       <c r="O3">
-        <f>_xlfn.LOGNORM.DIST(M3,$G$2,$G$3,TRUE)</f>
+        <f t="shared" ref="O3:O34" si="4">_xlfn.LOGNORM.DIST(M3,$G$2,$G$3,TRUE)</f>
         <v>4.7847293081544142E-18</v>
       </c>
       <c r="P3">
-        <f>_xlfn.LOGNORM.DIST(M3,$G$4,$G$3,TRUE)</f>
+        <f t="shared" ref="P3:P34" si="5">_xlfn.LOGNORM.DIST(M3,$G$4,$G$3,TRUE)</f>
         <v>1.8644201128658708E-26</v>
       </c>
       <c r="Q3">
-        <f>_xlfn.LOGNORM.DIST(M3,$G$5,$G$3,TRUE)</f>
+        <f t="shared" ref="Q3:Q34" si="6">_xlfn.LOGNORM.DIST(M3,$G$5,$G$3,TRUE)</f>
         <v>2.3679819592453895E-11</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>45.409543999999997</v>
       </c>
       <c r="B4">
+        <f t="shared" si="2"/>
+        <v>3.8157223032184358</v>
+      </c>
+      <c r="C4">
         <f t="shared" si="0"/>
-        <v>3.8157223032184358</v>
-      </c>
-      <c r="C4">
-        <f>_xlfn.LOGNORM.DIST(A4,$G$2,$G$3,FALSE)</f>
         <v>8.560902498485741E-3</v>
       </c>
       <c r="D4">
-        <f>_xlfn.LOGNORM.DIST(A4,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="1"/>
         <v>0.92007260314073447</v>
       </c>
       <c r="F4" t="s">
@@ -10792,45 +10803,45 @@
       <c r="H4" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4">
         <f>EXP(G2+2*G3)</f>
         <v>56.991072273468752</v>
       </c>
       <c r="M4">
-        <f t="shared" ref="M4:M67" si="1">M3+1</f>
+        <f t="shared" ref="M4:M67" si="7">M3+1</f>
         <v>2</v>
       </c>
       <c r="N4">
-        <f>_xlfn.LOGNORM.DIST(M4,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>6.0129613688200925E-11</v>
       </c>
       <c r="O4">
-        <f>_xlfn.LOGNORM.DIST(M4,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>6.6536889547391095E-12</v>
       </c>
       <c r="P4">
-        <f>_xlfn.LOGNORM.DIST(M4,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="5"/>
         <v>9.3176441015785343E-19</v>
       </c>
       <c r="Q4">
-        <f>_xlfn.LOGNORM.DIST(M4,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>9.4307057038806835E-7</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>31.181342000000001</v>
       </c>
       <c r="B5">
+        <f t="shared" si="2"/>
+        <v>3.4398199031139383</v>
+      </c>
+      <c r="C5">
         <f t="shared" si="0"/>
-        <v>3.4398199031139383</v>
-      </c>
-      <c r="C5">
-        <f>_xlfn.LOGNORM.DIST(A5,$G$2,$G$3,FALSE)</f>
         <v>3.0627281127019693E-2</v>
       </c>
       <c r="D5">
-        <f>_xlfn.LOGNORM.DIST(A5,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="1"/>
         <v>0.66346539325171217</v>
       </c>
       <c r="F5" t="s">
@@ -10843,435 +10854,435 @@
       <c r="H5" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="16">
+      <c r="I5">
         <f>EXP(G2-2*G3)</f>
         <v>12.357297204365201</v>
       </c>
       <c r="M5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="N5">
-        <f>_xlfn.LOGNORM.DIST(M5,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>2.9911039406812426E-8</v>
       </c>
       <c r="O5">
-        <f>_xlfn.LOGNORM.DIST(M5,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>5.8418364220770951E-9</v>
       </c>
       <c r="P5">
-        <f>_xlfn.LOGNORM.DIST(M5,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="5"/>
         <v>6.5792159476610041E-15</v>
       </c>
       <c r="Q5">
-        <f>_xlfn.LOGNORM.DIST(M5,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>1.0599651277505948E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>22.235628999999999</v>
       </c>
       <c r="B6">
+        <f t="shared" si="2"/>
+        <v>3.1016959122965191</v>
+      </c>
+      <c r="C6">
         <f t="shared" si="0"/>
-        <v>3.1016959122965191</v>
-      </c>
-      <c r="C6">
-        <f>_xlfn.LOGNORM.DIST(A6,$G$2,$G$3,FALSE)</f>
         <v>4.2179203645599163E-2</v>
       </c>
       <c r="D6">
-        <f>_xlfn.LOGNORM.DIST(A6,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="1"/>
         <v>0.32174427966259084</v>
       </c>
       <c r="M6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="N6">
-        <f>_xlfn.LOGNORM.DIST(M6,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>1.2379971556573791E-6</v>
       </c>
       <c r="O6">
-        <f>_xlfn.LOGNORM.DIST(M6,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>3.6821144039814272E-7</v>
       </c>
       <c r="P6">
-        <f>_xlfn.LOGNORM.DIST(M6,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="5"/>
         <v>1.8070669787654727E-12</v>
       </c>
       <c r="Q6">
-        <f>_xlfn.LOGNORM.DIST(M6,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>1.5811547171639634E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>33.052174000000001</v>
       </c>
       <c r="B7">
+        <f t="shared" si="2"/>
+        <v>3.4980873432568855</v>
+      </c>
+      <c r="C7">
         <f t="shared" si="0"/>
-        <v>3.4980873432568855</v>
-      </c>
-      <c r="C7">
-        <f>_xlfn.LOGNORM.DIST(A7,$G$2,$G$3,FALSE)</f>
         <v>2.6780345682060579E-2</v>
       </c>
       <c r="D7">
-        <f>_xlfn.LOGNORM.DIST(A7,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="1"/>
         <v>0.71715391662570138</v>
       </c>
       <c r="M7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="N7">
-        <f>_xlfn.LOGNORM.DIST(M7,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>1.5045143231855581E-5</v>
       </c>
       <c r="O7">
-        <f>_xlfn.LOGNORM.DIST(M7,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>6.2808012963138017E-6</v>
       </c>
       <c r="P7">
-        <f>_xlfn.LOGNORM.DIST(M7,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="5"/>
         <v>9.6000884592646421E-11</v>
       </c>
       <c r="Q7">
-        <f>_xlfn.LOGNORM.DIST(M7,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>8.9518033028666722E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>20.153106000000001</v>
       </c>
       <c r="B8">
+        <f t="shared" si="2"/>
+        <v>3.003358420434334</v>
+      </c>
+      <c r="C8">
         <f t="shared" si="0"/>
-        <v>3.003358420434334</v>
-      </c>
-      <c r="C8">
-        <f>_xlfn.LOGNORM.DIST(A8,$G$2,$G$3,FALSE)</f>
         <v>3.9967403929301031E-2</v>
       </c>
       <c r="D8">
-        <f>_xlfn.LOGNORM.DIST(A8,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="1"/>
         <v>0.23571766762587726</v>
       </c>
       <c r="M8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="N8">
-        <f>_xlfn.LOGNORM.DIST(M8,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>8.9893489784470185E-5</v>
       </c>
       <c r="O8">
-        <f>_xlfn.LOGNORM.DIST(M8,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>5.001349879769424E-5</v>
       </c>
       <c r="P8">
-        <f>_xlfn.LOGNORM.DIST(M8,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="5"/>
         <v>1.9248369391442475E-9</v>
       </c>
       <c r="Q8">
-        <f>_xlfn.LOGNORM.DIST(M8,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>2.934379733272861E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>24.885192</v>
       </c>
       <c r="B9">
+        <f t="shared" si="2"/>
+        <v>3.2142729277720132</v>
+      </c>
+      <c r="C9">
         <f t="shared" si="0"/>
-        <v>3.2142729277720132</v>
-      </c>
-      <c r="C9">
-        <f>_xlfn.LOGNORM.DIST(A9,$G$2,$G$3,FALSE)</f>
         <v>4.1359451997080798E-2</v>
       </c>
       <c r="D9">
-        <f>_xlfn.LOGNORM.DIST(A9,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="1"/>
         <v>0.4331943193642171</v>
       </c>
       <c r="M9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="N9">
-        <f>_xlfn.LOGNORM.DIST(M9,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>3.4118491566606502E-4</v>
       </c>
       <c r="O9">
-        <f>_xlfn.LOGNORM.DIST(M9,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>2.4408813771886666E-4</v>
       </c>
       <c r="P9">
-        <f>_xlfn.LOGNORM.DIST(M9,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="5"/>
         <v>2.0422172066298494E-8</v>
       </c>
       <c r="Q9">
-        <f>_xlfn.LOGNORM.DIST(M9,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>6.8486066984195543E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>11.398958</v>
       </c>
       <c r="B10">
+        <f t="shared" si="2"/>
+        <v>2.4335219477141226</v>
+      </c>
+      <c r="C10">
         <f t="shared" si="0"/>
-        <v>2.4335219477141226</v>
-      </c>
-      <c r="C10">
-        <f>_xlfn.LOGNORM.DIST(A10,$G$2,$G$3,FALSE)</f>
         <v>7.9441217120480422E-3</v>
       </c>
       <c r="D10">
-        <f>_xlfn.LOGNORM.DIST(A10,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="1"/>
         <v>1.3509890399731349E-2</v>
       </c>
       <c r="M10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="N10">
-        <f>_xlfn.LOGNORM.DIST(M10,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>9.4984626630111111E-4</v>
       </c>
       <c r="O10">
-        <f>_xlfn.LOGNORM.DIST(M10,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>8.5124679401994111E-4</v>
       </c>
       <c r="P10">
-        <f>_xlfn.LOGNORM.DIST(M10,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="5"/>
         <v>1.3902287865250688E-7</v>
       </c>
       <c r="Q10">
-        <f>_xlfn.LOGNORM.DIST(M10,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>0.12761220705676204</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>46.799703000000001</v>
       </c>
       <c r="B11">
+        <f t="shared" si="2"/>
+        <v>3.845876856749618</v>
+      </c>
+      <c r="C11">
         <f t="shared" si="0"/>
-        <v>3.845876856749618</v>
-      </c>
-      <c r="C11">
-        <f>_xlfn.LOGNORM.DIST(A11,$G$2,$G$3,FALSE)</f>
         <v>7.4114944436126798E-3</v>
       </c>
       <c r="D11">
-        <f>_xlfn.LOGNORM.DIST(A11,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="1"/>
         <v>0.93115723321701505</v>
       </c>
       <c r="M11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="N11">
-        <f>_xlfn.LOGNORM.DIST(M11,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>2.1176953976306963E-3</v>
       </c>
       <c r="O11">
-        <f>_xlfn.LOGNORM.DIST(M11,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>2.3306811807348514E-3</v>
       </c>
       <c r="P11">
-        <f>_xlfn.LOGNORM.DIST(M11,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="5"/>
         <v>6.8421229728262809E-7</v>
       </c>
       <c r="Q11">
-        <f>_xlfn.LOGNORM.DIST(M11,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>0.20339683741806869</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>12.239124</v>
       </c>
       <c r="B12">
+        <f t="shared" si="2"/>
+        <v>2.5046377058955724</v>
+      </c>
+      <c r="C12">
         <f t="shared" si="0"/>
-        <v>2.5046377058955724</v>
-      </c>
-      <c r="C12">
-        <f>_xlfn.LOGNORM.DIST(A12,$G$2,$G$3,FALSE)</f>
         <v>1.0973528292218031E-2</v>
       </c>
       <c r="D12">
-        <f>_xlfn.LOGNORM.DIST(A12,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="1"/>
         <v>2.1426294156634881E-2</v>
       </c>
       <c r="M12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="N12">
-        <f>_xlfn.LOGNORM.DIST(M12,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>4.0030601509277374E-3</v>
       </c>
       <c r="O12">
-        <f>_xlfn.LOGNORM.DIST(M12,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>5.3269068476991107E-3</v>
       </c>
       <c r="P12">
-        <f>_xlfn.LOGNORM.DIST(M12,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="5"/>
         <v>2.6336048537489061E-6</v>
       </c>
       <c r="Q12">
-        <f>_xlfn.LOGNORM.DIST(M12,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>0.28983962826447107</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>35.601605999999997</v>
       </c>
       <c r="B13">
+        <f t="shared" si="2"/>
+        <v>3.5723907492000033</v>
+      </c>
+      <c r="C13">
         <f t="shared" si="0"/>
-        <v>3.5723907492000033</v>
-      </c>
-      <c r="C13">
-        <f>_xlfn.LOGNORM.DIST(A13,$G$2,$G$3,FALSE)</f>
         <v>2.1819018555066225E-2</v>
       </c>
       <c r="D13">
-        <f>_xlfn.LOGNORM.DIST(A13,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="1"/>
         <v>0.77900480097439284</v>
       </c>
       <c r="M13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
       <c r="N13">
-        <f>_xlfn.LOGNORM.DIST(M13,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>6.6696916881522341E-3</v>
       </c>
       <c r="O13">
-        <f>_xlfn.LOGNORM.DIST(M13,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>1.0598531373350173E-2</v>
       </c>
       <c r="P13">
-        <f>_xlfn.LOGNORM.DIST(M13,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="5"/>
         <v>8.3698299625455103E-6</v>
       </c>
       <c r="Q13">
-        <f>_xlfn.LOGNORM.DIST(M13,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>0.38039027637379708</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>48.155290000000001</v>
       </c>
       <c r="B14">
+        <f t="shared" si="2"/>
+        <v>3.8744309972146089</v>
+      </c>
+      <c r="C14">
         <f t="shared" si="0"/>
-        <v>3.8744309972146089</v>
-      </c>
-      <c r="C14">
-        <f>_xlfn.LOGNORM.DIST(A14,$G$2,$G$3,FALSE)</f>
         <v>6.4286930657635015E-3</v>
       </c>
       <c r="D14">
-        <f>_xlfn.LOGNORM.DIST(A14,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="1"/>
         <v>0.94052342028063685</v>
       </c>
       <c r="M14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="N14">
-        <f>_xlfn.LOGNORM.DIST(M14,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>1.0067633938429002E-2</v>
       </c>
       <c r="O14">
-        <f>_xlfn.LOGNORM.DIST(M14,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>1.8911211179885264E-2</v>
       </c>
       <c r="P14">
-        <f>_xlfn.LOGNORM.DIST(M14,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="5"/>
         <v>2.2832418119194843E-5</v>
       </c>
       <c r="Q14">
-        <f>_xlfn.LOGNORM.DIST(M14,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>0.46940166464541933</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>36.350883000000003</v>
       </c>
       <c r="B15">
+        <f t="shared" si="2"/>
+        <v>3.5932184952938457</v>
+      </c>
+      <c r="C15">
         <f t="shared" si="0"/>
-        <v>3.5932184952938457</v>
-      </c>
-      <c r="C15">
-        <f>_xlfn.LOGNORM.DIST(A15,$G$2,$G$3,FALSE)</f>
         <v>2.0461963356865499E-2</v>
       </c>
       <c r="D15">
-        <f>_xlfn.LOGNORM.DIST(A15,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="1"/>
         <v>0.79484159859216486</v>
       </c>
       <c r="M15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>13</v>
       </c>
       <c r="N15">
-        <f>_xlfn.LOGNORM.DIST(M15,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>1.4045797188500455E-2</v>
       </c>
       <c r="O15">
-        <f>_xlfn.LOGNORM.DIST(M15,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>3.092797355818919E-2</v>
       </c>
       <c r="P15">
-        <f>_xlfn.LOGNORM.DIST(M15,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="5"/>
         <v>5.5017434397250313E-5</v>
       </c>
       <c r="Q15">
-        <f>_xlfn.LOGNORM.DIST(M15,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>0.55277402977965084</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>34.882855999999997</v>
       </c>
       <c r="B16">
+        <f t="shared" si="2"/>
+        <v>3.5519954764226793</v>
+      </c>
+      <c r="C16">
         <f t="shared" si="0"/>
-        <v>3.5519954764226793</v>
-      </c>
-      <c r="C16">
-        <f>_xlfn.LOGNORM.DIST(A16,$G$2,$G$3,FALSE)</f>
         <v>2.3168290726948051E-2</v>
       </c>
       <c r="D16">
-        <f>_xlfn.LOGNORM.DIST(A16,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="1"/>
         <v>0.76284014752064699</v>
       </c>
       <c r="M16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
       <c r="N16">
-        <f>_xlfn.LOGNORM.DIST(M16,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>1.8384739804570345E-2</v>
       </c>
       <c r="O16">
-        <f>_xlfn.LOGNORM.DIST(M16,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>4.7123381744282898E-2</v>
       </c>
       <c r="P16">
-        <f>_xlfn.LOGNORM.DIST(M16,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="5"/>
         <v>1.1966786357339699E-4</v>
       </c>
       <c r="Q16">
-        <f>_xlfn.LOGNORM.DIST(M16,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>0.62801128997362543</v>
       </c>
     </row>
@@ -11280,35 +11291,35 @@
         <v>20.845967000000002</v>
       </c>
       <c r="B17">
+        <f t="shared" si="2"/>
+        <v>3.0371605002783646</v>
+      </c>
+      <c r="C17">
         <f t="shared" si="0"/>
-        <v>3.0371605002783646</v>
-      </c>
-      <c r="C17">
-        <f>_xlfn.LOGNORM.DIST(A17,$G$2,$G$3,FALSE)</f>
         <v>4.1019480101352333E-2</v>
       </c>
       <c r="D17">
-        <f>_xlfn.LOGNORM.DIST(A17,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="1"/>
         <v>0.2637927668662372</v>
       </c>
       <c r="M17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="N17">
-        <f>_xlfn.LOGNORM.DIST(M17,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>2.2835987547982259E-2</v>
       </c>
       <c r="O17">
-        <f>_xlfn.LOGNORM.DIST(M17,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>6.7734803611443947E-2</v>
       </c>
       <c r="P17">
-        <f>_xlfn.LOGNORM.DIST(M17,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="5"/>
         <v>2.3892403132445061E-4</v>
       </c>
       <c r="Q17">
-        <f>_xlfn.LOGNORM.DIST(M17,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>0.69396603652483868</v>
       </c>
     </row>
@@ -11317,35 +11328,35 @@
         <v>21.578142</v>
       </c>
       <c r="B18">
+        <f t="shared" si="2"/>
+        <v>3.0716808578842123</v>
+      </c>
+      <c r="C18">
         <f t="shared" si="0"/>
-        <v>3.0716808578842123</v>
-      </c>
-      <c r="C18">
-        <f>_xlfn.LOGNORM.DIST(A18,$G$2,$G$3,FALSE)</f>
         <v>4.1783753652606045E-2</v>
       </c>
       <c r="D18">
-        <f>_xlfn.LOGNORM.DIST(A18,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="1"/>
         <v>0.29412736389703253</v>
       </c>
       <c r="M18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>16</v>
       </c>
       <c r="N18">
-        <f>_xlfn.LOGNORM.DIST(M18,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>2.7157477774867426E-2</v>
       </c>
       <c r="O18">
-        <f>_xlfn.LOGNORM.DIST(M18,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>9.2751729315998899E-2</v>
       </c>
       <c r="P18">
-        <f>_xlfn.LOGNORM.DIST(M18,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="5"/>
         <v>4.436829623930326E-4</v>
       </c>
       <c r="Q18">
-        <f>_xlfn.LOGNORM.DIST(M18,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>0.75048007311777198</v>
       </c>
     </row>
@@ -11354,35 +11365,35 @@
         <v>19.546772000000001</v>
       </c>
       <c r="B19">
+        <f t="shared" si="2"/>
+        <v>2.9728101577088637</v>
+      </c>
+      <c r="C19">
         <f t="shared" si="0"/>
-        <v>2.9728101577088637</v>
-      </c>
-      <c r="C19">
-        <f>_xlfn.LOGNORM.DIST(A19,$G$2,$G$3,FALSE)</f>
         <v>3.8777979023524194E-2</v>
       </c>
       <c r="D19">
-        <f>_xlfn.LOGNORM.DIST(A19,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="1"/>
         <v>0.21183193088715244</v>
       </c>
       <c r="M19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>17</v>
       </c>
       <c r="N19">
-        <f>_xlfn.LOGNORM.DIST(M19,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>3.1139556164100794E-2</v>
       </c>
       <c r="O19">
-        <f>_xlfn.LOGNORM.DIST(M19,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>0.12193608083840611</v>
       </c>
       <c r="P19">
-        <f>_xlfn.LOGNORM.DIST(M19,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="5"/>
         <v>7.7444840307856137E-4</v>
       </c>
       <c r="Q19">
-        <f>_xlfn.LOGNORM.DIST(M19,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>0.79803899001914591</v>
       </c>
     </row>
@@ -11391,35 +11402,35 @@
         <v>18.059199</v>
       </c>
       <c r="B20">
+        <f t="shared" si="2"/>
+        <v>2.8936551948457847</v>
+      </c>
+      <c r="C20">
         <f t="shared" si="0"/>
-        <v>2.8936551948457847</v>
-      </c>
-      <c r="C20">
-        <f>_xlfn.LOGNORM.DIST(A20,$G$2,$G$3,FALSE)</f>
         <v>3.4807790181116204E-2</v>
       </c>
       <c r="D20">
-        <f>_xlfn.LOGNORM.DIST(A20,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="1"/>
         <v>0.15691810279851415</v>
       </c>
       <c r="M20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="N20">
-        <f>_xlfn.LOGNORM.DIST(M20,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>3.4620088255219172E-2</v>
       </c>
       <c r="O20">
-        <f>_xlfn.LOGNORM.DIST(M20,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>0.15486306163568089</v>
       </c>
       <c r="P20">
-        <f>_xlfn.LOGNORM.DIST(M20,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="5"/>
         <v>1.2815244715061326E-3</v>
       </c>
       <c r="Q20">
-        <f>_xlfn.LOGNORM.DIST(M20,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>0.83749217458547121</v>
       </c>
     </row>
@@ -11428,35 +11439,35 @@
         <v>32.984647000000002</v>
       </c>
       <c r="B21">
+        <f t="shared" si="2"/>
+        <v>3.4960422107834024</v>
+      </c>
+      <c r="C21">
         <f t="shared" si="0"/>
-        <v>3.4960422107834024</v>
-      </c>
-      <c r="C21">
-        <f>_xlfn.LOGNORM.DIST(A21,$G$2,$G$3,FALSE)</f>
         <v>2.6917401995106324E-2</v>
       </c>
       <c r="D21">
-        <f>_xlfn.LOGNORM.DIST(A21,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="1"/>
         <v>0.71534089390951694</v>
       </c>
       <c r="M21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>19</v>
       </c>
       <c r="N21">
-        <f>_xlfn.LOGNORM.DIST(M21,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>3.7489883129430149E-2</v>
       </c>
       <c r="O21">
-        <f>_xlfn.LOGNORM.DIST(M21,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>0.19097210450040852</v>
       </c>
       <c r="P21">
-        <f>_xlfn.LOGNORM.DIST(M21,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="5"/>
         <v>2.0244948035289391E-3</v>
       </c>
       <c r="Q21">
-        <f>_xlfn.LOGNORM.DIST(M21,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>0.8698495810403164</v>
       </c>
     </row>
@@ -11465,35 +11476,35 @@
         <v>18.109113000000001</v>
       </c>
       <c r="B22">
+        <f t="shared" si="2"/>
+        <v>2.8964152922309014</v>
+      </c>
+      <c r="C22">
         <f t="shared" si="0"/>
-        <v>2.8964152922309014</v>
-      </c>
-      <c r="C22">
-        <f>_xlfn.LOGNORM.DIST(A22,$G$2,$G$3,FALSE)</f>
         <v>3.4964365019066128E-2</v>
       </c>
       <c r="D22">
-        <f>_xlfn.LOGNORM.DIST(A22,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="1"/>
         <v>0.15865941291954908</v>
       </c>
       <c r="M22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="N22">
-        <f>_xlfn.LOGNORM.DIST(M22,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>3.969084501668272E-2</v>
       </c>
       <c r="O22">
-        <f>_xlfn.LOGNORM.DIST(M22,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>0.22961938492159187</v>
       </c>
       <c r="P22">
-        <f>_xlfn.LOGNORM.DIST(M22,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="5"/>
         <v>3.0710162298455902E-3</v>
       </c>
       <c r="Q22">
-        <f>_xlfn.LOGNORM.DIST(M22,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>0.89614711743457309</v>
       </c>
     </row>
@@ -11502,35 +11513,35 @@
         <v>23.277153999999999</v>
       </c>
       <c r="B23">
+        <f t="shared" si="2"/>
+        <v>3.1474723645308851</v>
+      </c>
+      <c r="C23">
         <f t="shared" si="0"/>
-        <v>3.1474723645308851</v>
-      </c>
-      <c r="C23">
-        <f>_xlfn.LOGNORM.DIST(A23,$G$2,$G$3,FALSE)</f>
         <v>4.2284288463725277E-2</v>
       </c>
       <c r="D23">
-        <f>_xlfn.LOGNORM.DIST(A23,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="1"/>
         <v>0.36578272160694791</v>
       </c>
       <c r="M23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>21</v>
       </c>
       <c r="N23">
-        <f>_xlfn.LOGNORM.DIST(M23,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>4.1209488480949595E-2</v>
       </c>
       <c r="O23">
-        <f>_xlfn.LOGNORM.DIST(M23,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>0.270125956759252</v>
       </c>
       <c r="P23">
-        <f>_xlfn.LOGNORM.DIST(M23,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="5"/>
         <v>4.4950275020058548E-3</v>
       </c>
       <c r="Q23">
-        <f>_xlfn.LOGNORM.DIST(M23,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>0.91736567010950509</v>
       </c>
     </row>
@@ -11539,35 +11550,35 @@
         <v>28.887646</v>
       </c>
       <c r="B24">
+        <f t="shared" si="2"/>
+        <v>3.363414029676866</v>
+      </c>
+      <c r="C24">
         <f t="shared" si="0"/>
-        <v>3.363414029676866</v>
-      </c>
-      <c r="C24">
-        <f>_xlfn.LOGNORM.DIST(A24,$G$2,$G$3,FALSE)</f>
         <v>3.5257191107938166E-2</v>
       </c>
       <c r="D24">
-        <f>_xlfn.LOGNORM.DIST(A24,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="1"/>
         <v>0.5878465015118024</v>
       </c>
       <c r="M24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>22</v>
       </c>
       <c r="N24">
-        <f>_xlfn.LOGNORM.DIST(M24,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>4.2068113698548654E-2</v>
       </c>
       <c r="O24">
-        <f>_xlfn.LOGNORM.DIST(M24,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>0.31181806380670601</v>
       </c>
       <c r="P24">
-        <f>_xlfn.LOGNORM.DIST(M24,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="5"/>
         <v>6.3745220489258014E-3</v>
       </c>
       <c r="Q24">
-        <f>_xlfn.LOGNORM.DIST(M24,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>0.93438847785079504</v>
       </c>
     </row>
@@ -11576,35 +11587,35 @@
         <v>21.621769</v>
       </c>
       <c r="B25">
+        <f t="shared" si="2"/>
+        <v>3.0737006312504724</v>
+      </c>
+      <c r="C25">
         <f t="shared" si="0"/>
-        <v>3.0737006312504724</v>
-      </c>
-      <c r="C25">
-        <f>_xlfn.LOGNORM.DIST(A25,$G$2,$G$3,FALSE)</f>
         <v>4.1818341988064167E-2</v>
       </c>
       <c r="D25">
-        <f>_xlfn.LOGNORM.DIST(A25,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="1"/>
         <v>0.29595102260516959</v>
       </c>
       <c r="M25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>23</v>
       </c>
       <c r="N25">
-        <f>_xlfn.LOGNORM.DIST(M25,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>4.2315374062665924E-2</v>
       </c>
       <c r="O25">
-        <f>_xlfn.LOGNORM.DIST(M25,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>0.35405820349527023</v>
       </c>
       <c r="P25">
-        <f>_xlfn.LOGNORM.DIST(M25,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="5"/>
         <v>8.789057678510695E-3</v>
       </c>
       <c r="Q25">
-        <f>_xlfn.LOGNORM.DIST(M25,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>0.94798399510902021</v>
       </c>
     </row>
@@ -11613,35 +11624,35 @@
         <v>22.250857</v>
       </c>
       <c r="B26">
+        <f t="shared" si="2"/>
+        <v>3.1023805247244267</v>
+      </c>
+      <c r="C26">
         <f t="shared" si="0"/>
-        <v>3.1023805247244267</v>
-      </c>
-      <c r="C26">
-        <f>_xlfn.LOGNORM.DIST(A26,$G$2,$G$3,FALSE)</f>
         <v>4.2185231478853523E-2</v>
       </c>
       <c r="D26">
-        <f>_xlfn.LOGNORM.DIST(A26,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="1"/>
         <v>0.32238663064755724</v>
       </c>
       <c r="M26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>24</v>
       </c>
       <c r="N26">
-        <f>_xlfn.LOGNORM.DIST(M26,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>4.2017386094536618E-2</v>
       </c>
       <c r="O26">
-        <f>_xlfn.LOGNORM.DIST(M26,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>0.39626695594220523</v>
       </c>
       <c r="P26">
-        <f>_xlfn.LOGNORM.DIST(M26,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="5"/>
         <v>1.1817178149628642E-2</v>
       </c>
       <c r="Q26">
-        <f>_xlfn.LOGNORM.DIST(M26,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>0.95880450606237755</v>
       </c>
     </row>
@@ -11650,35 +11661,35 @@
         <v>31.348423</v>
       </c>
       <c r="B27">
+        <f t="shared" si="2"/>
+        <v>3.4451639627833868</v>
+      </c>
+      <c r="C27">
         <f t="shared" si="0"/>
-        <v>3.4451639627833868</v>
-      </c>
-      <c r="C27">
-        <f>_xlfn.LOGNORM.DIST(A27,$G$2,$G$3,FALSE)</f>
         <v>3.0281865082728003E-2</v>
       </c>
       <c r="D27">
-        <f>_xlfn.LOGNORM.DIST(A27,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="1"/>
         <v>0.6685537764476851</v>
       </c>
       <c r="M27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="N27">
-        <f>_xlfn.LOGNORM.DIST(M27,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>4.1250035892732746E-2</v>
       </c>
       <c r="O27">
-        <f>_xlfn.LOGNORM.DIST(M27,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>0.43793648414283443</v>
       </c>
       <c r="P27">
-        <f>_xlfn.LOGNORM.DIST(M27,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="5"/>
         <v>1.5533906531255647E-2</v>
       </c>
       <c r="Q27">
-        <f>_xlfn.LOGNORM.DIST(M27,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>0.96739363089726726</v>
       </c>
     </row>
@@ -11687,35 +11698,35 @@
         <v>44.480060999999999</v>
       </c>
       <c r="B28">
+        <f t="shared" si="2"/>
+        <v>3.7950410213442645</v>
+      </c>
+      <c r="C28">
         <f t="shared" si="0"/>
-        <v>3.7950410213442645</v>
-      </c>
-      <c r="C28">
-        <f>_xlfn.LOGNORM.DIST(A28,$G$2,$G$3,FALSE)</f>
         <v>9.4167182042531467E-3</v>
       </c>
       <c r="D28">
-        <f>_xlfn.LOGNORM.DIST(A28,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="1"/>
         <v>0.91172330526082801</v>
       </c>
       <c r="M28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="N28">
-        <f>_xlfn.LOGNORM.DIST(M28,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>4.009276327389117E-2</v>
       </c>
       <c r="O28">
-        <f>_xlfn.LOGNORM.DIST(M28,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>0.47863706827692654</v>
       </c>
       <c r="P28">
-        <f>_xlfn.LOGNORM.DIST(M28,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="5"/>
         <v>2.0008443911599973E-2</v>
       </c>
       <c r="Q28">
-        <f>_xlfn.LOGNORM.DIST(M28,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>0.97419817274750775</v>
       </c>
     </row>
@@ -11724,35 +11735,35 @@
         <v>32.495100000000001</v>
       </c>
       <c r="B29">
+        <f t="shared" si="2"/>
+        <v>3.4810893087380994</v>
+      </c>
+      <c r="C29">
         <f t="shared" si="0"/>
-        <v>3.4810893087380994</v>
-      </c>
-      <c r="C29">
-        <f>_xlfn.LOGNORM.DIST(A29,$G$2,$G$3,FALSE)</f>
         <v>2.7916724476612077E-2</v>
       </c>
       <c r="D29">
-        <f>_xlfn.LOGNORM.DIST(A29,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="1"/>
         <v>0.70191933631969139</v>
       </c>
       <c r="M29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>27</v>
       </c>
       <c r="N29">
-        <f>_xlfn.LOGNORM.DIST(M29,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>3.8623851937870435E-2</v>
       </c>
       <c r="O29">
-        <f>_xlfn.LOGNORM.DIST(M29,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>0.51801818250853815</v>
       </c>
       <c r="P29">
-        <f>_xlfn.LOGNORM.DIST(M29,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="5"/>
         <v>2.5302174701630716E-2</v>
       </c>
       <c r="Q29">
-        <f>_xlfn.LOGNORM.DIST(M29,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>0.97958145465714974</v>
       </c>
     </row>
@@ -11761,35 +11772,35 @@
         <v>17.155498999999999</v>
       </c>
       <c r="B30">
+        <f t="shared" si="2"/>
+        <v>2.8423187636168983</v>
+      </c>
+      <c r="C30">
         <f t="shared" si="0"/>
-        <v>2.8423187636168983</v>
-      </c>
-      <c r="C30">
-        <f>_xlfn.LOGNORM.DIST(A30,$G$2,$G$3,FALSE)</f>
         <v>3.1717090696866825E-2</v>
       </c>
       <c r="D30">
-        <f>_xlfn.LOGNORM.DIST(A30,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="1"/>
         <v>0.12682331551104503</v>
       </c>
       <c r="M30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>28</v>
       </c>
       <c r="N30">
-        <f>_xlfn.LOGNORM.DIST(M30,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>3.6917101304249147E-2</v>
       </c>
       <c r="O30">
-        <f>_xlfn.LOGNORM.DIST(M30,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>0.55580556734160069</v>
       </c>
       <c r="P30">
-        <f>_xlfn.LOGNORM.DIST(M30,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="5"/>
         <v>3.1467045973742586E-2</v>
       </c>
       <c r="Q30">
-        <f>_xlfn.LOGNORM.DIST(M30,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>0.98383647777716543</v>
       </c>
     </row>
@@ -11798,35 +11809,35 @@
         <v>30.904755999999999</v>
       </c>
       <c r="B31">
+        <f t="shared" si="2"/>
+        <v>3.4309100879174745</v>
+      </c>
+      <c r="C31">
         <f t="shared" si="0"/>
-        <v>3.4309100879174745</v>
-      </c>
-      <c r="C31">
-        <f>_xlfn.LOGNORM.DIST(A31,$G$2,$G$3,FALSE)</f>
         <v>3.1198386761460556E-2</v>
       </c>
       <c r="D31">
-        <f>_xlfn.LOGNORM.DIST(A31,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="1"/>
         <v>0.65491530935981723</v>
       </c>
       <c r="M31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>29</v>
       </c>
       <c r="N31">
-        <f>_xlfn.LOGNORM.DIST(M31,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>3.5039677944777012E-2</v>
       </c>
       <c r="O31">
-        <f>_xlfn.LOGNORM.DIST(M31,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>0.59179558216967021</v>
       </c>
       <c r="P31">
-        <f>_xlfn.LOGNORM.DIST(M31,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="5"/>
         <v>3.8544356315933094E-2</v>
       </c>
       <c r="Q31">
-        <f>_xlfn.LOGNORM.DIST(M31,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>0.98719801375502314</v>
       </c>
     </row>
@@ -11835,35 +11846,35 @@
         <v>18.202268</v>
       </c>
       <c r="B32">
+        <f t="shared" si="2"/>
+        <v>2.9015462017035132</v>
+      </c>
+      <c r="C32">
         <f t="shared" si="0"/>
-        <v>2.9015462017035132</v>
-      </c>
-      <c r="C32">
-        <f>_xlfn.LOGNORM.DIST(A32,$G$2,$G$3,FALSE)</f>
         <v>3.5252418576088913E-2</v>
       </c>
       <c r="D32">
-        <f>_xlfn.LOGNORM.DIST(A32,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="1"/>
         <v>0.16192997741222037</v>
       </c>
       <c r="M32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>30</v>
       </c>
       <c r="N32">
-        <f>_xlfn.LOGNORM.DIST(M32,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>3.3050918186023494E-2</v>
       </c>
       <c r="O32">
-        <f>_xlfn.LOGNORM.DIST(M32,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>0.62584790400426416</v>
       </c>
       <c r="P32">
-        <f>_xlfn.LOGNORM.DIST(M32,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="5"/>
         <v>4.6563961743403465E-2</v>
       </c>
       <c r="Q32">
-        <f>_xlfn.LOGNORM.DIST(M32,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>0.98985323746604925</v>
       </c>
     </row>
@@ -11872,35 +11883,35 @@
         <v>25.029136000000001</v>
       </c>
       <c r="B33">
+        <f t="shared" si="2"/>
+        <v>3.2200405862701964</v>
+      </c>
+      <c r="C33">
         <f t="shared" si="0"/>
-        <v>3.2200405862701964</v>
-      </c>
-      <c r="C33">
-        <f>_xlfn.LOGNORM.DIST(A33,$G$2,$G$3,FALSE)</f>
         <v>4.1221446041158356E-2</v>
       </c>
       <c r="D33">
-        <f>_xlfn.LOGNORM.DIST(A33,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="1"/>
         <v>0.43913792949270636</v>
       </c>
       <c r="M33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>31</v>
       </c>
       <c r="N33">
-        <f>_xlfn.LOGNORM.DIST(M33,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>3.100185923148804E-2</v>
       </c>
       <c r="O33">
-        <f>_xlfn.LOGNORM.DIST(M33,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>0.6578774108210903</v>
       </c>
       <c r="P33">
-        <f>_xlfn.LOGNORM.DIST(M33,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="5"/>
         <v>5.5543883467013444E-2</v>
       </c>
       <c r="Q33">
-        <f>_xlfn.LOGNORM.DIST(M33,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>0.99195080125812318</v>
       </c>
     </row>
@@ -11909,35 +11920,35 @@
         <v>22.332485999999999</v>
       </c>
       <c r="B34">
+        <f t="shared" si="2"/>
+        <v>3.1060423897045975</v>
+      </c>
+      <c r="C34">
         <f t="shared" si="0"/>
-        <v>3.1060423897045975</v>
-      </c>
-      <c r="C34">
-        <f>_xlfn.LOGNORM.DIST(A34,$G$2,$G$3,FALSE)</f>
         <v>4.2215187513548372E-2</v>
       </c>
       <c r="D34">
-        <f>_xlfn.LOGNORM.DIST(A34,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="1"/>
         <v>0.32583141850667008</v>
       </c>
       <c r="M34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>32</v>
       </c>
       <c r="N34">
-        <f>_xlfn.LOGNORM.DIST(M34,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>2.893529973478029E-2</v>
       </c>
       <c r="O34">
-        <f>_xlfn.LOGNORM.DIST(M34,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>0.68784587609303238</v>
       </c>
       <c r="P34">
-        <f>_xlfn.LOGNORM.DIST(M34,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="5"/>
         <v>6.5490285152550856E-2</v>
       </c>
       <c r="Q34">
-        <f>_xlfn.LOGNORM.DIST(M34,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>0.99360841630459662</v>
       </c>
     </row>
@@ -11946,35 +11957,35 @@
         <v>14.588493</v>
       </c>
       <c r="B35">
+        <f t="shared" si="2"/>
+        <v>2.6802330672753167</v>
+      </c>
+      <c r="C35">
         <f t="shared" si="0"/>
-        <v>2.6802330672753167</v>
-      </c>
-      <c r="C35">
-        <f>_xlfn.LOGNORM.DIST(A35,$G$2,$G$3,FALSE)</f>
         <v>2.1006690131898226E-2</v>
       </c>
       <c r="D35">
-        <f>_xlfn.LOGNORM.DIST(A35,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="1"/>
         <v>5.8713530068978198E-2</v>
       </c>
       <c r="M35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>33</v>
       </c>
       <c r="N35">
-        <f>_xlfn.LOGNORM.DIST(M35,$G$2,$G$3,FALSE)</f>
+        <f t="shared" ref="N35:N66" si="8">_xlfn.LOGNORM.DIST(M35,$G$2,$G$3,FALSE)</f>
         <v>2.6886222271622507E-2</v>
       </c>
       <c r="O35">
-        <f>_xlfn.LOGNORM.DIST(M35,$G$2,$G$3,TRUE)</f>
+        <f t="shared" ref="O35:O66" si="9">_xlfn.LOGNORM.DIST(M35,$G$2,$G$3,TRUE)</f>
         <v>0.7157539174174351</v>
       </c>
       <c r="P35">
-        <f>_xlfn.LOGNORM.DIST(M35,$G$4,$G$3,TRUE)</f>
+        <f t="shared" ref="P35:P66" si="10">_xlfn.LOGNORM.DIST(M35,$G$4,$G$3,TRUE)</f>
         <v>7.6397775527388342E-2</v>
       </c>
       <c r="Q35">
-        <f>_xlfn.LOGNORM.DIST(M35,$G$5,$G$3,TRUE)</f>
+        <f t="shared" ref="Q35:Q66" si="11">_xlfn.LOGNORM.DIST(M35,$G$5,$G$3,TRUE)</f>
         <v>0.99491908834491105</v>
       </c>
     </row>
@@ -11983,35 +11994,35 @@
         <v>29.950793999999998</v>
       </c>
       <c r="B36">
+        <f t="shared" si="2"/>
+        <v>3.399555835061471</v>
+      </c>
+      <c r="C36">
         <f t="shared" si="0"/>
-        <v>3.399555835061471</v>
-      </c>
-      <c r="C36">
-        <f>_xlfn.LOGNORM.DIST(A36,$G$2,$G$3,FALSE)</f>
         <v>3.3150571869136308E-2</v>
       </c>
       <c r="D36">
-        <f>_xlfn.LOGNORM.DIST(A36,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="1"/>
         <v>0.6242191481411532</v>
       </c>
       <c r="M36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>34</v>
       </c>
       <c r="N36">
-        <f>_xlfn.LOGNORM.DIST(M36,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>2.4882443295025043E-2</v>
       </c>
       <c r="O36">
-        <f>_xlfn.LOGNORM.DIST(M36,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="9"/>
         <v>0.74163349121315858</v>
       </c>
       <c r="P36">
-        <f>_xlfn.LOGNORM.DIST(M36,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="10"/>
         <v>8.8249985245602652E-2</v>
       </c>
       <c r="Q36">
-        <f>_xlfn.LOGNORM.DIST(M36,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="11"/>
         <v>0.99595618658222285</v>
       </c>
     </row>
@@ -12020,35 +12031,35 @@
         <v>17.799004</v>
       </c>
       <c r="B37">
+        <f t="shared" si="2"/>
+        <v>2.8791425006763172</v>
+      </c>
+      <c r="C37">
         <f t="shared" si="0"/>
-        <v>2.8791425006763172</v>
-      </c>
-      <c r="C37">
-        <f>_xlfn.LOGNORM.DIST(A37,$G$2,$G$3,FALSE)</f>
         <v>3.3966814057763667E-2</v>
       </c>
       <c r="D37">
-        <f>_xlfn.LOGNORM.DIST(A37,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="1"/>
         <v>0.1479698047606943</v>
       </c>
       <c r="M37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>35</v>
       </c>
       <c r="N37">
-        <f>_xlfn.LOGNORM.DIST(M37,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>2.2945387232981989E-2</v>
       </c>
       <c r="O37">
-        <f>_xlfn.LOGNORM.DIST(M37,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="9"/>
         <v>0.76554110685644561</v>
       </c>
       <c r="P37">
-        <f>_xlfn.LOGNORM.DIST(M37,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="10"/>
         <v>0.10102036405252267</v>
       </c>
       <c r="Q37">
-        <f>_xlfn.LOGNORM.DIST(M37,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="11"/>
         <v>0.99677752717402224</v>
       </c>
     </row>
@@ -12057,35 +12068,35 @@
         <v>14.732241999999999</v>
       </c>
       <c r="B38">
+        <f t="shared" si="2"/>
+        <v>2.6900384252738569</v>
+      </c>
+      <c r="C38">
         <f t="shared" si="0"/>
-        <v>2.6900384252738569</v>
-      </c>
-      <c r="C38">
-        <f>_xlfn.LOGNORM.DIST(A38,$G$2,$G$3,FALSE)</f>
         <v>2.1647233286593879E-2</v>
       </c>
       <c r="D38">
-        <f>_xlfn.LOGNORM.DIST(A38,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="1"/>
         <v>6.1779272429400484E-2</v>
       </c>
       <c r="M38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>36</v>
       </c>
       <c r="N38">
-        <f>_xlfn.LOGNORM.DIST(M38,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>2.1090908540123111E-2</v>
       </c>
       <c r="O38">
-        <f>_xlfn.LOGNORM.DIST(M38,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="9"/>
         <v>0.78755184422923064</v>
       </c>
       <c r="P38">
-        <f>_xlfn.LOGNORM.DIST(M38,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="10"/>
         <v>0.1146731446648121</v>
       </c>
       <c r="Q38">
-        <f>_xlfn.LOGNORM.DIST(M38,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="11"/>
         <v>0.99742864016916843</v>
       </c>
     </row>
@@ -12094,35 +12105,35 @@
         <v>16.728985000000002</v>
       </c>
       <c r="B39">
+        <f t="shared" si="2"/>
+        <v>2.8171428437021997</v>
+      </c>
+      <c r="C39">
         <f t="shared" si="0"/>
-        <v>2.8171428437021997</v>
-      </c>
-      <c r="C39">
-        <f>_xlfn.LOGNORM.DIST(A39,$G$2,$G$3,FALSE)</f>
         <v>3.0104056896418194E-2</v>
       </c>
       <c r="D39">
-        <f>_xlfn.LOGNORM.DIST(A39,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="1"/>
         <v>0.11363630406253174</v>
       </c>
       <c r="M39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>37</v>
       </c>
       <c r="N39">
-        <f>_xlfn.LOGNORM.DIST(M39,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>1.9330108064560064E-2</v>
       </c>
       <c r="O39">
-        <f>_xlfn.LOGNORM.DIST(M39,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="9"/>
         <v>0.80775419412997729</v>
       </c>
       <c r="P39">
-        <f>_xlfn.LOGNORM.DIST(M39,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="10"/>
         <v>0.12916442258758051</v>
       </c>
       <c r="Q39">
-        <f>_xlfn.LOGNORM.DIST(M39,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="11"/>
         <v>0.99794536922865107</v>
       </c>
     </row>
@@ -12131,35 +12142,35 @@
         <v>10.730276</v>
       </c>
       <c r="B40">
+        <f t="shared" si="2"/>
+        <v>2.3730692785857932</v>
+      </c>
+      <c r="C40">
         <f t="shared" si="0"/>
-        <v>2.3730692785857932</v>
-      </c>
-      <c r="C40">
-        <f>_xlfn.LOGNORM.DIST(A40,$G$2,$G$3,FALSE)</f>
         <v>5.8743041089590201E-3</v>
       </c>
       <c r="D40">
-        <f>_xlfn.LOGNORM.DIST(A40,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="1"/>
         <v>8.90805473175885E-3</v>
       </c>
       <c r="M40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>38</v>
       </c>
       <c r="N40">
-        <f>_xlfn.LOGNORM.DIST(M40,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>1.7670108072040943E-2</v>
       </c>
       <c r="O40">
-        <f>_xlfn.LOGNORM.DIST(M40,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="9"/>
         <v>0.82624569671602144</v>
       </c>
       <c r="P40">
-        <f>_xlfn.LOGNORM.DIST(M40,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="10"/>
         <v>0.14444330558230781</v>
       </c>
       <c r="Q40">
-        <f>_xlfn.LOGNORM.DIST(M40,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="11"/>
         <v>0.99835593189145055</v>
       </c>
     </row>
@@ -12168,35 +12179,35 @@
         <v>23.886614000000002</v>
       </c>
       <c r="B41">
+        <f t="shared" si="2"/>
+        <v>3.1733182183500017</v>
+      </c>
+      <c r="C41">
         <f t="shared" si="0"/>
-        <v>3.1733182183500017</v>
-      </c>
-      <c r="C41">
-        <f>_xlfn.LOGNORM.DIST(A41,$G$2,$G$3,FALSE)</f>
         <v>4.2076233431323308E-2</v>
       </c>
       <c r="D41">
-        <f>_xlfn.LOGNORM.DIST(A41,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="1"/>
         <v>0.39149937877597218</v>
       </c>
       <c r="M41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>39</v>
       </c>
       <c r="N41">
-        <f>_xlfn.LOGNORM.DIST(M41,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>1.6114764102368874E-2</v>
       </c>
       <c r="O41">
-        <f>_xlfn.LOGNORM.DIST(M41,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="9"/>
         <v>0.84312932472722801</v>
       </c>
       <c r="P41">
-        <f>_xlfn.LOGNORM.DIST(M41,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="10"/>
         <v>0.16045309203784519</v>
       </c>
       <c r="Q41">
-        <f>_xlfn.LOGNORM.DIST(M41,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="11"/>
         <v>0.99868254719514316</v>
       </c>
     </row>
@@ -12205,35 +12216,35 @@
         <v>28.099174000000001</v>
       </c>
       <c r="B42">
+        <f t="shared" si="2"/>
+        <v>3.3357401808898643</v>
+      </c>
+      <c r="C42">
         <f t="shared" si="0"/>
-        <v>3.3357401808898643</v>
-      </c>
-      <c r="C42">
-        <f>_xlfn.LOGNORM.DIST(A42,$G$2,$G$3,FALSE)</f>
         <v>3.6737498989101058E-2</v>
       </c>
       <c r="D42">
-        <f>_xlfn.LOGNORM.DIST(A42,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="1"/>
         <v>0.55945789157106229</v>
       </c>
       <c r="M42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>40</v>
       </c>
       <c r="N42">
-        <f>_xlfn.LOGNORM.DIST(M42,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>1.4665302112881425E-2</v>
       </c>
       <c r="O42">
-        <f>_xlfn.LOGNORM.DIST(M42,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="9"/>
         <v>0.85851054182511188</v>
       </c>
       <c r="P42">
-        <f>_xlfn.LOGNORM.DIST(M42,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="10"/>
         <v>0.17713244355570074</v>
       </c>
       <c r="Q42">
-        <f>_xlfn.LOGNORM.DIST(M42,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="11"/>
         <v>0.99894271846639027</v>
       </c>
     </row>
@@ -12242,35 +12253,35 @@
         <v>16.738831999999999</v>
       </c>
       <c r="B43">
+        <f t="shared" si="2"/>
+        <v>2.8177312896282749</v>
+      </c>
+      <c r="C43">
         <f t="shared" si="0"/>
-        <v>2.8177312896282749</v>
-      </c>
-      <c r="C43">
-        <f>_xlfn.LOGNORM.DIST(A43,$G$2,$G$3,FALSE)</f>
         <v>3.0142298955344191E-2</v>
       </c>
       <c r="D43">
-        <f>_xlfn.LOGNORM.DIST(A43,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="1"/>
         <v>0.11393292703280106</v>
       </c>
       <c r="M43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>41</v>
       </c>
       <c r="N43">
-        <f>_xlfn.LOGNORM.DIST(M43,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>1.3320876728085275E-2</v>
       </c>
       <c r="O43">
-        <f>_xlfn.LOGNORM.DIST(M43,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="9"/>
         <v>0.87249495873539629</v>
       </c>
       <c r="P43">
-        <f>_xlfn.LOGNORM.DIST(M43,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="10"/>
         <v>0.19441652322879971</v>
       </c>
       <c r="Q43">
-        <f>_xlfn.LOGNORM.DIST(M43,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="11"/>
         <v>0.9991502425885086</v>
       </c>
     </row>
@@ -12279,35 +12290,35 @@
         <v>27.321501999999999</v>
       </c>
       <c r="B44">
+        <f t="shared" si="2"/>
+        <v>3.3076740112294196</v>
+      </c>
+      <c r="C44">
         <f t="shared" si="0"/>
-        <v>3.3076740112294196</v>
-      </c>
-      <c r="C44">
-        <f>_xlfn.LOGNORM.DIST(A44,$G$2,$G$3,FALSE)</f>
         <v>3.8097693672265259E-2</v>
       </c>
       <c r="D44">
-        <f>_xlfn.LOGNORM.DIST(A44,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="1"/>
         <v>0.5303518735144217</v>
       </c>
       <c r="M44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>42</v>
       </c>
       <c r="N44">
-        <f>_xlfn.LOGNORM.DIST(M44,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>1.2079051468100201E-2</v>
       </c>
       <c r="O44">
-        <f>_xlfn.LOGNORM.DIST(M44,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="9"/>
         <v>0.88518650839690971</v>
       </c>
       <c r="P44">
-        <f>_xlfn.LOGNORM.DIST(M44,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="10"/>
         <v>0.2122380770641239</v>
       </c>
       <c r="Q44">
-        <f>_xlfn.LOGNORM.DIST(M44,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="11"/>
         <v>0.99931600310624724</v>
       </c>
     </row>
@@ -12316,35 +12327,35 @@
         <v>19.020061999999999</v>
       </c>
       <c r="B45">
+        <f t="shared" si="2"/>
+        <v>2.945494316838535</v>
+      </c>
+      <c r="C45">
         <f t="shared" si="0"/>
-        <v>2.945494316838535</v>
-      </c>
-      <c r="C45">
-        <f>_xlfn.LOGNORM.DIST(A45,$G$2,$G$3,FALSE)</f>
         <v>3.7540726756186193E-2</v>
       </c>
       <c r="D45">
-        <f>_xlfn.LOGNORM.DIST(A45,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="1"/>
         <v>0.19172473700096396</v>
       </c>
       <c r="M45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>43</v>
       </c>
       <c r="N45">
-        <f>_xlfn.LOGNORM.DIST(M45,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>1.0936205105904097E-2</v>
       </c>
       <c r="O45">
-        <f>_xlfn.LOGNORM.DIST(M45,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="9"/>
         <v>0.89668606395898365</v>
       </c>
       <c r="P45">
-        <f>_xlfn.LOGNORM.DIST(M45,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="10"/>
         <v>0.23052844156064725</v>
       </c>
       <c r="Q45">
-        <f>_xlfn.LOGNORM.DIST(M45,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="11"/>
         <v>0.9994485929772452</v>
       </c>
     </row>
@@ -12353,35 +12364,35 @@
         <v>9.0347179999999998</v>
       </c>
       <c r="B46">
+        <f t="shared" si="2"/>
+        <v>2.2010747116035745</v>
+      </c>
+      <c r="C46">
         <f t="shared" si="0"/>
-        <v>2.2010747116035745</v>
-      </c>
-      <c r="C46">
-        <f>_xlfn.LOGNORM.DIST(A46,$G$2,$G$3,FALSE)</f>
         <v>2.1704492067102774E-3</v>
       </c>
       <c r="D46">
-        <f>_xlfn.LOGNORM.DIST(A46,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="1"/>
         <v>2.4051165446945444E-3</v>
       </c>
       <c r="M46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>44</v>
       </c>
       <c r="N46">
-        <f>_xlfn.LOGNORM.DIST(M46,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>9.8878702546197142E-3</v>
       </c>
       <c r="O46">
-        <f>_xlfn.LOGNORM.DIST(M46,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="9"/>
         <v>0.90709042868915657</v>
       </c>
       <c r="P46">
-        <f>_xlfn.LOGNORM.DIST(M46,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="10"/>
         <v>0.24921846546863058</v>
       </c>
       <c r="Q46">
-        <f>_xlfn.LOGNORM.DIST(M46,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="11"/>
         <v>0.99955480335230562</v>
       </c>
     </row>
@@ -12390,35 +12401,35 @@
         <v>47.533459999999998</v>
       </c>
       <c r="B47">
+        <f t="shared" si="2"/>
+        <v>3.8614338841051694</v>
+      </c>
+      <c r="C47">
         <f t="shared" si="0"/>
-        <v>3.8614338841051694</v>
-      </c>
-      <c r="C47">
-        <f>_xlfn.LOGNORM.DIST(A47,$G$2,$G$3,FALSE)</f>
         <v>6.8634962998379342E-3</v>
       </c>
       <c r="D47">
-        <f>_xlfn.LOGNORM.DIST(A47,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="1"/>
         <v>0.93639204832316536</v>
       </c>
       <c r="M47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>45</v>
       </c>
       <c r="N47">
-        <f>_xlfn.LOGNORM.DIST(M47,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>8.9290112767378207E-3</v>
       </c>
       <c r="O47">
-        <f>_xlfn.LOGNORM.DIST(M47,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="9"/>
         <v>0.91649163351649432</v>
       </c>
       <c r="P47">
-        <f>_xlfn.LOGNORM.DIST(M47,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="10"/>
         <v>0.26823933815059742</v>
       </c>
       <c r="Q47">
-        <f>_xlfn.LOGNORM.DIST(M47,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="11"/>
         <v>0.99964000715597656</v>
       </c>
     </row>
@@ -12427,35 +12438,35 @@
         <v>33.553994000000003</v>
       </c>
       <c r="B48">
+        <f t="shared" si="2"/>
+        <v>3.5131559025319565</v>
+      </c>
+      <c r="C48">
         <f t="shared" si="0"/>
-        <v>3.5131559025319565</v>
-      </c>
-      <c r="C48">
-        <f>_xlfn.LOGNORM.DIST(A48,$G$2,$G$3,FALSE)</f>
         <v>2.5769035172952471E-2</v>
       </c>
       <c r="D48">
-        <f>_xlfn.LOGNORM.DIST(A48,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="1"/>
         <v>0.73033852466042015</v>
       </c>
       <c r="M48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>46</v>
       </c>
       <c r="N48">
-        <f>_xlfn.LOGNORM.DIST(M48,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>8.0542489252544321E-3</v>
       </c>
       <c r="O48">
-        <f>_xlfn.LOGNORM.DIST(M48,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="9"/>
         <v>0.92497648523267584</v>
       </c>
       <c r="P48">
-        <f>_xlfn.LOGNORM.DIST(M48,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="10"/>
         <v>0.28752332071207565</v>
       </c>
       <c r="Q48">
-        <f>_xlfn.LOGNORM.DIST(M48,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="11"/>
         <v>0.99970846014585202</v>
       </c>
     </row>
@@ -12464,35 +12475,35 @@
         <v>25.883607000000001</v>
       </c>
       <c r="B49">
+        <f t="shared" si="2"/>
+        <v>3.2536098339550446</v>
+      </c>
+      <c r="C49">
         <f t="shared" si="0"/>
-        <v>3.2536098339550446</v>
-      </c>
-      <c r="C49">
-        <f>_xlfn.LOGNORM.DIST(A49,$G$2,$G$3,FALSE)</f>
         <v>4.0244955031996765E-2</v>
       </c>
       <c r="D49">
-        <f>_xlfn.LOGNORM.DIST(A49,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="1"/>
         <v>0.47396165276680335</v>
       </c>
       <c r="M49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>47</v>
       </c>
       <c r="N49">
-        <f>_xlfn.LOGNORM.DIST(M49,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>7.2580389932882551E-3</v>
       </c>
       <c r="O49">
-        <f>_xlfn.LOGNORM.DIST(M49,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="9"/>
         <v>0.93262631574622912</v>
       </c>
       <c r="P49">
-        <f>_xlfn.LOGNORM.DIST(M49,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="10"/>
         <v>0.30700437918080287</v>
       </c>
       <c r="Q49">
-        <f>_xlfn.LOGNORM.DIST(M49,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="11"/>
         <v>0.9997635372819863</v>
       </c>
     </row>
@@ -12501,35 +12512,35 @@
         <v>51.731954999999999</v>
       </c>
       <c r="B50">
+        <f t="shared" si="2"/>
+        <v>3.9460756756848396</v>
+      </c>
+      <c r="C50">
         <f t="shared" si="0"/>
-        <v>3.9460756756848396</v>
-      </c>
-      <c r="C50">
-        <f>_xlfn.LOGNORM.DIST(A50,$G$2,$G$3,FALSE)</f>
         <v>4.3896547330619737E-3</v>
       </c>
       <c r="D50">
-        <f>_xlfn.LOGNORM.DIST(A50,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="1"/>
         <v>0.95965137036010151</v>
       </c>
       <c r="M50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>48</v>
       </c>
       <c r="N50">
-        <f>_xlfn.LOGNORM.DIST(M50,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>6.5348118293353007E-3</v>
       </c>
       <c r="O50">
-        <f>_xlfn.LOGNORM.DIST(M50,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="9"/>
         <v>0.93951688987036086</v>
       </c>
       <c r="P50">
-        <f>_xlfn.LOGNORM.DIST(M50,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="10"/>
         <v>0.32661872152069144</v>
       </c>
       <c r="Q50">
-        <f>_xlfn.LOGNORM.DIST(M50,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="11"/>
         <v>0.99980791840100058</v>
       </c>
     </row>
@@ -12538,35 +12549,35 @@
         <v>23.088867</v>
       </c>
       <c r="B51">
+        <f t="shared" si="2"/>
+        <v>3.1393505533015094</v>
+      </c>
+      <c r="C51">
         <f t="shared" si="0"/>
-        <v>3.1393505533015094</v>
-      </c>
-      <c r="C51">
-        <f>_xlfn.LOGNORM.DIST(A51,$G$2,$G$3,FALSE)</f>
         <v>4.2309900140319573E-2</v>
       </c>
       <c r="D51">
-        <f>_xlfn.LOGNORM.DIST(A51,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="1"/>
         <v>0.35781843236204175</v>
       </c>
       <c r="M51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>49</v>
       </c>
       <c r="N51">
-        <f>_xlfn.LOGNORM.DIST(M51,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>5.8790789906961929E-3</v>
       </c>
       <c r="O51">
-        <f>_xlfn.LOGNORM.DIST(M51,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="9"/>
         <v>0.94571843569939429</v>
       </c>
       <c r="P51">
-        <f>_xlfn.LOGNORM.DIST(M51,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="10"/>
         <v>0.34630524222167203</v>
       </c>
       <c r="Q51">
-        <f>_xlfn.LOGNORM.DIST(M51,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="11"/>
         <v>0.99984373416382422</v>
       </c>
     </row>
@@ -12575,35 +12586,35 @@
         <v>35.540362000000002</v>
       </c>
       <c r="B52">
+        <f t="shared" si="2"/>
+        <v>3.5706690083808779</v>
+      </c>
+      <c r="C52">
         <f t="shared" si="0"/>
-        <v>3.5706690083808779</v>
-      </c>
-      <c r="C52">
-        <f>_xlfn.LOGNORM.DIST(A52,$G$2,$G$3,FALSE)</f>
         <v>2.1932233502420555E-2</v>
       </c>
       <c r="D52">
-        <f>_xlfn.LOGNORM.DIST(A52,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="1"/>
         <v>0.77766505185301726</v>
       </c>
       <c r="M52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>50</v>
       </c>
       <c r="N52">
-        <f>_xlfn.LOGNORM.DIST(M52,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>5.2855126435108098E-3</v>
       </c>
       <c r="O52">
-        <f>_xlfn.LOGNORM.DIST(M52,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="9"/>
         <v>0.95129576757313483</v>
       </c>
       <c r="P52">
-        <f>_xlfn.LOGNORM.DIST(M52,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="10"/>
         <v>0.36600587966811726</v>
       </c>
       <c r="Q52">
-        <f>_xlfn.LOGNORM.DIST(M52,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="11"/>
         <v>0.99987268086695757</v>
       </c>
     </row>
@@ -12612,35 +12623,35 @@
         <v>22.424316000000001</v>
       </c>
       <c r="B53">
+        <f t="shared" si="2"/>
+        <v>3.1101459058074337</v>
+      </c>
+      <c r="C53">
         <f t="shared" si="0"/>
-        <v>3.1101459058074337</v>
-      </c>
-      <c r="C53">
-        <f>_xlfn.LOGNORM.DIST(A53,$G$2,$G$3,FALSE)</f>
         <v>4.2244173004700028E-2</v>
       </c>
       <c r="D53">
-        <f>_xlfn.LOGNORM.DIST(A53,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="1"/>
         <v>0.32970940806265936</v>
       </c>
       <c r="M53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>51</v>
       </c>
       <c r="N53">
-        <f>_xlfn.LOGNORM.DIST(M53,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>4.7490026331302171E-3</v>
       </c>
       <c r="O53">
-        <f>_xlfn.LOGNORM.DIST(M53,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="9"/>
         <v>0.9563084768943988</v>
       </c>
       <c r="P53">
-        <f>_xlfn.LOGNORM.DIST(M53,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="10"/>
         <v>0.38566589252028188</v>
       </c>
       <c r="Q53">
-        <f>_xlfn.LOGNORM.DIST(M53,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="11"/>
         <v>0.99989611084057739</v>
       </c>
     </row>
@@ -12649,35 +12660,35 @@
         <v>15.228737000000001</v>
       </c>
       <c r="B54">
+        <f t="shared" si="2"/>
+        <v>2.7231842350375892</v>
+      </c>
+      <c r="C54">
         <f t="shared" si="0"/>
-        <v>2.7231842350375892</v>
-      </c>
-      <c r="C54">
-        <f>_xlfn.LOGNORM.DIST(A54,$G$2,$G$3,FALSE)</f>
         <v>2.3844153996836981E-2</v>
       </c>
       <c r="D54">
-        <f>_xlfn.LOGNORM.DIST(A54,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="1"/>
         <v>7.3073699675737236E-2</v>
       </c>
       <c r="M54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>52</v>
       </c>
       <c r="N54">
-        <f>_xlfn.LOGNORM.DIST(M54,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>4.2646954819820096E-3</v>
       </c>
       <c r="O54">
-        <f>_xlfn.LOGNORM.DIST(M54,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="9"/>
         <v>0.96081117065269339</v>
       </c>
       <c r="P54">
-        <f>_xlfn.LOGNORM.DIST(M54,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="10"/>
         <v>0.40523406200880363</v>
       </c>
       <c r="Q54">
-        <f>_xlfn.LOGNORM.DIST(M54,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="11"/>
         <v>0.99991510369467762</v>
       </c>
     </row>
@@ -12686,35 +12697,35 @@
         <v>16.261927</v>
       </c>
       <c r="B55">
+        <f t="shared" si="2"/>
+        <v>2.7888266087828266</v>
+      </c>
+      <c r="C55">
         <f t="shared" si="0"/>
-        <v>2.7888266087828266</v>
-      </c>
-      <c r="C55">
-        <f>_xlfn.LOGNORM.DIST(A55,$G$2,$G$3,FALSE)</f>
         <v>2.8240806328180879E-2</v>
       </c>
       <c r="D55">
-        <f>_xlfn.LOGNORM.DIST(A55,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="1"/>
         <v>0.10000743302126139</v>
       </c>
       <c r="M55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>53</v>
       </c>
       <c r="N55">
-        <f>_xlfn.LOGNORM.DIST(M55,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>3.8280189476050633E-3</v>
       </c>
       <c r="O55">
-        <f>_xlfn.LOGNORM.DIST(M55,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="9"/>
         <v>0.96485374144774361</v>
       </c>
       <c r="P55">
-        <f>_xlfn.LOGNORM.DIST(M55,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="10"/>
         <v>0.42466282740269473</v>
       </c>
       <c r="Q55">
-        <f>_xlfn.LOGNORM.DIST(M55,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="11"/>
         <v>0.9999305225303986</v>
       </c>
     </row>
@@ -12723,35 +12734,35 @@
         <v>20.857227000000002</v>
       </c>
       <c r="B56">
+        <f t="shared" si="2"/>
+        <v>3.0377005068914609</v>
+      </c>
+      <c r="C56">
         <f t="shared" si="0"/>
-        <v>3.0377005068914609</v>
-      </c>
-      <c r="C56">
-        <f>_xlfn.LOGNORM.DIST(A56,$G$2,$G$3,FALSE)</f>
         <v>4.103390512532918E-2</v>
       </c>
       <c r="D56">
-        <f>_xlfn.LOGNORM.DIST(A56,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="1"/>
         <v>0.26425472750447809</v>
       </c>
       <c r="M56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>54</v>
       </c>
       <c r="N56">
-        <f>_xlfn.LOGNORM.DIST(M56,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>3.4346952045127706E-3</v>
       </c>
       <c r="O56">
-        <f>_xlfn.LOGNORM.DIST(M56,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="9"/>
         <v>0.96848165614977111</v>
       </c>
       <c r="P56">
-        <f>_xlfn.LOGNORM.DIST(M56,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="10"/>
         <v>0.44390836202315931</v>
       </c>
       <c r="Q56">
-        <f>_xlfn.LOGNORM.DIST(M56,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="11"/>
         <v>0.99994305833920583</v>
       </c>
     </row>
@@ -12760,35 +12771,35 @@
         <v>15.379339</v>
       </c>
       <c r="B57">
+        <f t="shared" si="2"/>
+        <v>2.7330249852605539</v>
+      </c>
+      <c r="C57">
         <f t="shared" si="0"/>
-        <v>2.7330249852605539</v>
-      </c>
-      <c r="C57">
-        <f>_xlfn.LOGNORM.DIST(A57,$G$2,$G$3,FALSE)</f>
         <v>2.450283733031065E-2</v>
       </c>
       <c r="D57">
-        <f>_xlfn.LOGNORM.DIST(A57,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="1"/>
         <v>7.6714333716061539E-2</v>
       </c>
       <c r="M57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>55</v>
       </c>
       <c r="N57">
-        <f>_xlfn.LOGNORM.DIST(M57,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>3.0807452059722507E-3</v>
       </c>
       <c r="O57">
-        <f>_xlfn.LOGNORM.DIST(M57,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="9"/>
         <v>0.97173625313807921</v>
       </c>
       <c r="P57">
-        <f>_xlfn.LOGNORM.DIST(M57,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="10"/>
         <v>0.46293059709016726</v>
       </c>
       <c r="Q57">
-        <f>_xlfn.LOGNORM.DIST(M57,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="11"/>
         <v>0.99995326511348137</v>
       </c>
     </row>
@@ -12797,35 +12808,35 @@
         <v>25.566827</v>
       </c>
       <c r="B58">
+        <f t="shared" si="2"/>
+        <v>3.2412956908718775</v>
+      </c>
+      <c r="C58">
         <f t="shared" si="0"/>
-        <v>3.2412956908718775</v>
-      </c>
-      <c r="C58">
-        <f>_xlfn.LOGNORM.DIST(A58,$G$2,$G$3,FALSE)</f>
         <v>4.0636840771465725E-2</v>
       </c>
       <c r="D58">
-        <f>_xlfn.LOGNORM.DIST(A58,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="1"/>
         <v>0.46114990429444352</v>
       </c>
       <c r="M58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>56</v>
       </c>
       <c r="N58">
-        <f>_xlfn.LOGNORM.DIST(M58,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>2.7624863366543335E-3</v>
       </c>
       <c r="O58">
-        <f>_xlfn.LOGNORM.DIST(M58,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="9"/>
         <v>0.97465504038786988</v>
       </c>
       <c r="P58">
-        <f>_xlfn.LOGNORM.DIST(M58,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="10"/>
         <v>0.48169320045132291</v>
       </c>
       <c r="Q58">
-        <f>_xlfn.LOGNORM.DIST(M58,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="11"/>
         <v>0.99996158764577869</v>
       </c>
     </row>
@@ -12834,35 +12845,35 @@
         <v>36.613793000000001</v>
       </c>
       <c r="B59">
+        <f t="shared" si="2"/>
+        <v>3.6004250273377063</v>
+      </c>
+      <c r="C59">
         <f t="shared" si="0"/>
-        <v>3.6004250273377063</v>
-      </c>
-      <c r="C59">
-        <f>_xlfn.LOGNORM.DIST(A59,$G$2,$G$3,FALSE)</f>
         <v>1.9998504802851751E-2</v>
       </c>
       <c r="D59">
-        <f>_xlfn.LOGNORM.DIST(A59,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="1"/>
         <v>0.8001601812353154</v>
       </c>
       <c r="M59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>57</v>
       </c>
       <c r="N59">
-        <f>_xlfn.LOGNORM.DIST(M59,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>2.4765250821915438E-3</v>
       </c>
       <c r="O59">
-        <f>_xlfn.LOGNORM.DIST(M59,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="9"/>
         <v>0.97727198858885045</v>
       </c>
       <c r="P59">
-        <f>_xlfn.LOGNORM.DIST(M59,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="10"/>
         <v>0.50016351689240157</v>
       </c>
       <c r="Q59">
-        <f>_xlfn.LOGNORM.DIST(M59,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="11"/>
         <v>0.99996838356703133</v>
       </c>
     </row>
@@ -12871,35 +12882,35 @@
         <v>15.154951000000001</v>
       </c>
       <c r="B60">
+        <f t="shared" si="2"/>
+        <v>2.7183272772481883</v>
+      </c>
+      <c r="C60">
         <f t="shared" si="0"/>
-        <v>2.7183272772481883</v>
-      </c>
-      <c r="C60">
-        <f>_xlfn.LOGNORM.DIST(A60,$G$2,$G$3,FALSE)</f>
         <v>2.3519864508070348E-2</v>
       </c>
       <c r="D60">
-        <f>_xlfn.LOGNORM.DIST(A60,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="1"/>
         <v>7.132629304124076E-2</v>
       </c>
       <c r="M60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>58</v>
       </c>
       <c r="N60">
-        <f>_xlfn.LOGNORM.DIST(M60,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>2.2197461128131771E-3</v>
       </c>
       <c r="O60">
-        <f>_xlfn.LOGNORM.DIST(M60,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="9"/>
         <v>0.97961781503632439</v>
       </c>
       <c r="P60">
-        <f>_xlfn.LOGNORM.DIST(M60,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="10"/>
         <v>0.51831247629936716</v>
       </c>
       <c r="Q60">
-        <f>_xlfn.LOGNORM.DIST(M60,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="11"/>
         <v>0.99997394084022506</v>
       </c>
     </row>
@@ -12908,35 +12919,35 @@
         <v>28.147500999999998</v>
       </c>
       <c r="B61">
+        <f t="shared" si="2"/>
+        <v>3.3374585762222817</v>
+      </c>
+      <c r="C61">
         <f t="shared" si="0"/>
-        <v>3.3374585762222817</v>
-      </c>
-      <c r="C61">
-        <f>_xlfn.LOGNORM.DIST(A61,$G$2,$G$3,FALSE)</f>
         <v>3.6649392205932267E-2</v>
       </c>
       <c r="D61">
-        <f>_xlfn.LOGNORM.DIST(A61,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="1"/>
         <v>0.56123117724249871</v>
       </c>
       <c r="M61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>59</v>
       </c>
       <c r="N61">
-        <f>_xlfn.LOGNORM.DIST(M61,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>1.9892989002052888E-3</v>
       </c>
       <c r="O61">
-        <f>_xlfn.LOGNORM.DIST(M61,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="9"/>
         <v>0.98172025528961548</v>
       </c>
       <c r="P61">
-        <f>_xlfn.LOGNORM.DIST(M61,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="10"/>
         <v>0.53611447546057045</v>
       </c>
       <c r="Q61">
-        <f>_xlfn.LOGNORM.DIST(M61,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="11"/>
         <v>0.99997849166498431</v>
       </c>
     </row>
@@ -12945,35 +12956,35 @@
         <v>33.918101999999998</v>
       </c>
       <c r="B62">
+        <f t="shared" si="2"/>
+        <v>3.5239488541694732</v>
+      </c>
+      <c r="C62">
         <f t="shared" si="0"/>
-        <v>3.5239488541694732</v>
-      </c>
-      <c r="C62">
-        <f>_xlfn.LOGNORM.DIST(A62,$G$2,$G$3,FALSE)</f>
         <v>2.5044292332327509E-2</v>
       </c>
       <c r="D62">
-        <f>_xlfn.LOGNORM.DIST(A62,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="1"/>
         <v>0.73958904435670325</v>
       </c>
       <c r="M62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>60</v>
       </c>
       <c r="N62">
-        <f>_xlfn.LOGNORM.DIST(M62,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>1.7825827539440751E-3</v>
       </c>
       <c r="O62">
-        <f>_xlfn.LOGNORM.DIST(M62,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="9"/>
         <v>0.98360432059188696</v>
       </c>
       <c r="P62">
-        <f>_xlfn.LOGNORM.DIST(M62,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="10"/>
         <v>0.55354723878798096</v>
       </c>
       <c r="Q62">
-        <f>_xlfn.LOGNORM.DIST(M62,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="11"/>
         <v>0.99998222354422694</v>
       </c>
     </row>
@@ -12982,35 +12993,35 @@
         <v>11.582407</v>
       </c>
       <c r="B63">
+        <f t="shared" si="2"/>
+        <v>2.449487308921801</v>
+      </c>
+      <c r="C63">
         <f t="shared" si="0"/>
-        <v>2.449487308921801</v>
-      </c>
-      <c r="C63">
-        <f>_xlfn.LOGNORM.DIST(A63,$G$2,$G$3,FALSE)</f>
         <v>8.5674626794475621E-3</v>
       </c>
       <c r="D63">
-        <f>_xlfn.LOGNORM.DIST(A63,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="1"/>
         <v>1.5024059757605053E-2</v>
       </c>
       <c r="M63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>61</v>
       </c>
       <c r="N63">
-        <f>_xlfn.LOGNORM.DIST(M63,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>1.5972309706442148E-3</v>
       </c>
       <c r="O63">
-        <f>_xlfn.LOGNORM.DIST(M63,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="9"/>
         <v>0.9852925398321013</v>
       </c>
       <c r="P63">
-        <f>_xlfn.LOGNORM.DIST(M63,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="10"/>
         <v>0.57059166271604111</v>
       </c>
       <c r="Q63">
-        <f>_xlfn.LOGNORM.DIST(M63,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="11"/>
         <v>0.99998528810404086</v>
       </c>
     </row>
@@ -13019,35 +13030,35 @@
         <v>20.923143</v>
       </c>
       <c r="B64">
+        <f t="shared" si="2"/>
+        <v>3.0408558669177093</v>
+      </c>
+      <c r="C64">
         <f t="shared" si="0"/>
-        <v>3.0408558669177093</v>
-      </c>
-      <c r="C64">
-        <f>_xlfn.LOGNORM.DIST(A64,$G$2,$G$3,FALSE)</f>
         <v>4.1116653350232138E-2</v>
       </c>
       <c r="D64">
-        <f>_xlfn.LOGNORM.DIST(A64,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="1"/>
         <v>0.26696226151060243</v>
       </c>
       <c r="M64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>62</v>
       </c>
       <c r="N64">
-        <f>_xlfn.LOGNORM.DIST(M64,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>1.4310946299707771E-3</v>
       </c>
       <c r="O64">
-        <f>_xlfn.LOGNORM.DIST(M64,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="9"/>
         <v>0.98680518544086149</v>
       </c>
       <c r="P64">
-        <f>_xlfn.LOGNORM.DIST(M64,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="10"/>
         <v>0.58723164802035477</v>
       </c>
       <c r="Q64">
-        <f>_xlfn.LOGNORM.DIST(M64,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="11"/>
         <v>0.99998780813253563</v>
       </c>
     </row>
@@ -13056,35 +13067,35 @@
         <v>33.626258999999997</v>
       </c>
       <c r="B65">
+        <f t="shared" si="2"/>
+        <v>3.5153072796002367</v>
+      </c>
+      <c r="C65">
         <f t="shared" si="0"/>
-        <v>3.5153072796002367</v>
-      </c>
-      <c r="C65">
-        <f>_xlfn.LOGNORM.DIST(A65,$G$2,$G$3,FALSE)</f>
         <v>2.5624547305790456E-2</v>
       </c>
       <c r="D65">
-        <f>_xlfn.LOGNORM.DIST(A65,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="1"/>
         <v>0.73219550141901402</v>
       </c>
       <c r="M65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>63</v>
       </c>
       <c r="N65">
-        <f>_xlfn.LOGNORM.DIST(M65,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>1.2822264419099841E-3</v>
       </c>
       <c r="O65">
-        <f>_xlfn.LOGNORM.DIST(M65,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="9"/>
         <v>0.98816048307891735</v>
       </c>
       <c r="P65">
-        <f>_xlfn.LOGNORM.DIST(M65,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="10"/>
         <v>0.60345392379700979</v>
       </c>
       <c r="Q65">
-        <f>_xlfn.LOGNORM.DIST(M65,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="11"/>
         <v>0.99998988320504056</v>
       </c>
     </row>
@@ -13093,35 +13104,35 @@
         <v>44.833697000000001</v>
       </c>
       <c r="B66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.8029600218650494</v>
       </c>
       <c r="C66">
-        <f>_xlfn.LOGNORM.DIST(A66,$G$2,$G$3,FALSE)</f>
+        <f t="shared" ref="C66:C129" si="12">_xlfn.LOGNORM.DIST(A66,$G$2,$G$3,FALSE)</f>
         <v>9.0824946959861767E-3</v>
       </c>
       <c r="D66">
-        <f>_xlfn.LOGNORM.DIST(A66,$G$2,$G$3,TRUE)</f>
+        <f t="shared" ref="D66:D129" si="13">_xlfn.LOGNORM.DIST(A66,$G$2,$G$3,TRUE)</f>
         <v>0.91499398219053441</v>
       </c>
       <c r="M66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>64</v>
       </c>
       <c r="N66">
-        <f>_xlfn.LOGNORM.DIST(M66,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>1.1488649446920859E-3</v>
       </c>
       <c r="O66">
-        <f>_xlfn.LOGNORM.DIST(M66,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="9"/>
         <v>0.98937480532711763</v>
       </c>
       <c r="P66">
-        <f>_xlfn.LOGNORM.DIST(M66,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="10"/>
         <v>0.61924786636479134</v>
       </c>
       <c r="Q66">
-        <f>_xlfn.LOGNORM.DIST(M66,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="11"/>
         <v>0.99999159418576766</v>
       </c>
     </row>
@@ -13130,35 +13141,35 @@
         <v>29.639206999999999</v>
       </c>
       <c r="B67">
-        <f t="shared" ref="B67:B130" si="2">LN(A67)</f>
+        <f t="shared" ref="B67:B130" si="14">LN(A67)</f>
         <v>3.3890980456840163</v>
       </c>
       <c r="C67">
-        <f>_xlfn.LOGNORM.DIST(A67,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>3.3777892273139869E-2</v>
       </c>
       <c r="D67">
-        <f>_xlfn.LOGNORM.DIST(A67,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="13"/>
         <v>0.61379195349253846</v>
       </c>
       <c r="M67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>65</v>
       </c>
       <c r="N67">
-        <f>_xlfn.LOGNORM.DIST(M67,$G$2,$G$3,FALSE)</f>
+        <f t="shared" ref="N67:N98" si="15">_xlfn.LOGNORM.DIST(M67,$G$2,$G$3,FALSE)</f>
         <v>1.0294192685262782E-3</v>
       </c>
       <c r="O67">
-        <f>_xlfn.LOGNORM.DIST(M67,$G$2,$G$3,TRUE)</f>
+        <f t="shared" ref="O67:O98" si="16">_xlfn.LOGNORM.DIST(M67,$G$2,$G$3,TRUE)</f>
         <v>0.99046284984228972</v>
       </c>
       <c r="P67">
-        <f>_xlfn.LOGNORM.DIST(M67,$G$4,$G$3,TRUE)</f>
+        <f t="shared" ref="P67:P98" si="17">_xlfn.LOGNORM.DIST(M67,$G$4,$G$3,TRUE)</f>
         <v>0.63460531590268343</v>
       </c>
       <c r="Q67">
-        <f>_xlfn.LOGNORM.DIST(M67,$G$5,$G$3,TRUE)</f>
+        <f t="shared" ref="Q67:Q98" si="18">_xlfn.LOGNORM.DIST(M67,$G$5,$G$3,TRUE)</f>
         <v>0.99999300683533154</v>
       </c>
     </row>
@@ -13167,35 +13178,35 @@
         <v>59.045591999999999</v>
       </c>
       <c r="B68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>4.0783098912541469</v>
       </c>
       <c r="C68">
-        <f>_xlfn.LOGNORM.DIST(A68,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>1.9793767772187483E-3</v>
       </c>
       <c r="D68">
-        <f>_xlfn.LOGNORM.DIST(A68,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="13"/>
         <v>0.98181072503354394</v>
       </c>
       <c r="M68">
-        <f t="shared" ref="M68:M131" si="3">M67+1</f>
+        <f t="shared" ref="M68:M131" si="19">M67+1</f>
         <v>66</v>
       </c>
       <c r="N68">
-        <f>_xlfn.LOGNORM.DIST(M68,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>9.2245461336595521E-4</v>
       </c>
       <c r="O68">
-        <f>_xlfn.LOGNORM.DIST(M68,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="16"/>
         <v>0.99143780262390924</v>
       </c>
       <c r="P68">
-        <f>_xlfn.LOGNORM.DIST(M68,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="17"/>
         <v>0.64952039321743826</v>
       </c>
       <c r="Q68">
-        <f>_xlfn.LOGNORM.DIST(M68,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="18"/>
         <v>0.99999417470572649</v>
       </c>
     </row>
@@ -13204,35 +13215,35 @@
         <v>46.981966999999997</v>
       </c>
       <c r="B69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>3.849763847234664</v>
       </c>
       <c r="C69">
-        <f>_xlfn.LOGNORM.DIST(A69,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>7.2717341959496152E-3</v>
       </c>
       <c r="D69">
-        <f>_xlfn.LOGNORM.DIST(A69,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="13"/>
         <v>0.93249530808195435</v>
       </c>
       <c r="M69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>67</v>
       </c>
       <c r="N69">
-        <f>_xlfn.LOGNORM.DIST(M69,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>8.266785362703316E-4</v>
       </c>
       <c r="O69">
-        <f>_xlfn.LOGNORM.DIST(M69,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="16"/>
         <v>0.99231148715723627</v>
       </c>
       <c r="P69">
-        <f>_xlfn.LOGNORM.DIST(M69,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="17"/>
         <v>0.66398931865276745</v>
       </c>
       <c r="Q69">
-        <f>_xlfn.LOGNORM.DIST(M69,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="18"/>
         <v>0.99999514146671453</v>
       </c>
     </row>
@@ -13241,35 +13252,35 @@
         <v>16.328014</v>
       </c>
       <c r="B70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>2.792882282930008</v>
       </c>
       <c r="C70">
-        <f>_xlfn.LOGNORM.DIST(A70,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>2.8510029255090413E-2</v>
       </c>
       <c r="D70">
-        <f>_xlfn.LOGNORM.DIST(A70,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="13"/>
         <v>0.10188268880232478</v>
       </c>
       <c r="M70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>68</v>
       </c>
       <c r="N70">
-        <f>_xlfn.LOGNORM.DIST(M70,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>7.4092810300084675E-4</v>
       </c>
       <c r="O70">
-        <f>_xlfn.LOGNORM.DIST(M70,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="16"/>
         <v>0.99309450027281565</v>
       </c>
       <c r="P70">
-        <f>_xlfn.LOGNORM.DIST(M70,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="17"/>
         <v>0.67801023480360922</v>
       </c>
       <c r="Q70">
-        <f>_xlfn.LOGNORM.DIST(M70,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="18"/>
         <v>0.99999594277787751</v>
       </c>
     </row>
@@ -13278,35 +13289,35 @@
         <v>26.040944</v>
       </c>
       <c r="B71">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>3.2596700686034064</v>
       </c>
       <c r="C71">
-        <f>_xlfn.LOGNORM.DIST(A71,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>4.0038217440608544E-2</v>
       </c>
       <c r="D71">
-        <f>_xlfn.LOGNORM.DIST(A71,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="13"/>
         <v>0.48027751148547165</v>
       </c>
       <c r="M71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>69</v>
       </c>
       <c r="N71">
-        <f>_xlfn.LOGNORM.DIST(M71,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>6.6415792711532729E-4</v>
       </c>
       <c r="O71">
-        <f>_xlfn.LOGNORM.DIST(M71,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="16"/>
         <v>0.99379633560047387</v>
       </c>
       <c r="P71">
-        <f>_xlfn.LOGNORM.DIST(M71,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="17"/>
         <v>0.69158303438583024</v>
       </c>
       <c r="Q71">
-        <f>_xlfn.LOGNORM.DIST(M71,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="18"/>
         <v>0.99999660779713817</v>
       </c>
     </row>
@@ -13315,35 +13326,35 @@
         <v>18.168078999999999</v>
       </c>
       <c r="B72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>2.8996661530985151</v>
       </c>
       <c r="C72">
-        <f>_xlfn.LOGNORM.DIST(A72,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>3.5147332045131256E-2</v>
       </c>
       <c r="D72">
-        <f>_xlfn.LOGNORM.DIST(A72,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="13"/>
         <v>0.16072652677906438</v>
       </c>
       <c r="M72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>70</v>
       </c>
       <c r="N72">
-        <f>_xlfn.LOGNORM.DIST(M72,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>5.9542909617494937E-4</v>
       </c>
       <c r="O72">
-        <f>_xlfn.LOGNORM.DIST(M72,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="16"/>
         <v>0.9944254955068117</v>
       </c>
       <c r="P72">
-        <f>_xlfn.LOGNORM.DIST(M72,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="17"/>
         <v>0.704709194332651</v>
       </c>
       <c r="Q72">
-        <f>_xlfn.LOGNORM.DIST(M72,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="18"/>
         <v>0.99999716039800779</v>
       </c>
     </row>
@@ -13352,35 +13363,35 @@
         <v>19.396339000000001</v>
       </c>
       <c r="B73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>2.9650843369208508</v>
       </c>
       <c r="C73">
-        <f>_xlfn.LOGNORM.DIST(A73,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>3.8443879417478725E-2</v>
       </c>
       <c r="D73">
-        <f>_xlfn.LOGNORM.DIST(A73,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="13"/>
         <v>0.20602337903384418</v>
       </c>
       <c r="M73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>71</v>
       </c>
       <c r="N73">
-        <f>_xlfn.LOGNORM.DIST(M73,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>5.3389896723610023E-4</v>
       </c>
       <c r="O73">
-        <f>_xlfn.LOGNORM.DIST(M73,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="16"/>
         <v>0.99498959239561757</v>
       </c>
       <c r="P73">
-        <f>_xlfn.LOGNORM.DIST(M73,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="17"/>
         <v>0.71739161694255293</v>
       </c>
       <c r="Q73">
-        <f>_xlfn.LOGNORM.DIST(M73,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="18"/>
         <v>0.99999762015314309</v>
       </c>
     </row>
@@ -13389,35 +13400,35 @@
         <v>19.478601000000001</v>
       </c>
       <c r="B74">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>2.969316478386947</v>
       </c>
       <c r="C74">
-        <f>_xlfn.LOGNORM.DIST(A74,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>3.8628493638654983E-2</v>
       </c>
       <c r="D74">
-        <f>_xlfn.LOGNORM.DIST(A74,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="13"/>
         <v>0.20919347450084852</v>
       </c>
       <c r="M74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>72</v>
       </c>
       <c r="N74">
-        <f>_xlfn.LOGNORM.DIST(M74,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>4.7881180129924218E-4</v>
       </c>
       <c r="O74">
-        <f>_xlfn.LOGNORM.DIST(M74,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="16"/>
         <v>0.99549544022619096</v>
       </c>
       <c r="P74">
-        <f>_xlfn.LOGNORM.DIST(M74,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="17"/>
         <v>0.72963447868762854</v>
       </c>
       <c r="Q74">
-        <f>_xlfn.LOGNORM.DIST(M74,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="18"/>
         <v>0.99999800313015186</v>
       </c>
     </row>
@@ -13426,35 +13437,35 @@
         <v>26.125463</v>
       </c>
       <c r="B75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>3.2629104326159721</v>
       </c>
       <c r="C75">
-        <f>_xlfn.LOGNORM.DIST(A75,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>3.9923992995781456E-2</v>
       </c>
       <c r="D75">
-        <f>_xlfn.LOGNORM.DIST(A75,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="13"/>
         <v>0.48365668985721511</v>
       </c>
       <c r="M75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>73</v>
       </c>
       <c r="N75">
-        <f>_xlfn.LOGNORM.DIST(M75,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>4.2949019779120484E-4</v>
       </c>
       <c r="O75">
-        <f>_xlfn.LOGNORM.DIST(M75,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="16"/>
         <v>0.99594913706964594</v>
       </c>
       <c r="P75">
-        <f>_xlfn.LOGNORM.DIST(M75,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="17"/>
         <v>0.74144308710408169</v>
       </c>
       <c r="Q75">
-        <f>_xlfn.LOGNORM.DIST(M75,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="18"/>
         <v>0.99999832253635756</v>
       </c>
     </row>
@@ -13463,35 +13474,35 @@
         <v>32.085858999999999</v>
       </c>
       <c r="B76">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>3.4684154034792858</v>
       </c>
       <c r="C76">
-        <f>_xlfn.LOGNORM.DIST(A76,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>2.875824018783827E-2</v>
       </c>
       <c r="D76">
-        <f>_xlfn.LOGNORM.DIST(A76,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="13"/>
         <v>0.69032262989122883</v>
       </c>
       <c r="M76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>74</v>
       </c>
       <c r="N76">
-        <f>_xlfn.LOGNORM.DIST(M76,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>3.8532728461516513E-4</v>
       </c>
       <c r="O76">
-        <f>_xlfn.LOGNORM.DIST(M76,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="16"/>
         <v>0.99635613948135071</v>
       </c>
       <c r="P76">
-        <f>_xlfn.LOGNORM.DIST(M76,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="17"/>
         <v>0.75282374602570679</v>
       </c>
       <c r="Q76">
-        <f>_xlfn.LOGNORM.DIST(M76,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="18"/>
         <v>0.99999858924188689</v>
       </c>
     </row>
@@ -13500,35 +13511,35 @@
         <v>31.973735000000001</v>
       </c>
       <c r="B77">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>3.4649147845243675</v>
       </c>
       <c r="C77">
-        <f>_xlfn.LOGNORM.DIST(A77,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>2.8989491290519011E-2</v>
       </c>
       <c r="D77">
-        <f>_xlfn.LOGNORM.DIST(A77,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="13"/>
         <v>0.68708517880157238</v>
       </c>
       <c r="M77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>75</v>
       </c>
       <c r="N77">
-        <f>_xlfn.LOGNORM.DIST(M77,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>3.4577961612196036E-4</v>
       </c>
       <c r="O77">
-        <f>_xlfn.LOGNORM.DIST(M77,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="16"/>
         <v>0.9967213294214291</v>
       </c>
       <c r="P77">
-        <f>_xlfn.LOGNORM.DIST(M77,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="17"/>
         <v>0.76378362928428878</v>
       </c>
       <c r="Q77">
-        <f>_xlfn.LOGNORM.DIST(M77,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="18"/>
         <v>0.9999988122046074</v>
       </c>
     </row>
@@ -13537,35 +13548,35 @@
         <v>47.843372000000002</v>
       </c>
       <c r="B78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>3.8679325921082617</v>
       </c>
       <c r="C78">
-        <f>_xlfn.LOGNORM.DIST(A78,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>6.6434933817887702E-3</v>
       </c>
       <c r="D78">
-        <f>_xlfn.LOGNORM.DIST(A78,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="13"/>
         <v>0.93848486581988433</v>
       </c>
       <c r="M78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>76</v>
       </c>
       <c r="N78">
-        <f>_xlfn.LOGNORM.DIST(M78,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>3.1036072997778479E-4</v>
       </c>
       <c r="O78">
-        <f>_xlfn.LOGNORM.DIST(M78,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="16"/>
         <v>0.9970490744067867</v>
       </c>
       <c r="P78">
-        <f>_xlfn.LOGNORM.DIST(M78,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="17"/>
         <v>0.77433066288577168</v>
       </c>
       <c r="Q78">
-        <f>_xlfn.LOGNORM.DIST(M78,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="18"/>
         <v>0.99999899881578636</v>
       </c>
     </row>
@@ -13574,35 +13585,35 @@
         <v>32.070613999999999</v>
       </c>
       <c r="B79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>3.4679401591407468</v>
       </c>
       <c r="C79">
-        <f>_xlfn.LOGNORM.DIST(A79,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>2.8789668022803951E-2</v>
       </c>
       <c r="D79">
-        <f>_xlfn.LOGNORM.DIST(A79,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="13"/>
         <v>0.68988397096694598</v>
       </c>
       <c r="M79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>77</v>
       </c>
       <c r="N79">
-        <f>_xlfn.LOGNORM.DIST(M79,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>2.7863531387709614E-4</v>
       </c>
       <c r="O79">
-        <f>_xlfn.LOGNORM.DIST(M79,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="16"/>
         <v>0.99734328152898588</v>
       </c>
       <c r="P79">
-        <f>_xlfn.LOGNORM.DIST(M79,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="17"/>
         <v>0.78447341557538286</v>
       </c>
       <c r="Q79">
-        <f>_xlfn.LOGNORM.DIST(M79,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="18"/>
         <v>0.99999915518162885</v>
       </c>
     </row>
@@ -13611,35 +13622,35 @@
         <v>17.547602000000001</v>
       </c>
       <c r="B80">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>2.8649173023993906</v>
       </c>
       <c r="C80">
-        <f>_xlfn.LOGNORM.DIST(A80,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>3.3115839781906693E-2</v>
       </c>
       <c r="D80">
-        <f>_xlfn.LOGNORM.DIST(A80,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="13"/>
         <v>0.13953667317937149</v>
       </c>
       <c r="M80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>78</v>
       </c>
       <c r="N80">
-        <f>_xlfn.LOGNORM.DIST(M80,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>2.5021393401663964E-4</v>
       </c>
       <c r="O80">
-        <f>_xlfn.LOGNORM.DIST(M80,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="16"/>
         <v>0.99760744592366213</v>
       </c>
       <c r="P80">
-        <f>_xlfn.LOGNORM.DIST(M80,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="17"/>
         <v>0.79422099762668796</v>
       </c>
       <c r="Q80">
-        <f>_xlfn.LOGNORM.DIST(M80,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="18"/>
         <v>0.99999928635288682</v>
       </c>
     </row>
@@ -13648,35 +13659,35 @@
         <v>27.353572</v>
       </c>
       <c r="B81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>3.3088471236307995</v>
       </c>
       <c r="C81">
-        <f>_xlfn.LOGNORM.DIST(A81,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>3.8043953172986242E-2</v>
       </c>
       <c r="D81">
-        <f>_xlfn.LOGNORM.DIST(A81,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="13"/>
         <v>0.53157280540909202</v>
       </c>
       <c r="M81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>79</v>
       </c>
       <c r="N81">
-        <f>_xlfn.LOGNORM.DIST(M81,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>2.2474827892285157E-4</v>
       </c>
       <c r="O81">
-        <f>_xlfn.LOGNORM.DIST(M81,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="16"/>
         <v>0.99784469422987254</v>
       </c>
       <c r="P81">
-        <f>_xlfn.LOGNORM.DIST(M81,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="17"/>
         <v>0.8035829676266093</v>
       </c>
       <c r="Q81">
-        <f>_xlfn.LOGNORM.DIST(M81,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="18"/>
         <v>0.99999939651235781</v>
       </c>
     </row>
@@ -13685,35 +13696,35 @@
         <v>25.651271999999999</v>
       </c>
       <c r="B82">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>3.2445931610304779</v>
       </c>
       <c r="C82">
-        <f>_xlfn.LOGNORM.DIST(A82,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>4.0535655271549439E-2</v>
       </c>
       <c r="D82">
-        <f>_xlfn.LOGNORM.DIST(A82,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="13"/>
         <v>0.46457722714917393</v>
       </c>
       <c r="M82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>80</v>
       </c>
       <c r="N82">
-        <f>_xlfn.LOGNORM.DIST(M82,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>2.0192687438686928E-4</v>
       </c>
       <c r="O82">
-        <f>_xlfn.LOGNORM.DIST(M82,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="16"/>
         <v>0.99805782353241457</v>
       </c>
       <c r="P82">
-        <f>_xlfn.LOGNORM.DIST(M82,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="17"/>
         <v>0.81256924697899602</v>
       </c>
       <c r="Q82">
-        <f>_xlfn.LOGNORM.DIST(M82,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="18"/>
         <v>0.99999948912819125</v>
       </c>
     </row>
@@ -13722,35 +13733,35 @@
         <v>33.406345000000002</v>
       </c>
       <c r="B83">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>3.5087458520005081</v>
       </c>
       <c r="C83">
-        <f>_xlfn.LOGNORM.DIST(A83,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>2.6065186516393057E-2</v>
       </c>
       <c r="D83">
-        <f>_xlfn.LOGNORM.DIST(A83,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="13"/>
         <v>0.72651190440499358</v>
       </c>
       <c r="M83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>81</v>
       </c>
       <c r="N83">
-        <f>_xlfn.LOGNORM.DIST(M83,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>1.814712277350072E-4</v>
       </c>
       <c r="O83">
-        <f>_xlfn.LOGNORM.DIST(M83,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="16"/>
         <v>0.99824933623711931</v>
       </c>
       <c r="P83">
-        <f>_xlfn.LOGNORM.DIST(M83,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="17"/>
         <v>0.82119004181160571</v>
       </c>
       <c r="Q83">
-        <f>_xlfn.LOGNORM.DIST(M83,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="18"/>
         <v>0.99999956707939519</v>
       </c>
     </row>
@@ -13759,35 +13770,35 @@
         <v>44.249184</v>
       </c>
       <c r="B84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>3.789836930605941</v>
       </c>
       <c r="C84">
-        <f>_xlfn.LOGNORM.DIST(A84,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>9.6407730527244898E-3</v>
       </c>
       <c r="D84">
-        <f>_xlfn.LOGNORM.DIST(A84,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="13"/>
         <v>0.90952342686038612</v>
       </c>
       <c r="M84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>82</v>
       </c>
       <c r="N84">
-        <f>_xlfn.LOGNORM.DIST(M84,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>1.6313236231422392E-4</v>
       </c>
       <c r="O84">
-        <f>_xlfn.LOGNORM.DIST(M84,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="16"/>
         <v>0.99842147128866976</v>
       </c>
       <c r="P84">
-        <f>_xlfn.LOGNORM.DIST(M84,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="17"/>
         <v>0.82945577194372544</v>
       </c>
       <c r="Q84">
-        <f>_xlfn.LOGNORM.DIST(M84,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="18"/>
         <v>0.99999963275871318</v>
       </c>
     </row>
@@ -13796,35 +13807,35 @@
         <v>30.006246999999998</v>
       </c>
       <c r="B85">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>3.4014055933179375</v>
       </c>
       <c r="C85">
-        <f>_xlfn.LOGNORM.DIST(A85,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>3.303825610570052E-2</v>
       </c>
       <c r="D85">
-        <f>_xlfn.LOGNORM.DIST(A85,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="13"/>
         <v>0.6260543335413723</v>
       </c>
       <c r="M85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>83</v>
       </c>
       <c r="N85">
-        <f>_xlfn.LOGNORM.DIST(M85,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>1.466877057995849E-4</v>
       </c>
       <c r="O85">
-        <f>_xlfn.LOGNORM.DIST(M85,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="16"/>
         <v>0.99857623210273405</v>
       </c>
       <c r="P85">
-        <f>_xlfn.LOGNORM.DIST(M85,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="17"/>
         <v>0.8373770065527425</v>
       </c>
       <c r="Q85">
-        <f>_xlfn.LOGNORM.DIST(M85,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="18"/>
         <v>0.99999968815705553</v>
       </c>
     </row>
@@ -13833,35 +13844,35 @@
         <v>30.474647000000001</v>
       </c>
       <c r="B86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>3.4168950920352774</v>
       </c>
       <c r="C86">
-        <f>_xlfn.LOGNORM.DIST(A86,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>3.2083044522202557E-2</v>
       </c>
       <c r="D86">
-        <f>_xlfn.LOGNORM.DIST(A86,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="13"/>
         <v>0.64130615859393747</v>
       </c>
       <c r="M86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>84</v>
       </c>
       <c r="N86">
-        <f>_xlfn.LOGNORM.DIST(M86,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>1.3193829865855856E-4</v>
       </c>
       <c r="O86">
-        <f>_xlfn.LOGNORM.DIST(M86,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="16"/>
         <v>0.99871541154917765</v>
       </c>
       <c r="P86">
-        <f>_xlfn.LOGNORM.DIST(M86,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="17"/>
         <v>0.84496440616637614</v>
       </c>
       <c r="Q86">
-        <f>_xlfn.LOGNORM.DIST(M86,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="18"/>
         <v>0.99999973493287675</v>
       </c>
     </row>
@@ -13870,35 +13881,35 @@
         <v>43.645477999999997</v>
       </c>
       <c r="B87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>3.7760996801264239</v>
       </c>
       <c r="C87">
-        <f>_xlfn.LOGNORM.DIST(A87,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>1.024902088912877E-2</v>
       </c>
       <c r="D87">
-        <f>_xlfn.LOGNORM.DIST(A87,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="13"/>
         <v>0.90352127901019674</v>
       </c>
       <c r="M87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>85</v>
       </c>
       <c r="N87">
-        <f>_xlfn.LOGNORM.DIST(M87,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>1.1870629177897839E-4</v>
       </c>
       <c r="O87">
-        <f>_xlfn.LOGNORM.DIST(M87,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="16"/>
         <v>0.99884061429079518</v>
       </c>
       <c r="P87">
-        <f>_xlfn.LOGNORM.DIST(M87,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="17"/>
         <v>0.8522286706019444</v>
       </c>
       <c r="Q87">
-        <f>_xlfn.LOGNORM.DIST(M87,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="18"/>
         <v>0.99999977446925281</v>
       </c>
     </row>
@@ -13907,35 +13918,35 @@
         <v>31.640215999999999</v>
       </c>
       <c r="B88">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>3.4544289696776675</v>
       </c>
       <c r="C88">
-        <f>_xlfn.LOGNORM.DIST(A88,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>2.967846683004291E-2</v>
       </c>
       <c r="D88">
-        <f>_xlfn.LOGNORM.DIST(A88,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="13"/>
         <v>0.67730177622885268</v>
       </c>
       <c r="M88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>86</v>
       </c>
       <c r="N88">
-        <f>_xlfn.LOGNORM.DIST(M88,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>1.0683270484468209E-4</v>
       </c>
       <c r="O88">
-        <f>_xlfn.LOGNORM.DIST(M88,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="16"/>
         <v>0.99895327675230783</v>
       </c>
       <c r="P88">
-        <f>_xlfn.LOGNORM.DIST(M88,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="17"/>
         <v>0.85918049247381112</v>
       </c>
       <c r="Q88">
-        <f>_xlfn.LOGNORM.DIST(M88,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="18"/>
         <v>0.99999980792089449</v>
       </c>
     </row>
@@ -13944,35 +13955,35 @@
         <v>39.642234000000002</v>
       </c>
       <c r="B89">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>3.6798950650887137</v>
       </c>
       <c r="C89">
-        <f>_xlfn.LOGNORM.DIST(A89,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>1.5171720810688728E-2</v>
       </c>
       <c r="D89">
-        <f>_xlfn.LOGNORM.DIST(A89,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="13"/>
         <v>0.8531736080603074</v>
       </c>
       <c r="M89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>87</v>
       </c>
       <c r="N89">
-        <f>_xlfn.LOGNORM.DIST(M89,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>9.6175419497902148E-5</v>
       </c>
       <c r="O89">
-        <f>_xlfn.LOGNORM.DIST(M89,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="16"/>
         <v>0.99905468496719452</v>
       </c>
       <c r="P89">
-        <f>_xlfn.LOGNORM.DIST(M89,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="17"/>
         <v>0.86583051589423365</v>
       </c>
       <c r="Q89">
-        <f>_xlfn.LOGNORM.DIST(M89,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="18"/>
         <v>0.99999983625291755</v>
       </c>
     </row>
@@ -13981,31 +13992,31 @@
         <v>41.429096000000001</v>
       </c>
       <c r="B90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>3.7239834359140085</v>
       </c>
       <c r="C90">
-        <f>_xlfn.LOGNORM.DIST(A90,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>1.2775635586005342E-2</v>
       </c>
       <c r="D90">
-        <f>_xlfn.LOGNORM.DIST(A90,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="13"/>
         <v>0.87809324172347025</v>
       </c>
       <c r="M90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>88</v>
       </c>
       <c r="O90">
-        <f>_xlfn.LOGNORM.DIST(M90,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="16"/>
         <v>0.99914599052513442</v>
       </c>
       <c r="P90">
-        <f>_xlfn.LOGNORM.DIST(M90,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="17"/>
         <v>0.87218930000028771</v>
       </c>
       <c r="Q90">
-        <f>_xlfn.LOGNORM.DIST(M90,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="18"/>
         <v>0.99999986027285237</v>
       </c>
     </row>
@@ -14014,31 +14025,31 @@
         <v>15.272474000000001</v>
       </c>
       <c r="B91">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>2.7260521231340502</v>
       </c>
       <c r="C91">
-        <f>_xlfn.LOGNORM.DIST(A91,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>2.4035909761406453E-2</v>
       </c>
       <c r="D91">
-        <f>_xlfn.LOGNORM.DIST(A91,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="13"/>
         <v>7.4120766170128818E-2</v>
       </c>
       <c r="M91">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>89</v>
       </c>
       <c r="O91">
-        <f>_xlfn.LOGNORM.DIST(M91,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="16"/>
         <v>0.9992282248202885</v>
       </c>
       <c r="P91">
-        <f>_xlfn.LOGNORM.DIST(M91,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="17"/>
         <v>0.87826728694981959</v>
       </c>
       <c r="Q91">
-        <f>_xlfn.LOGNORM.DIST(M91,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="18"/>
         <v>0.9999998806571031</v>
       </c>
     </row>
@@ -14047,31 +14058,31 @@
         <v>18.585694</v>
       </c>
       <c r="B92">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>2.9223921449944492</v>
       </c>
       <c r="C92">
-        <f>_xlfn.LOGNORM.DIST(A92,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>3.6379833583071015E-2</v>
       </c>
       <c r="D92">
-        <f>_xlfn.LOGNORM.DIST(A92,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="13"/>
         <v>0.17566583362305643</v>
       </c>
       <c r="M92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>90</v>
       </c>
       <c r="O92">
-        <f>_xlfn.LOGNORM.DIST(M92,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="16"/>
         <v>0.99930231178019469</v>
       </c>
       <c r="P92">
-        <f>_xlfn.LOGNORM.DIST(M92,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="17"/>
         <v>0.8840747740417122</v>
       </c>
       <c r="Q92">
-        <f>_xlfn.LOGNORM.DIST(M92,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="18"/>
         <v>0.99999989797284305</v>
       </c>
     </row>
@@ -14080,31 +14091,31 @@
         <v>30.100190000000001</v>
       </c>
       <c r="B93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>3.4045314840272662</v>
       </c>
       <c r="C93">
-        <f>_xlfn.LOGNORM.DIST(A93,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>3.2847569761728597E-2</v>
       </c>
       <c r="D93">
-        <f>_xlfn.LOGNORM.DIST(A93,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="13"/>
         <v>0.62914909355812065</v>
       </c>
       <c r="M93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>91</v>
       </c>
       <c r="O93">
-        <f>_xlfn.LOGNORM.DIST(M93,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="16"/>
         <v>0.9993690792365254</v>
       </c>
       <c r="P93">
-        <f>_xlfn.LOGNORM.DIST(M93,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="17"/>
         <v>0.88962188962973932</v>
       </c>
       <c r="Q93">
-        <f>_xlfn.LOGNORM.DIST(M93,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="18"/>
         <v>0.99999991269615407</v>
       </c>
     </row>
@@ -14113,31 +14124,31 @@
         <v>18.152466</v>
       </c>
       <c r="B94">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>2.8988064192502656</v>
       </c>
       <c r="C94">
-        <f>_xlfn.LOGNORM.DIST(A94,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>3.509909805945962E-2</v>
       </c>
       <c r="D94">
-        <f>_xlfn.LOGNORM.DIST(A94,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="13"/>
         <v>0.16017814782340428</v>
       </c>
       <c r="M94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>92</v>
       </c>
       <c r="O94">
-        <f>_xlfn.LOGNORM.DIST(M94,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="16"/>
         <v>0.99942926908223229</v>
       </c>
       <c r="P94">
-        <f>_xlfn.LOGNORM.DIST(M94,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="17"/>
         <v>0.89491857251443474</v>
       </c>
       <c r="Q94">
-        <f>_xlfn.LOGNORM.DIST(M94,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="18"/>
         <v>0.99999992522707237</v>
       </c>
     </row>
@@ -14146,31 +14157,31 @@
         <v>15.210998</v>
       </c>
       <c r="B95">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>2.7220187188458027</v>
       </c>
       <c r="C95">
-        <f>_xlfn.LOGNORM.DIST(A95,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>2.3766279407052171E-2</v>
       </c>
       <c r="D95">
-        <f>_xlfn.LOGNORM.DIST(A95,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="13"/>
         <v>7.2651418851766708E-2</v>
       </c>
       <c r="M95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>93</v>
       </c>
       <c r="O95">
-        <f>_xlfn.LOGNORM.DIST(M95,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="16"/>
         <v>0.99948354634450554</v>
       </c>
       <c r="P95">
-        <f>_xlfn.LOGNORM.DIST(M95,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="17"/>
         <v>0.89997455451330288</v>
       </c>
       <c r="Q95">
-        <f>_xlfn.LOGNORM.DIST(M95,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="18"/>
         <v>0.99999993590208047</v>
       </c>
     </row>
@@ -14179,31 +14190,31 @@
         <v>35.524478000000002</v>
       </c>
       <c r="B96">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>3.5702219799976573</v>
       </c>
       <c r="C96">
-        <f>_xlfn.LOGNORM.DIST(A96,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>2.1961651388312447E-2</v>
       </c>
       <c r="D96">
-        <f>_xlfn.LOGNORM.DIST(A96,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="13"/>
         <v>0.77731644664906785</v>
       </c>
       <c r="M96">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>94</v>
       </c>
       <c r="O96">
-        <f>_xlfn.LOGNORM.DIST(M96,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="16"/>
         <v>0.99953250728939125</v>
       </c>
       <c r="P96">
-        <f>_xlfn.LOGNORM.DIST(M96,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="17"/>
         <v>0.90479934592610434</v>
       </c>
       <c r="Q96">
-        <f>_xlfn.LOGNORM.DIST(M96,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="18"/>
         <v>0.99999994500449152</v>
       </c>
     </row>
@@ -14212,31 +14223,31 @@
         <v>59.711727000000003</v>
       </c>
       <c r="B97">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>4.0895284332690895</v>
       </c>
       <c r="C97">
-        <f>_xlfn.LOGNORM.DIST(A97,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>1.8398817422448704E-3</v>
       </c>
       <c r="D97">
-        <f>_xlfn.LOGNORM.DIST(A97,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="13"/>
         <v>0.98308223450590215</v>
       </c>
       <c r="M97">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>95</v>
       </c>
       <c r="O97">
-        <f>_xlfn.LOGNORM.DIST(M97,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="16"/>
         <v>0.99957668666168276</v>
       </c>
       <c r="P97">
-        <f>_xlfn.LOGNORM.DIST(M97,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="17"/>
         <v>0.90940222362851131</v>
       </c>
       <c r="Q97">
-        <f>_xlfn.LOGNORM.DIST(M97,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="18"/>
         <v>0.99999995277308973</v>
       </c>
     </row>
@@ -14245,31 +14256,31 @@
         <v>30.034946999999999</v>
       </c>
       <c r="B98">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>3.4023616036926105</v>
       </c>
       <c r="C98">
-        <f>_xlfn.LOGNORM.DIST(A98,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>3.2980054339168216E-2</v>
       </c>
       <c r="D98">
-        <f>_xlfn.LOGNORM.DIST(A98,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="13"/>
         <v>0.62700169641178771</v>
       </c>
       <c r="M98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>96</v>
       </c>
       <c r="O98">
-        <f>_xlfn.LOGNORM.DIST(M98,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="16"/>
         <v>0.99961656415272859</v>
       </c>
       <c r="P98">
-        <f>_xlfn.LOGNORM.DIST(M98,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="17"/>
         <v>0.9137922215439922</v>
       </c>
       <c r="Q98">
-        <f>_xlfn.LOGNORM.DIST(M98,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="18"/>
         <v>0.99999995940932918</v>
       </c>
     </row>
@@ -14278,31 +14289,31 @@
         <v>30.752227999999999</v>
       </c>
       <c r="B99">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>3.4259624469123224</v>
       </c>
       <c r="C99">
-        <f>_xlfn.LOGNORM.DIST(A99,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>3.1512711509357319E-2</v>
       </c>
       <c r="D99">
-        <f>_xlfn.LOGNORM.DIST(A99,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="13"/>
         <v>0.6501327031786065</v>
       </c>
       <c r="M99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>97</v>
       </c>
       <c r="O99">
-        <f>_xlfn.LOGNORM.DIST(M99,$G$2,$G$3,TRUE)</f>
+        <f t="shared" ref="O99:O130" si="20">_xlfn.LOGNORM.DIST(M99,$G$2,$G$3,TRUE)</f>
         <v>0.99965257017894549</v>
       </c>
       <c r="P99">
-        <f>_xlfn.LOGNORM.DIST(M99,$G$4,$G$3,TRUE)</f>
+        <f t="shared" ref="P99:P130" si="21">_xlfn.LOGNORM.DIST(M99,$G$4,$G$3,TRUE)</f>
         <v>0.91797812326013017</v>
       </c>
       <c r="Q99">
-        <f>_xlfn.LOGNORM.DIST(M99,$G$5,$G$3,TRUE)</f>
+        <f t="shared" ref="Q99:Q130" si="22">_xlfn.LOGNORM.DIST(M99,$G$5,$G$3,TRUE)</f>
         <v>0.99999996508333555</v>
       </c>
     </row>
@@ -14311,31 +14322,31 @@
         <v>31.663309999999999</v>
       </c>
       <c r="B100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>3.4551585973140342</v>
       </c>
       <c r="C100">
-        <f>_xlfn.LOGNORM.DIST(A100,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>2.9630722776803679E-2</v>
       </c>
       <c r="D100">
-        <f>_xlfn.LOGNORM.DIST(A100,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="13"/>
         <v>0.6779866194342955</v>
       </c>
       <c r="M100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>98</v>
       </c>
       <c r="O100">
-        <f>_xlfn.LOGNORM.DIST(M100,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="20"/>
         <v>0.99968509104499359</v>
       </c>
       <c r="P100">
-        <f>_xlfn.LOGNORM.DIST(M100,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="21"/>
         <v>0.92196845657157789</v>
       </c>
       <c r="Q100">
-        <f>_xlfn.LOGNORM.DIST(M100,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="22"/>
         <v>0.99999996993891804</v>
       </c>
     </row>
@@ -14344,31 +14355,31 @@
         <v>45.357121999999997</v>
       </c>
       <c r="B101">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>3.8145672094348075</v>
       </c>
       <c r="C101">
-        <f>_xlfn.LOGNORM.DIST(A101,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>8.6072466482321995E-3</v>
       </c>
       <c r="D101">
-        <f>_xlfn.LOGNORM.DIST(A101,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="13"/>
         <v>0.91962260976774557</v>
       </c>
       <c r="M101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>99</v>
       </c>
       <c r="O101">
-        <f>_xlfn.LOGNORM.DIST(M101,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="20"/>
         <v>0.99971447355766396</v>
       </c>
       <c r="P101">
-        <f>_xlfn.LOGNORM.DIST(M101,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="21"/>
         <v>0.92577148974739065</v>
       </c>
       <c r="Q101">
-        <f>_xlfn.LOGNORM.DIST(M101,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="22"/>
         <v>0.99999997409775543</v>
       </c>
     </row>
@@ -14377,31 +14388,31 @@
         <v>32.453243999999998</v>
       </c>
       <c r="B102">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>3.4798004073368722</v>
       </c>
       <c r="C102">
-        <f>_xlfn.LOGNORM.DIST(A102,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>2.8002574013062803E-2</v>
       </c>
       <c r="D102">
-        <f>_xlfn.LOGNORM.DIST(A102,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="13"/>
         <v>0.70074905743697846</v>
       </c>
       <c r="M102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>100</v>
       </c>
       <c r="O102">
-        <f>_xlfn.LOGNORM.DIST(M102,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="20"/>
         <v>0.99974102914944463</v>
       </c>
       <c r="P102">
-        <f>_xlfn.LOGNORM.DIST(M102,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="21"/>
         <v>0.92939522933546259</v>
       </c>
       <c r="Q102">
-        <f>_xlfn.LOGNORM.DIST(M102,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="22"/>
         <v>0.99999997766289983</v>
       </c>
     </row>
@@ -14410,31 +14421,31 @@
         <v>10.624014000000001</v>
       </c>
       <c r="B103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>2.3631169105042944</v>
       </c>
       <c r="C103">
-        <f>_xlfn.LOGNORM.DIST(A103,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>5.5761347114667075E-3</v>
       </c>
       <c r="D103">
-        <f>_xlfn.LOGNORM.DIST(A103,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="13"/>
         <v>8.2997583480020169E-3</v>
       </c>
       <c r="M103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>101</v>
       </c>
       <c r="O103">
-        <f>_xlfn.LOGNORM.DIST(M103,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="20"/>
         <v>0.99976503756439994</v>
       </c>
       <c r="P103">
-        <f>_xlfn.LOGNORM.DIST(M103,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="21"/>
         <v>0.93284741933115567</v>
       </c>
       <c r="Q103">
-        <f>_xlfn.LOGNORM.DIST(M103,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="22"/>
         <v>0.99999998072170959</v>
       </c>
     </row>
@@ -14443,31 +14454,31 @@
         <v>27.340658999999999</v>
       </c>
       <c r="B104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>3.308374934882413</v>
       </c>
       <c r="C104">
-        <f>_xlfn.LOGNORM.DIST(A104,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>3.8065618238077741E-2</v>
       </c>
       <c r="D104">
-        <f>_xlfn.LOGNORM.DIST(A104,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="13"/>
         <v>0.53108140392304137</v>
       </c>
       <c r="M104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>102</v>
       </c>
       <c r="O104">
-        <f>_xlfn.LOGNORM.DIST(M104,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="20"/>
         <v>0.99978675015333773</v>
       </c>
       <c r="P104">
-        <f>_xlfn.LOGNORM.DIST(M104,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="21"/>
         <v>0.93613554155093071</v>
       </c>
       <c r="Q104">
-        <f>_xlfn.LOGNORM.DIST(M104,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="22"/>
         <v>0.99999998334830698</v>
       </c>
     </row>
@@ -14476,31 +14487,31 @@
         <v>14.9664</v>
       </c>
       <c r="B105">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>2.70580768854943</v>
       </c>
       <c r="C105">
-        <f>_xlfn.LOGNORM.DIST(A105,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>2.2687244398809037E-2</v>
       </c>
       <c r="D105">
-        <f>_xlfn.LOGNORM.DIST(A105,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="13"/>
         <v>6.6970012907913684E-2</v>
       </c>
       <c r="M105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>103</v>
       </c>
       <c r="O105">
-        <f>_xlfn.LOGNORM.DIST(M105,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="20"/>
         <v>0.9998063928201768</v>
       </c>
       <c r="P105">
-        <f>_xlfn.LOGNORM.DIST(M105,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="21"/>
         <v>0.93926681706478854</v>
       </c>
       <c r="Q105">
-        <f>_xlfn.LOGNORM.DIST(M105,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="22"/>
         <v>0.99999998560564185</v>
       </c>
     </row>
@@ -14509,31 +14520,31 @@
         <v>27.103231999999998</v>
       </c>
       <c r="B106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>3.299652982767129</v>
       </c>
       <c r="C106">
-        <f>_xlfn.LOGNORM.DIST(A106,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>3.8457467357979232E-2</v>
       </c>
       <c r="D106">
-        <f>_xlfn.LOGNORM.DIST(A106,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="13"/>
         <v>0.52199683330369306</v>
       </c>
       <c r="M106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>104</v>
       </c>
       <c r="O106">
-        <f>_xlfn.LOGNORM.DIST(M106,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="20"/>
         <v>0.99982416865691215</v>
       </c>
       <c r="P106">
-        <f>_xlfn.LOGNORM.DIST(M106,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="21"/>
         <v>0.94224820855364411</v>
       </c>
       <c r="Q106">
-        <f>_xlfn.LOGNORM.DIST(M106,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="22"/>
         <v>0.99999998754722352</v>
       </c>
     </row>
@@ -14542,31 +14553,31 @@
         <v>31.566044999999999</v>
       </c>
       <c r="B107">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>3.4520820175601985</v>
       </c>
       <c r="C107">
-        <f>_xlfn.LOGNORM.DIST(A107,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>2.9831827326310074E-2</v>
       </c>
       <c r="D107">
-        <f>_xlfn.LOGNORM.DIST(A107,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="13"/>
         <v>0.67509480738891847</v>
       </c>
       <c r="M107">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>105</v>
       </c>
       <c r="O107">
-        <f>_xlfn.LOGNORM.DIST(M107,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="20"/>
         <v>0.99984026030053996</v>
       </c>
       <c r="P107">
-        <f>_xlfn.LOGNORM.DIST(M107,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="21"/>
         <v>0.94508642346935057</v>
       </c>
       <c r="Q107">
-        <f>_xlfn.LOGNORM.DIST(M107,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="22"/>
         <v>0.99999998921857713</v>
       </c>
     </row>
@@ -14575,31 +14586,31 @@
         <v>31.109511999999999</v>
       </c>
       <c r="B108">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>3.4375136245120048</v>
       </c>
       <c r="C108">
-        <f>_xlfn.LOGNORM.DIST(A108,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>3.0775704060568891E-2</v>
       </c>
       <c r="D108">
-        <f>_xlfn.LOGNORM.DIST(A108,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="13"/>
         <v>0.66126010468985552</v>
       </c>
       <c r="M108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>106</v>
       </c>
       <c r="O108">
-        <f>_xlfn.LOGNORM.DIST(M108,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="20"/>
         <v>0.99985483204170367</v>
       </c>
       <c r="P108">
-        <f>_xlfn.LOGNORM.DIST(M108,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="21"/>
         <v>0.94778791788595473</v>
       </c>
       <c r="Q108">
-        <f>_xlfn.LOGNORM.DIST(M108,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="22"/>
         <v>0.99999999065846912</v>
       </c>
     </row>
@@ -14608,31 +14619,31 @@
         <v>25.354544000000001</v>
       </c>
       <c r="B109">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>3.2329579644668387</v>
       </c>
       <c r="C109">
-        <f>_xlfn.LOGNORM.DIST(A109,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>4.0880239294594563E-2</v>
       </c>
       <c r="D109">
-        <f>_xlfn.LOGNORM.DIST(A109,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="13"/>
         <v>0.45249727754374658</v>
       </c>
       <c r="M109">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>107</v>
       </c>
       <c r="O109">
-        <f>_xlfn.LOGNORM.DIST(M109,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="20"/>
         <v>0.99986803171161032</v>
       </c>
       <c r="P109">
-        <f>_xlfn.LOGNORM.DIST(M109,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="21"/>
         <v>0.95035890094095943</v>
       </c>
       <c r="Q109">
-        <f>_xlfn.LOGNORM.DIST(M109,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="22"/>
         <v>0.99999999189993949</v>
       </c>
     </row>
@@ -14641,31 +14652,31 @@
         <v>21.223222</v>
       </c>
       <c r="B110">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>3.0550959595484155</v>
       </c>
       <c r="C110">
-        <f>_xlfn.LOGNORM.DIST(A110,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>4.1457002908314312E-2</v>
       </c>
       <c r="D110">
-        <f>_xlfn.LOGNORM.DIST(A110,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="13"/>
         <v>0.27935305623437473</v>
       </c>
       <c r="M110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>108</v>
       </c>
       <c r="O110">
-        <f>_xlfn.LOGNORM.DIST(M110,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="20"/>
         <v>0.99987999237090264</v>
       </c>
       <c r="P110">
-        <f>_xlfn.LOGNORM.DIST(M110,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="21"/>
         <v>0.9528053397748526</v>
       </c>
       <c r="Q110">
-        <f>_xlfn.LOGNORM.DIST(M110,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="22"/>
         <v>0.99999999297117181</v>
       </c>
     </row>
@@ -14674,31 +14685,31 @@
         <v>49.988799</v>
       </c>
       <c r="B111">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>3.9117989603319177</v>
       </c>
       <c r="C111">
-        <f>_xlfn.LOGNORM.DIST(A111,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>5.2918359033624881E-3</v>
       </c>
       <c r="D111">
-        <f>_xlfn.LOGNORM.DIST(A111,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="13"/>
         <v>0.95123652913928058</v>
       </c>
       <c r="M111">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>109</v>
       </c>
       <c r="O111">
-        <f>_xlfn.LOGNORM.DIST(M111,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="20"/>
         <v>0.99989083382161215</v>
       </c>
       <c r="P111">
-        <f>_xlfn.LOGNORM.DIST(M111,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="21"/>
         <v>0.95513296488599109</v>
       </c>
       <c r="Q111">
-        <f>_xlfn.LOGNORM.DIST(M111,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="22"/>
         <v>0.99999999389622773</v>
       </c>
     </row>
@@ -14707,31 +14718,31 @@
         <v>27.297087000000001</v>
       </c>
       <c r="B112">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>3.3067799932010091</v>
       </c>
       <c r="C112">
-        <f>_xlfn.LOGNORM.DIST(A112,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>3.8138458473162988E-2</v>
       </c>
       <c r="D112">
-        <f>_xlfn.LOGNORM.DIST(A112,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="13"/>
         <v>0.52942122042552597</v>
       </c>
       <c r="M112">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>110</v>
       </c>
       <c r="O112">
-        <f>_xlfn.LOGNORM.DIST(M112,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="20"/>
         <v>0.99990066396104282</v>
       </c>
       <c r="P112">
-        <f>_xlfn.LOGNORM.DIST(M112,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="21"/>
         <v>0.957347275826129</v>
       </c>
       <c r="Q112">
-        <f>_xlfn.LOGNORM.DIST(M112,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="22"/>
         <v>0.99999999469566703</v>
       </c>
     </row>
@@ -14740,31 +14751,31 @@
         <v>33.555169999999997</v>
       </c>
       <c r="B113">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>3.5131909499064138</v>
       </c>
       <c r="C113">
-        <f>_xlfn.LOGNORM.DIST(A113,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>2.5766681396082267E-2</v>
       </c>
       <c r="D113">
-        <f>_xlfn.LOGNORM.DIST(A113,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="13"/>
         <v>0.73036882766175448</v>
       </c>
       <c r="M113">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>111</v>
       </c>
       <c r="O113">
-        <f>_xlfn.LOGNORM.DIST(M113,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="20"/>
         <v>0.99990957999440211</v>
       </c>
       <c r="P113">
-        <f>_xlfn.LOGNORM.DIST(M113,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="21"/>
         <v>0.95945354716944153</v>
       </c>
       <c r="Q113">
-        <f>_xlfn.LOGNORM.DIST(M113,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="22"/>
         <v>0.99999999538707163</v>
       </c>
     </row>
@@ -14773,31 +14784,31 @@
         <v>14.568887</v>
       </c>
       <c r="B114">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>2.6788882274471195</v>
       </c>
       <c r="C114">
-        <f>_xlfn.LOGNORM.DIST(A114,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>2.091925421003954E-2</v>
       </c>
       <c r="D114">
-        <f>_xlfn.LOGNORM.DIST(A114,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="13"/>
         <v>5.8302530016186502E-2</v>
       </c>
       <c r="M114">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>112</v>
       </c>
       <c r="O114">
-        <f>_xlfn.LOGNORM.DIST(M114,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="20"/>
         <v>0.99991766952118188</v>
       </c>
       <c r="P114">
-        <f>_xlfn.LOGNORM.DIST(M114,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="21"/>
         <v>0.96145683469490861</v>
       </c>
       <c r="Q114">
-        <f>_xlfn.LOGNORM.DIST(M114,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="22"/>
         <v>0.99999999598548972</v>
       </c>
     </row>
@@ -14806,31 +14817,31 @@
         <v>41.502260999999997</v>
       </c>
       <c r="B115">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>3.7257479076802769</v>
       </c>
       <c r="C115">
-        <f>_xlfn.LOGNORM.DIST(A115,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>1.2684534759685534E-2</v>
       </c>
       <c r="D115">
-        <f>_xlfn.LOGNORM.DIST(A115,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="13"/>
         <v>0.87902463510464246</v>
       </c>
       <c r="M115">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>113</v>
       </c>
       <c r="O115">
-        <f>_xlfn.LOGNORM.DIST(M115,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="20"/>
         <v>0.99992501150867852</v>
       </c>
       <c r="P115">
-        <f>_xlfn.LOGNORM.DIST(M115,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="21"/>
         <v>0.96336198172834864</v>
       </c>
       <c r="Q115">
-        <f>_xlfn.LOGNORM.DIST(M115,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="22"/>
         <v>0.99999999650381111</v>
       </c>
     </row>
@@ -14839,31 +14850,31 @@
         <v>21.644832000000001</v>
       </c>
       <c r="B116">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>3.0747667192560608</v>
       </c>
       <c r="C116">
-        <f>_xlfn.LOGNORM.DIST(A116,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>4.1836138946105592E-2</v>
       </c>
       <c r="D116">
-        <f>_xlfn.LOGNORM.DIST(A116,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="13"/>
         <v>0.29691568489955644</v>
       </c>
       <c r="M116">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>114</v>
       </c>
       <c r="O116">
-        <f>_xlfn.LOGNORM.DIST(M116,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="20"/>
         <v>0.99993167716460152</v>
       </c>
       <c r="P116">
-        <f>_xlfn.LOGNORM.DIST(M116,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="21"/>
         <v>0.96517362559632069</v>
       </c>
       <c r="Q116">
-        <f>_xlfn.LOGNORM.DIST(M116,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="22"/>
         <v>0.99999999695308572</v>
       </c>
     </row>
@@ -14872,31 +14883,31 @@
         <v>33.753211999999998</v>
       </c>
       <c r="B117">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>3.5190755831604967</v>
       </c>
       <c r="C117">
-        <f>_xlfn.LOGNORM.DIST(A117,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>2.537147749072953E-2</v>
       </c>
       <c r="D117">
-        <f>_xlfn.LOGNORM.DIST(A117,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="13"/>
         <v>0.73543254015293658</v>
       </c>
       <c r="M117">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>115</v>
       </c>
       <c r="O117">
-        <f>_xlfn.LOGNORM.DIST(M117,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="20"/>
         <v>0.99993773071943282</v>
       </c>
       <c r="P117">
-        <f>_xlfn.LOGNORM.DIST(M117,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="21"/>
         <v>0.9668962041495337</v>
       </c>
       <c r="Q117">
-        <f>_xlfn.LOGNORM.DIST(M117,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="22"/>
         <v>0.99999999734279399</v>
       </c>
     </row>
@@ -14905,31 +14916,31 @@
         <v>12.863089</v>
       </c>
       <c r="B118">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>2.5543618921428433</v>
       </c>
       <c r="C118">
-        <f>_xlfn.LOGNORM.DIST(A118,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>1.3474435912749466E-2</v>
       </c>
       <c r="D118">
-        <f>_xlfn.LOGNORM.DIST(A118,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="13"/>
         <v>2.9044143455446474E-2</v>
       </c>
       <c r="M118">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>116</v>
       </c>
       <c r="O118">
-        <f>_xlfn.LOGNORM.DIST(M118,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="20"/>
         <v>0.99994323012805997</v>
       </c>
       <c r="P118">
-        <f>_xlfn.LOGNORM.DIST(M118,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="21"/>
         <v>0.96853396231836497</v>
       </c>
       <c r="Q118">
-        <f>_xlfn.LOGNORM.DIST(M118,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="22"/>
         <v>0.99999999768107573</v>
       </c>
     </row>
@@ -14938,31 +14949,31 @@
         <v>30.868766999999998</v>
       </c>
       <c r="B119">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>3.4297448960254151</v>
       </c>
       <c r="C119">
-        <f>_xlfn.LOGNORM.DIST(A119,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>3.1272600113541306E-2</v>
       </c>
       <c r="D119">
-        <f>_xlfn.LOGNORM.DIST(A119,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="13"/>
         <v>0.65379117510381313</v>
       </c>
       <c r="M119">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>117</v>
       </c>
       <c r="O119">
-        <f>_xlfn.LOGNORM.DIST(M119,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="20"/>
         <v>0.99994822769917913</v>
       </c>
       <c r="P119">
-        <f>_xlfn.LOGNORM.DIST(M119,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="21"/>
         <v>0.97009095866761907</v>
       </c>
       <c r="Q119">
-        <f>_xlfn.LOGNORM.DIST(M119,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="22"/>
         <v>0.99999999797492556</v>
       </c>
     </row>
@@ -14971,31 +14982,31 @@
         <v>11.706860000000001</v>
       </c>
       <c r="B120">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>2.4601749947688165</v>
       </c>
       <c r="C120">
-        <f>_xlfn.LOGNORM.DIST(A120,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>9.0030614893266917E-3</v>
       </c>
       <c r="D120">
-        <f>_xlfn.LOGNORM.DIST(A120,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="13"/>
         <v>1.6117307475069592E-2</v>
       </c>
       <c r="M120">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>118</v>
       </c>
       <c r="O120">
-        <f>_xlfn.LOGNORM.DIST(M120,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="20"/>
         <v>0.99995277066006083</v>
       </c>
       <c r="P120">
-        <f>_xlfn.LOGNORM.DIST(M120,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="21"/>
         <v>0.97157107192178382</v>
       </c>
       <c r="Q120">
-        <f>_xlfn.LOGNORM.DIST(M120,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="22"/>
         <v>0.99999999823035846</v>
       </c>
     </row>
@@ -15004,31 +15015,31 @@
         <v>23.814720000000001</v>
       </c>
       <c r="B121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>3.1703038768878842</v>
       </c>
       <c r="C121">
-        <f>_xlfn.LOGNORM.DIST(A121,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>4.2110366220299025E-2</v>
       </c>
       <c r="D121">
-        <f>_xlfn.LOGNORM.DIST(A121,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="13"/>
         <v>0.38847310817080294</v>
       </c>
       <c r="M121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>119</v>
       </c>
       <c r="O121">
-        <f>_xlfn.LOGNORM.DIST(M121,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="20"/>
         <v>0.99995690166345419</v>
       </c>
       <c r="P121">
-        <f>_xlfn.LOGNORM.DIST(M121,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="21"/>
         <v>0.9729780074357911</v>
       </c>
       <c r="Q121">
-        <f>_xlfn.LOGNORM.DIST(M121,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="22"/>
         <v>0.99999999845255105</v>
       </c>
     </row>
@@ -15037,31 +15048,31 @@
         <v>24.345918999999999</v>
       </c>
       <c r="B122">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>3.1923642379466282</v>
       </c>
       <c r="C122">
-        <f>_xlfn.LOGNORM.DIST(A122,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>4.1801033686068925E-2</v>
       </c>
       <c r="D122">
-        <f>_xlfn.LOGNORM.DIST(A122,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="13"/>
         <v>0.41076572056817251</v>
       </c>
       <c r="M122">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>120</v>
       </c>
       <c r="O122">
-        <f>_xlfn.LOGNORM.DIST(M122,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="20"/>
         <v>0.9999606592426864</v>
       </c>
       <c r="P122">
-        <f>_xlfn.LOGNORM.DIST(M122,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="21"/>
         <v>0.9743153035896861</v>
       </c>
       <c r="Q122">
-        <f>_xlfn.LOGNORM.DIST(M122,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="22"/>
         <v>0.99999999864596156</v>
       </c>
     </row>
@@ -15070,31 +15081,31 @@
         <v>33.571406000000003</v>
       </c>
       <c r="B123">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>3.5136746927481943</v>
       </c>
       <c r="C123">
-        <f>_xlfn.LOGNORM.DIST(A123,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>2.5734193137635041E-2</v>
       </c>
       <c r="D123">
-        <f>_xlfn.LOGNORM.DIST(A123,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="13"/>
         <v>0.73078691174032095</v>
       </c>
       <c r="M123">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>121</v>
       </c>
       <c r="O123">
-        <f>_xlfn.LOGNORM.DIST(M123,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="20"/>
         <v>0.99996407822036659</v>
       </c>
       <c r="P123">
-        <f>_xlfn.LOGNORM.DIST(M123,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="21"/>
         <v>0.97558633808868866</v>
       </c>
       <c r="Q123">
-        <f>_xlfn.LOGNORM.DIST(M123,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="22"/>
         <v>0.9999999988144328</v>
       </c>
     </row>
@@ -15103,31 +15114,31 @@
         <v>39.996746999999999</v>
       </c>
       <c r="B124">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>3.6887981258068794</v>
       </c>
       <c r="C124">
-        <f>_xlfn.LOGNORM.DIST(A124,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>1.4669845989552972E-2</v>
       </c>
       <c r="D124">
-        <f>_xlfn.LOGNORM.DIST(A124,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="13"/>
         <v>0.85846282820702513</v>
       </c>
       <c r="M124">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>122</v>
       </c>
       <c r="O124">
-        <f>_xlfn.LOGNORM.DIST(M124,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="20"/>
         <v>0.99996719007552792</v>
       </c>
       <c r="P124">
-        <f>_xlfn.LOGNORM.DIST(M124,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="21"/>
         <v>0.97679433415290462</v>
       </c>
       <c r="Q124">
-        <f>_xlfn.LOGNORM.DIST(M124,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="22"/>
         <v>0.99999999896127889</v>
       </c>
     </row>
@@ -15136,31 +15147,31 @@
         <v>29.612449000000002</v>
       </c>
       <c r="B125">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>3.3881948472377474</v>
       </c>
       <c r="C125">
-        <f>_xlfn.LOGNORM.DIST(A125,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>3.3831436698247432E-2</v>
       </c>
       <c r="D125">
-        <f>_xlfn.LOGNORM.DIST(A125,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="13"/>
         <v>0.61288740815614484</v>
       </c>
       <c r="M125">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>123</v>
       </c>
       <c r="O125">
-        <f>_xlfn.LOGNORM.DIST(M125,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="20"/>
         <v>0.99997002327352991</v>
       </c>
       <c r="P125">
-        <f>_xlfn.LOGNORM.DIST(M125,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="21"/>
         <v>0.97794236658345035</v>
       </c>
       <c r="Q125">
-        <f>_xlfn.LOGNORM.DIST(M125,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="22"/>
         <v>0.99999999908936077</v>
       </c>
     </row>
@@ -15169,31 +15180,31 @@
         <v>44.176752</v>
       </c>
       <c r="B126">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>3.7881986778607319</v>
       </c>
       <c r="C126">
-        <f>_xlfn.LOGNORM.DIST(A126,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>9.7120303334515389E-3</v>
       </c>
       <c r="D126">
-        <f>_xlfn.LOGNORM.DIST(A126,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="13"/>
         <v>0.90882254853160771</v>
       </c>
       <c r="M126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>124</v>
       </c>
       <c r="O126">
-        <f>_xlfn.LOGNORM.DIST(M126,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="20"/>
         <v>0.99997260356258377</v>
       </c>
       <c r="P126">
-        <f>_xlfn.LOGNORM.DIST(M126,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="21"/>
         <v>0.97903336769399707</v>
       </c>
       <c r="Q126">
-        <f>_xlfn.LOGNORM.DIST(M126,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="22"/>
         <v>0.99999999920114968</v>
       </c>
     </row>
@@ -15202,31 +15213,31 @@
         <v>31.749929999999999</v>
       </c>
       <c r="B127">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>3.4578905206118606</v>
       </c>
       <c r="C127">
-        <f>_xlfn.LOGNORM.DIST(A127,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>2.9451683783319194E-2</v>
       </c>
       <c r="D127">
-        <f>_xlfn.LOGNORM.DIST(A127,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="13"/>
         <v>0.68054547799618004</v>
       </c>
       <c r="M127">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>125</v>
       </c>
       <c r="O127">
-        <f>_xlfn.LOGNORM.DIST(M127,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="20"/>
         <v>0.99997495424035443</v>
       </c>
       <c r="P127">
-        <f>_xlfn.LOGNORM.DIST(M127,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="21"/>
         <v>0.98007013309875546</v>
       </c>
       <c r="Q127">
-        <f>_xlfn.LOGNORM.DIST(M127,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="22"/>
         <v>0.99999999929878147</v>
       </c>
     </row>
@@ -15235,31 +15246,31 @@
         <v>48.104211999999997</v>
       </c>
       <c r="B128">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>3.8733697408454675</v>
       </c>
       <c r="C128">
-        <f>_xlfn.LOGNORM.DIST(A128,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>6.4634193076669533E-3</v>
       </c>
       <c r="D128">
-        <f>_xlfn.LOGNORM.DIST(A128,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="13"/>
         <v>0.94019416936430722</v>
       </c>
       <c r="M128">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>126</v>
       </c>
       <c r="O128">
-        <f>_xlfn.LOGNORM.DIST(M128,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="20"/>
         <v>0.99997709639373022</v>
       </c>
       <c r="P128">
-        <f>_xlfn.LOGNORM.DIST(M128,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="21"/>
         <v>0.98105532734972722</v>
       </c>
       <c r="Q128">
-        <f>_xlfn.LOGNORM.DIST(M128,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="22"/>
         <v>0.99999999938410411</v>
       </c>
     </row>
@@ -15268,31 +15279,31 @@
         <v>13.144962</v>
       </c>
       <c r="B129">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>2.5760385673446495</v>
       </c>
       <c r="C129">
-        <f>_xlfn.LOGNORM.DIST(A129,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>1.4658162069793628E-2</v>
       </c>
       <c r="D129">
-        <f>_xlfn.LOGNORM.DIST(A129,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="13"/>
         <v>3.3008377550421394E-2</v>
       </c>
       <c r="M129">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>127</v>
       </c>
       <c r="O129">
-        <f>_xlfn.LOGNORM.DIST(M129,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="20"/>
         <v>0.9999790491145224</v>
       </c>
       <c r="P129">
-        <f>_xlfn.LOGNORM.DIST(M129,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="21"/>
         <v>0.98199148941764536</v>
       </c>
       <c r="Q129">
-        <f>_xlfn.LOGNORM.DIST(M129,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="22"/>
         <v>0.99999999945871698</v>
       </c>
     </row>
@@ -15301,31 +15312,31 @@
         <v>18.307562000000001</v>
       </c>
       <c r="B130">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>2.9073141985375486</v>
       </c>
       <c r="C130">
-        <f>_xlfn.LOGNORM.DIST(A130,$G$2,$G$3,FALSE)</f>
+        <f t="shared" ref="C130:C193" si="23">_xlfn.LOGNORM.DIST(A130,$G$2,$G$3,FALSE)</f>
         <v>3.5571416619182651E-2</v>
       </c>
       <c r="D130">
-        <f>_xlfn.LOGNORM.DIST(A130,$G$2,$G$3,TRUE)</f>
+        <f t="shared" ref="D130:D193" si="24">_xlfn.LOGNORM.DIST(A130,$G$2,$G$3,TRUE)</f>
         <v>0.16565870157711815</v>
       </c>
       <c r="M130">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>128</v>
       </c>
       <c r="O130">
-        <f>_xlfn.LOGNORM.DIST(M130,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="20"/>
         <v>0.99998082969357005</v>
       </c>
       <c r="P130">
-        <f>_xlfn.LOGNORM.DIST(M130,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="21"/>
         <v>0.98288103801245741</v>
       </c>
       <c r="Q130">
-        <f>_xlfn.LOGNORM.DIST(M130,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="22"/>
         <v>0.99999999952400531</v>
       </c>
     </row>
@@ -15334,31 +15345,31 @@
         <v>27.874880999999998</v>
       </c>
       <c r="B131">
-        <f t="shared" ref="B131:B194" si="4">LN(A131)</f>
+        <f t="shared" ref="B131:B194" si="25">LN(A131)</f>
         <v>3.3277259607128742</v>
       </c>
       <c r="C131">
-        <f>_xlfn.LOGNORM.DIST(A131,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>3.7141296170527506E-2</v>
       </c>
       <c r="D131">
-        <f>_xlfn.LOGNORM.DIST(A131,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="24"/>
         <v>0.55117248262350416</v>
       </c>
       <c r="M131">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>129</v>
       </c>
       <c r="O131">
-        <f>_xlfn.LOGNORM.DIST(M131,$G$2,$G$3,TRUE)</f>
+        <f t="shared" ref="O131:O162" si="26">_xlfn.LOGNORM.DIST(M131,$G$2,$G$3,TRUE)</f>
         <v>0.9999824537954628</v>
       </c>
       <c r="P131">
-        <f>_xlfn.LOGNORM.DIST(M131,$G$4,$G$3,TRUE)</f>
+        <f t="shared" ref="P131:P162" si="27">_xlfn.LOGNORM.DIST(M131,$G$4,$G$3,TRUE)</f>
         <v>0.98372627674046409</v>
       </c>
       <c r="Q131">
-        <f>_xlfn.LOGNORM.DIST(M131,$G$5,$G$3,TRUE)</f>
+        <f t="shared" ref="Q131:Q162" si="28">_xlfn.LOGNORM.DIST(M131,$G$5,$G$3,TRUE)</f>
         <v>0.99999999958117014</v>
       </c>
     </row>
@@ -15367,31 +15378,31 @@
         <v>22.328592</v>
       </c>
       <c r="B132">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v>3.1058680096768754</v>
       </c>
       <c r="C132">
-        <f>_xlfn.LOGNORM.DIST(A132,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>4.221384839825576E-2</v>
       </c>
       <c r="D132">
-        <f>_xlfn.LOGNORM.DIST(A132,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="24"/>
         <v>0.32566703517083556</v>
       </c>
       <c r="M132">
-        <f t="shared" ref="M132:M169" si="5">M131+1</f>
+        <f t="shared" ref="M132:M169" si="29">M131+1</f>
         <v>130</v>
       </c>
       <c r="O132">
-        <f>_xlfn.LOGNORM.DIST(M132,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="26"/>
         <v>0.99998393561586418</v>
       </c>
       <c r="P132">
-        <f>_xlfn.LOGNORM.DIST(M132,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="27"/>
         <v>0.98452939909634074</v>
       </c>
       <c r="Q132">
-        <f>_xlfn.LOGNORM.DIST(M132,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="28"/>
         <v>0.99999999963125319</v>
       </c>
     </row>
@@ -15400,31 +15411,31 @@
         <v>28.780819999999999</v>
       </c>
       <c r="B133">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v>3.3597091930616712</v>
       </c>
       <c r="C133">
-        <f>_xlfn.LOGNORM.DIST(A133,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>3.5462634863576613E-2</v>
       </c>
       <c r="D133">
-        <f>_xlfn.LOGNORM.DIST(A133,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="24"/>
         <v>0.58406913126543492</v>
       </c>
       <c r="M133">
-        <f t="shared" si="5"/>
+        <f t="shared" si="29"/>
         <v>131</v>
       </c>
       <c r="O133">
-        <f>_xlfn.LOGNORM.DIST(M133,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="26"/>
         <v>0.99998528802320918</v>
       </c>
       <c r="P133">
-        <f>_xlfn.LOGNORM.DIST(M133,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="27"/>
         <v>0.98529249328924629</v>
       </c>
       <c r="Q133">
-        <f>_xlfn.LOGNORM.DIST(M133,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="28"/>
         <v>0.99999999967515851</v>
       </c>
     </row>
@@ -15433,31 +15444,31 @@
         <v>43.268377999999998</v>
       </c>
       <c r="B134">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v>3.7674220679783801</v>
       </c>
       <c r="C134">
-        <f>_xlfn.LOGNORM.DIST(A134,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>1.0645777192725988E-2</v>
       </c>
       <c r="D134">
-        <f>_xlfn.LOGNORM.DIST(A134,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="24"/>
         <v>0.89958197731097467</v>
       </c>
       <c r="M134">
-        <f t="shared" si="5"/>
+        <f t="shared" si="29"/>
         <v>132</v>
       </c>
       <c r="O134">
-        <f>_xlfn.LOGNORM.DIST(M134,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="26"/>
         <v>0.99998652268636856</v>
       </c>
       <c r="P134">
-        <f>_xlfn.LOGNORM.DIST(M134,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="27"/>
         <v>0.98601754690308085</v>
       </c>
       <c r="Q134">
-        <f>_xlfn.LOGNORM.DIST(M134,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="28"/>
         <v>0.99999999971367148</v>
       </c>
     </row>
@@ -15466,31 +15477,31 @@
         <v>24.843230999999999</v>
       </c>
       <c r="B135">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v>3.2125853210703568</v>
       </c>
       <c r="C135">
-        <f>_xlfn.LOGNORM.DIST(A135,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>4.1398136402585134E-2</v>
       </c>
       <c r="D135">
-        <f>_xlfn.LOGNORM.DIST(A135,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="24"/>
         <v>0.43145802131397487</v>
       </c>
       <c r="M135">
-        <f t="shared" si="5"/>
+        <f t="shared" si="29"/>
         <v>133</v>
       </c>
       <c r="O135">
-        <f>_xlfn.LOGNORM.DIST(M135,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="26"/>
         <v>0.99998765018970137</v>
       </c>
       <c r="P135">
-        <f>_xlfn.LOGNORM.DIST(M135,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="27"/>
         <v>0.98670645139169877</v>
       </c>
       <c r="Q135">
-        <f>_xlfn.LOGNORM.DIST(M135,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="28"/>
         <v>0.99999999974747444</v>
       </c>
     </row>
@@ -15499,31 +15510,31 @@
         <v>28.810628999999999</v>
       </c>
       <c r="B136">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v>3.3607443815550875</v>
       </c>
       <c r="C136">
-        <f>_xlfn.LOGNORM.DIST(A136,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>3.540544547052462E-2</v>
       </c>
       <c r="D136">
-        <f>_xlfn.LOGNORM.DIST(A136,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="24"/>
         <v>0.5851253848382757</v>
       </c>
       <c r="M136">
-        <f t="shared" si="5"/>
+        <f t="shared" si="29"/>
         <v>134</v>
       </c>
       <c r="O136">
-        <f>_xlfn.LOGNORM.DIST(M136,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="26"/>
         <v>0.99998868013677433</v>
       </c>
       <c r="P136">
-        <f>_xlfn.LOGNORM.DIST(M136,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="27"/>
         <v>0.98736100641052615</v>
       </c>
       <c r="Q136">
-        <f>_xlfn.LOGNORM.DIST(M136,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="28"/>
         <v>0.99999999977716114</v>
       </c>
     </row>
@@ -15532,31 +15543,31 @@
         <v>38.063361</v>
       </c>
       <c r="B137">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v>3.639252165903927</v>
       </c>
       <c r="C137">
-        <f>_xlfn.LOGNORM.DIST(A137,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>1.7568429414420349E-2</v>
       </c>
       <c r="D137">
-        <f>_xlfn.LOGNORM.DIST(A137,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="24"/>
         <v>0.82736206897821563</v>
       </c>
       <c r="M137">
-        <f t="shared" si="5"/>
+        <f t="shared" si="29"/>
         <v>135</v>
       </c>
       <c r="O137">
-        <f>_xlfn.LOGNORM.DIST(M137,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="26"/>
         <v>0.99998962124389235</v>
       </c>
       <c r="P137">
-        <f>_xlfn.LOGNORM.DIST(M137,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="27"/>
         <v>0.98798292398659004</v>
       </c>
       <c r="Q137">
-        <f>_xlfn.LOGNORM.DIST(M137,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="28"/>
         <v>0.99999999980324794</v>
       </c>
     </row>
@@ -15565,31 +15576,31 @@
         <v>45.782356</v>
       </c>
       <c r="B138">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v>3.8238987767214074</v>
       </c>
       <c r="C138">
-        <f>_xlfn.LOGNORM.DIST(A138,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>8.2377551263659084E-3</v>
       </c>
       <c r="D138">
-        <f>_xlfn.LOGNORM.DIST(A138,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="24"/>
         <v>0.92320362477823048</v>
       </c>
       <c r="M138">
-        <f t="shared" si="5"/>
+        <f t="shared" si="29"/>
         <v>136</v>
       </c>
       <c r="O138">
-        <f>_xlfn.LOGNORM.DIST(M138,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="26"/>
         <v>0.99999048142446578</v>
       </c>
       <c r="P138">
-        <f>_xlfn.LOGNORM.DIST(M138,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="27"/>
         <v>0.98857383252943487</v>
       </c>
       <c r="Q138">
-        <f>_xlfn.LOGNORM.DIST(M138,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="28"/>
         <v>0.99999999982618493</v>
       </c>
     </row>
@@ -15598,31 +15609,31 @@
         <v>23.522960000000001</v>
       </c>
       <c r="B139">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v>3.1579769654520726</v>
       </c>
       <c r="C139">
-        <f>_xlfn.LOGNORM.DIST(A139,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>4.2222892896829171E-2</v>
       </c>
       <c r="D139">
-        <f>_xlfn.LOGNORM.DIST(A139,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="24"/>
         <v>0.37616954664419944</v>
       </c>
       <c r="M139">
-        <f t="shared" si="5"/>
+        <f t="shared" si="29"/>
         <v>137</v>
       </c>
       <c r="O139">
-        <f>_xlfn.LOGNORM.DIST(M139,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="26"/>
         <v>0.99999126786513504</v>
       </c>
       <c r="P139">
-        <f>_xlfn.LOGNORM.DIST(M139,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="27"/>
         <v>0.9891352806858057</v>
       </c>
       <c r="Q139">
-        <f>_xlfn.LOGNORM.DIST(M139,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="28"/>
         <v>0.99999999984636379</v>
       </c>
     </row>
@@ -15631,31 +15642,31 @@
         <v>27.291405000000001</v>
       </c>
       <c r="B140">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v>3.3065718174550836</v>
       </c>
       <c r="C140">
-        <f>_xlfn.LOGNORM.DIST(A140,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>3.8147927016210482E-2</v>
       </c>
       <c r="D140">
-        <f>_xlfn.LOGNORM.DIST(A140,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="24"/>
         <v>0.5292044908010376</v>
       </c>
       <c r="M140">
-        <f t="shared" si="5"/>
+        <f t="shared" si="29"/>
         <v>138</v>
       </c>
       <c r="O140">
-        <f>_xlfn.LOGNORM.DIST(M140,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="26"/>
         <v>0.9999919870944789</v>
       </c>
       <c r="P140">
-        <f>_xlfn.LOGNORM.DIST(M140,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="27"/>
         <v>0.98966874104130942</v>
       </c>
       <c r="Q140">
-        <f>_xlfn.LOGNORM.DIST(M140,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="28"/>
         <v>0.99999999986412647</v>
       </c>
     </row>
@@ -15664,31 +15675,31 @@
         <v>27.457273000000001</v>
       </c>
       <c r="B141">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v>3.3126310873239642</v>
       </c>
       <c r="C141">
-        <f>_xlfn.LOGNORM.DIST(A141,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>3.7868693283256545E-2</v>
       </c>
       <c r="D141">
-        <f>_xlfn.LOGNORM.DIST(A141,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="24"/>
         <v>0.53550893351759044</v>
       </c>
       <c r="M141">
-        <f t="shared" si="5"/>
+        <f t="shared" si="29"/>
         <v>139</v>
       </c>
       <c r="O141">
-        <f>_xlfn.LOGNORM.DIST(M141,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="26"/>
         <v>0.99999264504504781</v>
       </c>
       <c r="P141">
-        <f>_xlfn.LOGNORM.DIST(M141,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="27"/>
         <v>0.99017561367254192</v>
       </c>
       <c r="Q141">
-        <f>_xlfn.LOGNORM.DIST(M141,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="28"/>
         <v>0.99999999987977095</v>
       </c>
     </row>
@@ -15697,31 +15708,31 @@
         <v>31.665610999999998</v>
       </c>
       <c r="B142">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v>3.4552312655346409</v>
       </c>
       <c r="C142">
-        <f>_xlfn.LOGNORM.DIST(A142,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>2.9625965939781278E-2</v>
       </c>
       <c r="D142">
-        <f>_xlfn.LOGNORM.DIST(A142,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="24"/>
         <v>0.67805479425465642</v>
       </c>
       <c r="M142">
-        <f t="shared" si="5"/>
+        <f t="shared" si="29"/>
         <v>140</v>
       </c>
       <c r="O142">
-        <f>_xlfn.LOGNORM.DIST(M142,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="26"/>
         <v>0.9999932471093862</v>
       </c>
       <c r="P142">
-        <f>_xlfn.LOGNORM.DIST(M142,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="27"/>
         <v>0.99065722955339197</v>
       </c>
       <c r="Q142">
-        <f>_xlfn.LOGNORM.DIST(M142,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="28"/>
         <v>0.99999999989355748</v>
       </c>
     </row>
@@ -15730,31 +15741,31 @@
         <v>34.104269000000002</v>
       </c>
       <c r="B143">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v>3.5294225670696155</v>
       </c>
       <c r="C143">
-        <f>_xlfn.LOGNORM.DIST(A143,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>2.4677037475585042E-2</v>
       </c>
       <c r="D143">
-        <f>_xlfn.LOGNORM.DIST(A143,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="24"/>
         <v>0.7442172435264548</v>
       </c>
       <c r="M143">
-        <f t="shared" si="5"/>
+        <f t="shared" si="29"/>
         <v>141</v>
       </c>
       <c r="O143">
-        <f>_xlfn.LOGNORM.DIST(M143,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="26"/>
         <v>0.99999379819064282</v>
       </c>
       <c r="P143">
-        <f>_xlfn.LOGNORM.DIST(M143,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="27"/>
         <v>0.99111485381940978</v>
       </c>
       <c r="Q143">
-        <f>_xlfn.LOGNORM.DIST(M143,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="28"/>
         <v>0.99999999990571364</v>
       </c>
     </row>
@@ -15763,31 +15774,31 @@
         <v>33.450623</v>
       </c>
       <c r="B144">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v>3.5100704112139516</v>
       </c>
       <c r="C144">
-        <f>_xlfn.LOGNORM.DIST(A144,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>2.5976245035124263E-2</v>
       </c>
       <c r="D144">
-        <f>_xlfn.LOGNORM.DIST(A144,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="24"/>
         <v>0.72766404925505113</v>
       </c>
       <c r="M144">
-        <f t="shared" si="5"/>
+        <f t="shared" si="29"/>
         <v>142</v>
       </c>
       <c r="O144">
-        <f>_xlfn.LOGNORM.DIST(M144,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="26"/>
         <v>0.99999430274830525</v>
       </c>
       <c r="P144">
-        <f>_xlfn.LOGNORM.DIST(M144,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="27"/>
         <v>0.99154968889426465</v>
       </c>
       <c r="Q144">
-        <f>_xlfn.LOGNORM.DIST(M144,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="28"/>
         <v>0.99999999991643795</v>
       </c>
     </row>
@@ -15796,31 +15807,31 @@
         <v>20.338287999999999</v>
       </c>
       <c r="B145">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v>3.0125052179531173</v>
       </c>
       <c r="C145">
-        <f>_xlfn.LOGNORM.DIST(A145,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>4.028048917705164E-2</v>
       </c>
       <c r="D145">
-        <f>_xlfn.LOGNORM.DIST(A145,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="24"/>
         <v>0.24314826150040825</v>
       </c>
       <c r="M145">
-        <f t="shared" si="5"/>
+        <f t="shared" si="29"/>
         <v>143</v>
       </c>
       <c r="O145">
-        <f>_xlfn.LOGNORM.DIST(M145,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="26"/>
         <v>0.99999476483953975</v>
       </c>
       <c r="P145">
-        <f>_xlfn.LOGNORM.DIST(M145,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="27"/>
         <v>0.99196287748241252</v>
       </c>
       <c r="Q145">
-        <f>_xlfn.LOGNORM.DIST(M145,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="28"/>
         <v>0.99999999992590416</v>
       </c>
     </row>
@@ -15829,31 +15840,31 @@
         <v>27.619593999999999</v>
       </c>
       <c r="B146">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v>3.3185254483799866</v>
       </c>
       <c r="C146">
-        <f>_xlfn.LOGNORM.DIST(A146,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>3.7589952026421868E-2</v>
       </c>
       <c r="D146">
-        <f>_xlfn.LOGNORM.DIST(A146,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="24"/>
         <v>0.5416332662293204</v>
       </c>
       <c r="M146">
-        <f t="shared" si="5"/>
+        <f t="shared" si="29"/>
         <v>144</v>
       </c>
       <c r="O146">
-        <f>_xlfn.LOGNORM.DIST(M146,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="26"/>
         <v>0.99999518815657118</v>
       </c>
       <c r="P146">
-        <f>_xlfn.LOGNORM.DIST(M146,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="27"/>
         <v>0.992355505432166</v>
       </c>
       <c r="Q146">
-        <f>_xlfn.LOGNORM.DIST(M146,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="28"/>
         <v>0.99999999993426447</v>
       </c>
     </row>
@@ -15862,31 +15873,31 @@
         <v>35.715656000000003</v>
       </c>
       <c r="B147">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v>3.5755891360709002</v>
       </c>
       <c r="C147">
-        <f>_xlfn.LOGNORM.DIST(A147,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>2.1609089832069325E-2</v>
       </c>
       <c r="D147">
-        <f>_xlfn.LOGNORM.DIST(A147,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="24"/>
         <v>0.78148127763935382</v>
       </c>
       <c r="M147">
-        <f t="shared" si="5"/>
+        <f t="shared" si="29"/>
         <v>145</v>
       </c>
       <c r="O147">
-        <f>_xlfn.LOGNORM.DIST(M147,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="26"/>
         <v>0.99999557606049139</v>
       </c>
       <c r="P147">
-        <f>_xlfn.LOGNORM.DIST(M147,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="27"/>
         <v>0.99272860447339051</v>
       </c>
       <c r="Q147">
-        <f>_xlfn.LOGNORM.DIST(M147,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="28"/>
         <v>0.9999999999416519</v>
       </c>
     </row>
@@ -15895,31 +15906,31 @@
         <v>25.865987000000001</v>
       </c>
       <c r="B148">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v>3.2529288624026536</v>
       </c>
       <c r="C148">
-        <f>_xlfn.LOGNORM.DIST(A148,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>4.0267619317422031E-2</v>
       </c>
       <c r="D148">
-        <f>_xlfn.LOGNORM.DIST(A148,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="24"/>
         <v>0.47325233684050155</v>
       </c>
       <c r="M148">
-        <f t="shared" si="5"/>
+        <f t="shared" si="29"/>
         <v>146</v>
       </c>
       <c r="O148">
-        <f>_xlfn.LOGNORM.DIST(M148,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="26"/>
         <v>0.99999593161184697</v>
       </c>
       <c r="P148">
-        <f>_xlfn.LOGNORM.DIST(M148,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="27"/>
         <v>0.99308315483407361</v>
       </c>
       <c r="Q148">
-        <f>_xlfn.LOGNORM.DIST(M148,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="28"/>
         <v>0.99999999994818312</v>
       </c>
     </row>
@@ -15928,31 +15939,31 @@
         <v>36.628163000000001</v>
       </c>
       <c r="B149">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v>3.6008174253830121</v>
       </c>
       <c r="C149">
-        <f>_xlfn.LOGNORM.DIST(A149,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>1.9973368961463577E-2</v>
       </c>
       <c r="D149">
-        <f>_xlfn.LOGNORM.DIST(A149,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="24"/>
         <v>0.80044737912387687</v>
       </c>
       <c r="M149">
-        <f t="shared" si="5"/>
+        <f t="shared" si="29"/>
         <v>147</v>
       </c>
       <c r="O149">
-        <f>_xlfn.LOGNORM.DIST(M149,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="26"/>
         <v>0.99999625759832145</v>
       </c>
       <c r="P149">
-        <f>_xlfn.LOGNORM.DIST(M149,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="27"/>
         <v>0.99342008773999801</v>
       </c>
       <c r="Q149">
-        <f>_xlfn.LOGNORM.DIST(M149,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="28"/>
         <v>0.99999999995396038</v>
       </c>
     </row>
@@ -15961,31 +15972,31 @@
         <v>16.072402</v>
       </c>
       <c r="B150">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v>2.7771036396438293</v>
       </c>
       <c r="C150">
-        <f>_xlfn.LOGNORM.DIST(A150,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>2.745943002285052E-2</v>
       </c>
       <c r="D150">
-        <f>_xlfn.LOGNORM.DIST(A150,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="24"/>
         <v>9.4728927073199243E-2</v>
       </c>
       <c r="M150">
-        <f t="shared" si="5"/>
+        <f t="shared" si="29"/>
         <v>148</v>
       </c>
       <c r="O150">
-        <f>_xlfn.LOGNORM.DIST(M150,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="26"/>
         <v>0.99999655655979414</v>
       </c>
       <c r="P150">
-        <f>_xlfn.LOGNORM.DIST(M150,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="27"/>
         <v>0.99374028780172818</v>
       </c>
       <c r="Q150">
-        <f>_xlfn.LOGNORM.DIST(M150,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="28"/>
         <v>0.9999999999590734</v>
       </c>
     </row>
@@ -15994,31 +16005,31 @@
         <v>18.736143999999999</v>
       </c>
       <c r="B151">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v>2.9304544925645111</v>
       </c>
       <c r="C151">
-        <f>_xlfn.LOGNORM.DIST(A151,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>3.6796105744183981E-2</v>
       </c>
       <c r="D151">
-        <f>_xlfn.LOGNORM.DIST(A151,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="24"/>
         <v>0.18117068052337482</v>
       </c>
       <c r="M151">
-        <f t="shared" si="5"/>
+        <f t="shared" si="29"/>
         <v>149</v>
       </c>
       <c r="O151">
-        <f>_xlfn.LOGNORM.DIST(M151,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="26"/>
         <v>0.99999683081103308</v>
       </c>
       <c r="P151">
-        <f>_xlfn.LOGNORM.DIST(M151,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="27"/>
         <v>0.99404459529307543</v>
       </c>
       <c r="Q151">
-        <f>_xlfn.LOGNORM.DIST(M151,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="28"/>
         <v>0.99999999996360089</v>
       </c>
     </row>
@@ -16027,31 +16038,31 @@
         <v>26.348875</v>
       </c>
       <c r="B152">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v>3.2714255795787817</v>
       </c>
       <c r="C152">
-        <f>_xlfn.LOGNORM.DIST(A152,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>3.9611803613336667E-2</v>
       </c>
       <c r="D152">
-        <f>_xlfn.LOGNORM.DIST(A152,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="24"/>
         <v>0.49254158801469905</v>
       </c>
       <c r="M152">
-        <f t="shared" si="5"/>
+        <f t="shared" si="29"/>
         <v>150</v>
       </c>
       <c r="O152">
-        <f>_xlfn.LOGNORM.DIST(M152,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="26"/>
         <v>0.99999708246224972</v>
       </c>
       <c r="P152">
-        <f>_xlfn.LOGNORM.DIST(M152,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="27"/>
         <v>0.99433380832515195</v>
       </c>
       <c r="Q152">
-        <f>_xlfn.LOGNORM.DIST(M152,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="28"/>
         <v>0.9999999999676118</v>
       </c>
     </row>
@@ -16060,31 +16071,31 @@
         <v>19.627265999999999</v>
       </c>
       <c r="B153">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v>2.9769197219710586</v>
       </c>
       <c r="C153">
-        <f>_xlfn.LOGNORM.DIST(A153,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>3.895039029640706E-2</v>
       </c>
       <c r="D153">
-        <f>_xlfn.LOGNORM.DIST(A153,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="24"/>
         <v>0.21496029433539571</v>
       </c>
       <c r="M153">
-        <f t="shared" si="5"/>
+        <f t="shared" si="29"/>
         <v>151</v>
       </c>
       <c r="O153">
-        <f>_xlfn.LOGNORM.DIST(M153,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="26"/>
         <v>0.99999731343772225</v>
       </c>
       <c r="P153">
-        <f>_xlfn.LOGNORM.DIST(M153,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="27"/>
         <v>0.99460868492005372</v>
       </c>
       <c r="Q153">
-        <f>_xlfn.LOGNORM.DIST(M153,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="28"/>
         <v>0.99999999997116695</v>
       </c>
     </row>
@@ -16093,31 +16104,31 @@
         <v>23.625198999999999</v>
       </c>
       <c r="B154">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v>3.1623138966247542</v>
       </c>
       <c r="C154">
-        <f>_xlfn.LOGNORM.DIST(A154,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>4.218827341167234E-2</v>
       </c>
       <c r="D154">
-        <f>_xlfn.LOGNORM.DIST(A154,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="24"/>
         <v>0.38048464804950421</v>
       </c>
       <c r="M154">
-        <f t="shared" si="5"/>
+        <f t="shared" si="29"/>
         <v>152</v>
       </c>
       <c r="O154">
-        <f>_xlfn.LOGNORM.DIST(M154,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="26"/>
         <v>0.99999752549267584</v>
       </c>
       <c r="P154">
-        <f>_xlfn.LOGNORM.DIST(M154,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="27"/>
         <v>0.99486994498813874</v>
       </c>
       <c r="Q154">
-        <f>_xlfn.LOGNORM.DIST(M154,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="28"/>
         <v>0.99999999997431965</v>
       </c>
     </row>
@@ -16126,31 +16137,31 @@
         <v>37.342343</v>
       </c>
       <c r="B155">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v>3.6201278838686415</v>
       </c>
       <c r="C155">
-        <f>_xlfn.LOGNORM.DIST(A155,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>1.8750215536055468E-2</v>
       </c>
       <c r="D155">
-        <f>_xlfn.LOGNORM.DIST(A155,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="24"/>
         <v>0.8142721194496394</v>
       </c>
       <c r="M155">
-        <f t="shared" si="5"/>
+        <f t="shared" si="29"/>
         <v>153</v>
       </c>
       <c r="O155">
-        <f>_xlfn.LOGNORM.DIST(M155,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="26"/>
         <v>0.99999772022858513</v>
       </c>
       <c r="P155">
-        <f>_xlfn.LOGNORM.DIST(M155,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="27"/>
         <v>0.99511827221277738</v>
       </c>
       <c r="Q155">
-        <f>_xlfn.LOGNORM.DIST(M155,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="28"/>
         <v>0.99999999997711697</v>
       </c>
     </row>
@@ -16159,31 +16170,31 @@
         <v>37.879268000000003</v>
       </c>
       <c r="B156">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v>3.634403943949537</v>
       </c>
       <c r="C156">
-        <f>_xlfn.LOGNORM.DIST(A156,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>1.7865017854537441E-2</v>
       </c>
       <c r="D156">
-        <f>_xlfn.LOGNORM.DIST(A156,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="24"/>
         <v>0.82410059866227325</v>
       </c>
       <c r="M156">
-        <f t="shared" si="5"/>
+        <f t="shared" si="29"/>
         <v>154</v>
       </c>
       <c r="O156">
-        <f>_xlfn.LOGNORM.DIST(M156,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="26"/>
         <v>0.99999789910705195</v>
       </c>
       <c r="P156">
-        <f>_xlfn.LOGNORM.DIST(M156,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="27"/>
         <v>0.99535431584636114</v>
       </c>
       <c r="Q156">
-        <f>_xlfn.LOGNORM.DIST(M156,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="28"/>
         <v>0.99999999997959998</v>
       </c>
     </row>
@@ -16192,31 +16203,31 @@
         <v>8.9281919999999992</v>
       </c>
       <c r="B157">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v>2.189213910784062</v>
       </c>
       <c r="C157">
-        <f>_xlfn.LOGNORM.DIST(A157,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>2.0113536618870127E-3</v>
       </c>
       <c r="D157">
-        <f>_xlfn.LOGNORM.DIST(A157,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="24"/>
         <v>2.1824540624978002E-3</v>
       </c>
       <c r="M157">
-        <f t="shared" si="5"/>
+        <f t="shared" si="29"/>
         <v>155</v>
       </c>
       <c r="O157">
-        <f>_xlfn.LOGNORM.DIST(M157,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="26"/>
         <v>0.99999806346239406</v>
       </c>
       <c r="P157">
-        <f>_xlfn.LOGNORM.DIST(M157,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="27"/>
         <v>0.99557869242125963</v>
       </c>
       <c r="Q157">
-        <f>_xlfn.LOGNORM.DIST(M157,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="28"/>
         <v>0.99999999998180522</v>
       </c>
     </row>
@@ -16225,31 +16236,31 @@
         <v>23.099402000000001</v>
       </c>
       <c r="B158">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v>3.1398067297467747</v>
       </c>
       <c r="C158">
-        <f>_xlfn.LOGNORM.DIST(A158,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>4.2308967709864559E-2</v>
       </c>
       <c r="D158">
-        <f>_xlfn.LOGNORM.DIST(A158,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="24"/>
         <v>0.35826416230097602</v>
       </c>
       <c r="M158">
-        <f t="shared" si="5"/>
+        <f t="shared" si="29"/>
         <v>156</v>
       </c>
       <c r="O158">
-        <f>_xlfn.LOGNORM.DIST(M158,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="26"/>
         <v>0.99999821451306747</v>
       </c>
       <c r="P158">
-        <f>_xlfn.LOGNORM.DIST(M158,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="27"/>
         <v>0.99579198737931096</v>
       </c>
       <c r="Q158">
-        <f>_xlfn.LOGNORM.DIST(M158,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="28"/>
         <v>0.99999999998376465</v>
       </c>
     </row>
@@ -16258,31 +16269,31 @@
         <v>51.094841000000002</v>
       </c>
       <c r="B159">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v>3.933683533208856</v>
       </c>
       <c r="C159">
-        <f>_xlfn.LOGNORM.DIST(A159,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>4.7009035278823899E-3</v>
       </c>
       <c r="D159">
-        <f>_xlfn.LOGNORM.DIST(A159,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="24"/>
         <v>0.95675659247596834</v>
       </c>
       <c r="M159">
-        <f t="shared" si="5"/>
+        <f t="shared" si="29"/>
         <v>157</v>
       </c>
       <c r="O159">
-        <f>_xlfn.LOGNORM.DIST(M159,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="26"/>
         <v>0.99999835337203524</v>
       </c>
       <c r="P159">
-        <f>_xlfn.LOGNORM.DIST(M159,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="27"/>
         <v>0.9959947566233287</v>
       </c>
       <c r="Q159">
-        <f>_xlfn.LOGNORM.DIST(M159,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="28"/>
         <v>0.99999999998550648</v>
       </c>
     </row>
@@ -16291,31 +16302,31 @@
         <v>26.38832</v>
       </c>
       <c r="B160">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v>3.2729214880113648</v>
       </c>
       <c r="C160">
-        <f>_xlfn.LOGNORM.DIST(A160,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>3.9555183990399992E-2</v>
       </c>
       <c r="D160">
-        <f>_xlfn.LOGNORM.DIST(A160,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="24"/>
         <v>0.49410296037670082</v>
       </c>
       <c r="M160">
-        <f t="shared" si="5"/>
+        <f t="shared" si="29"/>
         <v>158</v>
       </c>
       <c r="O160">
-        <f>_xlfn.LOGNORM.DIST(M160,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="26"/>
         <v>0.99999848105617917</v>
       </c>
       <c r="P160">
-        <f>_xlfn.LOGNORM.DIST(M160,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="27"/>
         <v>0.99618752799399912</v>
       </c>
       <c r="Q160">
-        <f>_xlfn.LOGNORM.DIST(M160,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="28"/>
         <v>0.99999999998705569</v>
       </c>
     </row>
@@ -16324,31 +16335,31 @@
         <v>40.713647000000002</v>
       </c>
       <c r="B161">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v>3.7065633433709855</v>
       </c>
       <c r="C161">
-        <f>_xlfn.LOGNORM.DIST(A161,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>1.3695241351238577E-2</v>
       </c>
       <c r="D161">
-        <f>_xlfn.LOGNORM.DIST(A161,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="24"/>
         <v>0.86862708730016025</v>
       </c>
       <c r="M161">
-        <f t="shared" si="5"/>
+        <f t="shared" si="29"/>
         <v>159</v>
       </c>
       <c r="O161">
-        <f>_xlfn.LOGNORM.DIST(M161,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="26"/>
         <v>0.99999859849484962</v>
       </c>
       <c r="P161">
-        <f>_xlfn.LOGNORM.DIST(M161,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="27"/>
         <v>0.99637080267543621</v>
       </c>
       <c r="Q161">
-        <f>_xlfn.LOGNORM.DIST(M161,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="28"/>
         <v>0.99999999998843414</v>
       </c>
     </row>
@@ -16357,31 +16368,31 @@
         <v>32.669460999999998</v>
       </c>
       <c r="B162">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v>3.4864407271603817</v>
       </c>
       <c r="C162">
-        <f>_xlfn.LOGNORM.DIST(A162,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>2.7559736738664371E-2</v>
       </c>
       <c r="D162">
-        <f>_xlfn.LOGNORM.DIST(A162,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="24"/>
         <v>0.70675578645979953</v>
       </c>
       <c r="M162">
-        <f t="shared" si="5"/>
+        <f t="shared" si="29"/>
         <v>160</v>
       </c>
       <c r="O162">
-        <f>_xlfn.LOGNORM.DIST(M162,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="26"/>
         <v>0.99999870653763034</v>
       </c>
       <c r="P162">
-        <f>_xlfn.LOGNORM.DIST(M162,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="27"/>
         <v>0.99654505653255121</v>
       </c>
       <c r="Q162">
-        <f>_xlfn.LOGNORM.DIST(M162,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="28"/>
         <v>0.99999999998966116</v>
       </c>
     </row>
@@ -16390,31 +16401,31 @@
         <v>20.55789</v>
       </c>
       <c r="B163">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v>3.023244808861365</v>
       </c>
       <c r="C163">
-        <f>_xlfn.LOGNORM.DIST(A163,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>4.0621513731891871E-2</v>
       </c>
       <c r="D163">
-        <f>_xlfn.LOGNORM.DIST(A163,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="24"/>
         <v>0.25203198136028548</v>
       </c>
       <c r="M163">
-        <f t="shared" si="5"/>
+        <f t="shared" si="29"/>
         <v>161</v>
       </c>
       <c r="O163">
-        <f>_xlfn.LOGNORM.DIST(M163,$G$2,$G$3,TRUE)</f>
+        <f t="shared" ref="O163:O169" si="30">_xlfn.LOGNORM.DIST(M163,$G$2,$G$3,TRUE)</f>
         <v>0.99999880596139568</v>
       </c>
       <c r="P163">
-        <f>_xlfn.LOGNORM.DIST(M163,$G$4,$G$3,TRUE)</f>
+        <f t="shared" ref="P163:P169" si="31">_xlfn.LOGNORM.DIST(M163,$G$4,$G$3,TRUE)</f>
         <v>0.99671074138328464</v>
       </c>
       <c r="Q163">
-        <f>_xlfn.LOGNORM.DIST(M163,$G$5,$G$3,TRUE)</f>
+        <f t="shared" ref="Q163:Q169" si="32">_xlfn.LOGNORM.DIST(M163,$G$5,$G$3,TRUE)</f>
         <v>0.99999999999075395</v>
       </c>
     </row>
@@ -16423,31 +16434,31 @@
         <v>16.576803000000002</v>
       </c>
       <c r="B164">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v>2.8080043084365411</v>
       </c>
       <c r="C164">
-        <f>_xlfn.LOGNORM.DIST(A164,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>2.9507368089194463E-2</v>
       </c>
       <c r="D164">
-        <f>_xlfn.LOGNORM.DIST(A164,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="24"/>
         <v>0.10910027732258204</v>
       </c>
       <c r="M164">
-        <f t="shared" si="5"/>
+        <f t="shared" si="29"/>
         <v>162</v>
       </c>
       <c r="O164">
-        <f>_xlfn.LOGNORM.DIST(M164,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="30"/>
         <v>0.99999889747672399</v>
       </c>
       <c r="P164">
-        <f>_xlfn.LOGNORM.DIST(M164,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="31"/>
         <v>0.99686828620863943</v>
       </c>
       <c r="Q164">
-        <f>_xlfn.LOGNORM.DIST(M164,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="32"/>
         <v>0.99999999999172773</v>
       </c>
     </row>
@@ -16456,31 +16467,31 @@
         <v>24.147587999999999</v>
       </c>
       <c r="B165">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v>3.1841844993342665</v>
       </c>
       <c r="C165">
-        <f>_xlfn.LOGNORM.DIST(A165,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>4.1931760860336259E-2</v>
       </c>
       <c r="D165">
-        <f>_xlfn.LOGNORM.DIST(A165,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="24"/>
         <v>0.40246202354428084</v>
       </c>
       <c r="M165">
-        <f t="shared" si="5"/>
+        <f t="shared" si="29"/>
         <v>163</v>
       </c>
       <c r="O165">
-        <f>_xlfn.LOGNORM.DIST(M165,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="30"/>
         <v>0.99999898173372959</v>
       </c>
       <c r="P165">
-        <f>_xlfn.LOGNORM.DIST(M165,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="31"/>
         <v>0.99701809830334798</v>
       </c>
       <c r="Q165">
-        <f>_xlfn.LOGNORM.DIST(M165,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="32"/>
         <v>0.9999999999925957</v>
       </c>
     </row>
@@ -16489,31 +16500,31 @@
         <v>44.488239999999998</v>
       </c>
       <c r="B166">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v>3.7952248845838925</v>
       </c>
       <c r="C166">
-        <f>_xlfn.LOGNORM.DIST(A166,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>9.4088662740276843E-3</v>
       </c>
       <c r="D166">
-        <f>_xlfn.LOGNORM.DIST(A166,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="24"/>
         <v>0.9118002924845886</v>
       </c>
       <c r="M166">
-        <f t="shared" si="5"/>
+        <f t="shared" si="29"/>
         <v>164</v>
       </c>
       <c r="O166">
-        <f>_xlfn.LOGNORM.DIST(M166,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="30"/>
         <v>0.99999905932736599</v>
       </c>
       <c r="P166">
-        <f>_xlfn.LOGNORM.DIST(M166,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="31"/>
         <v>0.99716056436989664</v>
       </c>
       <c r="Q166">
-        <f>_xlfn.LOGNORM.DIST(M166,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="32"/>
         <v>0.99999999999336986</v>
       </c>
     </row>
@@ -16522,31 +16533,31 @@
         <v>25.027336999999999</v>
       </c>
       <c r="B167">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v>3.2199687074544125</v>
       </c>
       <c r="C167">
-        <f>_xlfn.LOGNORM.DIST(A167,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>4.1223220867608962E-2</v>
       </c>
       <c r="D167">
-        <f>_xlfn.LOGNORM.DIST(A167,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="24"/>
         <v>0.43906377051463374</v>
       </c>
       <c r="M167">
-        <f t="shared" si="5"/>
+        <f t="shared" si="29"/>
         <v>165</v>
       </c>
       <c r="O167">
-        <f>_xlfn.LOGNORM.DIST(M167,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="30"/>
         <v>0.99999913080225067</v>
       </c>
       <c r="P167">
-        <f>_xlfn.LOGNORM.DIST(M167,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="31"/>
         <v>0.99729605155852741</v>
       </c>
       <c r="Q167">
-        <f>_xlfn.LOGNORM.DIST(M167,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="32"/>
         <v>0.99999999999406053</v>
       </c>
     </row>
@@ -16555,31 +16566,31 @@
         <v>30.756350000000001</v>
       </c>
       <c r="B168">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v>3.4260964769985383</v>
       </c>
       <c r="C168">
-        <f>_xlfn.LOGNORM.DIST(A168,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>3.150422454389977E-2</v>
       </c>
       <c r="D168">
-        <f>_xlfn.LOGNORM.DIST(A168,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="24"/>
         <v>0.65026258108396773</v>
       </c>
       <c r="M168">
-        <f t="shared" si="5"/>
+        <f t="shared" si="29"/>
         <v>166</v>
       </c>
       <c r="O168">
-        <f>_xlfn.LOGNORM.DIST(M168,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="30"/>
         <v>0.99999919665705495</v>
       </c>
       <c r="P168">
-        <f>_xlfn.LOGNORM.DIST(M168,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="31"/>
         <v>0.99742490845573373</v>
       </c>
       <c r="Q168">
-        <f>_xlfn.LOGNORM.DIST(M168,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="32"/>
         <v>0.99999999999467704</v>
       </c>
     </row>
@@ -16588,31 +16599,31 @@
         <v>12.680446999999999</v>
       </c>
       <c r="B169">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v>2.5400612007536605</v>
       </c>
       <c r="C169">
-        <f>_xlfn.LOGNORM.DIST(A169,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>1.2723895889436673E-2</v>
       </c>
       <c r="D169">
-        <f>_xlfn.LOGNORM.DIST(A169,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="24"/>
         <v>2.6651897789639865E-2</v>
       </c>
       <c r="M169">
-        <f t="shared" si="5"/>
+        <f t="shared" si="29"/>
         <v>167</v>
       </c>
       <c r="O169">
-        <f>_xlfn.LOGNORM.DIST(M169,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="30"/>
         <v>0.99999925734850026</v>
       </c>
       <c r="P169">
-        <f>_xlfn.LOGNORM.DIST(M169,$G$4,$G$3,TRUE)</f>
+        <f t="shared" si="31"/>
         <v>0.9975474660236664</v>
       </c>
       <c r="Q169">
-        <f>_xlfn.LOGNORM.DIST(M169,$G$5,$G$3,TRUE)</f>
+        <f t="shared" si="32"/>
         <v>0.99999999999522748</v>
       </c>
     </row>
@@ -16621,15 +16632,15 @@
         <v>29.331904000000002</v>
       </c>
       <c r="B170">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v>3.3786757973501573</v>
       </c>
       <c r="C170">
-        <f>_xlfn.LOGNORM.DIST(A170,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>3.4389260804379873E-2</v>
       </c>
       <c r="D170">
-        <f>_xlfn.LOGNORM.DIST(A170,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="24"/>
         <v>0.60331776301515228</v>
       </c>
     </row>
@@ -16638,15 +16649,15 @@
         <v>65.959841999999995</v>
       </c>
       <c r="B171">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v>4.1890461022973833</v>
       </c>
       <c r="C171">
-        <f>_xlfn.LOGNORM.DIST(A171,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>9.26526270468237E-4</v>
       </c>
       <c r="D171">
-        <f>_xlfn.LOGNORM.DIST(A171,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="24"/>
         <v>0.9914006769971998</v>
       </c>
     </row>
@@ -16655,15 +16666,15 @@
         <v>36.372075000000002</v>
       </c>
       <c r="B172">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v>3.5938013098872745</v>
       </c>
       <c r="C172">
-        <f>_xlfn.LOGNORM.DIST(A172,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>2.0424356066216225E-2</v>
       </c>
       <c r="D172">
-        <f>_xlfn.LOGNORM.DIST(A172,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="24"/>
         <v>0.7952748299558543</v>
       </c>
     </row>
@@ -16672,15 +16683,15 @@
         <v>26.483654999999999</v>
       </c>
       <c r="B173">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v>3.2765277502446293</v>
       </c>
       <c r="C173">
-        <f>_xlfn.LOGNORM.DIST(A173,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>3.9416537679824601E-2</v>
       </c>
       <c r="D173">
-        <f>_xlfn.LOGNORM.DIST(A173,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="24"/>
         <v>0.49786736501354339</v>
       </c>
     </row>
@@ -16689,15 +16700,15 @@
         <v>20.253837999999998</v>
       </c>
       <c r="B174">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v>3.0083443064580404</v>
       </c>
       <c r="C174">
-        <f>_xlfn.LOGNORM.DIST(A174,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>4.014061348243303E-2</v>
       </c>
       <c r="D174">
-        <f>_xlfn.LOGNORM.DIST(A174,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="24"/>
         <v>0.23975244622279562</v>
       </c>
     </row>
@@ -16706,15 +16717,15 @@
         <v>43.722330999999997</v>
       </c>
       <c r="B175">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v>3.7778589784469871</v>
       </c>
       <c r="C175">
-        <f>_xlfn.LOGNORM.DIST(A175,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>1.0169764218379977E-2</v>
       </c>
       <c r="D175">
-        <f>_xlfn.LOGNORM.DIST(A175,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="24"/>
         <v>0.90430589800828254</v>
       </c>
     </row>
@@ -16723,15 +16734,15 @@
         <v>38.857835000000001</v>
       </c>
       <c r="B176">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v>3.6599097295820435</v>
       </c>
       <c r="C176">
-        <f>_xlfn.LOGNORM.DIST(A176,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>1.632942692860154E-2</v>
       </c>
       <c r="D176">
-        <f>_xlfn.LOGNORM.DIST(A176,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="24"/>
         <v>0.8408231359092404</v>
       </c>
     </row>
@@ -16740,15 +16751,15 @@
         <v>29.130763999999999</v>
       </c>
       <c r="B177">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v>3.371794797884538</v>
       </c>
       <c r="C177">
-        <f>_xlfn.LOGNORM.DIST(A177,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>3.4784770260374562E-2</v>
       </c>
       <c r="D177">
-        <f>_xlfn.LOGNORM.DIST(A177,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="24"/>
         <v>0.59636086418880552</v>
       </c>
     </row>
@@ -16757,15 +16768,15 @@
         <v>33.657193999999997</v>
       </c>
       <c r="B178">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v>3.5162268222455819</v>
       </c>
       <c r="C178">
-        <f>_xlfn.LOGNORM.DIST(A178,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>2.5562790504722703E-2</v>
       </c>
       <c r="D178">
-        <f>_xlfn.LOGNORM.DIST(A178,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="24"/>
         <v>0.73298724141803728</v>
       </c>
     </row>
@@ -16774,15 +16785,15 @@
         <v>22.234867000000001</v>
       </c>
       <c r="B179">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v>3.1016616423841676</v>
       </c>
       <c r="C179">
-        <f>_xlfn.LOGNORM.DIST(A179,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>4.217889837315851E-2</v>
       </c>
       <c r="D179">
-        <f>_xlfn.LOGNORM.DIST(A179,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="24"/>
         <v>0.32171213922569974</v>
       </c>
     </row>
@@ -16791,15 +16802,15 @@
         <v>32.828063999999998</v>
       </c>
       <c r="B180">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v>3.4912837593208224</v>
       </c>
       <c r="C180">
-        <f>_xlfn.LOGNORM.DIST(A180,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>2.7235995623784974E-2</v>
       </c>
       <c r="D180">
-        <f>_xlfn.LOGNORM.DIST(A180,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="24"/>
         <v>0.71110115710086552</v>
       </c>
     </row>
@@ -16808,15 +16819,15 @@
         <v>24.233466</v>
       </c>
       <c r="B181">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v>3.1877345704093361</v>
       </c>
       <c r="C181">
-        <f>_xlfn.LOGNORM.DIST(A181,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>4.1877330386527606E-2</v>
       </c>
       <c r="D181">
-        <f>_xlfn.LOGNORM.DIST(A181,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="24"/>
         <v>0.40606072610320426</v>
       </c>
     </row>
@@ -16825,15 +16836,15 @@
         <v>31.856971999999999</v>
       </c>
       <c r="B182">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v>3.4612562591617237</v>
       </c>
       <c r="C182">
-        <f>_xlfn.LOGNORM.DIST(A182,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>2.9230540001051183E-2</v>
       </c>
       <c r="D182">
-        <f>_xlfn.LOGNORM.DIST(A182,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="24"/>
         <v>0.68368620808897496</v>
       </c>
     </row>
@@ -16842,15 +16853,15 @@
         <v>25.623861999999999</v>
       </c>
       <c r="B183">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v>3.2435240267163321</v>
       </c>
       <c r="C183">
-        <f>_xlfn.LOGNORM.DIST(A183,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>4.056876576358897E-2</v>
       </c>
       <c r="D183">
-        <f>_xlfn.LOGNORM.DIST(A183,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="24"/>
         <v>0.46346569047654035</v>
       </c>
     </row>
@@ -16859,15 +16870,15 @@
         <v>24.795867999999999</v>
       </c>
       <c r="B184">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v>3.210677026386239</v>
       </c>
       <c r="C184">
-        <f>_xlfn.LOGNORM.DIST(A184,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>4.1440949589916926E-2</v>
       </c>
       <c r="D184">
-        <f>_xlfn.LOGNORM.DIST(A184,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="24"/>
         <v>0.4294962639199339</v>
       </c>
     </row>
@@ -16876,15 +16887,15 @@
         <v>16.616081000000001</v>
       </c>
       <c r="B185">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v>2.8103709613813805</v>
       </c>
       <c r="C185">
-        <f>_xlfn.LOGNORM.DIST(A185,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>2.966237871553784E-2</v>
       </c>
       <c r="D185">
-        <f>_xlfn.LOGNORM.DIST(A185,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="24"/>
         <v>0.11026231423619438</v>
       </c>
     </row>
@@ -16893,15 +16904,15 @@
         <v>37.333773000000001</v>
       </c>
       <c r="B186">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v>3.6198983593433534</v>
       </c>
       <c r="C186">
-        <f>_xlfn.LOGNORM.DIST(A186,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>1.8764586063014736E-2</v>
       </c>
       <c r="D186">
-        <f>_xlfn.LOGNORM.DIST(A186,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="24"/>
         <v>0.81411136853017352</v>
       </c>
     </row>
@@ -16910,15 +16921,15 @@
         <v>33.216445999999998</v>
       </c>
       <c r="B187">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v>3.5030451147172474</v>
       </c>
       <c r="C187">
-        <f>_xlfn.LOGNORM.DIST(A187,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>2.6447841944498906E-2</v>
       </c>
       <c r="D187">
-        <f>_xlfn.LOGNORM.DIST(A187,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="24"/>
         <v>0.72152584892519267</v>
       </c>
     </row>
@@ -16927,15 +16938,15 @@
         <v>23.855857</v>
       </c>
       <c r="B188">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v>3.1720297637052886</v>
       </c>
       <c r="C188">
-        <f>_xlfn.LOGNORM.DIST(A188,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>4.2091140254288152E-2</v>
       </c>
       <c r="D188">
-        <f>_xlfn.LOGNORM.DIST(A188,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="24"/>
         <v>0.39020500965642668</v>
       </c>
     </row>
@@ -16944,15 +16955,15 @@
         <v>23.321197000000002</v>
       </c>
       <c r="B189">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v>3.1493626894960332</v>
       </c>
       <c r="C189">
-        <f>_xlfn.LOGNORM.DIST(A189,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>4.2275590338927402E-2</v>
       </c>
       <c r="D189">
-        <f>_xlfn.LOGNORM.DIST(A189,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="24"/>
         <v>0.36764486070780544</v>
       </c>
     </row>
@@ -16961,15 +16972,15 @@
         <v>22.968553</v>
       </c>
       <c r="B190">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v>3.1341260195055805</v>
       </c>
       <c r="C190">
-        <f>_xlfn.LOGNORM.DIST(A190,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>4.2316280754465356E-2</v>
       </c>
       <c r="D190">
-        <f>_xlfn.LOGNORM.DIST(A190,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="24"/>
         <v>0.3527274962526985</v>
       </c>
     </row>
@@ -16978,15 +16989,15 @@
         <v>15.307342</v>
       </c>
       <c r="B191">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v>2.7283325825789926</v>
       </c>
       <c r="C191">
-        <f>_xlfn.LOGNORM.DIST(A191,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>2.418851603981724E-2</v>
       </c>
       <c r="D191">
-        <f>_xlfn.LOGNORM.DIST(A191,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="24"/>
         <v>7.4961511509100076E-2</v>
       </c>
     </row>
@@ -16995,15 +17006,15 @@
         <v>22.620398999999999</v>
       </c>
       <c r="B192">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v>3.1188521097896991</v>
       </c>
       <c r="C192">
-        <f>_xlfn.LOGNORM.DIST(A192,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>4.2289586315500928E-2</v>
       </c>
       <c r="D192">
-        <f>_xlfn.LOGNORM.DIST(A192,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="24"/>
         <v>0.33799758874354113</v>
       </c>
     </row>
@@ -17012,15 +17023,15 @@
         <v>41.628543999999998</v>
       </c>
       <c r="B193">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v>3.7287860858174477</v>
       </c>
       <c r="C193">
-        <f>_xlfn.LOGNORM.DIST(A193,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>1.2528565452732714E-2</v>
       </c>
       <c r="D193">
-        <f>_xlfn.LOGNORM.DIST(A193,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="24"/>
         <v>0.88061661116244339</v>
       </c>
     </row>
@@ -17029,15 +17040,15 @@
         <v>24.902311999999998</v>
       </c>
       <c r="B194">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v>3.2149606505658594</v>
       </c>
       <c r="C194">
-        <f>_xlfn.LOGNORM.DIST(A194,$G$2,$G$3,FALSE)</f>
+        <f t="shared" ref="C194:C223" si="33">_xlfn.LOGNORM.DIST(A194,$G$2,$G$3,FALSE)</f>
         <v>4.1343466724783576E-2</v>
       </c>
       <c r="D194">
-        <f>_xlfn.LOGNORM.DIST(A194,$G$2,$G$3,TRUE)</f>
+        <f t="shared" ref="D194:D223" si="34">_xlfn.LOGNORM.DIST(A194,$G$2,$G$3,TRUE)</f>
         <v>0.43390225651502529</v>
       </c>
     </row>
@@ -17046,15 +17057,15 @@
         <v>35.081063999999998</v>
       </c>
       <c r="B195">
-        <f t="shared" ref="B195:B223" si="6">LN(A195)</f>
+        <f t="shared" ref="B195:B223" si="35">LN(A195)</f>
         <v>3.5576614977167647</v>
       </c>
       <c r="C195">
-        <f>_xlfn.LOGNORM.DIST(A195,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="33"/>
         <v>2.2791802614024748E-2</v>
       </c>
       <c r="D195">
-        <f>_xlfn.LOGNORM.DIST(A195,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="34"/>
         <v>0.7673949229283199</v>
       </c>
     </row>
@@ -17063,15 +17074,15 @@
         <v>22.069634000000001</v>
       </c>
       <c r="B196">
-        <f t="shared" si="6"/>
+        <f t="shared" si="35"/>
         <v>3.0942026365334918</v>
       </c>
       <c r="C196">
-        <f>_xlfn.LOGNORM.DIST(A196,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="33"/>
         <v>4.2104449509366107E-2</v>
       </c>
       <c r="D196">
-        <f>_xlfn.LOGNORM.DIST(A196,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="34"/>
         <v>0.31474871712401697</v>
       </c>
     </row>
@@ -17080,15 +17091,15 @@
         <v>38.804873999999998</v>
       </c>
       <c r="B197">
-        <f t="shared" si="6"/>
+        <f t="shared" si="35"/>
         <v>3.6585458572965783</v>
       </c>
       <c r="C197">
-        <f>_xlfn.LOGNORM.DIST(A197,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="33"/>
         <v>1.6409943553616625E-2</v>
       </c>
       <c r="D197">
-        <f>_xlfn.LOGNORM.DIST(A197,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="34"/>
         <v>0.83995618232153402</v>
       </c>
     </row>
@@ -17097,15 +17108,15 @@
         <v>37.013993999999997</v>
       </c>
       <c r="B198">
-        <f t="shared" si="6"/>
+        <f t="shared" si="35"/>
         <v>3.6112960573547168</v>
       </c>
       <c r="C198">
-        <f>_xlfn.LOGNORM.DIST(A198,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="33"/>
         <v>1.930617013607332E-2</v>
       </c>
       <c r="D198">
-        <f>_xlfn.LOGNORM.DIST(A198,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="34"/>
         <v>0.80802453214545666</v>
       </c>
     </row>
@@ -17114,15 +17125,15 @@
         <v>23.738935000000001</v>
       </c>
       <c r="B199">
-        <f t="shared" si="6"/>
+        <f t="shared" si="35"/>
         <v>3.1671165271811348</v>
       </c>
       <c r="C199">
-        <f>_xlfn.LOGNORM.DIST(A199,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="33"/>
         <v>4.2143636101390235E-2</v>
       </c>
       <c r="D199">
-        <f>_xlfn.LOGNORM.DIST(A199,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="34"/>
         <v>0.38528049571679418</v>
       </c>
     </row>
@@ -17131,15 +17142,15 @@
         <v>36.545178</v>
       </c>
       <c r="B200">
-        <f t="shared" si="6"/>
+        <f t="shared" si="35"/>
         <v>3.5985492486278403</v>
       </c>
       <c r="C200">
-        <f>_xlfn.LOGNORM.DIST(A200,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="33"/>
         <v>2.0118806233341436E-2</v>
       </c>
       <c r="D200">
-        <f>_xlfn.LOGNORM.DIST(A200,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="34"/>
         <v>0.79878385923959438</v>
       </c>
     </row>
@@ -17148,15 +17159,15 @@
         <v>35.028616</v>
       </c>
       <c r="B201">
-        <f t="shared" si="6"/>
+        <f t="shared" si="35"/>
         <v>3.5561653274366023</v>
       </c>
       <c r="C201">
-        <f>_xlfn.LOGNORM.DIST(A201,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="33"/>
         <v>2.2891108462988797E-2</v>
       </c>
       <c r="D201">
-        <f>_xlfn.LOGNORM.DIST(A201,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="34"/>
         <v>0.76619693527446875</v>
       </c>
     </row>
@@ -17165,15 +17176,15 @@
         <v>16.14396</v>
       </c>
       <c r="B202">
-        <f t="shared" si="6"/>
+        <f t="shared" si="35"/>
         <v>2.7815459859074898</v>
       </c>
       <c r="C202">
-        <f>_xlfn.LOGNORM.DIST(A202,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="33"/>
         <v>2.7756023995861606E-2</v>
       </c>
       <c r="D202">
-        <f>_xlfn.LOGNORM.DIST(A202,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="34"/>
         <v>9.6704491903725834E-2</v>
       </c>
     </row>
@@ -17182,15 +17193,15 @@
         <v>19.204688000000001</v>
       </c>
       <c r="B203">
-        <f t="shared" si="6"/>
+        <f t="shared" si="35"/>
         <v>2.9551544158965735</v>
       </c>
       <c r="C203">
-        <f>_xlfn.LOGNORM.DIST(A203,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="33"/>
         <v>3.7995875947984405E-2</v>
       </c>
       <c r="D203">
-        <f>_xlfn.LOGNORM.DIST(A203,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="34"/>
         <v>0.19869810195501489</v>
       </c>
     </row>
@@ -17199,15 +17210,15 @@
         <v>38.35351</v>
       </c>
       <c r="B204">
-        <f t="shared" si="6"/>
+        <f t="shared" si="35"/>
         <v>3.6468460490487979</v>
       </c>
       <c r="C204">
-        <f>_xlfn.LOGNORM.DIST(A204,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="33"/>
         <v>1.7108206264089577E-2</v>
       </c>
       <c r="D204">
-        <f>_xlfn.LOGNORM.DIST(A204,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="34"/>
         <v>0.83239255019401315</v>
       </c>
     </row>
@@ -17216,15 +17227,15 @@
         <v>14.182283</v>
       </c>
       <c r="B205">
-        <f t="shared" si="6"/>
+        <f t="shared" si="35"/>
         <v>2.6519935095550826</v>
       </c>
       <c r="C205">
-        <f>_xlfn.LOGNORM.DIST(A205,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="33"/>
         <v>1.9195133080730026E-2</v>
       </c>
       <c r="D205">
-        <f>_xlfn.LOGNORM.DIST(A205,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="34"/>
         <v>5.0548422992814458E-2</v>
       </c>
     </row>
@@ -17233,15 +17244,15 @@
         <v>21.964670999999999</v>
       </c>
       <c r="B206">
-        <f t="shared" si="6"/>
+        <f t="shared" si="35"/>
         <v>3.0894352989408791</v>
       </c>
       <c r="C206">
-        <f>_xlfn.LOGNORM.DIST(A206,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="33"/>
         <v>4.2048543681051806E-2</v>
       </c>
       <c r="D206">
-        <f>_xlfn.LOGNORM.DIST(A206,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="34"/>
         <v>0.31033218285674324</v>
       </c>
     </row>
@@ -17250,15 +17261,15 @@
         <v>29.652508999999998</v>
       </c>
       <c r="B207">
-        <f t="shared" si="6"/>
+        <f t="shared" si="35"/>
         <v>3.3895467424369716</v>
       </c>
       <c r="C207">
-        <f>_xlfn.LOGNORM.DIST(A207,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="33"/>
         <v>3.3751253552639249E-2</v>
       </c>
       <c r="D207">
-        <f>_xlfn.LOGNORM.DIST(A207,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="34"/>
         <v>0.6142410898564743</v>
       </c>
     </row>
@@ -17267,15 +17278,15 @@
         <v>26.087478000000001</v>
       </c>
       <c r="B208">
-        <f t="shared" si="6"/>
+        <f t="shared" si="35"/>
         <v>3.2614554290871993</v>
       </c>
       <c r="C208">
-        <f>_xlfn.LOGNORM.DIST(A208,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="33"/>
         <v>3.9975597743821305E-2</v>
       </c>
       <c r="D208">
-        <f>_xlfn.LOGNORM.DIST(A208,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="34"/>
         <v>0.48213919549570611</v>
       </c>
     </row>
@@ -17284,15 +17295,15 @@
         <v>34.153379000000001</v>
       </c>
       <c r="B209">
-        <f t="shared" si="6"/>
+        <f t="shared" si="35"/>
         <v>3.5308615269492165</v>
       </c>
       <c r="C209">
-        <f>_xlfn.LOGNORM.DIST(A209,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="33"/>
         <v>2.4580551627000739E-2</v>
       </c>
       <c r="D209">
-        <f>_xlfn.LOGNORM.DIST(A209,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="34"/>
         <v>0.74542676294073562</v>
       </c>
     </row>
@@ -17301,15 +17312,15 @@
         <v>16.014607000000002</v>
       </c>
       <c r="B210">
-        <f t="shared" si="6"/>
+        <f t="shared" si="35"/>
         <v>2.7735012432657991</v>
       </c>
       <c r="C210">
-        <f>_xlfn.LOGNORM.DIST(A210,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="33"/>
         <v>2.7218543489191518E-2</v>
       </c>
       <c r="D210">
-        <f>_xlfn.LOGNORM.DIST(A210,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="34"/>
         <v>9.3148864676866144E-2</v>
       </c>
     </row>
@@ -17318,15 +17329,15 @@
         <v>28.678609999999999</v>
       </c>
       <c r="B211">
-        <f t="shared" si="6"/>
+        <f t="shared" si="35"/>
         <v>3.3561515487270666</v>
       </c>
       <c r="C211">
-        <f>_xlfn.LOGNORM.DIST(A211,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="33"/>
         <v>3.5657888765159622E-2</v>
       </c>
       <c r="D211">
-        <f>_xlfn.LOGNORM.DIST(A211,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="34"/>
         <v>0.58043450570495669</v>
       </c>
     </row>
@@ -17335,15 +17346,15 @@
         <v>38.639882999999998</v>
       </c>
       <c r="B212">
-        <f t="shared" si="6"/>
+        <f t="shared" si="35"/>
         <v>3.6542849813894223</v>
       </c>
       <c r="C212">
-        <f>_xlfn.LOGNORM.DIST(A212,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="33"/>
         <v>1.6662684959682705E-2</v>
       </c>
       <c r="D212">
-        <f>_xlfn.LOGNORM.DIST(A212,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="34"/>
         <v>0.83722787895281581</v>
       </c>
     </row>
@@ -17352,15 +17363,15 @@
         <v>21.656282999999998</v>
       </c>
       <c r="B213">
-        <f t="shared" si="6"/>
+        <f t="shared" si="35"/>
         <v>3.0752956201985393</v>
       </c>
       <c r="C213">
-        <f>_xlfn.LOGNORM.DIST(A213,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="33"/>
         <v>4.1844850221912512E-2</v>
       </c>
       <c r="D213">
-        <f>_xlfn.LOGNORM.DIST(A213,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="34"/>
         <v>0.29739480048217748</v>
       </c>
     </row>
@@ -17369,15 +17380,15 @@
         <v>15.317987</v>
       </c>
       <c r="B214">
-        <f t="shared" si="6"/>
+        <f t="shared" si="35"/>
         <v>2.72902775881228</v>
       </c>
       <c r="C214">
-        <f>_xlfn.LOGNORM.DIST(A214,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="33"/>
         <v>2.4235057390566247E-2</v>
       </c>
       <c r="D214">
-        <f>_xlfn.LOGNORM.DIST(A214,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="34"/>
         <v>7.5219245999091841E-2</v>
       </c>
     </row>
@@ -17386,15 +17397,15 @@
         <v>28.364968999999999</v>
       </c>
       <c r="B215">
-        <f t="shared" si="6"/>
+        <f t="shared" si="35"/>
         <v>3.3451548978817582</v>
       </c>
       <c r="C215">
-        <f>_xlfn.LOGNORM.DIST(A215,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="33"/>
         <v>3.6248373207298783E-2</v>
       </c>
       <c r="D215">
-        <f>_xlfn.LOGNORM.DIST(A215,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="34"/>
         <v>0.56915777487569619</v>
       </c>
     </row>
@@ -17403,15 +17414,15 @@
         <v>36.280365000000003</v>
       </c>
       <c r="B216">
-        <f t="shared" si="6"/>
+        <f t="shared" si="35"/>
         <v>3.591276685835799</v>
       </c>
       <c r="C216">
-        <f>_xlfn.LOGNORM.DIST(A216,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="33"/>
         <v>2.0587417426094261E-2</v>
       </c>
       <c r="D216">
-        <f>_xlfn.LOGNORM.DIST(A216,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="34"/>
         <v>0.79339424129896763</v>
       </c>
     </row>
@@ -17420,15 +17431,15 @@
         <v>31.123885999999999</v>
       </c>
       <c r="B217">
-        <f t="shared" si="6"/>
+        <f t="shared" si="35"/>
         <v>3.4379755629796942</v>
       </c>
       <c r="C217">
-        <f>_xlfn.LOGNORM.DIST(A217,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="33"/>
         <v>3.0746007719181796E-2</v>
       </c>
       <c r="D217">
-        <f>_xlfn.LOGNORM.DIST(A217,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="34"/>
         <v>0.66170226123548026</v>
       </c>
     </row>
@@ -17437,15 +17448,15 @@
         <v>57.092722999999999</v>
       </c>
       <c r="B218">
-        <f t="shared" si="6"/>
+        <f t="shared" si="35"/>
         <v>4.044676665458093</v>
       </c>
       <c r="C218">
-        <f>_xlfn.LOGNORM.DIST(A218,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="33"/>
         <v>2.451533842845357E-3</v>
       </c>
       <c r="D218">
-        <f>_xlfn.LOGNORM.DIST(A218,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="34"/>
         <v>0.9775004588646693</v>
       </c>
     </row>
@@ -17454,15 +17465,15 @@
         <v>33.227274000000001</v>
       </c>
       <c r="B219">
-        <f t="shared" si="6"/>
+        <f t="shared" si="35"/>
         <v>3.5033710446951556</v>
       </c>
       <c r="C219">
-        <f>_xlfn.LOGNORM.DIST(A219,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="33"/>
         <v>2.6425972125277336E-2</v>
       </c>
       <c r="D219">
-        <f>_xlfn.LOGNORM.DIST(A219,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="34"/>
         <v>0.72181210774916149</v>
       </c>
     </row>
@@ -17471,15 +17482,15 @@
         <v>18.988734999999998</v>
       </c>
       <c r="B220">
-        <f t="shared" si="6"/>
+        <f t="shared" si="35"/>
         <v>2.9438459085980107</v>
       </c>
       <c r="C220">
-        <f>_xlfn.LOGNORM.DIST(A220,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="33"/>
         <v>3.7461215266337215E-2</v>
       </c>
       <c r="D220">
-        <f>_xlfn.LOGNORM.DIST(A220,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="34"/>
         <v>0.19054994235859499</v>
       </c>
     </row>
@@ -17488,15 +17499,15 @@
         <v>23.373093000000001</v>
       </c>
       <c r="B221">
-        <f t="shared" si="6"/>
+        <f t="shared" si="35"/>
         <v>3.1515854889589856</v>
       </c>
       <c r="C221">
-        <f>_xlfn.LOGNORM.DIST(A221,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="33"/>
         <v>4.2264041763881564E-2</v>
       </c>
       <c r="D221">
-        <f>_xlfn.LOGNORM.DIST(A221,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="34"/>
         <v>0.3698385011412314</v>
       </c>
     </row>
@@ -17505,15 +17516,15 @@
         <v>37.613441999999999</v>
       </c>
       <c r="B222">
-        <f t="shared" si="6"/>
+        <f t="shared" si="35"/>
         <v>3.62736148650795</v>
       </c>
       <c r="C222">
-        <f>_xlfn.LOGNORM.DIST(A222,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="33"/>
         <v>1.8299532554149116E-2</v>
       </c>
       <c r="D222">
-        <f>_xlfn.LOGNORM.DIST(A222,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="34"/>
         <v>0.81929402284721342</v>
       </c>
     </row>
@@ -17522,15 +17533,15 @@
         <v>18.797550999999999</v>
       </c>
       <c r="B223">
-        <f t="shared" si="6"/>
+        <f t="shared" si="35"/>
         <v>2.93372659539311</v>
       </c>
       <c r="C223">
-        <f>_xlfn.LOGNORM.DIST(A223,$G$2,$G$3,FALSE)</f>
+        <f t="shared" si="33"/>
         <v>3.6961712186196226E-2</v>
       </c>
       <c r="D223">
-        <f>_xlfn.LOGNORM.DIST(A223,$G$2,$G$3,TRUE)</f>
+        <f t="shared" si="34"/>
         <v>0.18343531648848035</v>
       </c>
     </row>

--- a/data/Calculs.xlsx
+++ b/data/Calculs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcd\Documents\GitHub\MEC8211DEV3\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benda\OneDrive\Documents\GitHub\MEC8211DEV3\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{013DF6F3-E5B0-4B3B-981D-A91A854A3870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B9516B2-962E-425C-9F5C-E5D3F92653EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
   <si>
     <t>Seed</t>
   </si>
@@ -154,6 +154,12 @@
   <si>
     <t>uinput+</t>
   </si>
+  <si>
+    <t>Uval+</t>
+  </si>
+  <si>
+    <t>Uval-</t>
+  </si>
 </sst>
 </file>
 
@@ -179,7 +185,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -189,6 +195,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -286,7 +298,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -310,10 +322,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -331,7 +344,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -424,7 +437,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -631,7 +644,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="fr-FR"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -669,7 +682,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="936369311"/>
@@ -756,7 +769,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="fr-FR"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -794,7 +807,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="936366911"/>
@@ -842,7 +855,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -856,7 +869,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -949,7 +962,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1148,7 +1161,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="fr-FR"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1186,7 +1199,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="936369311"/>
@@ -1273,7 +1286,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="fr-FR"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1311,7 +1324,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="936366911"/>
@@ -1359,7 +1372,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1373,7 +1386,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2838,7 +2851,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1138105280"/>
@@ -2900,7 +2913,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1069872976"/>
@@ -2948,7 +2961,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2962,7 +2975,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5974,505 +5987,505 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="167"/>
                 <c:pt idx="0">
-                  <c:v>2.3679819592453895E-11</c:v>
+                  <c:v>1.7410314093455416E-14</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.4307057038806835E-7</c:v>
+                  <c:v>4.0767015885735395E-9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0599651277505948E-4</c:v>
+                  <c:v>1.2738247342343602E-6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5811547171639634E-3</c:v>
+                  <c:v>3.8830865118047572E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.9518033028666722E-3</c:v>
+                  <c:v>3.7911981405098686E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.934379733272861E-2</c:v>
+                  <c:v>1.9229861999970116E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.8486066984195543E-2</c:v>
+                  <c:v>6.4383445501126737E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.12761220705676204</c:v>
+                  <c:v>1.6268473400525871E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.20339683741806869</c:v>
+                  <c:v>3.3658683478279133E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.28983962826447107</c:v>
+                  <c:v>6.0109708227070485E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.38039027637379708</c:v>
+                  <c:v>9.6039085813114919E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.46940166464541933</c:v>
+                  <c:v>0.14079062024314196</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.55277402977965084</c:v>
+                  <c:v>0.1928814530765435</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.62801128997362543</c:v>
+                  <c:v>0.25034349139619722</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.69396603652483868</c:v>
+                  <c:v>0.31105004737723613</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.75048007311777198</c:v>
+                  <c:v>0.37296948889945825</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.79803899001914591</c:v>
+                  <c:v>0.43432920922875029</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.83749217458547121</c:v>
+                  <c:v>0.49369821976116374</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.8698495810403164</c:v>
+                  <c:v>0.55000752725682767</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.89614711743457309</c:v>
+                  <c:v>0.60252919545017147</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.91736567010950509</c:v>
+                  <c:v>0.6508320885377965</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.93438847785079504</c:v>
+                  <c:v>0.6947277732477346</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.94798399510902021</c:v>
+                  <c:v>0.73421559226695754</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.95880450606237755</c:v>
+                  <c:v>0.76943225009619631</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.96739363089726726</c:v>
+                  <c:v>0.80060855835952349</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.97419817274750775</c:v>
+                  <c:v>0.82803418609449086</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.97958145465714974</c:v>
+                  <c:v>0.85203016557105682</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.98383647777716543</c:v>
+                  <c:v>0.87292831827204642</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.98719801375502314</c:v>
+                  <c:v>0.89105651922058438</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.98985323746604925</c:v>
+                  <c:v>0.90672868077545254</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.99195080125812318</c:v>
+                  <c:v>0.92023841706004716</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.99360841630459662</c:v>
+                  <c:v>0.93185548603425672</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.99491908834491105</c:v>
+                  <c:v>0.94182425969672667</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.99595618658222285</c:v>
+                  <c:v>0.95036362205506753</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.99677752717402224</c:v>
+                  <c:v>0.95766782808649209</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.99742864016916843</c:v>
+                  <c:v>0.96390797041119269</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.99794536922865107</c:v>
+                  <c:v>0.96923379323812264</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.99835593189145055</c:v>
+                  <c:v>0.97377566685255112</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.99868254719514316</c:v>
+                  <c:v>0.97764659299250167</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.99894271846639027</c:v>
+                  <c:v>0.9809441546780524</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.9991502425885086</c:v>
+                  <c:v>0.98375235608066713</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.99931600310624724</c:v>
+                  <c:v>0.98614332122658288</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.9994485929772452</c:v>
+                  <c:v>0.98817883673667684</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.99955480335230562</c:v>
+                  <c:v>0.98991173506980012</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.99964000715597656</c:v>
+                  <c:v>0.99138712217899838</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.99970846014585202</c:v>
+                  <c:v>0.99264345814393129</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.9997635372819863</c:v>
+                  <c:v>0.99371350200203101</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.99980791840100058</c:v>
+                  <c:v>0.99462513326542601</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.99984373416382422</c:v>
+                  <c:v>0.99540206292683187</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.99987268086695757</c:v>
+                  <c:v>0.99606444645266501</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.99989611084057739</c:v>
+                  <c:v>0.99662941057141885</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.99991510369467762</c:v>
+                  <c:v>0.99711150475688826</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.9999305225303986</c:v>
+                  <c:v>0.99752308729480399</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.99994305833920583</c:v>
+                  <c:v>0.99787465478585913</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.99995326511348137</c:v>
+                  <c:v>0.99817512292860033</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.99996158764577869</c:v>
+                  <c:v>0.9984320654733484</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.99996838356703133</c:v>
+                  <c:v>0.9986519173606041</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.99997394084022506</c:v>
+                  <c:v>0.99884014726227355</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.99997849166498431</c:v>
+                  <c:v>0.99900140403319992</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.99998222354422694</c:v>
+                  <c:v>0.99913964095153707</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.99998528810404086</c:v>
+                  <c:v>0.99925822107461837</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.99998780813253563</c:v>
+                  <c:v>0.99936000655595802</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.99998988320504056</c:v>
+                  <c:v>0.99944743435209316</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.99999159418576766</c:v>
+                  <c:v>0.99952258038822728</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.99999300683533154</c:v>
+                  <c:v>0.99958721394241956</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.99999417470572649</c:v>
+                  <c:v>0.99964284374310985</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.99999514146671453</c:v>
+                  <c:v>0.99969075704835153</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.99999594277787751</c:v>
+                  <c:v>0.99973205278206834</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.99999660779713817</c:v>
+                  <c:v>0.99976766963833852</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.99999716039800779</c:v>
+                  <c:v>0.9997984099250935</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.99999762015314309</c:v>
+                  <c:v>0.99982495980012009</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.99999800313015186</c:v>
+                  <c:v>0.99984790645180865</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.99999832253635756</c:v>
+                  <c:v>0.99986775269199879</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.99999858924188689</c:v>
+                  <c:v>0.99988492935625617</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.9999988122046074</c:v>
+                  <c:v>0.99989980584598603</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.99999899881578636</c:v>
+                  <c:v>0.99991269909526659</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.99999915518162885</c:v>
+                  <c:v>0.99992388120173115</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.99999928635288682</c:v>
+                  <c:v>0.99993358592401271</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.99999939651235781</c:v>
+                  <c:v>0.99994201421715567</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.99999948912819125</c:v>
+                  <c:v>0.99994933895110427</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.99999956707939519</c:v>
+                  <c:v>0.99995570893515884</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.99999963275871318</c:v>
+                  <c:v>0.99996125235250888</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.99999968815705553</c:v>
+                  <c:v>0.99996607969307427</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.99999973493287675</c:v>
+                  <c:v>0.99997028625946338</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.99999977446925281</c:v>
+                  <c:v>0.99997395430949898</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.99999980792089449</c:v>
+                  <c:v>0.99997715488916006</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.99999983625291755</c:v>
+                  <c:v>0.99997994940165758</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.99999986027285237</c:v>
+                  <c:v>0.99998239095147656</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.9999998806571031</c:v>
+                  <c:v>0.99998452549639227</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.99999989797284305</c:v>
+                  <c:v>0.99998639283552471</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.99999991269615407</c:v>
+                  <c:v>0.99998802745731163</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.99999992522707237</c:v>
+                  <c:v>0.99998945926772642</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.99999993590208047</c:v>
+                  <c:v>0.99999071421605679</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.99999994500449152</c:v>
+                  <c:v>0.99999181483300092</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.99999995277308973</c:v>
+                  <c:v>0.99999278069366404</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.99999995940932918</c:v>
+                  <c:v>0.99999362881619513</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.99999996508333555</c:v>
+                  <c:v>0.99999437400522861</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.99999996993891804</c:v>
+                  <c:v>0.99999502914796645</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.99999997409775543</c:v>
+                  <c:v>0.99999560546959165</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.99999997766289983</c:v>
+                  <c:v>0.99999611275374334</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.99999998072170959</c:v>
+                  <c:v>0.99999655953295141</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.99999998334830698</c:v>
+                  <c:v>0.99999695325323024</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0.99999998560564185</c:v>
+                  <c:v>0.99999730041642731</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.99999998754722352</c:v>
+                  <c:v>0.99999760670340998</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.99999998921857713</c:v>
+                  <c:v>0.99999787708073895</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0.99999999065846912</c:v>
+                  <c:v>0.99999811589309695</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0.99999999189993949</c:v>
+                  <c:v>0.99999832694342738</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0.99999999297117181</c:v>
+                  <c:v>0.99999851356245795</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0.99999999389622773</c:v>
+                  <c:v>0.9999986786690539</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0.99999999469566703</c:v>
+                  <c:v>0.9999988248226418</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0.99999999538707163</c:v>
+                  <c:v>0.9999989542687735</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0.99999999598548972</c:v>
+                  <c:v>0.99999906897875179</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>0.99999999650381111</c:v>
+                  <c:v>0.99999917068411337</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>0.99999999695308572</c:v>
+                  <c:v>0.99999926090665248</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>0.99999999734279399</c:v>
+                  <c:v>0.99999934098457965</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>0.99999999768107573</c:v>
+                  <c:v>0.99999941209532495</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>0.99999999797492556</c:v>
+                  <c:v>0.99999947527542843</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0.99999999823035846</c:v>
+                  <c:v>0.99999953143790021</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0.99999999845255105</c:v>
+                  <c:v>0.9999995813873801</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>0.99999999864596156</c:v>
+                  <c:v>0.99999962583338409</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0.9999999988144328</c:v>
+                  <c:v>0.99999966540188501</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>0.99999999896127889</c:v>
+                  <c:v>0.99999970064544341</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>0.99999999908936077</c:v>
+                  <c:v>0.99999973205207437</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>0.99999999920114968</c:v>
+                  <c:v>0.99999976005301261</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>0.99999999929878147</c:v>
+                  <c:v>0.99999978502951681</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>0.99999999938410411</c:v>
+                  <c:v>0.99999980731883464</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>0.99999999945871698</c:v>
+                  <c:v>0.99999982721943625</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>0.99999999952400531</c:v>
+                  <c:v>0.99999984499560579</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>0.99999999958117014</c:v>
+                  <c:v>0.99999986088147552</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>0.99999999963125319</c:v>
+                  <c:v>0.99999987508456856</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>0.99999999967515851</c:v>
+                  <c:v>0.99999988778891424</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>0.99999999971367148</c:v>
+                  <c:v>0.99999989915778786</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>0.99999999974747444</c:v>
+                  <c:v>0.9999999093361216</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>0.99999999977716114</c:v>
+                  <c:v>0.99999991845262737</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>0.99999999980324794</c:v>
+                  <c:v>0.99999992662166681</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>0.99999999982618493</c:v>
+                  <c:v>0.99999993394489939</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>0.99999999984636379</c:v>
+                  <c:v>0.99999994051273589</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>0.99999999986412647</c:v>
+                  <c:v>0.99999994640562073</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>0.99999999987977095</c:v>
+                  <c:v>0.99999995169516342</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>0.99999999989355748</c:v>
+                  <c:v>0.9999999564451385</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>0.99999999990571364</c:v>
+                  <c:v>0.99999996071236841</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>0.99999999991643795</c:v>
+                  <c:v>0.99999996454750428</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>0.99999999992590416</c:v>
+                  <c:v>0.99999996799571678</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>0.99999999993426447</c:v>
+                  <c:v>0.99999997109730632</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>0.9999999999416519</c:v>
+                  <c:v>0.9999999738882448</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>0.99999999994818312</c:v>
+                  <c:v>0.99999997640065397</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>0.99999999995396038</c:v>
+                  <c:v>0.99999997866323032</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>0.9999999999590734</c:v>
+                  <c:v>0.99999998070162133</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>0.99999999996360089</c:v>
+                  <c:v>0.99999998253875899</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>0.9999999999676118</c:v>
+                  <c:v>0.99999998419515634</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>0.99999999997116695</c:v>
+                  <c:v>0.99999998568917015</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>0.99999999997431965</c:v>
+                  <c:v>0.99999998703723436</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>0.99999999997711697</c:v>
+                  <c:v>0.99999998825406788</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>0.99999999997959998</c:v>
+                  <c:v>0.99999998935285861</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>0.99999999998180522</c:v>
+                  <c:v>0.99999999034542786</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>0.99999999998376465</c:v>
+                  <c:v>0.99999999124237604</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>0.99999999998550648</c:v>
+                  <c:v>0.99999999205321255</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>0.99999999998705569</c:v>
+                  <c:v>0.99999999278647167</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>0.99999999998843414</c:v>
+                  <c:v>0.99999999344981516</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>0.99999999998966116</c:v>
+                  <c:v>0.99999999405012485</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>0.99999999999075395</c:v>
+                  <c:v>0.99999999459358357</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>0.99999999999172773</c:v>
+                  <c:v>0.99999999508574922</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>0.9999999999925957</c:v>
+                  <c:v>0.99999999553161889</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>0.99999999999336986</c:v>
+                  <c:v>0.99999999593568789</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>0.99999999999406053</c:v>
+                  <c:v>0.99999999630200154</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>0.99999999999467704</c:v>
+                  <c:v>0.99999999663420125</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>0.99999999999522748</c:v>
+                  <c:v>0.99999999693556629</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6550,7 +6563,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2056117408"/>
@@ -6612,7 +6625,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2056125568"/>
@@ -6664,7 +6677,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6701,7 +6714,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9700,8 +9713,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3209925" y="7434262"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="3227070" y="7137082"/>
+              <a:ext cx="4644390" cy="2636520"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -9720,9 +9733,9 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-CA" sz="1100"/>
-                <a:t>This chart isn't available in your version of Excel.
-Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+                <a:rPr lang="fr-CA" sz="1100"/>
+                <a:t>Ce graphique n’est pas disponible dans votre version d’Excel.
+La modification de cette forme ou l’enregistrement de ce classeur dans un autre format de fichier endommagera le graphique de façon irréparable.</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -10071,16 +10084,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10110,7 +10123,7 @@
       <c r="W1" s="2"/>
       <c r="X1" s="3"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="C2" t="s">
         <v>1</v>
@@ -10125,7 +10138,7 @@
       <c r="R2" s="4"/>
       <c r="X2" s="5"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="C3">
         <v>600</v>
@@ -10146,7 +10159,7 @@
       </c>
       <c r="X3" s="5"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="C4">
         <v>400</v>
@@ -10161,7 +10174,7 @@
       <c r="R4" s="4"/>
       <c r="X4" s="5"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="C5">
         <v>300</v>
@@ -10182,7 +10195,7 @@
       </c>
       <c r="X5" s="5"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="C6">
         <v>200</v>
@@ -10197,7 +10210,7 @@
       <c r="R6" s="4"/>
       <c r="X6" s="5"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="C7">
         <v>150</v>
@@ -10212,7 +10225,7 @@
       <c r="R7" s="4"/>
       <c r="X7" s="5"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="C8">
         <v>100</v>
@@ -10230,7 +10243,7 @@
       </c>
       <c r="X8" s="5"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="C9">
         <v>75</v>
@@ -10245,7 +10258,7 @@
       <c r="R9" s="4"/>
       <c r="X9" s="5"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="C10">
         <v>50</v>
@@ -10260,13 +10273,13 @@
       <c r="R10" s="4"/>
       <c r="X10" s="5"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="Q11" s="5"/>
       <c r="R11" s="4"/>
       <c r="X11" s="5"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="Q12" s="5"/>
       <c r="R12" s="4"/>
@@ -10278,13 +10291,13 @@
       </c>
       <c r="X12" s="5"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="4"/>
       <c r="X13" s="5"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="C14" t="s">
         <v>4</v>
@@ -10297,7 +10310,7 @@
       <c r="R14" s="4"/>
       <c r="X14" s="5"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="C15" t="s">
         <v>5</v>
@@ -10309,19 +10322,19 @@
       <c r="R15" s="4"/>
       <c r="X15" s="5"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="4"/>
       <c r="X16" s="5"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="4"/>
       <c r="X17" s="5"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="C18" t="s">
         <v>6</v>
@@ -10334,13 +10347,13 @@
       <c r="R18" s="4"/>
       <c r="X18" s="5"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="Q19" s="5"/>
       <c r="R19" s="4"/>
       <c r="X19" s="5"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="C20" t="s">
         <v>7</v>
@@ -10352,7 +10365,7 @@
       <c r="R20" s="4"/>
       <c r="X20" s="5"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="C21" t="s">
         <v>8</v>
@@ -10364,13 +10377,13 @@
       <c r="R21" s="4"/>
       <c r="X21" s="5"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="Q22" s="5"/>
       <c r="R22" s="4"/>
       <c r="X22" s="5"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="C23" t="s">
         <v>9</v>
@@ -10383,20 +10396,27 @@
       <c r="R23" s="4"/>
       <c r="X23" s="5"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="F24" s="10" t="s">
         <v>35</v>
       </c>
       <c r="G24" s="10">
         <f>'Monte-Carlo'!I2-'Monte-Carlo'!I5</f>
-        <v>14.180517665716144</v>
+        <v>8.4288208200514667</v>
+      </c>
+      <c r="K24" t="s">
+        <v>37</v>
+      </c>
+      <c r="L24" s="17">
+        <f>($D$25^2+G24^2+$T$25^2)^0.5</f>
+        <v>19.675747328047727</v>
       </c>
       <c r="Q24" s="5"/>
       <c r="R24" s="4"/>
       <c r="X24" s="5"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="C25" s="10" t="s">
         <v>10</v>
@@ -10410,7 +10430,14 @@
       </c>
       <c r="G25" s="10">
         <f>'Monte-Carlo'!I4-'Monte-Carlo'!I2</f>
-        <v>30.453257403387408</v>
+        <v>12.352010601894481</v>
+      </c>
+      <c r="K25" t="s">
+        <v>38</v>
+      </c>
+      <c r="L25" s="17">
+        <f>($D$25^2+G25^2+$T$25^2)^0.5</f>
+        <v>21.648606846861018</v>
       </c>
       <c r="Q25" s="5"/>
       <c r="R25" s="4"/>
@@ -10423,7 +10450,7 @@
       </c>
       <c r="X25" s="5"/>
     </row>
-    <row r="26" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="7"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -10463,12 +10490,12 @@
       <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -10479,7 +10506,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>600</v>
       </c>
@@ -10490,7 +10517,7 @@
         <v>19.542286000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>400</v>
       </c>
@@ -10501,7 +10528,7 @@
         <v>19.559256999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>300</v>
       </c>
@@ -10512,7 +10539,7 @@
         <v>19.588958999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>200</v>
       </c>
@@ -10523,7 +10550,7 @@
         <v>19.726541000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>150</v>
       </c>
@@ -10534,7 +10561,7 @@
         <v>19.7942</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>100</v>
       </c>
@@ -10545,7 +10572,7 @@
         <v>20.250312999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>75</v>
       </c>
@@ -10556,7 +10583,7 @@
         <v>21.342282999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>50</v>
       </c>
@@ -10567,7 +10594,7 @@
         <v>22.851299000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="D14" s="12" t="s">
         <v>20</v>
       </c>
@@ -10576,7 +10603,7 @@
         <v>2.1366588524410277</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="D15" s="12" t="s">
         <v>19</v>
       </c>
@@ -10584,7 +10611,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
         <v>21</v>
       </c>
@@ -10593,7 +10620,7 @@
         <v>6.8329426220513856E-2</v>
       </c>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
         <v>7</v>
       </c>
@@ -10601,7 +10628,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
         <v>18</v>
       </c>
@@ -10610,7 +10637,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
         <v>8</v>
       </c>
@@ -10618,7 +10645,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
         <v>9</v>
       </c>
@@ -10627,7 +10654,7 @@
         <v>7.0712499999991962E-3</v>
       </c>
     </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
         <v>10</v>
       </c>
@@ -10647,19 +10674,19 @@
   <dimension ref="A1:Q223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="14" max="17" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -10685,7 +10712,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="11">
         <v>35.911845</v>
       </c>
@@ -10726,7 +10753,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>33.538131</v>
       </c>
@@ -10774,10 +10801,10 @@
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q34" si="6">_xlfn.LOGNORM.DIST(M3,$G$5,$G$3,TRUE)</f>
-        <v>2.3679819592453895E-11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1.7410314093455416E-14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
         <v>45.409543999999997</v>
       </c>
@@ -10804,8 +10831,8 @@
         <v>28</v>
       </c>
       <c r="I4">
-        <f>EXP(G2+2*G3)</f>
-        <v>56.991072273468752</v>
+        <f>EXP(G2+G3)</f>
+        <v>38.889825471975826</v>
       </c>
       <c r="M4">
         <f t="shared" ref="M4:M67" si="7">M3+1</f>
@@ -10825,10 +10852,10 @@
       </c>
       <c r="Q4">
         <f t="shared" si="6"/>
-        <v>9.4307057038806835E-7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+        <v>4.0767015885735395E-9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
         <v>31.181342000000001</v>
       </c>
@@ -10848,15 +10875,15 @@
         <v>27</v>
       </c>
       <c r="G5">
-        <f>G2-2*G3</f>
-        <v>2.514246755331178</v>
+        <f>G2-G3</f>
+        <v>2.8964087236948948</v>
       </c>
       <c r="H5" t="s">
         <v>27</v>
       </c>
       <c r="I5">
-        <f>EXP(G2-2*G3)</f>
-        <v>12.357297204365201</v>
+        <f>EXP(G2-G3)</f>
+        <v>18.108994050029878</v>
       </c>
       <c r="M5">
         <f t="shared" si="7"/>
@@ -10876,10 +10903,10 @@
       </c>
       <c r="Q5">
         <f t="shared" si="6"/>
-        <v>1.0599651277505948E-4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1.2738247342343602E-6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
         <v>22.235628999999999</v>
       </c>
@@ -10913,10 +10940,10 @@
       </c>
       <c r="Q6">
         <f t="shared" si="6"/>
-        <v>1.5811547171639634E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+        <v>3.8830865118047572E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <v>33.052174000000001</v>
       </c>
@@ -10950,10 +10977,10 @@
       </c>
       <c r="Q7">
         <f t="shared" si="6"/>
-        <v>8.9518033028666722E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+        <v>3.7911981405098686E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="11">
         <v>20.153106000000001</v>
       </c>
@@ -10987,10 +11014,10 @@
       </c>
       <c r="Q8">
         <f t="shared" si="6"/>
-        <v>2.934379733272861E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1.9229861999970116E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="11">
         <v>24.885192</v>
       </c>
@@ -11024,10 +11051,10 @@
       </c>
       <c r="Q9">
         <f t="shared" si="6"/>
-        <v>6.8486066984195543E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+        <v>6.4383445501126737E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
         <v>11.398958</v>
       </c>
@@ -11061,10 +11088,10 @@
       </c>
       <c r="Q10">
         <f t="shared" si="6"/>
-        <v>0.12761220705676204</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1.6268473400525871E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
         <v>46.799703000000001</v>
       </c>
@@ -11098,10 +11125,10 @@
       </c>
       <c r="Q11">
         <f t="shared" si="6"/>
-        <v>0.20339683741806869</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+        <v>3.3658683478279133E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
         <v>12.239124</v>
       </c>
@@ -11135,10 +11162,10 @@
       </c>
       <c r="Q12">
         <f t="shared" si="6"/>
-        <v>0.28983962826447107</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+        <v>6.0109708227070485E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
         <v>35.601605999999997</v>
       </c>
@@ -11172,10 +11199,10 @@
       </c>
       <c r="Q13">
         <f t="shared" si="6"/>
-        <v>0.38039027637379708</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+        <v>9.6039085813114919E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
         <v>48.155290000000001</v>
       </c>
@@ -11209,10 +11236,10 @@
       </c>
       <c r="Q14">
         <f t="shared" si="6"/>
-        <v>0.46940166464541933</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.14079062024314196</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
         <v>36.350883000000003</v>
       </c>
@@ -11246,10 +11273,10 @@
       </c>
       <c r="Q15">
         <f t="shared" si="6"/>
-        <v>0.55277402977965084</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.1928814530765435</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
         <v>34.882855999999997</v>
       </c>
@@ -11283,10 +11310,10 @@
       </c>
       <c r="Q16">
         <f t="shared" si="6"/>
-        <v>0.62801128997362543</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.25034349139619722</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
         <v>20.845967000000002</v>
       </c>
@@ -11320,10 +11347,10 @@
       </c>
       <c r="Q17">
         <f t="shared" si="6"/>
-        <v>0.69396603652483868</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.31105004737723613</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
         <v>21.578142</v>
       </c>
@@ -11357,10 +11384,10 @@
       </c>
       <c r="Q18">
         <f t="shared" si="6"/>
-        <v>0.75048007311777198</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.37296948889945825</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="11">
         <v>19.546772000000001</v>
       </c>
@@ -11394,10 +11421,10 @@
       </c>
       <c r="Q19">
         <f t="shared" si="6"/>
-        <v>0.79803899001914591</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.43432920922875029</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="11">
         <v>18.059199</v>
       </c>
@@ -11431,10 +11458,10 @@
       </c>
       <c r="Q20">
         <f t="shared" si="6"/>
-        <v>0.83749217458547121</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.49369821976116374</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="11">
         <v>32.984647000000002</v>
       </c>
@@ -11468,10 +11495,10 @@
       </c>
       <c r="Q21">
         <f t="shared" si="6"/>
-        <v>0.8698495810403164</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.55000752725682767</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="11">
         <v>18.109113000000001</v>
       </c>
@@ -11505,10 +11532,10 @@
       </c>
       <c r="Q22">
         <f t="shared" si="6"/>
-        <v>0.89614711743457309</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.60252919545017147</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="11">
         <v>23.277153999999999</v>
       </c>
@@ -11542,10 +11569,10 @@
       </c>
       <c r="Q23">
         <f t="shared" si="6"/>
-        <v>0.91736567010950509</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.6508320885377965</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="11">
         <v>28.887646</v>
       </c>
@@ -11579,10 +11606,10 @@
       </c>
       <c r="Q24">
         <f t="shared" si="6"/>
-        <v>0.93438847785079504</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.6947277732477346</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="11">
         <v>21.621769</v>
       </c>
@@ -11616,10 +11643,10 @@
       </c>
       <c r="Q25">
         <f t="shared" si="6"/>
-        <v>0.94798399510902021</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.73421559226695754</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="11">
         <v>22.250857</v>
       </c>
@@ -11653,10 +11680,10 @@
       </c>
       <c r="Q26">
         <f t="shared" si="6"/>
-        <v>0.95880450606237755</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.76943225009619631</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="11">
         <v>31.348423</v>
       </c>
@@ -11690,10 +11717,10 @@
       </c>
       <c r="Q27">
         <f t="shared" si="6"/>
-        <v>0.96739363089726726</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.80060855835952349</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="11">
         <v>44.480060999999999</v>
       </c>
@@ -11727,10 +11754,10 @@
       </c>
       <c r="Q28">
         <f t="shared" si="6"/>
-        <v>0.97419817274750775</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.82803418609449086</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="11">
         <v>32.495100000000001</v>
       </c>
@@ -11764,10 +11791,10 @@
       </c>
       <c r="Q29">
         <f t="shared" si="6"/>
-        <v>0.97958145465714974</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.85203016557105682</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="11">
         <v>17.155498999999999</v>
       </c>
@@ -11801,10 +11828,10 @@
       </c>
       <c r="Q30">
         <f t="shared" si="6"/>
-        <v>0.98383647777716543</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.87292831827204642</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="11">
         <v>30.904755999999999</v>
       </c>
@@ -11838,10 +11865,10 @@
       </c>
       <c r="Q31">
         <f t="shared" si="6"/>
-        <v>0.98719801375502314</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.89105651922058438</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="11">
         <v>18.202268</v>
       </c>
@@ -11875,10 +11902,10 @@
       </c>
       <c r="Q32">
         <f t="shared" si="6"/>
-        <v>0.98985323746604925</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.90672868077545254</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="11">
         <v>25.029136000000001</v>
       </c>
@@ -11912,10 +11939,10 @@
       </c>
       <c r="Q33">
         <f t="shared" si="6"/>
-        <v>0.99195080125812318</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.92023841706004716</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="11">
         <v>22.332485999999999</v>
       </c>
@@ -11949,10 +11976,10 @@
       </c>
       <c r="Q34">
         <f t="shared" si="6"/>
-        <v>0.99360841630459662</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.93185548603425672</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="11">
         <v>14.588493</v>
       </c>
@@ -11986,10 +12013,10 @@
       </c>
       <c r="Q35">
         <f t="shared" ref="Q35:Q66" si="11">_xlfn.LOGNORM.DIST(M35,$G$5,$G$3,TRUE)</f>
-        <v>0.99491908834491105</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.94182425969672667</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="11">
         <v>29.950793999999998</v>
       </c>
@@ -12023,10 +12050,10 @@
       </c>
       <c r="Q36">
         <f t="shared" si="11"/>
-        <v>0.99595618658222285</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.95036362205506753</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="11">
         <v>17.799004</v>
       </c>
@@ -12060,10 +12087,10 @@
       </c>
       <c r="Q37">
         <f t="shared" si="11"/>
-        <v>0.99677752717402224</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.95766782808649209</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="11">
         <v>14.732241999999999</v>
       </c>
@@ -12097,10 +12124,10 @@
       </c>
       <c r="Q38">
         <f t="shared" si="11"/>
-        <v>0.99742864016916843</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.96390797041119269</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="11">
         <v>16.728985000000002</v>
       </c>
@@ -12134,10 +12161,10 @@
       </c>
       <c r="Q39">
         <f t="shared" si="11"/>
-        <v>0.99794536922865107</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.96923379323812264</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="11">
         <v>10.730276</v>
       </c>
@@ -12171,10 +12198,10 @@
       </c>
       <c r="Q40">
         <f t="shared" si="11"/>
-        <v>0.99835593189145055</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.97377566685255112</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="11">
         <v>23.886614000000002</v>
       </c>
@@ -12208,10 +12235,10 @@
       </c>
       <c r="Q41">
         <f t="shared" si="11"/>
-        <v>0.99868254719514316</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.97764659299250167</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="11">
         <v>28.099174000000001</v>
       </c>
@@ -12245,10 +12272,10 @@
       </c>
       <c r="Q42">
         <f t="shared" si="11"/>
-        <v>0.99894271846639027</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.9809441546780524</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="11">
         <v>16.738831999999999</v>
       </c>
@@ -12282,10 +12309,10 @@
       </c>
       <c r="Q43">
         <f t="shared" si="11"/>
-        <v>0.9991502425885086</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.98375235608066713</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="11">
         <v>27.321501999999999</v>
       </c>
@@ -12319,10 +12346,10 @@
       </c>
       <c r="Q44">
         <f t="shared" si="11"/>
-        <v>0.99931600310624724</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.98614332122658288</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="11">
         <v>19.020061999999999</v>
       </c>
@@ -12356,10 +12383,10 @@
       </c>
       <c r="Q45">
         <f t="shared" si="11"/>
-        <v>0.9994485929772452</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.98817883673667684</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="11">
         <v>9.0347179999999998</v>
       </c>
@@ -12393,10 +12420,10 @@
       </c>
       <c r="Q46">
         <f t="shared" si="11"/>
-        <v>0.99955480335230562</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.98991173506980012</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="11">
         <v>47.533459999999998</v>
       </c>
@@ -12430,10 +12457,10 @@
       </c>
       <c r="Q47">
         <f t="shared" si="11"/>
-        <v>0.99964000715597656</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.99138712217899838</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="11">
         <v>33.553994000000003</v>
       </c>
@@ -12467,10 +12494,10 @@
       </c>
       <c r="Q48">
         <f t="shared" si="11"/>
-        <v>0.99970846014585202</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.99264345814393129</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="11">
         <v>25.883607000000001</v>
       </c>
@@ -12504,10 +12531,10 @@
       </c>
       <c r="Q49">
         <f t="shared" si="11"/>
-        <v>0.9997635372819863</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.99371350200203101</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="11">
         <v>51.731954999999999</v>
       </c>
@@ -12541,10 +12568,10 @@
       </c>
       <c r="Q50">
         <f t="shared" si="11"/>
-        <v>0.99980791840100058</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.99462513326542601</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="11">
         <v>23.088867</v>
       </c>
@@ -12578,10 +12605,10 @@
       </c>
       <c r="Q51">
         <f t="shared" si="11"/>
-        <v>0.99984373416382422</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.99540206292683187</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="11">
         <v>35.540362000000002</v>
       </c>
@@ -12615,10 +12642,10 @@
       </c>
       <c r="Q52">
         <f t="shared" si="11"/>
-        <v>0.99987268086695757</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.99606444645266501</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="11">
         <v>22.424316000000001</v>
       </c>
@@ -12652,10 +12679,10 @@
       </c>
       <c r="Q53">
         <f t="shared" si="11"/>
-        <v>0.99989611084057739</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.99662941057141885</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="11">
         <v>15.228737000000001</v>
       </c>
@@ -12689,10 +12716,10 @@
       </c>
       <c r="Q54">
         <f t="shared" si="11"/>
-        <v>0.99991510369467762</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.99711150475688826</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="11">
         <v>16.261927</v>
       </c>
@@ -12726,10 +12753,10 @@
       </c>
       <c r="Q55">
         <f t="shared" si="11"/>
-        <v>0.9999305225303986</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.99752308729480399</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="11">
         <v>20.857227000000002</v>
       </c>
@@ -12763,10 +12790,10 @@
       </c>
       <c r="Q56">
         <f t="shared" si="11"/>
-        <v>0.99994305833920583</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.99787465478585913</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="11">
         <v>15.379339</v>
       </c>
@@ -12800,10 +12827,10 @@
       </c>
       <c r="Q57">
         <f t="shared" si="11"/>
-        <v>0.99995326511348137</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.99817512292860033</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="11">
         <v>25.566827</v>
       </c>
@@ -12837,10 +12864,10 @@
       </c>
       <c r="Q58">
         <f t="shared" si="11"/>
-        <v>0.99996158764577869</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.9984320654733484</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="11">
         <v>36.613793000000001</v>
       </c>
@@ -12874,10 +12901,10 @@
       </c>
       <c r="Q59">
         <f t="shared" si="11"/>
-        <v>0.99996838356703133</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.9986519173606041</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="11">
         <v>15.154951000000001</v>
       </c>
@@ -12911,10 +12938,10 @@
       </c>
       <c r="Q60">
         <f t="shared" si="11"/>
-        <v>0.99997394084022506</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.99884014726227355</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="11">
         <v>28.147500999999998</v>
       </c>
@@ -12948,10 +12975,10 @@
       </c>
       <c r="Q61">
         <f t="shared" si="11"/>
-        <v>0.99997849166498431</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.99900140403319992</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="11">
         <v>33.918101999999998</v>
       </c>
@@ -12985,10 +13012,10 @@
       </c>
       <c r="Q62">
         <f t="shared" si="11"/>
-        <v>0.99998222354422694</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.99913964095153707</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" s="11">
         <v>11.582407</v>
       </c>
@@ -13022,10 +13049,10 @@
       </c>
       <c r="Q63">
         <f t="shared" si="11"/>
-        <v>0.99998528810404086</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.99925822107461837</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="11">
         <v>20.923143</v>
       </c>
@@ -13059,10 +13086,10 @@
       </c>
       <c r="Q64">
         <f t="shared" si="11"/>
-        <v>0.99998780813253563</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.99936000655595802</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="11">
         <v>33.626258999999997</v>
       </c>
@@ -13096,10 +13123,10 @@
       </c>
       <c r="Q65">
         <f t="shared" si="11"/>
-        <v>0.99998988320504056</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.99944743435209316</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" s="11">
         <v>44.833697000000001</v>
       </c>
@@ -13133,10 +13160,10 @@
       </c>
       <c r="Q66">
         <f t="shared" si="11"/>
-        <v>0.99999159418576766</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.99952258038822728</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" s="11">
         <v>29.639206999999999</v>
       </c>
@@ -13157,7 +13184,7 @@
         <v>65</v>
       </c>
       <c r="N67">
-        <f t="shared" ref="N67:N98" si="15">_xlfn.LOGNORM.DIST(M67,$G$2,$G$3,FALSE)</f>
+        <f t="shared" ref="N67:N89" si="15">_xlfn.LOGNORM.DIST(M67,$G$2,$G$3,FALSE)</f>
         <v>1.0294192685262782E-3</v>
       </c>
       <c r="O67">
@@ -13170,10 +13197,10 @@
       </c>
       <c r="Q67">
         <f t="shared" ref="Q67:Q98" si="18">_xlfn.LOGNORM.DIST(M67,$G$5,$G$3,TRUE)</f>
-        <v>0.99999300683533154</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.99958721394241956</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" s="11">
         <v>59.045591999999999</v>
       </c>
@@ -13207,10 +13234,10 @@
       </c>
       <c r="Q68">
         <f t="shared" si="18"/>
-        <v>0.99999417470572649</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.99964284374310985</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" s="11">
         <v>46.981966999999997</v>
       </c>
@@ -13244,10 +13271,10 @@
       </c>
       <c r="Q69">
         <f t="shared" si="18"/>
-        <v>0.99999514146671453</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.99969075704835153</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" s="11">
         <v>16.328014</v>
       </c>
@@ -13281,10 +13308,10 @@
       </c>
       <c r="Q70">
         <f t="shared" si="18"/>
-        <v>0.99999594277787751</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.99973205278206834</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71" s="11">
         <v>26.040944</v>
       </c>
@@ -13318,10 +13345,10 @@
       </c>
       <c r="Q71">
         <f t="shared" si="18"/>
-        <v>0.99999660779713817</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.99976766963833852</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" s="11">
         <v>18.168078999999999</v>
       </c>
@@ -13355,10 +13382,10 @@
       </c>
       <c r="Q72">
         <f t="shared" si="18"/>
-        <v>0.99999716039800779</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.9997984099250935</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73" s="11">
         <v>19.396339000000001</v>
       </c>
@@ -13392,10 +13419,10 @@
       </c>
       <c r="Q73">
         <f t="shared" si="18"/>
-        <v>0.99999762015314309</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.99982495980012009</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" s="11">
         <v>19.478601000000001</v>
       </c>
@@ -13429,10 +13456,10 @@
       </c>
       <c r="Q74">
         <f t="shared" si="18"/>
-        <v>0.99999800313015186</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.99984790645180865</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A75" s="11">
         <v>26.125463</v>
       </c>
@@ -13466,10 +13493,10 @@
       </c>
       <c r="Q75">
         <f t="shared" si="18"/>
-        <v>0.99999832253635756</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.99986775269199879</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" s="11">
         <v>32.085858999999999</v>
       </c>
@@ -13503,10 +13530,10 @@
       </c>
       <c r="Q76">
         <f t="shared" si="18"/>
-        <v>0.99999858924188689</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.99988492935625617</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A77" s="11">
         <v>31.973735000000001</v>
       </c>
@@ -13540,10 +13567,10 @@
       </c>
       <c r="Q77">
         <f t="shared" si="18"/>
-        <v>0.9999988122046074</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.99989980584598603</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A78" s="11">
         <v>47.843372000000002</v>
       </c>
@@ -13577,10 +13604,10 @@
       </c>
       <c r="Q78">
         <f t="shared" si="18"/>
-        <v>0.99999899881578636</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.99991269909526659</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A79" s="11">
         <v>32.070613999999999</v>
       </c>
@@ -13614,10 +13641,10 @@
       </c>
       <c r="Q79">
         <f t="shared" si="18"/>
-        <v>0.99999915518162885</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.99992388120173115</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A80" s="11">
         <v>17.547602000000001</v>
       </c>
@@ -13651,10 +13678,10 @@
       </c>
       <c r="Q80">
         <f t="shared" si="18"/>
-        <v>0.99999928635288682</v>
-      </c>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.99993358592401271</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A81" s="11">
         <v>27.353572</v>
       </c>
@@ -13688,10 +13715,10 @@
       </c>
       <c r="Q81">
         <f t="shared" si="18"/>
-        <v>0.99999939651235781</v>
-      </c>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.99994201421715567</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A82" s="11">
         <v>25.651271999999999</v>
       </c>
@@ -13725,10 +13752,10 @@
       </c>
       <c r="Q82">
         <f t="shared" si="18"/>
-        <v>0.99999948912819125</v>
-      </c>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.99994933895110427</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A83" s="11">
         <v>33.406345000000002</v>
       </c>
@@ -13762,10 +13789,10 @@
       </c>
       <c r="Q83">
         <f t="shared" si="18"/>
-        <v>0.99999956707939519</v>
-      </c>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.99995570893515884</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A84" s="11">
         <v>44.249184</v>
       </c>
@@ -13799,10 +13826,10 @@
       </c>
       <c r="Q84">
         <f t="shared" si="18"/>
-        <v>0.99999963275871318</v>
-      </c>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.99996125235250888</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A85" s="11">
         <v>30.006246999999998</v>
       </c>
@@ -13836,10 +13863,10 @@
       </c>
       <c r="Q85">
         <f t="shared" si="18"/>
-        <v>0.99999968815705553</v>
-      </c>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.99996607969307427</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A86" s="11">
         <v>30.474647000000001</v>
       </c>
@@ -13873,10 +13900,10 @@
       </c>
       <c r="Q86">
         <f t="shared" si="18"/>
-        <v>0.99999973493287675</v>
-      </c>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.99997028625946338</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A87" s="11">
         <v>43.645477999999997</v>
       </c>
@@ -13910,10 +13937,10 @@
       </c>
       <c r="Q87">
         <f t="shared" si="18"/>
-        <v>0.99999977446925281</v>
-      </c>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.99997395430949898</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A88" s="11">
         <v>31.640215999999999</v>
       </c>
@@ -13947,10 +13974,10 @@
       </c>
       <c r="Q88">
         <f t="shared" si="18"/>
-        <v>0.99999980792089449</v>
-      </c>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.99997715488916006</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A89" s="11">
         <v>39.642234000000002</v>
       </c>
@@ -13984,10 +14011,10 @@
       </c>
       <c r="Q89">
         <f t="shared" si="18"/>
-        <v>0.99999983625291755</v>
-      </c>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.99997994940165758</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A90" s="11">
         <v>41.429096000000001</v>
       </c>
@@ -14017,10 +14044,10 @@
       </c>
       <c r="Q90">
         <f t="shared" si="18"/>
-        <v>0.99999986027285237</v>
-      </c>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.99998239095147656</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A91" s="11">
         <v>15.272474000000001</v>
       </c>
@@ -14050,10 +14077,10 @@
       </c>
       <c r="Q91">
         <f t="shared" si="18"/>
-        <v>0.9999998806571031</v>
-      </c>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.99998452549639227</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A92" s="11">
         <v>18.585694</v>
       </c>
@@ -14083,10 +14110,10 @@
       </c>
       <c r="Q92">
         <f t="shared" si="18"/>
-        <v>0.99999989797284305</v>
-      </c>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.99998639283552471</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A93" s="11">
         <v>30.100190000000001</v>
       </c>
@@ -14116,10 +14143,10 @@
       </c>
       <c r="Q93">
         <f t="shared" si="18"/>
-        <v>0.99999991269615407</v>
-      </c>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.99998802745731163</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A94" s="11">
         <v>18.152466</v>
       </c>
@@ -14149,10 +14176,10 @@
       </c>
       <c r="Q94">
         <f t="shared" si="18"/>
-        <v>0.99999992522707237</v>
-      </c>
-    </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.99998945926772642</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A95" s="11">
         <v>15.210998</v>
       </c>
@@ -14182,10 +14209,10 @@
       </c>
       <c r="Q95">
         <f t="shared" si="18"/>
-        <v>0.99999993590208047</v>
-      </c>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.99999071421605679</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A96" s="11">
         <v>35.524478000000002</v>
       </c>
@@ -14215,10 +14242,10 @@
       </c>
       <c r="Q96">
         <f t="shared" si="18"/>
-        <v>0.99999994500449152</v>
-      </c>
-    </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.99999181483300092</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A97" s="11">
         <v>59.711727000000003</v>
       </c>
@@ -14248,10 +14275,10 @@
       </c>
       <c r="Q97">
         <f t="shared" si="18"/>
-        <v>0.99999995277308973</v>
-      </c>
-    </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.99999278069366404</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A98" s="11">
         <v>30.034946999999999</v>
       </c>
@@ -14281,10 +14308,10 @@
       </c>
       <c r="Q98">
         <f t="shared" si="18"/>
-        <v>0.99999995940932918</v>
-      </c>
-    </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.99999362881619513</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A99" s="11">
         <v>30.752227999999999</v>
       </c>
@@ -14314,10 +14341,10 @@
       </c>
       <c r="Q99">
         <f t="shared" ref="Q99:Q130" si="22">_xlfn.LOGNORM.DIST(M99,$G$5,$G$3,TRUE)</f>
-        <v>0.99999996508333555</v>
-      </c>
-    </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.99999437400522861</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A100" s="11">
         <v>31.663309999999999</v>
       </c>
@@ -14347,10 +14374,10 @@
       </c>
       <c r="Q100">
         <f t="shared" si="22"/>
-        <v>0.99999996993891804</v>
-      </c>
-    </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.99999502914796645</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A101" s="11">
         <v>45.357121999999997</v>
       </c>
@@ -14380,10 +14407,10 @@
       </c>
       <c r="Q101">
         <f t="shared" si="22"/>
-        <v>0.99999997409775543</v>
-      </c>
-    </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.99999560546959165</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A102" s="11">
         <v>32.453243999999998</v>
       </c>
@@ -14413,10 +14440,10 @@
       </c>
       <c r="Q102">
         <f t="shared" si="22"/>
-        <v>0.99999997766289983</v>
-      </c>
-    </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.99999611275374334</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A103" s="11">
         <v>10.624014000000001</v>
       </c>
@@ -14446,10 +14473,10 @@
       </c>
       <c r="Q103">
         <f t="shared" si="22"/>
-        <v>0.99999998072170959</v>
-      </c>
-    </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.99999655953295141</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A104" s="11">
         <v>27.340658999999999</v>
       </c>
@@ -14479,10 +14506,10 @@
       </c>
       <c r="Q104">
         <f t="shared" si="22"/>
-        <v>0.99999998334830698</v>
-      </c>
-    </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.99999695325323024</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A105" s="11">
         <v>14.9664</v>
       </c>
@@ -14512,10 +14539,10 @@
       </c>
       <c r="Q105">
         <f t="shared" si="22"/>
-        <v>0.99999998560564185</v>
-      </c>
-    </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.99999730041642731</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A106" s="11">
         <v>27.103231999999998</v>
       </c>
@@ -14545,10 +14572,10 @@
       </c>
       <c r="Q106">
         <f t="shared" si="22"/>
-        <v>0.99999998754722352</v>
-      </c>
-    </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.99999760670340998</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A107" s="11">
         <v>31.566044999999999</v>
       </c>
@@ -14578,10 +14605,10 @@
       </c>
       <c r="Q107">
         <f t="shared" si="22"/>
-        <v>0.99999998921857713</v>
-      </c>
-    </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.99999787708073895</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A108" s="11">
         <v>31.109511999999999</v>
       </c>
@@ -14611,10 +14638,10 @@
       </c>
       <c r="Q108">
         <f t="shared" si="22"/>
-        <v>0.99999999065846912</v>
-      </c>
-    </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.99999811589309695</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A109" s="11">
         <v>25.354544000000001</v>
       </c>
@@ -14644,10 +14671,10 @@
       </c>
       <c r="Q109">
         <f t="shared" si="22"/>
-        <v>0.99999999189993949</v>
-      </c>
-    </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.99999832694342738</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A110" s="11">
         <v>21.223222</v>
       </c>
@@ -14677,10 +14704,10 @@
       </c>
       <c r="Q110">
         <f t="shared" si="22"/>
-        <v>0.99999999297117181</v>
-      </c>
-    </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.99999851356245795</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A111" s="11">
         <v>49.988799</v>
       </c>
@@ -14710,10 +14737,10 @@
       </c>
       <c r="Q111">
         <f t="shared" si="22"/>
-        <v>0.99999999389622773</v>
-      </c>
-    </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.9999986786690539</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A112" s="11">
         <v>27.297087000000001</v>
       </c>
@@ -14743,10 +14770,10 @@
       </c>
       <c r="Q112">
         <f t="shared" si="22"/>
-        <v>0.99999999469566703</v>
-      </c>
-    </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.9999988248226418</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A113" s="11">
         <v>33.555169999999997</v>
       </c>
@@ -14776,10 +14803,10 @@
       </c>
       <c r="Q113">
         <f t="shared" si="22"/>
-        <v>0.99999999538707163</v>
-      </c>
-    </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.9999989542687735</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A114" s="11">
         <v>14.568887</v>
       </c>
@@ -14809,10 +14836,10 @@
       </c>
       <c r="Q114">
         <f t="shared" si="22"/>
-        <v>0.99999999598548972</v>
-      </c>
-    </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.99999906897875179</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A115" s="11">
         <v>41.502260999999997</v>
       </c>
@@ -14842,10 +14869,10 @@
       </c>
       <c r="Q115">
         <f t="shared" si="22"/>
-        <v>0.99999999650381111</v>
-      </c>
-    </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.99999917068411337</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A116" s="11">
         <v>21.644832000000001</v>
       </c>
@@ -14875,10 +14902,10 @@
       </c>
       <c r="Q116">
         <f t="shared" si="22"/>
-        <v>0.99999999695308572</v>
-      </c>
-    </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.99999926090665248</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A117" s="11">
         <v>33.753211999999998</v>
       </c>
@@ -14908,10 +14935,10 @@
       </c>
       <c r="Q117">
         <f t="shared" si="22"/>
-        <v>0.99999999734279399</v>
-      </c>
-    </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.99999934098457965</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A118" s="11">
         <v>12.863089</v>
       </c>
@@ -14941,10 +14968,10 @@
       </c>
       <c r="Q118">
         <f t="shared" si="22"/>
-        <v>0.99999999768107573</v>
-      </c>
-    </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.99999941209532495</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A119" s="11">
         <v>30.868766999999998</v>
       </c>
@@ -14974,10 +15001,10 @@
       </c>
       <c r="Q119">
         <f t="shared" si="22"/>
-        <v>0.99999999797492556</v>
-      </c>
-    </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.99999947527542843</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A120" s="11">
         <v>11.706860000000001</v>
       </c>
@@ -15007,10 +15034,10 @@
       </c>
       <c r="Q120">
         <f t="shared" si="22"/>
-        <v>0.99999999823035846</v>
-      </c>
-    </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.99999953143790021</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A121" s="11">
         <v>23.814720000000001</v>
       </c>
@@ -15040,10 +15067,10 @@
       </c>
       <c r="Q121">
         <f t="shared" si="22"/>
-        <v>0.99999999845255105</v>
-      </c>
-    </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.9999995813873801</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A122" s="11">
         <v>24.345918999999999</v>
       </c>
@@ -15073,10 +15100,10 @@
       </c>
       <c r="Q122">
         <f t="shared" si="22"/>
-        <v>0.99999999864596156</v>
-      </c>
-    </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.99999962583338409</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A123" s="11">
         <v>33.571406000000003</v>
       </c>
@@ -15106,10 +15133,10 @@
       </c>
       <c r="Q123">
         <f t="shared" si="22"/>
-        <v>0.9999999988144328</v>
-      </c>
-    </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.99999966540188501</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A124" s="11">
         <v>39.996746999999999</v>
       </c>
@@ -15139,10 +15166,10 @@
       </c>
       <c r="Q124">
         <f t="shared" si="22"/>
-        <v>0.99999999896127889</v>
-      </c>
-    </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.99999970064544341</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A125" s="11">
         <v>29.612449000000002</v>
       </c>
@@ -15172,10 +15199,10 @@
       </c>
       <c r="Q125">
         <f t="shared" si="22"/>
-        <v>0.99999999908936077</v>
-      </c>
-    </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.99999973205207437</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A126" s="11">
         <v>44.176752</v>
       </c>
@@ -15205,10 +15232,10 @@
       </c>
       <c r="Q126">
         <f t="shared" si="22"/>
-        <v>0.99999999920114968</v>
-      </c>
-    </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.99999976005301261</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A127" s="11">
         <v>31.749929999999999</v>
       </c>
@@ -15238,10 +15265,10 @@
       </c>
       <c r="Q127">
         <f t="shared" si="22"/>
-        <v>0.99999999929878147</v>
-      </c>
-    </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.99999978502951681</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A128" s="11">
         <v>48.104211999999997</v>
       </c>
@@ -15271,10 +15298,10 @@
       </c>
       <c r="Q128">
         <f t="shared" si="22"/>
-        <v>0.99999999938410411</v>
-      </c>
-    </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.99999980731883464</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A129" s="11">
         <v>13.144962</v>
       </c>
@@ -15304,10 +15331,10 @@
       </c>
       <c r="Q129">
         <f t="shared" si="22"/>
-        <v>0.99999999945871698</v>
-      </c>
-    </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.99999982721943625</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A130" s="11">
         <v>18.307562000000001</v>
       </c>
@@ -15337,10 +15364,10 @@
       </c>
       <c r="Q130">
         <f t="shared" si="22"/>
-        <v>0.99999999952400531</v>
-      </c>
-    </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.99999984499560579</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A131" s="11">
         <v>27.874880999999998</v>
       </c>
@@ -15370,10 +15397,10 @@
       </c>
       <c r="Q131">
         <f t="shared" ref="Q131:Q162" si="28">_xlfn.LOGNORM.DIST(M131,$G$5,$G$3,TRUE)</f>
-        <v>0.99999999958117014</v>
-      </c>
-    </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.99999986088147552</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A132" s="11">
         <v>22.328592</v>
       </c>
@@ -15403,10 +15430,10 @@
       </c>
       <c r="Q132">
         <f t="shared" si="28"/>
-        <v>0.99999999963125319</v>
-      </c>
-    </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.99999987508456856</v>
+      </c>
+    </row>
+    <row r="133" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A133" s="11">
         <v>28.780819999999999</v>
       </c>
@@ -15436,10 +15463,10 @@
       </c>
       <c r="Q133">
         <f t="shared" si="28"/>
-        <v>0.99999999967515851</v>
-      </c>
-    </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.99999988778891424</v>
+      </c>
+    </row>
+    <row r="134" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A134" s="11">
         <v>43.268377999999998</v>
       </c>
@@ -15469,10 +15496,10 @@
       </c>
       <c r="Q134">
         <f t="shared" si="28"/>
-        <v>0.99999999971367148</v>
-      </c>
-    </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.99999989915778786</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A135" s="11">
         <v>24.843230999999999</v>
       </c>
@@ -15502,10 +15529,10 @@
       </c>
       <c r="Q135">
         <f t="shared" si="28"/>
-        <v>0.99999999974747444</v>
-      </c>
-    </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.9999999093361216</v>
+      </c>
+    </row>
+    <row r="136" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A136" s="11">
         <v>28.810628999999999</v>
       </c>
@@ -15535,10 +15562,10 @@
       </c>
       <c r="Q136">
         <f t="shared" si="28"/>
-        <v>0.99999999977716114</v>
-      </c>
-    </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.99999991845262737</v>
+      </c>
+    </row>
+    <row r="137" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A137" s="11">
         <v>38.063361</v>
       </c>
@@ -15568,10 +15595,10 @@
       </c>
       <c r="Q137">
         <f t="shared" si="28"/>
-        <v>0.99999999980324794</v>
-      </c>
-    </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.99999992662166681</v>
+      </c>
+    </row>
+    <row r="138" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A138" s="11">
         <v>45.782356</v>
       </c>
@@ -15601,10 +15628,10 @@
       </c>
       <c r="Q138">
         <f t="shared" si="28"/>
-        <v>0.99999999982618493</v>
-      </c>
-    </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.99999993394489939</v>
+      </c>
+    </row>
+    <row r="139" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A139" s="11">
         <v>23.522960000000001</v>
       </c>
@@ -15634,10 +15661,10 @@
       </c>
       <c r="Q139">
         <f t="shared" si="28"/>
-        <v>0.99999999984636379</v>
-      </c>
-    </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.99999994051273589</v>
+      </c>
+    </row>
+    <row r="140" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A140" s="11">
         <v>27.291405000000001</v>
       </c>
@@ -15667,10 +15694,10 @@
       </c>
       <c r="Q140">
         <f t="shared" si="28"/>
-        <v>0.99999999986412647</v>
-      </c>
-    </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.99999994640562073</v>
+      </c>
+    </row>
+    <row r="141" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A141" s="11">
         <v>27.457273000000001</v>
       </c>
@@ -15700,10 +15727,10 @@
       </c>
       <c r="Q141">
         <f t="shared" si="28"/>
-        <v>0.99999999987977095</v>
-      </c>
-    </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.99999995169516342</v>
+      </c>
+    </row>
+    <row r="142" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A142" s="11">
         <v>31.665610999999998</v>
       </c>
@@ -15733,10 +15760,10 @@
       </c>
       <c r="Q142">
         <f t="shared" si="28"/>
-        <v>0.99999999989355748</v>
-      </c>
-    </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.9999999564451385</v>
+      </c>
+    </row>
+    <row r="143" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A143" s="11">
         <v>34.104269000000002</v>
       </c>
@@ -15766,10 +15793,10 @@
       </c>
       <c r="Q143">
         <f t="shared" si="28"/>
-        <v>0.99999999990571364</v>
-      </c>
-    </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.99999996071236841</v>
+      </c>
+    </row>
+    <row r="144" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A144" s="11">
         <v>33.450623</v>
       </c>
@@ -15799,10 +15826,10 @@
       </c>
       <c r="Q144">
         <f t="shared" si="28"/>
-        <v>0.99999999991643795</v>
-      </c>
-    </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.99999996454750428</v>
+      </c>
+    </row>
+    <row r="145" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A145" s="11">
         <v>20.338287999999999</v>
       </c>
@@ -15832,10 +15859,10 @@
       </c>
       <c r="Q145">
         <f t="shared" si="28"/>
-        <v>0.99999999992590416</v>
-      </c>
-    </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.99999996799571678</v>
+      </c>
+    </row>
+    <row r="146" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A146" s="11">
         <v>27.619593999999999</v>
       </c>
@@ -15865,10 +15892,10 @@
       </c>
       <c r="Q146">
         <f t="shared" si="28"/>
-        <v>0.99999999993426447</v>
-      </c>
-    </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.99999997109730632</v>
+      </c>
+    </row>
+    <row r="147" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A147" s="11">
         <v>35.715656000000003</v>
       </c>
@@ -15898,10 +15925,10 @@
       </c>
       <c r="Q147">
         <f t="shared" si="28"/>
-        <v>0.9999999999416519</v>
-      </c>
-    </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.9999999738882448</v>
+      </c>
+    </row>
+    <row r="148" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A148" s="11">
         <v>25.865987000000001</v>
       </c>
@@ -15931,10 +15958,10 @@
       </c>
       <c r="Q148">
         <f t="shared" si="28"/>
-        <v>0.99999999994818312</v>
-      </c>
-    </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.99999997640065397</v>
+      </c>
+    </row>
+    <row r="149" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A149" s="11">
         <v>36.628163000000001</v>
       </c>
@@ -15964,10 +15991,10 @@
       </c>
       <c r="Q149">
         <f t="shared" si="28"/>
-        <v>0.99999999995396038</v>
-      </c>
-    </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.99999997866323032</v>
+      </c>
+    </row>
+    <row r="150" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A150" s="11">
         <v>16.072402</v>
       </c>
@@ -15997,10 +16024,10 @@
       </c>
       <c r="Q150">
         <f t="shared" si="28"/>
-        <v>0.9999999999590734</v>
-      </c>
-    </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.99999998070162133</v>
+      </c>
+    </row>
+    <row r="151" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A151" s="11">
         <v>18.736143999999999</v>
       </c>
@@ -16030,10 +16057,10 @@
       </c>
       <c r="Q151">
         <f t="shared" si="28"/>
-        <v>0.99999999996360089</v>
-      </c>
-    </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.99999998253875899</v>
+      </c>
+    </row>
+    <row r="152" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A152" s="11">
         <v>26.348875</v>
       </c>
@@ -16063,10 +16090,10 @@
       </c>
       <c r="Q152">
         <f t="shared" si="28"/>
-        <v>0.9999999999676118</v>
-      </c>
-    </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.99999998419515634</v>
+      </c>
+    </row>
+    <row r="153" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A153" s="11">
         <v>19.627265999999999</v>
       </c>
@@ -16096,10 +16123,10 @@
       </c>
       <c r="Q153">
         <f t="shared" si="28"/>
-        <v>0.99999999997116695</v>
-      </c>
-    </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.99999998568917015</v>
+      </c>
+    </row>
+    <row r="154" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A154" s="11">
         <v>23.625198999999999</v>
       </c>
@@ -16129,10 +16156,10 @@
       </c>
       <c r="Q154">
         <f t="shared" si="28"/>
-        <v>0.99999999997431965</v>
-      </c>
-    </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.99999998703723436</v>
+      </c>
+    </row>
+    <row r="155" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A155" s="11">
         <v>37.342343</v>
       </c>
@@ -16162,10 +16189,10 @@
       </c>
       <c r="Q155">
         <f t="shared" si="28"/>
-        <v>0.99999999997711697</v>
-      </c>
-    </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.99999998825406788</v>
+      </c>
+    </row>
+    <row r="156" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A156" s="11">
         <v>37.879268000000003</v>
       </c>
@@ -16195,10 +16222,10 @@
       </c>
       <c r="Q156">
         <f t="shared" si="28"/>
-        <v>0.99999999997959998</v>
-      </c>
-    </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.99999998935285861</v>
+      </c>
+    </row>
+    <row r="157" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A157" s="11">
         <v>8.9281919999999992</v>
       </c>
@@ -16228,10 +16255,10 @@
       </c>
       <c r="Q157">
         <f t="shared" si="28"/>
-        <v>0.99999999998180522</v>
-      </c>
-    </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.99999999034542786</v>
+      </c>
+    </row>
+    <row r="158" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A158" s="11">
         <v>23.099402000000001</v>
       </c>
@@ -16261,10 +16288,10 @@
       </c>
       <c r="Q158">
         <f t="shared" si="28"/>
-        <v>0.99999999998376465</v>
-      </c>
-    </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.99999999124237604</v>
+      </c>
+    </row>
+    <row r="159" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A159" s="11">
         <v>51.094841000000002</v>
       </c>
@@ -16294,10 +16321,10 @@
       </c>
       <c r="Q159">
         <f t="shared" si="28"/>
-        <v>0.99999999998550648</v>
-      </c>
-    </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.99999999205321255</v>
+      </c>
+    </row>
+    <row r="160" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A160" s="11">
         <v>26.38832</v>
       </c>
@@ -16327,10 +16354,10 @@
       </c>
       <c r="Q160">
         <f t="shared" si="28"/>
-        <v>0.99999999998705569</v>
-      </c>
-    </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.99999999278647167</v>
+      </c>
+    </row>
+    <row r="161" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A161" s="11">
         <v>40.713647000000002</v>
       </c>
@@ -16360,10 +16387,10 @@
       </c>
       <c r="Q161">
         <f t="shared" si="28"/>
-        <v>0.99999999998843414</v>
-      </c>
-    </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.99999999344981516</v>
+      </c>
+    </row>
+    <row r="162" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A162" s="11">
         <v>32.669460999999998</v>
       </c>
@@ -16393,10 +16420,10 @@
       </c>
       <c r="Q162">
         <f t="shared" si="28"/>
-        <v>0.99999999998966116</v>
-      </c>
-    </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.99999999405012485</v>
+      </c>
+    </row>
+    <row r="163" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A163" s="11">
         <v>20.55789</v>
       </c>
@@ -16426,10 +16453,10 @@
       </c>
       <c r="Q163">
         <f t="shared" ref="Q163:Q169" si="32">_xlfn.LOGNORM.DIST(M163,$G$5,$G$3,TRUE)</f>
-        <v>0.99999999999075395</v>
-      </c>
-    </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.99999999459358357</v>
+      </c>
+    </row>
+    <row r="164" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A164" s="11">
         <v>16.576803000000002</v>
       </c>
@@ -16459,10 +16486,10 @@
       </c>
       <c r="Q164">
         <f t="shared" si="32"/>
-        <v>0.99999999999172773</v>
-      </c>
-    </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.99999999508574922</v>
+      </c>
+    </row>
+    <row r="165" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A165" s="11">
         <v>24.147587999999999</v>
       </c>
@@ -16492,10 +16519,10 @@
       </c>
       <c r="Q165">
         <f t="shared" si="32"/>
-        <v>0.9999999999925957</v>
-      </c>
-    </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.99999999553161889</v>
+      </c>
+    </row>
+    <row r="166" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A166" s="11">
         <v>44.488239999999998</v>
       </c>
@@ -16525,10 +16552,10 @@
       </c>
       <c r="Q166">
         <f t="shared" si="32"/>
-        <v>0.99999999999336986</v>
-      </c>
-    </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.99999999593568789</v>
+      </c>
+    </row>
+    <row r="167" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A167" s="11">
         <v>25.027336999999999</v>
       </c>
@@ -16558,10 +16585,10 @@
       </c>
       <c r="Q167">
         <f t="shared" si="32"/>
-        <v>0.99999999999406053</v>
-      </c>
-    </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.99999999630200154</v>
+      </c>
+    </row>
+    <row r="168" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A168" s="11">
         <v>30.756350000000001</v>
       </c>
@@ -16591,10 +16618,10 @@
       </c>
       <c r="Q168">
         <f t="shared" si="32"/>
-        <v>0.99999999999467704</v>
-      </c>
-    </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.99999999663420125</v>
+      </c>
+    </row>
+    <row r="169" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A169" s="11">
         <v>12.680446999999999</v>
       </c>
@@ -16624,10 +16651,10 @@
       </c>
       <c r="Q169">
         <f t="shared" si="32"/>
-        <v>0.99999999999522748</v>
-      </c>
-    </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.99999999693556629</v>
+      </c>
+    </row>
+    <row r="170" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A170" s="11">
         <v>29.331904000000002</v>
       </c>
@@ -16644,7 +16671,7 @@
         <v>0.60331776301515228</v>
       </c>
     </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A171" s="11">
         <v>65.959841999999995</v>
       </c>
@@ -16661,7 +16688,7 @@
         <v>0.9914006769971998</v>
       </c>
     </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A172" s="11">
         <v>36.372075000000002</v>
       </c>
@@ -16678,7 +16705,7 @@
         <v>0.7952748299558543</v>
       </c>
     </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A173" s="11">
         <v>26.483654999999999</v>
       </c>
@@ -16695,7 +16722,7 @@
         <v>0.49786736501354339</v>
       </c>
     </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A174" s="11">
         <v>20.253837999999998</v>
       </c>
@@ -16712,7 +16739,7 @@
         <v>0.23975244622279562</v>
       </c>
     </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A175" s="11">
         <v>43.722330999999997</v>
       </c>
@@ -16729,7 +16756,7 @@
         <v>0.90430589800828254</v>
       </c>
     </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A176" s="11">
         <v>38.857835000000001</v>
       </c>
@@ -16746,7 +16773,7 @@
         <v>0.8408231359092404</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="11">
         <v>29.130763999999999</v>
       </c>
@@ -16763,7 +16790,7 @@
         <v>0.59636086418880552</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="11">
         <v>33.657193999999997</v>
       </c>
@@ -16780,7 +16807,7 @@
         <v>0.73298724141803728</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="11">
         <v>22.234867000000001</v>
       </c>
@@ -16797,7 +16824,7 @@
         <v>0.32171213922569974</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="11">
         <v>32.828063999999998</v>
       </c>
@@ -16814,7 +16841,7 @@
         <v>0.71110115710086552</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="11">
         <v>24.233466</v>
       </c>
@@ -16831,7 +16858,7 @@
         <v>0.40606072610320426</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="11">
         <v>31.856971999999999</v>
       </c>
@@ -16848,7 +16875,7 @@
         <v>0.68368620808897496</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="11">
         <v>25.623861999999999</v>
       </c>
@@ -16865,7 +16892,7 @@
         <v>0.46346569047654035</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="11">
         <v>24.795867999999999</v>
       </c>
@@ -16882,7 +16909,7 @@
         <v>0.4294962639199339</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="11">
         <v>16.616081000000001</v>
       </c>
@@ -16899,7 +16926,7 @@
         <v>0.11026231423619438</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="11">
         <v>37.333773000000001</v>
       </c>
@@ -16916,7 +16943,7 @@
         <v>0.81411136853017352</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="11">
         <v>33.216445999999998</v>
       </c>
@@ -16933,7 +16960,7 @@
         <v>0.72152584892519267</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="11">
         <v>23.855857</v>
       </c>
@@ -16950,7 +16977,7 @@
         <v>0.39020500965642668</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="11">
         <v>23.321197000000002</v>
       </c>
@@ -16967,7 +16994,7 @@
         <v>0.36764486070780544</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="11">
         <v>22.968553</v>
       </c>
@@ -16984,7 +17011,7 @@
         <v>0.3527274962526985</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="11">
         <v>15.307342</v>
       </c>
@@ -17001,7 +17028,7 @@
         <v>7.4961511509100076E-2</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="11">
         <v>22.620398999999999</v>
       </c>
@@ -17018,7 +17045,7 @@
         <v>0.33799758874354113</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="11">
         <v>41.628543999999998</v>
       </c>
@@ -17035,7 +17062,7 @@
         <v>0.88061661116244339</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="11">
         <v>24.902311999999998</v>
       </c>
@@ -17052,7 +17079,7 @@
         <v>0.43390225651502529</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="11">
         <v>35.081063999999998</v>
       </c>
@@ -17069,7 +17096,7 @@
         <v>0.7673949229283199</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="11">
         <v>22.069634000000001</v>
       </c>
@@ -17086,7 +17113,7 @@
         <v>0.31474871712401697</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="11">
         <v>38.804873999999998</v>
       </c>
@@ -17103,7 +17130,7 @@
         <v>0.83995618232153402</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" s="11">
         <v>37.013993999999997</v>
       </c>
@@ -17120,7 +17147,7 @@
         <v>0.80802453214545666</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="11">
         <v>23.738935000000001</v>
       </c>
@@ -17137,7 +17164,7 @@
         <v>0.38528049571679418</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" s="11">
         <v>36.545178</v>
       </c>
@@ -17154,7 +17181,7 @@
         <v>0.79878385923959438</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" s="11">
         <v>35.028616</v>
       </c>
@@ -17171,7 +17198,7 @@
         <v>0.76619693527446875</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" s="11">
         <v>16.14396</v>
       </c>
@@ -17188,7 +17215,7 @@
         <v>9.6704491903725834E-2</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" s="11">
         <v>19.204688000000001</v>
       </c>
@@ -17205,7 +17232,7 @@
         <v>0.19869810195501489</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" s="11">
         <v>38.35351</v>
       </c>
@@ -17222,7 +17249,7 @@
         <v>0.83239255019401315</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="11">
         <v>14.182283</v>
       </c>
@@ -17239,7 +17266,7 @@
         <v>5.0548422992814458E-2</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" s="11">
         <v>21.964670999999999</v>
       </c>
@@ -17256,7 +17283,7 @@
         <v>0.31033218285674324</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" s="11">
         <v>29.652508999999998</v>
       </c>
@@ -17273,7 +17300,7 @@
         <v>0.6142410898564743</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" s="11">
         <v>26.087478000000001</v>
       </c>
@@ -17290,7 +17317,7 @@
         <v>0.48213919549570611</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" s="11">
         <v>34.153379000000001</v>
       </c>
@@ -17307,7 +17334,7 @@
         <v>0.74542676294073562</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" s="11">
         <v>16.014607000000002</v>
       </c>
@@ -17324,7 +17351,7 @@
         <v>9.3148864676866144E-2</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" s="11">
         <v>28.678609999999999</v>
       </c>
@@ -17341,7 +17368,7 @@
         <v>0.58043450570495669</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" s="11">
         <v>38.639882999999998</v>
       </c>
@@ -17358,7 +17385,7 @@
         <v>0.83722787895281581</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" s="11">
         <v>21.656282999999998</v>
       </c>
@@ -17375,7 +17402,7 @@
         <v>0.29739480048217748</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" s="11">
         <v>15.317987</v>
       </c>
@@ -17392,7 +17419,7 @@
         <v>7.5219245999091841E-2</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" s="11">
         <v>28.364968999999999</v>
       </c>
@@ -17409,7 +17436,7 @@
         <v>0.56915777487569619</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="11">
         <v>36.280365000000003</v>
       </c>
@@ -17426,7 +17453,7 @@
         <v>0.79339424129896763</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="11">
         <v>31.123885999999999</v>
       </c>
@@ -17443,7 +17470,7 @@
         <v>0.66170226123548026</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" s="11">
         <v>57.092722999999999</v>
       </c>
@@ -17460,7 +17487,7 @@
         <v>0.9775004588646693</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="11">
         <v>33.227274000000001</v>
       </c>
@@ -17477,7 +17504,7 @@
         <v>0.72181210774916149</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" s="11">
         <v>18.988734999999998</v>
       </c>
@@ -17494,7 +17521,7 @@
         <v>0.19054994235859499</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" s="11">
         <v>23.373093000000001</v>
       </c>
@@ -17511,7 +17538,7 @@
         <v>0.3698385011412314</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" s="11">
         <v>37.613441999999999</v>
       </c>
@@ -17528,7 +17555,7 @@
         <v>0.81929402284721342</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" s="11">
         <v>18.797550999999999</v>
       </c>

--- a/data/Calculs.xlsx
+++ b/data/Calculs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benda\OneDrive\Documents\GitHub\MEC8211DEV3\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD580F4-5A30-44A3-92C0-FD2C4E70C0CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A102B912-5192-43BB-85BE-A4E5F8FD5A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -196,7 +196,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="0.000E+00"/>
+    <numFmt numFmtId="166" formatCode="0.000E+00"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -439,7 +439,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -467,21 +467,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -10795,7 +10796,7 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>66507</xdr:rowOff>
+      <xdr:rowOff>72222</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10874,8 +10875,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3227070" y="7137082"/>
-              <a:ext cx="4644390" cy="2636520"/>
+              <a:off x="3314700" y="7434262"/>
+              <a:ext cx="4495800" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -11245,16 +11246,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X44"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11284,7 +11285,7 @@
       <c r="W1" s="2"/>
       <c r="X1" s="3"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="C2" t="s">
         <v>1</v>
@@ -11299,7 +11300,7 @@
       <c r="R2" s="4"/>
       <c r="X2" s="5"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="C3">
         <v>600</v>
@@ -11324,7 +11325,7 @@
       </c>
       <c r="X3" s="5"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="C4">
         <v>400</v>
@@ -11343,7 +11344,7 @@
       <c r="R4" s="4"/>
       <c r="X4" s="5"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="C5">
         <v>300</v>
@@ -11368,7 +11369,7 @@
       </c>
       <c r="X5" s="5"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="C6">
         <v>200</v>
@@ -11387,7 +11388,7 @@
       <c r="R6" s="4"/>
       <c r="X6" s="5"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="C7">
         <v>150</v>
@@ -11406,7 +11407,7 @@
       <c r="R7" s="4"/>
       <c r="X7" s="5"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="C8">
         <v>100</v>
@@ -11428,7 +11429,7 @@
       </c>
       <c r="X8" s="5"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="C9">
         <v>75</v>
@@ -11447,7 +11448,7 @@
       <c r="R9" s="4"/>
       <c r="X9" s="5"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="C10">
         <v>50</v>
@@ -11466,13 +11467,13 @@
       <c r="R10" s="4"/>
       <c r="X10" s="5"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="Q11" s="5"/>
       <c r="R11" s="4"/>
       <c r="X11" s="5"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="Q12" s="5"/>
       <c r="R12" s="4"/>
@@ -11484,13 +11485,13 @@
       </c>
       <c r="X12" s="5"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="4"/>
       <c r="X13" s="5"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="C14" t="s">
         <v>4</v>
@@ -11503,7 +11504,7 @@
       <c r="R14" s="4"/>
       <c r="X14" s="5"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="C15" t="s">
         <v>5</v>
@@ -11515,19 +11516,19 @@
       <c r="R15" s="4"/>
       <c r="X15" s="5"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="4"/>
       <c r="X16" s="5"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="4"/>
       <c r="X17" s="5"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="C18" t="s">
         <v>6</v>
@@ -11540,13 +11541,13 @@
       <c r="R18" s="4"/>
       <c r="X18" s="5"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="Q19" s="5"/>
       <c r="R19" s="4"/>
       <c r="X19" s="5"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="C20" t="s">
         <v>7</v>
@@ -11558,7 +11559,7 @@
       <c r="R20" s="4"/>
       <c r="X20" s="5"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="C21" t="s">
         <v>8</v>
@@ -11570,13 +11571,13 @@
       <c r="R21" s="4"/>
       <c r="X21" s="5"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="Q22" s="5"/>
       <c r="R22" s="4"/>
       <c r="X22" s="5"/>
     </row>
-    <row r="23" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="C23" t="s">
         <v>9</v>
@@ -11589,7 +11590,7 @@
       <c r="R23" s="4"/>
       <c r="X23" s="5"/>
     </row>
-    <row r="24" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="F24" s="21" t="s">
         <v>35</v>
@@ -11609,7 +11610,7 @@
       <c r="R24" s="4"/>
       <c r="X24" s="5"/>
     </row>
-    <row r="25" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="C25" s="21" t="s">
         <v>10</v>
@@ -11643,7 +11644,7 @@
       </c>
       <c r="X25" s="5"/>
     </row>
-    <row r="26" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -11669,7 +11670,7 @@
       <c r="W26" s="8"/>
       <c r="X26" s="9"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -11688,118 +11689,47 @@
       <c r="P27" s="2"/>
       <c r="Q27" s="3"/>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="27"/>
-      <c r="L28" s="27"/>
-      <c r="M28" s="27"/>
-      <c r="N28" s="27"/>
-      <c r="O28" s="27"/>
-      <c r="P28" s="27"/>
       <c r="Q28" s="5"/>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="27"/>
-      <c r="N29" s="27"/>
-      <c r="O29" s="27"/>
-      <c r="P29" s="27"/>
       <c r="Q29" s="5"/>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27" t="s">
+      <c r="D30" t="s">
         <v>39</v>
       </c>
-      <c r="E30" s="27">
+      <c r="E30">
         <v>80.599999999999994</v>
       </c>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="27"/>
-      <c r="N30" s="27"/>
-      <c r="O30" s="27"/>
-      <c r="P30" s="27"/>
       <c r="Q30" s="5"/>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27" t="s">
+      <c r="D31" t="s">
         <v>40</v>
       </c>
-      <c r="E31" s="27">
+      <c r="E31">
         <v>26.53781</v>
       </c>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="27"/>
-      <c r="N31" s="27"/>
-      <c r="O31" s="27"/>
-      <c r="P31" s="27"/>
       <c r="Q31" s="5"/>
     </row>
-    <row r="32" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27" t="s">
+      <c r="D32" t="s">
         <v>41</v>
       </c>
-      <c r="E32" s="27">
+      <c r="E32">
         <f>E31-E30</f>
         <v>-54.062189999999994</v>
       </c>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="27"/>
-      <c r="K32" s="27"/>
-      <c r="L32" s="27"/>
-      <c r="M32" s="27"/>
-      <c r="N32" s="27"/>
-      <c r="O32" s="27"/>
-      <c r="P32" s="27"/>
       <c r="Q32" s="5"/>
     </row>
-    <row r="33" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
       <c r="D33" s="17" t="s">
         <v>37</v>
       </c>
@@ -11807,23 +11737,10 @@
         <f>L24</f>
         <v>19.675747328047727</v>
       </c>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="27"/>
-      <c r="K33" s="27"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="27"/>
-      <c r="N33" s="27"/>
-      <c r="O33" s="27"/>
-      <c r="P33" s="27"/>
       <c r="Q33" s="5"/>
     </row>
-    <row r="34" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="27"/>
       <c r="D34" s="15" t="s">
         <v>38</v>
       </c>
@@ -11831,207 +11748,69 @@
         <f>L25</f>
         <v>21.648606846861018</v>
       </c>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="27"/>
-      <c r="L34" s="27"/>
-      <c r="M34" s="27"/>
-      <c r="N34" s="27"/>
-      <c r="O34" s="27"/>
-      <c r="P34" s="27"/>
       <c r="Q34" s="5"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="26" t="s">
+      <c r="D35" t="s">
         <v>3</v>
       </c>
-      <c r="E35" s="27">
+      <c r="E35">
         <v>2</v>
       </c>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="27"/>
-      <c r="K35" s="27"/>
-      <c r="L35" s="27"/>
-      <c r="M35" s="27"/>
-      <c r="N35" s="27"/>
-      <c r="O35" s="27"/>
-      <c r="P35" s="27"/>
       <c r="Q35" s="5"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
-      <c r="B36" s="27"/>
-      <c r="C36" s="28" t="s">
+      <c r="C36" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="D36" s="26" t="s">
+      <c r="D36" t="s">
         <v>42</v>
       </c>
-      <c r="E36" s="27">
+      <c r="E36">
         <f>E35*E34</f>
         <v>43.297213693722036</v>
       </c>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="27"/>
-      <c r="J36" s="27"/>
-      <c r="K36" s="27"/>
-      <c r="L36" s="27"/>
-      <c r="M36" s="27"/>
-      <c r="N36" s="27"/>
-      <c r="O36" s="27"/>
-      <c r="P36" s="27"/>
       <c r="Q36" s="5"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
-      <c r="B37" s="27"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="26" t="s">
+      <c r="C37" s="27"/>
+      <c r="D37" t="s">
         <v>43</v>
       </c>
-      <c r="E37" s="27">
+      <c r="E37">
         <f>E35*E33</f>
         <v>39.351494656095454</v>
       </c>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="27"/>
-      <c r="J37" s="27"/>
-      <c r="K37" s="27"/>
-      <c r="L37" s="27"/>
-      <c r="M37" s="27"/>
-      <c r="N37" s="27"/>
-      <c r="O37" s="27"/>
-      <c r="P37" s="27"/>
       <c r="Q37" s="5"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
-      <c r="B38" s="27"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="27"/>
-      <c r="K38" s="27"/>
-      <c r="L38" s="27"/>
-      <c r="M38" s="27"/>
-      <c r="N38" s="27"/>
-      <c r="O38" s="27"/>
-      <c r="P38" s="27"/>
       <c r="Q38" s="5"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
-      <c r="B39" s="27"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="27"/>
-      <c r="J39" s="27"/>
-      <c r="K39" s="27"/>
-      <c r="L39" s="27"/>
-      <c r="M39" s="27"/>
-      <c r="N39" s="27"/>
-      <c r="O39" s="27"/>
-      <c r="P39" s="27"/>
       <c r="Q39" s="5"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
-      <c r="B40" s="27"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="27"/>
-      <c r="J40" s="27"/>
-      <c r="K40" s="27"/>
-      <c r="L40" s="27"/>
-      <c r="M40" s="27"/>
-      <c r="N40" s="27"/>
-      <c r="O40" s="27"/>
-      <c r="P40" s="27"/>
       <c r="Q40" s="5"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="27"/>
-      <c r="I41" s="27"/>
-      <c r="J41" s="27"/>
-      <c r="K41" s="27"/>
-      <c r="L41" s="27"/>
-      <c r="M41" s="27"/>
-      <c r="N41" s="27"/>
-      <c r="O41" s="27"/>
-      <c r="P41" s="27"/>
       <c r="Q41" s="5"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
-      <c r="B42" s="27"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="27"/>
-      <c r="I42" s="27"/>
-      <c r="J42" s="27"/>
-      <c r="K42" s="27"/>
-      <c r="L42" s="27"/>
-      <c r="M42" s="27"/>
-      <c r="N42" s="27"/>
-      <c r="O42" s="27"/>
-      <c r="P42" s="27"/>
       <c r="Q42" s="5"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
-      <c r="B43" s="27"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="27"/>
-      <c r="J43" s="27"/>
-      <c r="K43" s="27"/>
-      <c r="L43" s="27"/>
-      <c r="M43" s="27"/>
-      <c r="N43" s="27"/>
-      <c r="O43" s="27"/>
-      <c r="P43" s="27"/>
       <c r="Q43" s="5"/>
     </row>
-    <row r="44" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="7"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -12063,13 +11842,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B835C120-36EE-4118-8293-0D2CF38A45E8}">
   <dimension ref="A1:N654"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>600</v>
       </c>
@@ -12088,7 +11867,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>400</v>
       </c>
@@ -12108,7 +11887,7 @@
         <v>2.3909102434735727</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>300</v>
       </c>
@@ -12127,15 +11906,15 @@
         <f t="shared" ref="H3:H27" si="1">$B$6^F3</f>
         <v>2.5109168651691092</v>
       </c>
-      <c r="L3" s="23" t="s">
+      <c r="L3" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F4">
-        <f t="shared" ref="F3:F27" si="2">LN(G3*$B$9+H3)/$B$10</f>
+        <f t="shared" ref="F4:F27" si="2">LN(G3*$B$9+H3)/$B$10</f>
         <v>2.3660469280340952</v>
       </c>
       <c r="G4">
@@ -12146,7 +11925,7 @@
         <f t="shared" si="1"/>
         <v>2.6099980480593321</v>
       </c>
-      <c r="L4" s="29">
+      <c r="L4" s="25">
         <v>2.6743710198406001</v>
       </c>
       <c r="M4">
@@ -12156,7 +11935,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F5">
         <f t="shared" si="2"/>
         <v>2.4403557390288997</v>
@@ -12169,11 +11948,11 @@
         <f t="shared" si="1"/>
         <v>2.6898329829075229</v>
       </c>
-      <c r="L5" s="30" t="s">
+      <c r="L5" s="26" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -12194,7 +11973,7 @@
         <v>2.7529565857777714</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -12215,7 +11994,7 @@
         <v>2.8021487404668015</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F8">
         <f t="shared" si="2"/>
         <v>2.5743924545926005</v>
@@ -12229,7 +12008,7 @@
         <v>2.8400632268885713</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9">
         <f>(B3-B2)/(B2-B1)</f>
         <v>1.7501620411292036</v>
@@ -12247,7 +12026,7 @@
         <v>2.8690421652555256</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10">
         <f>LN(B7*B6)</f>
         <v>0.69314718055994529</v>
@@ -12265,7 +12044,7 @@
         <v>2.8910521527605288</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F11">
         <f t="shared" si="2"/>
         <v>2.6324310559376656</v>
@@ -12279,7 +12058,7 @@
         <v>2.9076899743255575</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F12">
         <f t="shared" si="2"/>
         <v>2.6430380198212577</v>
@@ -12293,7 +12072,7 @@
         <v>2.9202221625199964</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F13">
         <f t="shared" si="2"/>
         <v>2.6509763766612444</v>
@@ -12307,7 +12086,7 @@
         <v>2.9296367028945278</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F14">
         <f t="shared" si="2"/>
         <v>2.6569112975826816</v>
@@ -12321,7 +12100,7 @@
         <v>2.9366950797242266</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F15">
         <f t="shared" si="2"/>
         <v>2.6613449349299958</v>
@@ -12335,7 +12114,7 @@
         <v>2.9419790812047877</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F16">
         <f t="shared" si="2"/>
         <v>2.6646551237725693</v>
@@ -12349,7 +12128,7 @@
         <v>2.945930356767422</v>
       </c>
     </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F17">
         <f t="shared" si="2"/>
         <v>2.6671254661238954</v>
@@ -12363,7 +12142,7 @@
         <v>2.9488825897508288</v>
       </c>
     </row>
-    <row r="18" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F18">
         <f t="shared" si="2"/>
         <v>2.6689684488168384</v>
@@ -12377,7 +12156,7 @@
         <v>2.9510870105615994</v>
       </c>
     </row>
-    <row r="19" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F19">
         <f t="shared" si="2"/>
         <v>2.6703430630856428</v>
@@ -12391,7 +12170,7 @@
         <v>2.9527322813388586</v>
       </c>
     </row>
-    <row r="20" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F20">
         <f t="shared" si="2"/>
         <v>2.6713681543792598</v>
@@ -12405,7 +12184,7 @@
         <v>2.953959806385634</v>
       </c>
     </row>
-    <row r="21" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F21">
         <f t="shared" si="2"/>
         <v>2.6721324936809818</v>
@@ -12419,7 +12198,7 @@
         <v>2.954875418560408</v>
       </c>
     </row>
-    <row r="22" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F22">
         <f t="shared" si="2"/>
         <v>2.6727023515808828</v>
@@ -12433,7 +12212,7 @@
         <v>2.9555582435555059</v>
       </c>
     </row>
-    <row r="23" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F23">
         <f t="shared" si="2"/>
         <v>2.6731271811241459</v>
@@ -12447,7 +12226,7 @@
         <v>2.9560673928250805</v>
       </c>
     </row>
-    <row r="24" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F24">
         <f t="shared" si="2"/>
         <v>2.6734438743806117</v>
@@ -12461,7 +12240,7 @@
         <v>2.9564470000921879</v>
       </c>
     </row>
-    <row r="25" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F25">
         <f t="shared" si="2"/>
         <v>2.67367994666875</v>
@@ -12475,7 +12254,7 @@
         <v>2.9567300020109064</v>
       </c>
     </row>
-    <row r="26" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F26">
         <f t="shared" si="2"/>
         <v>2.6738559163524149</v>
@@ -12489,7 +12268,7 @@
         <v>2.9569409709419077</v>
       </c>
     </row>
-    <row r="27" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F27">
         <f t="shared" si="2"/>
         <v>2.6739870821931242</v>
@@ -12503,7 +12282,7 @@
         <v>2.9570982346233721</v>
       </c>
     </row>
-    <row r="28" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F28">
         <f t="shared" ref="F28:F91" si="3">LN(G27*$B$9+H27)/$B$10</f>
         <v>2.6740848500792187</v>
@@ -12517,7 +12296,7 @@
         <v>2.9572154606574821</v>
       </c>
     </row>
-    <row r="29" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F29">
         <f t="shared" si="3"/>
         <v>2.6741577229998383</v>
@@ -12531,7 +12310,7 @@
         <v>2.9573028400552683</v>
       </c>
     </row>
-    <row r="30" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F30">
         <f t="shared" si="3"/>
         <v>2.6742120395284732</v>
@@ -12545,7 +12324,7 @@
         <v>2.9573679708048597</v>
       </c>
     </row>
-    <row r="31" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F31">
         <f t="shared" si="3"/>
         <v>2.674252524586552</v>
@@ -12559,7 +12338,7 @@
         <v>2.9574165172220321</v>
       </c>
     </row>
-    <row r="32" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F32">
         <f t="shared" si="3"/>
         <v>2.6742827001395852</v>
@@ -12573,7 +12352,7 @@
         <v>2.9574527018303995</v>
       </c>
     </row>
-    <row r="33" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F33">
         <f t="shared" si="3"/>
         <v>2.6743051914108751</v>
@@ -12587,7 +12366,7 @@
         <v>2.9574796722236854</v>
       </c>
     </row>
-    <row r="34" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F34">
         <f t="shared" si="3"/>
         <v>2.6743219551733413</v>
@@ -12601,7 +12380,7 @@
         <v>2.9574997746384835</v>
       </c>
     </row>
-    <row r="35" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F35">
         <f t="shared" si="3"/>
         <v>2.6743344499369863</v>
@@ -12615,7 +12394,7 @@
         <v>2.957514757934268</v>
       </c>
     </row>
-    <row r="36" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F36">
         <f t="shared" si="3"/>
         <v>2.6743437628143889</v>
@@ -12629,7 +12408,7 @@
         <v>2.9575259256696174</v>
       </c>
     </row>
-    <row r="37" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F37">
         <f t="shared" si="3"/>
         <v>2.6743507040885777</v>
@@ -12643,7 +12422,7 @@
         <v>2.9575342494738748</v>
       </c>
     </row>
-    <row r="38" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F38">
         <f t="shared" si="3"/>
         <v>2.6743558777037513</v>
@@ -12657,7 +12436,7 @@
         <v>2.9575404535604157</v>
       </c>
     </row>
-    <row r="39" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F39">
         <f t="shared" si="3"/>
         <v>2.674359733807862</v>
@@ -12671,7 +12450,7 @@
         <v>2.9575450777248746</v>
       </c>
     </row>
-    <row r="40" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F40">
         <f t="shared" si="3"/>
         <v>2.6743626079163825</v>
@@ -12685,7 +12464,7 @@
         <v>2.9575485243041753</v>
       </c>
     </row>
-    <row r="41" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F41">
         <f t="shared" si="3"/>
         <v>2.674364750103539</v>
@@ -12699,7 +12478,7 @@
         <v>2.9575510931791373</v>
       </c>
     </row>
-    <row r="42" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F42">
         <f t="shared" si="3"/>
         <v>2.6743663467602059</v>
@@ -12713,7 +12492,7 @@
         <v>2.9575530078645245</v>
       </c>
     </row>
-    <row r="43" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F43">
         <f t="shared" si="3"/>
         <v>2.6743675368112134</v>
@@ -12727,7 +12506,7 @@
         <v>2.9575544349556506</v>
       </c>
     </row>
-    <row r="44" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F44">
         <f t="shared" si="3"/>
         <v>2.674368423802894</v>
@@ -12741,7 +12520,7 @@
         <v>2.957555498623075</v>
       </c>
     </row>
-    <row r="45" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F45">
         <f t="shared" si="3"/>
         <v>2.6743690849124988</v>
@@ -12755,7 +12534,7 @@
         <v>2.9575562914162727</v>
       </c>
     </row>
-    <row r="46" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F46">
         <f t="shared" si="3"/>
         <v>2.6743695776633118</v>
@@ -12769,7 +12548,7 @@
         <v>2.9575568823161502</v>
       </c>
     </row>
-    <row r="47" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F47">
         <f t="shared" si="3"/>
         <v>2.6743699449297176</v>
@@ -12783,7 +12562,7 @@
         <v>2.9575573227369594</v>
       </c>
     </row>
-    <row r="48" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F48">
         <f t="shared" si="3"/>
         <v>2.6743702186676854</v>
@@ -12797,7 +12576,7 @@
         <v>2.9575576509997981</v>
       </c>
     </row>
-    <row r="49" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F49">
         <f t="shared" si="3"/>
         <v>2.6743704226952549</v>
@@ -12811,7 +12590,7 @@
         <v>2.9575578956669011</v>
       </c>
     </row>
-    <row r="50" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F50">
         <f t="shared" si="3"/>
         <v>2.674370574764946</v>
@@ -12825,7 +12604,7 @@
         <v>2.9575580780268322</v>
       </c>
     </row>
-    <row r="51" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F51">
         <f t="shared" si="3"/>
         <v>2.6743706881084051</v>
@@ -12839,7 +12618,7 @@
         <v>2.9575582139467933</v>
       </c>
     </row>
-    <row r="52" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F52">
         <f t="shared" si="3"/>
         <v>2.6743707725876948</v>
@@ -12853,7 +12632,7 @@
         <v>2.9575583152532325</v>
       </c>
     </row>
-    <row r="53" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F53">
         <f t="shared" si="3"/>
         <v>2.6743708355533955</v>
@@ -12867,7 +12646,7 @@
         <v>2.9575583907608647</v>
       </c>
     </row>
-    <row r="54" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F54">
         <f t="shared" si="3"/>
         <v>2.6743708824841814</v>
@@ -12881,7 +12660,7 @@
         <v>2.9575584470396405</v>
       </c>
     </row>
-    <row r="55" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F55">
         <f t="shared" si="3"/>
         <v>2.6743709174635208</v>
@@ -12895,7 +12674,7 @@
         <v>2.9575584889864017</v>
       </c>
     </row>
-    <row r="56" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F56">
         <f t="shared" si="3"/>
         <v>2.6743709435349832</v>
@@ -12909,7 +12688,7 @@
         <v>2.9575585202509544</v>
       </c>
     </row>
-    <row r="57" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F57">
         <f t="shared" si="3"/>
         <v>2.6743709629670573</v>
@@ -12923,7 +12702,7 @@
         <v>2.9575585435536413</v>
       </c>
     </row>
-    <row r="58" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F58">
         <f t="shared" si="3"/>
         <v>2.674370977450538</v>
@@ -12937,7 +12716,7 @@
         <v>2.9575585609220401</v>
       </c>
     </row>
-    <row r="59" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F59">
         <f t="shared" si="3"/>
         <v>2.6743709882456392</v>
@@ -12951,7 +12730,7 @@
         <v>2.9575585738673831</v>
       </c>
     </row>
-    <row r="60" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F60">
         <f t="shared" si="3"/>
         <v>2.674370996291648</v>
@@ -12965,7 +12744,7 @@
         <v>2.9575585835160503</v>
       </c>
     </row>
-    <row r="61" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F61">
         <f t="shared" si="3"/>
         <v>2.6743710022886509</v>
@@ -12979,7 +12758,7 @@
         <v>2.9575585907075772</v>
       </c>
     </row>
-    <row r="62" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F62">
         <f t="shared" si="3"/>
         <v>2.6743710067584505</v>
@@ -12993,7 +12772,7 @@
         <v>2.957558596067702</v>
       </c>
     </row>
-    <row r="63" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F63">
         <f t="shared" si="3"/>
         <v>2.6743710100899656</v>
@@ -13007,7 +12786,7 @@
         <v>2.9575586000628111</v>
       </c>
     </row>
-    <row r="64" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F64">
         <f t="shared" si="3"/>
         <v>2.6743710125730735</v>
@@ -13021,7 +12800,7 @@
         <v>2.9575586030405212</v>
       </c>
     </row>
-    <row r="65" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F65">
         <f t="shared" si="3"/>
         <v>2.67437101442383</v>
@@ -13035,7 +12814,7 @@
         <v>2.9575586052599245</v>
       </c>
     </row>
-    <row r="66" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F66">
         <f t="shared" si="3"/>
         <v>2.6743710158032714</v>
@@ -13049,7 +12828,7 @@
         <v>2.957558606914132</v>
       </c>
     </row>
-    <row r="67" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F67">
         <f t="shared" si="3"/>
         <v>2.6743710168314223</v>
@@ -13063,7 +12842,7 @@
         <v>2.9575586081470773</v>
       </c>
     </row>
-    <row r="68" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F68">
         <f t="shared" si="3"/>
         <v>2.6743710175977431</v>
@@ -13077,7 +12856,7 @@
         <v>2.9575586090660391</v>
       </c>
     </row>
-    <row r="69" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F69">
         <f t="shared" si="3"/>
         <v>2.674371018168912</v>
@@ -13091,7 +12870,7 @@
         <v>2.957558609750977</v>
       </c>
     </row>
-    <row r="70" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F70">
         <f t="shared" si="3"/>
         <v>2.6743710185946261</v>
@@ -13105,7 +12884,7 @@
         <v>2.9575586102614877</v>
       </c>
     </row>
-    <row r="71" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F71">
         <f t="shared" si="3"/>
         <v>2.6743710189119274</v>
@@ -13119,7 +12898,7 @@
         <v>2.9575586106419913</v>
       </c>
     </row>
-    <row r="72" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F72">
         <f t="shared" si="3"/>
         <v>2.6743710191484249</v>
@@ -13133,7 +12912,7 @@
         <v>2.957558610925596</v>
       </c>
     </row>
-    <row r="73" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F73">
         <f t="shared" si="3"/>
         <v>2.674371019324695</v>
@@ -13147,7 +12926,7 @@
         <v>2.9575586111369772</v>
       </c>
     </row>
-    <row r="74" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F74">
         <f t="shared" si="3"/>
         <v>2.6743710194560761</v>
@@ -13161,7 +12940,7 @@
         <v>2.9575586112945271</v>
       </c>
     </row>
-    <row r="75" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F75">
         <f t="shared" si="3"/>
         <v>2.6743710195539996</v>
@@ -13175,7 +12954,7 @@
         <v>2.9575586114119563</v>
       </c>
     </row>
-    <row r="76" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F76">
         <f t="shared" si="3"/>
         <v>2.6743710196269861</v>
@@ -13189,7 +12968,7 @@
         <v>2.9575586114994805</v>
       </c>
     </row>
-    <row r="77" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F77">
         <f t="shared" si="3"/>
         <v>2.6743710196813857</v>
@@ -13203,7 +12982,7 @@
         <v>2.9575586115647159</v>
       </c>
     </row>
-    <row r="78" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F78">
         <f t="shared" si="3"/>
         <v>2.6743710197219319</v>
@@ -13217,7 +12996,7 @@
         <v>2.9575586116133383</v>
       </c>
     </row>
-    <row r="79" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F79">
         <f t="shared" si="3"/>
         <v>2.6743710197521522</v>
@@ -13231,7 +13010,7 @@
         <v>2.9575586116495782</v>
       </c>
     </row>
-    <row r="80" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F80">
         <f t="shared" si="3"/>
         <v>2.6743710197746768</v>
@@ -13245,7 +13024,7 @@
         <v>2.9575586116765891</v>
       </c>
     </row>
-    <row r="81" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F81">
         <f t="shared" si="3"/>
         <v>2.6743710197914652</v>
@@ -13259,7 +13038,7 @@
         <v>2.9575586116967214</v>
       </c>
     </row>
-    <row r="82" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F82">
         <f t="shared" si="3"/>
         <v>2.6743710198039778</v>
@@ -13273,7 +13052,7 @@
         <v>2.9575586117117263</v>
       </c>
     </row>
-    <row r="83" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F83">
         <f t="shared" si="3"/>
         <v>2.6743710198133042</v>
@@ -13287,7 +13066,7 @@
         <v>2.9575586117229111</v>
       </c>
     </row>
-    <row r="84" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F84">
         <f t="shared" si="3"/>
         <v>2.6743710198202559</v>
@@ -13301,7 +13080,7 @@
         <v>2.9575586117312471</v>
       </c>
     </row>
-    <row r="85" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F85">
         <f t="shared" si="3"/>
         <v>2.6743710198254371</v>
@@ -13315,7 +13094,7 @@
         <v>2.9575586117374604</v>
       </c>
     </row>
-    <row r="86" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F86">
         <f t="shared" si="3"/>
         <v>2.6743710198292989</v>
@@ -13329,7 +13108,7 @@
         <v>2.9575586117420913</v>
       </c>
     </row>
-    <row r="87" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F87">
         <f t="shared" si="3"/>
         <v>2.6743710198321771</v>
@@ -13343,7 +13122,7 @@
         <v>2.9575586117455424</v>
       </c>
     </row>
-    <row r="88" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F88">
         <f t="shared" si="3"/>
         <v>2.674371019834322</v>
@@ -13357,7 +13136,7 @@
         <v>2.957558611748115</v>
       </c>
     </row>
-    <row r="89" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F89">
         <f t="shared" si="3"/>
         <v>2.6743710198359212</v>
@@ -13371,7 +13150,7 @@
         <v>2.9575586117500325</v>
       </c>
     </row>
-    <row r="90" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F90">
         <f t="shared" si="3"/>
         <v>2.6743710198371131</v>
@@ -13385,7 +13164,7 @@
         <v>2.9575586117514621</v>
       </c>
     </row>
-    <row r="91" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F91">
         <f t="shared" si="3"/>
         <v>2.6743710198380013</v>
@@ -13399,7 +13178,7 @@
         <v>2.9575586117525274</v>
       </c>
     </row>
-    <row r="92" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F92">
         <f t="shared" ref="F92:F155" si="6">LN(G91*$B$9+H91)/$B$10</f>
         <v>2.6743710198386639</v>
@@ -13413,7 +13192,7 @@
         <v>2.9575586117533219</v>
       </c>
     </row>
-    <row r="93" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F93">
         <f t="shared" si="6"/>
         <v>2.6743710198391573</v>
@@ -13427,7 +13206,7 @@
         <v>2.9575586117539134</v>
       </c>
     </row>
-    <row r="94" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F94">
         <f t="shared" si="6"/>
         <v>2.6743710198395254</v>
@@ -13441,7 +13220,7 @@
         <v>2.9575586117543549</v>
       </c>
     </row>
-    <row r="95" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F95">
         <f t="shared" si="6"/>
         <v>2.6743710198397994</v>
@@ -13455,7 +13234,7 @@
         <v>2.957558611754683</v>
       </c>
     </row>
-    <row r="96" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F96">
         <f t="shared" si="6"/>
         <v>2.6743710198400037</v>
@@ -13469,7 +13248,7 @@
         <v>2.9575586117549282</v>
       </c>
     </row>
-    <row r="97" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F97">
         <f t="shared" si="6"/>
         <v>2.674371019840156</v>
@@ -13483,7 +13262,7 @@
         <v>2.9575586117551107</v>
       </c>
     </row>
-    <row r="98" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F98">
         <f t="shared" si="6"/>
         <v>2.6743710198402693</v>
@@ -13497,7 +13276,7 @@
         <v>2.9575586117552466</v>
       </c>
     </row>
-    <row r="99" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F99">
         <f t="shared" si="6"/>
         <v>2.6743710198403536</v>
@@ -13511,7 +13290,7 @@
         <v>2.9575586117553478</v>
       </c>
     </row>
-    <row r="100" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F100">
         <f t="shared" si="6"/>
         <v>2.6743710198404167</v>
@@ -13525,7 +13304,7 @@
         <v>2.9575586117554233</v>
       </c>
     </row>
-    <row r="101" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F101">
         <f t="shared" si="6"/>
         <v>2.6743710198404633</v>
@@ -13539,7 +13318,7 @@
         <v>2.9575586117554797</v>
       </c>
     </row>
-    <row r="102" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F102">
         <f t="shared" si="6"/>
         <v>2.6743710198404989</v>
@@ -13553,7 +13332,7 @@
         <v>2.9575586117555224</v>
       </c>
     </row>
-    <row r="103" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F103">
         <f t="shared" si="6"/>
         <v>2.6743710198405255</v>
@@ -13567,7 +13346,7 @@
         <v>2.9575586117555539</v>
       </c>
     </row>
-    <row r="104" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F104">
         <f t="shared" si="6"/>
         <v>2.6743710198405446</v>
@@ -13581,7 +13360,7 @@
         <v>2.957558611755577</v>
       </c>
     </row>
-    <row r="105" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F105">
         <f t="shared" si="6"/>
         <v>2.6743710198405588</v>
@@ -13595,7 +13374,7 @@
         <v>2.9575586117555939</v>
       </c>
     </row>
-    <row r="106" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F106">
         <f t="shared" si="6"/>
         <v>2.6743710198405695</v>
@@ -13609,7 +13388,7 @@
         <v>2.9575586117556067</v>
       </c>
     </row>
-    <row r="107" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F107">
         <f t="shared" si="6"/>
         <v>2.6743710198405775</v>
@@ -13623,7 +13402,7 @@
         <v>2.9575586117556165</v>
       </c>
     </row>
-    <row r="108" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F108">
         <f t="shared" si="6"/>
         <v>2.6743710198405837</v>
@@ -13637,7 +13416,7 @@
         <v>2.9575586117556236</v>
       </c>
     </row>
-    <row r="109" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F109">
         <f t="shared" si="6"/>
         <v>2.6743710198405881</v>
@@ -13651,7 +13430,7 @@
         <v>2.9575586117556294</v>
       </c>
     </row>
-    <row r="110" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F110">
         <f t="shared" si="6"/>
         <v>2.6743710198405917</v>
@@ -13665,7 +13444,7 @@
         <v>2.9575586117556334</v>
       </c>
     </row>
-    <row r="111" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F111">
         <f t="shared" si="6"/>
         <v>2.6743710198405939</v>
@@ -13679,7 +13458,7 @@
         <v>2.9575586117556361</v>
       </c>
     </row>
-    <row r="112" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F112">
         <f t="shared" si="6"/>
         <v>2.6743710198405957</v>
@@ -13693,7 +13472,7 @@
         <v>2.9575586117556383</v>
       </c>
     </row>
-    <row r="113" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F113">
         <f t="shared" si="6"/>
         <v>2.674371019840597</v>
@@ -13707,7 +13486,7 @@
         <v>2.9575586117556401</v>
       </c>
     </row>
-    <row r="114" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F114">
         <f t="shared" si="6"/>
         <v>2.6743710198405983</v>
@@ -13721,7 +13500,7 @@
         <v>2.9575586117556414</v>
       </c>
     </row>
-    <row r="115" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F115">
         <f t="shared" si="6"/>
         <v>2.6743710198405992</v>
@@ -13735,7 +13514,7 @@
         <v>2.9575586117556427</v>
       </c>
     </row>
-    <row r="116" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F116">
         <f t="shared" si="6"/>
         <v>2.6743710198406001</v>
@@ -13749,7 +13528,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="117" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F117">
         <f t="shared" si="6"/>
         <v>2.6743710198406001</v>
@@ -13763,7 +13542,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="118" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F118">
         <f t="shared" si="6"/>
         <v>2.6743710198406001</v>
@@ -13777,7 +13556,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="119" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F119">
         <f t="shared" si="6"/>
         <v>2.6743710198406001</v>
@@ -13791,7 +13570,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="120" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F120">
         <f t="shared" si="6"/>
         <v>2.6743710198406001</v>
@@ -13805,7 +13584,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="121" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F121">
         <f t="shared" si="6"/>
         <v>2.6743710198406001</v>
@@ -13819,7 +13598,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="122" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F122">
         <f t="shared" si="6"/>
         <v>2.6743710198406001</v>
@@ -13833,7 +13612,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="123" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F123">
         <f t="shared" si="6"/>
         <v>2.6743710198406001</v>
@@ -13847,7 +13626,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="124" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F124">
         <f t="shared" si="6"/>
         <v>2.6743710198406001</v>
@@ -13861,7 +13640,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="125" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F125">
         <f t="shared" si="6"/>
         <v>2.6743710198406001</v>
@@ -13875,7 +13654,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="126" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="126" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F126">
         <f t="shared" si="6"/>
         <v>2.6743710198406001</v>
@@ -13889,7 +13668,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="127" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F127">
         <f t="shared" si="6"/>
         <v>2.6743710198406001</v>
@@ -13903,7 +13682,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="128" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F128">
         <f t="shared" si="6"/>
         <v>2.6743710198406001</v>
@@ -13917,7 +13696,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="129" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F129">
         <f t="shared" si="6"/>
         <v>2.6743710198406001</v>
@@ -13931,7 +13710,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="130" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F130">
         <f t="shared" si="6"/>
         <v>2.6743710198406001</v>
@@ -13945,7 +13724,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="131" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F131">
         <f t="shared" si="6"/>
         <v>2.6743710198406001</v>
@@ -13959,7 +13738,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="132" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F132">
         <f t="shared" si="6"/>
         <v>2.6743710198406001</v>
@@ -13973,7 +13752,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="133" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F133">
         <f t="shared" si="6"/>
         <v>2.6743710198406001</v>
@@ -13987,7 +13766,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="134" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F134">
         <f t="shared" si="6"/>
         <v>2.6743710198406001</v>
@@ -14001,7 +13780,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="135" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F135">
         <f t="shared" si="6"/>
         <v>2.6743710198406001</v>
@@ -14015,7 +13794,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="136" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F136">
         <f t="shared" si="6"/>
         <v>2.6743710198406001</v>
@@ -14029,7 +13808,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="137" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="137" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F137">
         <f t="shared" si="6"/>
         <v>2.6743710198406001</v>
@@ -14043,7 +13822,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="138" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="138" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F138">
         <f t="shared" si="6"/>
         <v>2.6743710198406001</v>
@@ -14057,7 +13836,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="139" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="139" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F139">
         <f t="shared" si="6"/>
         <v>2.6743710198406001</v>
@@ -14071,7 +13850,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="140" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="140" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F140">
         <f t="shared" si="6"/>
         <v>2.6743710198406001</v>
@@ -14085,7 +13864,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="141" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="141" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F141">
         <f t="shared" si="6"/>
         <v>2.6743710198406001</v>
@@ -14099,7 +13878,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="142" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="142" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F142">
         <f t="shared" si="6"/>
         <v>2.6743710198406001</v>
@@ -14113,7 +13892,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="143" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="143" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F143">
         <f t="shared" si="6"/>
         <v>2.6743710198406001</v>
@@ -14127,7 +13906,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="144" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="144" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F144">
         <f t="shared" si="6"/>
         <v>2.6743710198406001</v>
@@ -14141,7 +13920,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="145" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="145" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F145">
         <f t="shared" si="6"/>
         <v>2.6743710198406001</v>
@@ -14155,7 +13934,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="146" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="146" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F146">
         <f t="shared" si="6"/>
         <v>2.6743710198406001</v>
@@ -14169,7 +13948,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="147" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="147" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F147">
         <f t="shared" si="6"/>
         <v>2.6743710198406001</v>
@@ -14183,7 +13962,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="148" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="148" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F148">
         <f t="shared" si="6"/>
         <v>2.6743710198406001</v>
@@ -14197,7 +13976,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="149" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="149" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F149">
         <f t="shared" si="6"/>
         <v>2.6743710198406001</v>
@@ -14211,7 +13990,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="150" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="150" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F150">
         <f t="shared" si="6"/>
         <v>2.6743710198406001</v>
@@ -14225,7 +14004,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="151" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="151" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F151">
         <f t="shared" si="6"/>
         <v>2.6743710198406001</v>
@@ -14239,7 +14018,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="152" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="152" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F152">
         <f t="shared" si="6"/>
         <v>2.6743710198406001</v>
@@ -14253,7 +14032,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="153" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="153" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F153">
         <f t="shared" si="6"/>
         <v>2.6743710198406001</v>
@@ -14267,7 +14046,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="154" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="154" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F154">
         <f t="shared" si="6"/>
         <v>2.6743710198406001</v>
@@ -14281,7 +14060,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="155" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="155" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F155">
         <f t="shared" si="6"/>
         <v>2.6743710198406001</v>
@@ -14295,7 +14074,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="156" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="156" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F156">
         <f t="shared" ref="F156:F219" si="9">LN(G155*$B$9+H155)/$B$10</f>
         <v>2.6743710198406001</v>
@@ -14309,7 +14088,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="157" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="157" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F157">
         <f t="shared" si="9"/>
         <v>2.6743710198406001</v>
@@ -14323,7 +14102,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="158" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="158" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F158">
         <f t="shared" si="9"/>
         <v>2.6743710198406001</v>
@@ -14337,7 +14116,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="159" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="159" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F159">
         <f t="shared" si="9"/>
         <v>2.6743710198406001</v>
@@ -14351,7 +14130,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="160" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="160" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F160">
         <f t="shared" si="9"/>
         <v>2.6743710198406001</v>
@@ -14365,7 +14144,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="161" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="161" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F161">
         <f t="shared" si="9"/>
         <v>2.6743710198406001</v>
@@ -14379,7 +14158,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="162" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="162" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F162">
         <f t="shared" si="9"/>
         <v>2.6743710198406001</v>
@@ -14393,7 +14172,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="163" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="163" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F163">
         <f t="shared" si="9"/>
         <v>2.6743710198406001</v>
@@ -14407,7 +14186,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="164" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="164" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F164">
         <f t="shared" si="9"/>
         <v>2.6743710198406001</v>
@@ -14421,7 +14200,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="165" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="165" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F165">
         <f t="shared" si="9"/>
         <v>2.6743710198406001</v>
@@ -14435,7 +14214,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="166" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="166" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F166">
         <f t="shared" si="9"/>
         <v>2.6743710198406001</v>
@@ -14449,7 +14228,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="167" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="167" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F167">
         <f t="shared" si="9"/>
         <v>2.6743710198406001</v>
@@ -14463,7 +14242,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="168" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="168" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F168">
         <f t="shared" si="9"/>
         <v>2.6743710198406001</v>
@@ -14477,7 +14256,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="169" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="169" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F169">
         <f t="shared" si="9"/>
         <v>2.6743710198406001</v>
@@ -14491,7 +14270,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="170" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="170" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F170">
         <f t="shared" si="9"/>
         <v>2.6743710198406001</v>
@@ -14505,7 +14284,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="171" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="171" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F171">
         <f t="shared" si="9"/>
         <v>2.6743710198406001</v>
@@ -14519,7 +14298,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="172" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="172" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F172">
         <f t="shared" si="9"/>
         <v>2.6743710198406001</v>
@@ -14533,7 +14312,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="173" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="173" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F173">
         <f t="shared" si="9"/>
         <v>2.6743710198406001</v>
@@ -14547,7 +14326,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="174" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="174" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F174">
         <f t="shared" si="9"/>
         <v>2.6743710198406001</v>
@@ -14561,7 +14340,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="175" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="175" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F175">
         <f t="shared" si="9"/>
         <v>2.6743710198406001</v>
@@ -14575,7 +14354,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="176" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="176" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F176">
         <f t="shared" si="9"/>
         <v>2.6743710198406001</v>
@@ -14589,7 +14368,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="177" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="177" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F177">
         <f t="shared" si="9"/>
         <v>2.6743710198406001</v>
@@ -14603,7 +14382,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="178" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="178" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F178">
         <f t="shared" si="9"/>
         <v>2.6743710198406001</v>
@@ -14617,7 +14396,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="179" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="179" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F179">
         <f t="shared" si="9"/>
         <v>2.6743710198406001</v>
@@ -14631,7 +14410,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="180" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="180" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F180">
         <f t="shared" si="9"/>
         <v>2.6743710198406001</v>
@@ -14645,7 +14424,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="181" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="181" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F181">
         <f t="shared" si="9"/>
         <v>2.6743710198406001</v>
@@ -14659,7 +14438,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="182" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="182" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F182">
         <f t="shared" si="9"/>
         <v>2.6743710198406001</v>
@@ -14673,7 +14452,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="183" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="183" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F183">
         <f t="shared" si="9"/>
         <v>2.6743710198406001</v>
@@ -14687,7 +14466,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="184" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="184" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F184">
         <f t="shared" si="9"/>
         <v>2.6743710198406001</v>
@@ -14701,7 +14480,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="185" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="185" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F185">
         <f t="shared" si="9"/>
         <v>2.6743710198406001</v>
@@ -14715,7 +14494,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="186" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="186" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F186">
         <f t="shared" si="9"/>
         <v>2.6743710198406001</v>
@@ -14729,7 +14508,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="187" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="187" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F187">
         <f t="shared" si="9"/>
         <v>2.6743710198406001</v>
@@ -14743,7 +14522,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="188" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="188" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F188">
         <f t="shared" si="9"/>
         <v>2.6743710198406001</v>
@@ -14757,7 +14536,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="189" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="189" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F189">
         <f t="shared" si="9"/>
         <v>2.6743710198406001</v>
@@ -14771,7 +14550,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="190" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="190" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F190">
         <f t="shared" si="9"/>
         <v>2.6743710198406001</v>
@@ -14785,7 +14564,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="191" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="191" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F191">
         <f t="shared" si="9"/>
         <v>2.6743710198406001</v>
@@ -14799,7 +14578,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="192" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="192" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F192">
         <f t="shared" si="9"/>
         <v>2.6743710198406001</v>
@@ -14813,7 +14592,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="193" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="193" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F193">
         <f t="shared" si="9"/>
         <v>2.6743710198406001</v>
@@ -14827,7 +14606,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="194" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="194" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F194">
         <f t="shared" si="9"/>
         <v>2.6743710198406001</v>
@@ -14841,7 +14620,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="195" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="195" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F195">
         <f t="shared" si="9"/>
         <v>2.6743710198406001</v>
@@ -14855,7 +14634,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="196" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="196" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F196">
         <f t="shared" si="9"/>
         <v>2.6743710198406001</v>
@@ -14869,7 +14648,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="197" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="197" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F197">
         <f t="shared" si="9"/>
         <v>2.6743710198406001</v>
@@ -14883,7 +14662,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="198" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="198" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F198">
         <f t="shared" si="9"/>
         <v>2.6743710198406001</v>
@@ -14897,7 +14676,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="199" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="199" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F199">
         <f t="shared" si="9"/>
         <v>2.6743710198406001</v>
@@ -14911,7 +14690,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="200" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="200" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F200">
         <f t="shared" si="9"/>
         <v>2.6743710198406001</v>
@@ -14925,7 +14704,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="201" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="201" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F201">
         <f t="shared" si="9"/>
         <v>2.6743710198406001</v>
@@ -14939,7 +14718,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="202" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="202" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F202">
         <f t="shared" si="9"/>
         <v>2.6743710198406001</v>
@@ -14953,7 +14732,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="203" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="203" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F203">
         <f t="shared" si="9"/>
         <v>2.6743710198406001</v>
@@ -14967,7 +14746,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="204" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="204" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F204">
         <f t="shared" si="9"/>
         <v>2.6743710198406001</v>
@@ -14981,7 +14760,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="205" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="205" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F205">
         <f t="shared" si="9"/>
         <v>2.6743710198406001</v>
@@ -14995,7 +14774,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="206" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="206" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F206">
         <f t="shared" si="9"/>
         <v>2.6743710198406001</v>
@@ -15009,7 +14788,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="207" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="207" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F207">
         <f t="shared" si="9"/>
         <v>2.6743710198406001</v>
@@ -15023,7 +14802,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="208" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="208" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F208">
         <f t="shared" si="9"/>
         <v>2.6743710198406001</v>
@@ -15037,7 +14816,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="209" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="209" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F209">
         <f t="shared" si="9"/>
         <v>2.6743710198406001</v>
@@ -15051,7 +14830,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="210" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="210" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F210">
         <f t="shared" si="9"/>
         <v>2.6743710198406001</v>
@@ -15065,7 +14844,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="211" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="211" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F211">
         <f t="shared" si="9"/>
         <v>2.6743710198406001</v>
@@ -15079,7 +14858,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="212" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="212" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F212">
         <f t="shared" si="9"/>
         <v>2.6743710198406001</v>
@@ -15093,7 +14872,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="213" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="213" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F213">
         <f t="shared" si="9"/>
         <v>2.6743710198406001</v>
@@ -15107,7 +14886,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="214" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="214" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F214">
         <f t="shared" si="9"/>
         <v>2.6743710198406001</v>
@@ -15121,7 +14900,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="215" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="215" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F215">
         <f t="shared" si="9"/>
         <v>2.6743710198406001</v>
@@ -15135,7 +14914,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="216" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="216" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F216">
         <f t="shared" si="9"/>
         <v>2.6743710198406001</v>
@@ -15149,7 +14928,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="217" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="217" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F217">
         <f t="shared" si="9"/>
         <v>2.6743710198406001</v>
@@ -15163,7 +14942,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="218" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="218" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F218">
         <f t="shared" si="9"/>
         <v>2.6743710198406001</v>
@@ -15177,7 +14956,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="219" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="219" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F219">
         <f t="shared" si="9"/>
         <v>2.6743710198406001</v>
@@ -15191,7 +14970,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="220" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="220" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F220">
         <f t="shared" ref="F220:F283" si="12">LN(G219*$B$9+H219)/$B$10</f>
         <v>2.6743710198406001</v>
@@ -15205,7 +14984,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="221" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="221" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F221">
         <f t="shared" si="12"/>
         <v>2.6743710198406001</v>
@@ -15219,7 +14998,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="222" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="222" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F222">
         <f t="shared" si="12"/>
         <v>2.6743710198406001</v>
@@ -15233,7 +15012,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="223" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="223" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F223">
         <f t="shared" si="12"/>
         <v>2.6743710198406001</v>
@@ -15247,7 +15026,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="224" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="224" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F224">
         <f t="shared" si="12"/>
         <v>2.6743710198406001</v>
@@ -15261,7 +15040,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="225" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="225" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F225">
         <f t="shared" si="12"/>
         <v>2.6743710198406001</v>
@@ -15275,7 +15054,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="226" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="226" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F226">
         <f t="shared" si="12"/>
         <v>2.6743710198406001</v>
@@ -15289,7 +15068,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="227" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="227" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F227">
         <f t="shared" si="12"/>
         <v>2.6743710198406001</v>
@@ -15303,7 +15082,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="228" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="228" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F228">
         <f t="shared" si="12"/>
         <v>2.6743710198406001</v>
@@ -15317,7 +15096,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="229" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="229" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F229">
         <f t="shared" si="12"/>
         <v>2.6743710198406001</v>
@@ -15331,7 +15110,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="230" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="230" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F230">
         <f t="shared" si="12"/>
         <v>2.6743710198406001</v>
@@ -15345,7 +15124,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="231" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="231" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F231">
         <f t="shared" si="12"/>
         <v>2.6743710198406001</v>
@@ -15359,7 +15138,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="232" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="232" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F232">
         <f t="shared" si="12"/>
         <v>2.6743710198406001</v>
@@ -15373,7 +15152,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="233" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="233" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F233">
         <f t="shared" si="12"/>
         <v>2.6743710198406001</v>
@@ -15387,7 +15166,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="234" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="234" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F234">
         <f t="shared" si="12"/>
         <v>2.6743710198406001</v>
@@ -15401,7 +15180,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="235" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="235" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F235">
         <f t="shared" si="12"/>
         <v>2.6743710198406001</v>
@@ -15415,7 +15194,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="236" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="236" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F236">
         <f t="shared" si="12"/>
         <v>2.6743710198406001</v>
@@ -15429,7 +15208,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="237" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="237" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F237">
         <f t="shared" si="12"/>
         <v>2.6743710198406001</v>
@@ -15443,7 +15222,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="238" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="238" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F238">
         <f t="shared" si="12"/>
         <v>2.6743710198406001</v>
@@ -15457,7 +15236,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="239" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="239" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F239">
         <f t="shared" si="12"/>
         <v>2.6743710198406001</v>
@@ -15471,7 +15250,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="240" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="240" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F240">
         <f t="shared" si="12"/>
         <v>2.6743710198406001</v>
@@ -15485,7 +15264,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="241" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="241" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F241">
         <f t="shared" si="12"/>
         <v>2.6743710198406001</v>
@@ -15499,7 +15278,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="242" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="242" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F242">
         <f t="shared" si="12"/>
         <v>2.6743710198406001</v>
@@ -15513,7 +15292,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="243" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="243" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F243">
         <f t="shared" si="12"/>
         <v>2.6743710198406001</v>
@@ -15527,7 +15306,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="244" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="244" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F244">
         <f t="shared" si="12"/>
         <v>2.6743710198406001</v>
@@ -15541,7 +15320,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="245" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="245" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F245">
         <f t="shared" si="12"/>
         <v>2.6743710198406001</v>
@@ -15555,7 +15334,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="246" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="246" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F246">
         <f t="shared" si="12"/>
         <v>2.6743710198406001</v>
@@ -15569,7 +15348,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="247" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="247" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F247">
         <f t="shared" si="12"/>
         <v>2.6743710198406001</v>
@@ -15583,7 +15362,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="248" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="248" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F248">
         <f t="shared" si="12"/>
         <v>2.6743710198406001</v>
@@ -15597,7 +15376,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="249" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="249" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F249">
         <f t="shared" si="12"/>
         <v>2.6743710198406001</v>
@@ -15611,7 +15390,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="250" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="250" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F250">
         <f t="shared" si="12"/>
         <v>2.6743710198406001</v>
@@ -15625,7 +15404,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="251" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="251" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F251">
         <f t="shared" si="12"/>
         <v>2.6743710198406001</v>
@@ -15639,7 +15418,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="252" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="252" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F252">
         <f t="shared" si="12"/>
         <v>2.6743710198406001</v>
@@ -15653,7 +15432,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="253" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="253" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F253">
         <f t="shared" si="12"/>
         <v>2.6743710198406001</v>
@@ -15667,7 +15446,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="254" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="254" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F254">
         <f t="shared" si="12"/>
         <v>2.6743710198406001</v>
@@ -15681,7 +15460,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="255" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="255" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F255">
         <f t="shared" si="12"/>
         <v>2.6743710198406001</v>
@@ -15695,7 +15474,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="256" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="256" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F256">
         <f t="shared" si="12"/>
         <v>2.6743710198406001</v>
@@ -15709,7 +15488,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="257" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="257" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F257">
         <f t="shared" si="12"/>
         <v>2.6743710198406001</v>
@@ -15723,7 +15502,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="258" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="258" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F258">
         <f t="shared" si="12"/>
         <v>2.6743710198406001</v>
@@ -15737,7 +15516,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="259" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="259" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F259">
         <f t="shared" si="12"/>
         <v>2.6743710198406001</v>
@@ -15751,7 +15530,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="260" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="260" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F260">
         <f t="shared" si="12"/>
         <v>2.6743710198406001</v>
@@ -15765,7 +15544,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="261" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="261" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F261">
         <f t="shared" si="12"/>
         <v>2.6743710198406001</v>
@@ -15779,7 +15558,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="262" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="262" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F262">
         <f t="shared" si="12"/>
         <v>2.6743710198406001</v>
@@ -15793,7 +15572,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="263" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="263" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F263">
         <f t="shared" si="12"/>
         <v>2.6743710198406001</v>
@@ -15807,7 +15586,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="264" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="264" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F264">
         <f t="shared" si="12"/>
         <v>2.6743710198406001</v>
@@ -15821,7 +15600,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="265" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="265" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F265">
         <f t="shared" si="12"/>
         <v>2.6743710198406001</v>
@@ -15835,7 +15614,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="266" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="266" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F266">
         <f t="shared" si="12"/>
         <v>2.6743710198406001</v>
@@ -15849,7 +15628,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="267" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="267" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F267">
         <f t="shared" si="12"/>
         <v>2.6743710198406001</v>
@@ -15863,7 +15642,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="268" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="268" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F268">
         <f t="shared" si="12"/>
         <v>2.6743710198406001</v>
@@ -15877,7 +15656,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="269" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="269" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F269">
         <f t="shared" si="12"/>
         <v>2.6743710198406001</v>
@@ -15891,7 +15670,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="270" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="270" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F270">
         <f t="shared" si="12"/>
         <v>2.6743710198406001</v>
@@ -15905,7 +15684,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="271" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="271" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F271">
         <f t="shared" si="12"/>
         <v>2.6743710198406001</v>
@@ -15919,7 +15698,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="272" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="272" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F272">
         <f t="shared" si="12"/>
         <v>2.6743710198406001</v>
@@ -15933,7 +15712,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="273" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="273" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F273">
         <f t="shared" si="12"/>
         <v>2.6743710198406001</v>
@@ -15947,7 +15726,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="274" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="274" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F274">
         <f t="shared" si="12"/>
         <v>2.6743710198406001</v>
@@ -15961,7 +15740,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="275" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="275" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F275">
         <f t="shared" si="12"/>
         <v>2.6743710198406001</v>
@@ -15975,7 +15754,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="276" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="276" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F276">
         <f t="shared" si="12"/>
         <v>2.6743710198406001</v>
@@ -15989,7 +15768,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="277" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="277" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F277">
         <f t="shared" si="12"/>
         <v>2.6743710198406001</v>
@@ -16003,7 +15782,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="278" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="278" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F278">
         <f t="shared" si="12"/>
         <v>2.6743710198406001</v>
@@ -16017,7 +15796,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="279" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="279" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F279">
         <f t="shared" si="12"/>
         <v>2.6743710198406001</v>
@@ -16031,7 +15810,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="280" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="280" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F280">
         <f t="shared" si="12"/>
         <v>2.6743710198406001</v>
@@ -16045,7 +15824,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="281" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="281" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F281">
         <f t="shared" si="12"/>
         <v>2.6743710198406001</v>
@@ -16059,7 +15838,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="282" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="282" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F282">
         <f t="shared" si="12"/>
         <v>2.6743710198406001</v>
@@ -16073,7 +15852,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="283" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="283" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F283">
         <f t="shared" si="12"/>
         <v>2.6743710198406001</v>
@@ -16087,7 +15866,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="284" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="284" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F284">
         <f t="shared" ref="F284:F347" si="15">LN(G283*$B$9+H283)/$B$10</f>
         <v>2.6743710198406001</v>
@@ -16101,7 +15880,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="285" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="285" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F285">
         <f t="shared" si="15"/>
         <v>2.6743710198406001</v>
@@ -16115,7 +15894,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="286" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="286" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F286">
         <f t="shared" si="15"/>
         <v>2.6743710198406001</v>
@@ -16129,7 +15908,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="287" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="287" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F287">
         <f t="shared" si="15"/>
         <v>2.6743710198406001</v>
@@ -16143,7 +15922,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="288" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="288" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F288">
         <f t="shared" si="15"/>
         <v>2.6743710198406001</v>
@@ -16157,7 +15936,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="289" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="289" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F289">
         <f t="shared" si="15"/>
         <v>2.6743710198406001</v>
@@ -16171,7 +15950,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="290" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="290" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F290">
         <f t="shared" si="15"/>
         <v>2.6743710198406001</v>
@@ -16185,7 +15964,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="291" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="291" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F291">
         <f t="shared" si="15"/>
         <v>2.6743710198406001</v>
@@ -16199,7 +15978,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="292" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="292" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F292">
         <f t="shared" si="15"/>
         <v>2.6743710198406001</v>
@@ -16213,7 +15992,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="293" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="293" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F293">
         <f t="shared" si="15"/>
         <v>2.6743710198406001</v>
@@ -16227,7 +16006,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="294" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="294" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F294">
         <f t="shared" si="15"/>
         <v>2.6743710198406001</v>
@@ -16241,7 +16020,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="295" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="295" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F295">
         <f t="shared" si="15"/>
         <v>2.6743710198406001</v>
@@ -16255,7 +16034,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="296" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="296" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F296">
         <f t="shared" si="15"/>
         <v>2.6743710198406001</v>
@@ -16269,7 +16048,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="297" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="297" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F297">
         <f t="shared" si="15"/>
         <v>2.6743710198406001</v>
@@ -16283,7 +16062,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="298" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="298" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F298">
         <f t="shared" si="15"/>
         <v>2.6743710198406001</v>
@@ -16297,7 +16076,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="299" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="299" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F299">
         <f t="shared" si="15"/>
         <v>2.6743710198406001</v>
@@ -16311,7 +16090,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="300" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="300" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F300">
         <f t="shared" si="15"/>
         <v>2.6743710198406001</v>
@@ -16325,7 +16104,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="301" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="301" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F301">
         <f t="shared" si="15"/>
         <v>2.6743710198406001</v>
@@ -16339,7 +16118,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="302" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="302" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F302">
         <f t="shared" si="15"/>
         <v>2.6743710198406001</v>
@@ -16353,7 +16132,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="303" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="303" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F303">
         <f t="shared" si="15"/>
         <v>2.6743710198406001</v>
@@ -16367,7 +16146,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="304" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="304" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F304">
         <f t="shared" si="15"/>
         <v>2.6743710198406001</v>
@@ -16381,7 +16160,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="305" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="305" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F305">
         <f t="shared" si="15"/>
         <v>2.6743710198406001</v>
@@ -16395,7 +16174,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="306" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="306" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F306">
         <f t="shared" si="15"/>
         <v>2.6743710198406001</v>
@@ -16409,7 +16188,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="307" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="307" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F307">
         <f t="shared" si="15"/>
         <v>2.6743710198406001</v>
@@ -16423,7 +16202,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="308" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="308" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F308">
         <f t="shared" si="15"/>
         <v>2.6743710198406001</v>
@@ -16437,7 +16216,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="309" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="309" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F309">
         <f t="shared" si="15"/>
         <v>2.6743710198406001</v>
@@ -16451,7 +16230,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="310" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="310" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F310">
         <f t="shared" si="15"/>
         <v>2.6743710198406001</v>
@@ -16465,7 +16244,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="311" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="311" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F311">
         <f t="shared" si="15"/>
         <v>2.6743710198406001</v>
@@ -16479,7 +16258,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="312" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="312" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F312">
         <f t="shared" si="15"/>
         <v>2.6743710198406001</v>
@@ -16493,7 +16272,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="313" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="313" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F313">
         <f t="shared" si="15"/>
         <v>2.6743710198406001</v>
@@ -16507,7 +16286,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="314" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="314" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F314">
         <f t="shared" si="15"/>
         <v>2.6743710198406001</v>
@@ -16521,7 +16300,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="315" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="315" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F315">
         <f t="shared" si="15"/>
         <v>2.6743710198406001</v>
@@ -16535,7 +16314,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="316" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="316" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F316">
         <f t="shared" si="15"/>
         <v>2.6743710198406001</v>
@@ -16549,7 +16328,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="317" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="317" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F317">
         <f t="shared" si="15"/>
         <v>2.6743710198406001</v>
@@ -16563,7 +16342,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="318" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="318" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F318">
         <f t="shared" si="15"/>
         <v>2.6743710198406001</v>
@@ -16577,7 +16356,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="319" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="319" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F319">
         <f t="shared" si="15"/>
         <v>2.6743710198406001</v>
@@ -16591,7 +16370,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="320" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="320" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F320">
         <f t="shared" si="15"/>
         <v>2.6743710198406001</v>
@@ -16605,7 +16384,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="321" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="321" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F321">
         <f t="shared" si="15"/>
         <v>2.6743710198406001</v>
@@ -16619,7 +16398,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="322" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="322" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F322">
         <f t="shared" si="15"/>
         <v>2.6743710198406001</v>
@@ -16633,7 +16412,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="323" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="323" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F323">
         <f t="shared" si="15"/>
         <v>2.6743710198406001</v>
@@ -16647,7 +16426,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="324" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="324" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F324">
         <f t="shared" si="15"/>
         <v>2.6743710198406001</v>
@@ -16661,7 +16440,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="325" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="325" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F325">
         <f t="shared" si="15"/>
         <v>2.6743710198406001</v>
@@ -16675,7 +16454,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="326" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="326" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F326">
         <f t="shared" si="15"/>
         <v>2.6743710198406001</v>
@@ -16689,7 +16468,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="327" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="327" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F327">
         <f t="shared" si="15"/>
         <v>2.6743710198406001</v>
@@ -16703,7 +16482,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="328" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="328" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F328">
         <f t="shared" si="15"/>
         <v>2.6743710198406001</v>
@@ -16717,7 +16496,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="329" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="329" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F329">
         <f t="shared" si="15"/>
         <v>2.6743710198406001</v>
@@ -16731,7 +16510,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="330" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="330" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F330">
         <f t="shared" si="15"/>
         <v>2.6743710198406001</v>
@@ -16745,7 +16524,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="331" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="331" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F331">
         <f t="shared" si="15"/>
         <v>2.6743710198406001</v>
@@ -16759,7 +16538,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="332" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="332" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F332">
         <f t="shared" si="15"/>
         <v>2.6743710198406001</v>
@@ -16773,7 +16552,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="333" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="333" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F333">
         <f t="shared" si="15"/>
         <v>2.6743710198406001</v>
@@ -16787,7 +16566,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="334" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="334" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F334">
         <f t="shared" si="15"/>
         <v>2.6743710198406001</v>
@@ -16801,7 +16580,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="335" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="335" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F335">
         <f t="shared" si="15"/>
         <v>2.6743710198406001</v>
@@ -16815,7 +16594,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="336" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="336" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F336">
         <f t="shared" si="15"/>
         <v>2.6743710198406001</v>
@@ -16829,7 +16608,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="337" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="337" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F337">
         <f t="shared" si="15"/>
         <v>2.6743710198406001</v>
@@ -16843,7 +16622,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="338" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="338" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F338">
         <f t="shared" si="15"/>
         <v>2.6743710198406001</v>
@@ -16857,7 +16636,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="339" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="339" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F339">
         <f t="shared" si="15"/>
         <v>2.6743710198406001</v>
@@ -16871,7 +16650,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="340" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="340" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F340">
         <f t="shared" si="15"/>
         <v>2.6743710198406001</v>
@@ -16885,7 +16664,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="341" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="341" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F341">
         <f t="shared" si="15"/>
         <v>2.6743710198406001</v>
@@ -16899,7 +16678,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="342" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="342" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F342">
         <f t="shared" si="15"/>
         <v>2.6743710198406001</v>
@@ -16913,7 +16692,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="343" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="343" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F343">
         <f t="shared" si="15"/>
         <v>2.6743710198406001</v>
@@ -16927,7 +16706,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="344" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="344" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F344">
         <f t="shared" si="15"/>
         <v>2.6743710198406001</v>
@@ -16941,7 +16720,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="345" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="345" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F345">
         <f t="shared" si="15"/>
         <v>2.6743710198406001</v>
@@ -16955,7 +16734,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="346" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="346" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F346">
         <f t="shared" si="15"/>
         <v>2.6743710198406001</v>
@@ -16969,7 +16748,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="347" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="347" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F347">
         <f t="shared" si="15"/>
         <v>2.6743710198406001</v>
@@ -16983,7 +16762,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="348" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="348" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F348">
         <f t="shared" ref="F348:F411" si="18">LN(G347*$B$9+H347)/$B$10</f>
         <v>2.6743710198406001</v>
@@ -16997,7 +16776,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="349" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="349" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F349">
         <f t="shared" si="18"/>
         <v>2.6743710198406001</v>
@@ -17011,7 +16790,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="350" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="350" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F350">
         <f t="shared" si="18"/>
         <v>2.6743710198406001</v>
@@ -17025,7 +16804,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="351" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="351" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F351">
         <f t="shared" si="18"/>
         <v>2.6743710198406001</v>
@@ -17039,7 +16818,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="352" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="352" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F352">
         <f t="shared" si="18"/>
         <v>2.6743710198406001</v>
@@ -17053,7 +16832,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="353" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="353" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F353">
         <f t="shared" si="18"/>
         <v>2.6743710198406001</v>
@@ -17067,7 +16846,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="354" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="354" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F354">
         <f t="shared" si="18"/>
         <v>2.6743710198406001</v>
@@ -17081,7 +16860,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="355" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="355" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F355">
         <f t="shared" si="18"/>
         <v>2.6743710198406001</v>
@@ -17095,7 +16874,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="356" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="356" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F356">
         <f t="shared" si="18"/>
         <v>2.6743710198406001</v>
@@ -17109,7 +16888,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="357" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="357" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F357">
         <f t="shared" si="18"/>
         <v>2.6743710198406001</v>
@@ -17123,7 +16902,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="358" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="358" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F358">
         <f t="shared" si="18"/>
         <v>2.6743710198406001</v>
@@ -17137,7 +16916,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="359" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="359" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F359">
         <f t="shared" si="18"/>
         <v>2.6743710198406001</v>
@@ -17151,7 +16930,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="360" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="360" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F360">
         <f t="shared" si="18"/>
         <v>2.6743710198406001</v>
@@ -17165,7 +16944,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="361" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="361" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F361">
         <f t="shared" si="18"/>
         <v>2.6743710198406001</v>
@@ -17179,7 +16958,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="362" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="362" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F362">
         <f t="shared" si="18"/>
         <v>2.6743710198406001</v>
@@ -17193,7 +16972,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="363" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="363" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F363">
         <f t="shared" si="18"/>
         <v>2.6743710198406001</v>
@@ -17207,7 +16986,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="364" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="364" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F364">
         <f t="shared" si="18"/>
         <v>2.6743710198406001</v>
@@ -17221,7 +17000,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="365" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="365" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F365">
         <f t="shared" si="18"/>
         <v>2.6743710198406001</v>
@@ -17235,7 +17014,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="366" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="366" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F366">
         <f t="shared" si="18"/>
         <v>2.6743710198406001</v>
@@ -17249,7 +17028,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="367" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="367" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F367">
         <f t="shared" si="18"/>
         <v>2.6743710198406001</v>
@@ -17263,7 +17042,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="368" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="368" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F368">
         <f t="shared" si="18"/>
         <v>2.6743710198406001</v>
@@ -17277,7 +17056,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="369" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="369" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F369">
         <f t="shared" si="18"/>
         <v>2.6743710198406001</v>
@@ -17291,7 +17070,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="370" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="370" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F370">
         <f t="shared" si="18"/>
         <v>2.6743710198406001</v>
@@ -17305,7 +17084,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="371" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="371" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F371">
         <f t="shared" si="18"/>
         <v>2.6743710198406001</v>
@@ -17319,7 +17098,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="372" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="372" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F372">
         <f t="shared" si="18"/>
         <v>2.6743710198406001</v>
@@ -17333,7 +17112,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="373" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="373" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F373">
         <f t="shared" si="18"/>
         <v>2.6743710198406001</v>
@@ -17347,7 +17126,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="374" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="374" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F374">
         <f t="shared" si="18"/>
         <v>2.6743710198406001</v>
@@ -17361,7 +17140,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="375" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="375" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F375">
         <f t="shared" si="18"/>
         <v>2.6743710198406001</v>
@@ -17375,7 +17154,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="376" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="376" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F376">
         <f t="shared" si="18"/>
         <v>2.6743710198406001</v>
@@ -17389,7 +17168,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="377" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="377" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F377">
         <f t="shared" si="18"/>
         <v>2.6743710198406001</v>
@@ -17403,7 +17182,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="378" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="378" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F378">
         <f t="shared" si="18"/>
         <v>2.6743710198406001</v>
@@ -17417,7 +17196,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="379" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="379" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F379">
         <f t="shared" si="18"/>
         <v>2.6743710198406001</v>
@@ -17431,7 +17210,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="380" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="380" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F380">
         <f t="shared" si="18"/>
         <v>2.6743710198406001</v>
@@ -17445,7 +17224,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="381" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="381" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F381">
         <f t="shared" si="18"/>
         <v>2.6743710198406001</v>
@@ -17459,7 +17238,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="382" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="382" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F382">
         <f t="shared" si="18"/>
         <v>2.6743710198406001</v>
@@ -17473,7 +17252,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="383" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="383" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F383">
         <f t="shared" si="18"/>
         <v>2.6743710198406001</v>
@@ -17487,7 +17266,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="384" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="384" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F384">
         <f t="shared" si="18"/>
         <v>2.6743710198406001</v>
@@ -17501,7 +17280,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="385" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="385" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F385">
         <f t="shared" si="18"/>
         <v>2.6743710198406001</v>
@@ -17515,7 +17294,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="386" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="386" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F386">
         <f t="shared" si="18"/>
         <v>2.6743710198406001</v>
@@ -17529,7 +17308,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="387" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="387" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F387">
         <f t="shared" si="18"/>
         <v>2.6743710198406001</v>
@@ -17543,7 +17322,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="388" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="388" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F388">
         <f t="shared" si="18"/>
         <v>2.6743710198406001</v>
@@ -17557,7 +17336,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="389" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="389" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F389">
         <f t="shared" si="18"/>
         <v>2.6743710198406001</v>
@@ -17571,7 +17350,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="390" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="390" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F390">
         <f t="shared" si="18"/>
         <v>2.6743710198406001</v>
@@ -17585,7 +17364,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="391" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="391" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F391">
         <f t="shared" si="18"/>
         <v>2.6743710198406001</v>
@@ -17599,7 +17378,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="392" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="392" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F392">
         <f t="shared" si="18"/>
         <v>2.6743710198406001</v>
@@ -17613,7 +17392,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="393" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="393" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F393">
         <f t="shared" si="18"/>
         <v>2.6743710198406001</v>
@@ -17627,7 +17406,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="394" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="394" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F394">
         <f t="shared" si="18"/>
         <v>2.6743710198406001</v>
@@ -17641,7 +17420,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="395" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="395" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F395">
         <f t="shared" si="18"/>
         <v>2.6743710198406001</v>
@@ -17655,7 +17434,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="396" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="396" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F396">
         <f t="shared" si="18"/>
         <v>2.6743710198406001</v>
@@ -17669,7 +17448,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="397" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="397" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F397">
         <f t="shared" si="18"/>
         <v>2.6743710198406001</v>
@@ -17683,7 +17462,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="398" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="398" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F398">
         <f t="shared" si="18"/>
         <v>2.6743710198406001</v>
@@ -17697,7 +17476,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="399" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="399" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F399">
         <f t="shared" si="18"/>
         <v>2.6743710198406001</v>
@@ -17711,7 +17490,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="400" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="400" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F400">
         <f t="shared" si="18"/>
         <v>2.6743710198406001</v>
@@ -17725,7 +17504,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="401" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="401" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F401">
         <f t="shared" si="18"/>
         <v>2.6743710198406001</v>
@@ -17739,7 +17518,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="402" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="402" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F402">
         <f t="shared" si="18"/>
         <v>2.6743710198406001</v>
@@ -17753,7 +17532,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="403" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="403" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F403">
         <f t="shared" si="18"/>
         <v>2.6743710198406001</v>
@@ -17767,7 +17546,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="404" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="404" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F404">
         <f t="shared" si="18"/>
         <v>2.6743710198406001</v>
@@ -17781,7 +17560,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="405" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="405" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F405">
         <f t="shared" si="18"/>
         <v>2.6743710198406001</v>
@@ -17795,7 +17574,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="406" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="406" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F406">
         <f t="shared" si="18"/>
         <v>2.6743710198406001</v>
@@ -17809,7 +17588,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="407" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="407" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F407">
         <f t="shared" si="18"/>
         <v>2.6743710198406001</v>
@@ -17823,7 +17602,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="408" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="408" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F408">
         <f t="shared" si="18"/>
         <v>2.6743710198406001</v>
@@ -17837,7 +17616,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="409" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="409" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F409">
         <f t="shared" si="18"/>
         <v>2.6743710198406001</v>
@@ -17851,7 +17630,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="410" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="410" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F410">
         <f t="shared" si="18"/>
         <v>2.6743710198406001</v>
@@ -17865,7 +17644,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="411" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="411" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F411">
         <f t="shared" si="18"/>
         <v>2.6743710198406001</v>
@@ -17879,7 +17658,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="412" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="412" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F412">
         <f t="shared" ref="F412:F475" si="21">LN(G411*$B$9+H411)/$B$10</f>
         <v>2.6743710198406001</v>
@@ -17893,7 +17672,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="413" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="413" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F413">
         <f t="shared" si="21"/>
         <v>2.6743710198406001</v>
@@ -17907,7 +17686,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="414" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="414" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F414">
         <f t="shared" si="21"/>
         <v>2.6743710198406001</v>
@@ -17921,7 +17700,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="415" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="415" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F415">
         <f t="shared" si="21"/>
         <v>2.6743710198406001</v>
@@ -17935,7 +17714,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="416" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="416" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F416">
         <f t="shared" si="21"/>
         <v>2.6743710198406001</v>
@@ -17949,7 +17728,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="417" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="417" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F417">
         <f t="shared" si="21"/>
         <v>2.6743710198406001</v>
@@ -17963,7 +17742,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="418" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="418" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F418">
         <f t="shared" si="21"/>
         <v>2.6743710198406001</v>
@@ -17977,7 +17756,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="419" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="419" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F419">
         <f t="shared" si="21"/>
         <v>2.6743710198406001</v>
@@ -17991,7 +17770,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="420" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="420" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F420">
         <f t="shared" si="21"/>
         <v>2.6743710198406001</v>
@@ -18005,7 +17784,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="421" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="421" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F421">
         <f t="shared" si="21"/>
         <v>2.6743710198406001</v>
@@ -18019,7 +17798,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="422" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="422" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F422">
         <f t="shared" si="21"/>
         <v>2.6743710198406001</v>
@@ -18033,7 +17812,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="423" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="423" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F423">
         <f t="shared" si="21"/>
         <v>2.6743710198406001</v>
@@ -18047,7 +17826,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="424" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="424" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F424">
         <f t="shared" si="21"/>
         <v>2.6743710198406001</v>
@@ -18061,7 +17840,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="425" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="425" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F425">
         <f t="shared" si="21"/>
         <v>2.6743710198406001</v>
@@ -18075,7 +17854,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="426" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="426" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F426">
         <f t="shared" si="21"/>
         <v>2.6743710198406001</v>
@@ -18089,7 +17868,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="427" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="427" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F427">
         <f t="shared" si="21"/>
         <v>2.6743710198406001</v>
@@ -18103,7 +17882,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="428" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="428" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F428">
         <f t="shared" si="21"/>
         <v>2.6743710198406001</v>
@@ -18117,7 +17896,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="429" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="429" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F429">
         <f t="shared" si="21"/>
         <v>2.6743710198406001</v>
@@ -18131,7 +17910,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="430" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="430" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F430">
         <f t="shared" si="21"/>
         <v>2.6743710198406001</v>
@@ -18145,7 +17924,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="431" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="431" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F431">
         <f t="shared" si="21"/>
         <v>2.6743710198406001</v>
@@ -18159,7 +17938,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="432" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="432" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F432">
         <f t="shared" si="21"/>
         <v>2.6743710198406001</v>
@@ -18173,7 +17952,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="433" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="433" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F433">
         <f t="shared" si="21"/>
         <v>2.6743710198406001</v>
@@ -18187,7 +17966,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="434" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="434" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F434">
         <f t="shared" si="21"/>
         <v>2.6743710198406001</v>
@@ -18201,7 +17980,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="435" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="435" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F435">
         <f t="shared" si="21"/>
         <v>2.6743710198406001</v>
@@ -18215,7 +17994,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="436" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="436" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F436">
         <f t="shared" si="21"/>
         <v>2.6743710198406001</v>
@@ -18229,7 +18008,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="437" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="437" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F437">
         <f t="shared" si="21"/>
         <v>2.6743710198406001</v>
@@ -18243,7 +18022,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="438" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="438" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F438">
         <f t="shared" si="21"/>
         <v>2.6743710198406001</v>
@@ -18257,7 +18036,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="439" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="439" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F439">
         <f t="shared" si="21"/>
         <v>2.6743710198406001</v>
@@ -18271,7 +18050,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="440" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="440" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F440">
         <f t="shared" si="21"/>
         <v>2.6743710198406001</v>
@@ -18285,7 +18064,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="441" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="441" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F441">
         <f t="shared" si="21"/>
         <v>2.6743710198406001</v>
@@ -18299,7 +18078,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="442" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="442" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F442">
         <f t="shared" si="21"/>
         <v>2.6743710198406001</v>
@@ -18313,7 +18092,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="443" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="443" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F443">
         <f t="shared" si="21"/>
         <v>2.6743710198406001</v>
@@ -18327,7 +18106,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="444" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="444" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F444">
         <f t="shared" si="21"/>
         <v>2.6743710198406001</v>
@@ -18341,7 +18120,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="445" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="445" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F445">
         <f t="shared" si="21"/>
         <v>2.6743710198406001</v>
@@ -18355,7 +18134,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="446" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="446" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F446">
         <f t="shared" si="21"/>
         <v>2.6743710198406001</v>
@@ -18369,7 +18148,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="447" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="447" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F447">
         <f t="shared" si="21"/>
         <v>2.6743710198406001</v>
@@ -18383,7 +18162,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="448" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="448" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F448">
         <f t="shared" si="21"/>
         <v>2.6743710198406001</v>
@@ -18397,7 +18176,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="449" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="449" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F449">
         <f t="shared" si="21"/>
         <v>2.6743710198406001</v>
@@ -18411,7 +18190,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="450" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="450" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F450">
         <f t="shared" si="21"/>
         <v>2.6743710198406001</v>
@@ -18425,7 +18204,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="451" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="451" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F451">
         <f t="shared" si="21"/>
         <v>2.6743710198406001</v>
@@ -18439,7 +18218,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="452" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="452" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F452">
         <f t="shared" si="21"/>
         <v>2.6743710198406001</v>
@@ -18453,7 +18232,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="453" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="453" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F453">
         <f t="shared" si="21"/>
         <v>2.6743710198406001</v>
@@ -18467,7 +18246,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="454" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="454" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F454">
         <f t="shared" si="21"/>
         <v>2.6743710198406001</v>
@@ -18481,7 +18260,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="455" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="455" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F455">
         <f t="shared" si="21"/>
         <v>2.6743710198406001</v>
@@ -18495,7 +18274,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="456" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="456" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F456">
         <f t="shared" si="21"/>
         <v>2.6743710198406001</v>
@@ -18509,7 +18288,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="457" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="457" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F457">
         <f t="shared" si="21"/>
         <v>2.6743710198406001</v>
@@ -18523,7 +18302,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="458" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="458" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F458">
         <f t="shared" si="21"/>
         <v>2.6743710198406001</v>
@@ -18537,7 +18316,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="459" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="459" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F459">
         <f t="shared" si="21"/>
         <v>2.6743710198406001</v>
@@ -18551,7 +18330,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="460" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="460" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F460">
         <f t="shared" si="21"/>
         <v>2.6743710198406001</v>
@@ -18565,7 +18344,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="461" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="461" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F461">
         <f t="shared" si="21"/>
         <v>2.6743710198406001</v>
@@ -18579,7 +18358,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="462" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="462" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F462">
         <f t="shared" si="21"/>
         <v>2.6743710198406001</v>
@@ -18593,7 +18372,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="463" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="463" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F463">
         <f t="shared" si="21"/>
         <v>2.6743710198406001</v>
@@ -18607,7 +18386,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="464" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="464" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F464">
         <f t="shared" si="21"/>
         <v>2.6743710198406001</v>
@@ -18621,7 +18400,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="465" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="465" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F465">
         <f t="shared" si="21"/>
         <v>2.6743710198406001</v>
@@ -18635,7 +18414,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="466" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="466" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F466">
         <f t="shared" si="21"/>
         <v>2.6743710198406001</v>
@@ -18649,7 +18428,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="467" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="467" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F467">
         <f t="shared" si="21"/>
         <v>2.6743710198406001</v>
@@ -18663,7 +18442,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="468" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="468" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F468">
         <f t="shared" si="21"/>
         <v>2.6743710198406001</v>
@@ -18677,7 +18456,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="469" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="469" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F469">
         <f t="shared" si="21"/>
         <v>2.6743710198406001</v>
@@ -18691,7 +18470,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="470" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="470" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F470">
         <f t="shared" si="21"/>
         <v>2.6743710198406001</v>
@@ -18705,7 +18484,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="471" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="471" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F471">
         <f t="shared" si="21"/>
         <v>2.6743710198406001</v>
@@ -18719,7 +18498,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="472" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="472" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F472">
         <f t="shared" si="21"/>
         <v>2.6743710198406001</v>
@@ -18733,7 +18512,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="473" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="473" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F473">
         <f t="shared" si="21"/>
         <v>2.6743710198406001</v>
@@ -18747,7 +18526,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="474" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="474" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F474">
         <f t="shared" si="21"/>
         <v>2.6743710198406001</v>
@@ -18761,7 +18540,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="475" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="475" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F475">
         <f t="shared" si="21"/>
         <v>2.6743710198406001</v>
@@ -18775,7 +18554,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="476" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="476" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F476">
         <f t="shared" ref="F476:F539" si="24">LN(G475*$B$9+H475)/$B$10</f>
         <v>2.6743710198406001</v>
@@ -18789,7 +18568,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="477" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="477" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F477">
         <f t="shared" si="24"/>
         <v>2.6743710198406001</v>
@@ -18803,7 +18582,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="478" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="478" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F478">
         <f t="shared" si="24"/>
         <v>2.6743710198406001</v>
@@ -18817,7 +18596,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="479" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="479" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F479">
         <f t="shared" si="24"/>
         <v>2.6743710198406001</v>
@@ -18831,7 +18610,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="480" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="480" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F480">
         <f t="shared" si="24"/>
         <v>2.6743710198406001</v>
@@ -18845,7 +18624,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="481" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="481" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F481">
         <f t="shared" si="24"/>
         <v>2.6743710198406001</v>
@@ -18859,7 +18638,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="482" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="482" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F482">
         <f t="shared" si="24"/>
         <v>2.6743710198406001</v>
@@ -18873,7 +18652,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="483" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="483" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F483">
         <f t="shared" si="24"/>
         <v>2.6743710198406001</v>
@@ -18887,7 +18666,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="484" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="484" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F484">
         <f t="shared" si="24"/>
         <v>2.6743710198406001</v>
@@ -18901,7 +18680,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="485" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="485" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F485">
         <f t="shared" si="24"/>
         <v>2.6743710198406001</v>
@@ -18915,7 +18694,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="486" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="486" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F486">
         <f t="shared" si="24"/>
         <v>2.6743710198406001</v>
@@ -18929,7 +18708,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="487" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="487" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F487">
         <f t="shared" si="24"/>
         <v>2.6743710198406001</v>
@@ -18943,7 +18722,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="488" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="488" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F488">
         <f t="shared" si="24"/>
         <v>2.6743710198406001</v>
@@ -18957,7 +18736,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="489" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="489" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F489">
         <f t="shared" si="24"/>
         <v>2.6743710198406001</v>
@@ -18971,7 +18750,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="490" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="490" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F490">
         <f t="shared" si="24"/>
         <v>2.6743710198406001</v>
@@ -18985,7 +18764,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="491" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="491" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F491">
         <f t="shared" si="24"/>
         <v>2.6743710198406001</v>
@@ -18999,7 +18778,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="492" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="492" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F492">
         <f t="shared" si="24"/>
         <v>2.6743710198406001</v>
@@ -19013,7 +18792,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="493" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="493" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F493">
         <f t="shared" si="24"/>
         <v>2.6743710198406001</v>
@@ -19027,7 +18806,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="494" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="494" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F494">
         <f t="shared" si="24"/>
         <v>2.6743710198406001</v>
@@ -19041,7 +18820,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="495" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="495" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F495">
         <f t="shared" si="24"/>
         <v>2.6743710198406001</v>
@@ -19055,7 +18834,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="496" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="496" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F496">
         <f t="shared" si="24"/>
         <v>2.6743710198406001</v>
@@ -19069,7 +18848,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="497" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="497" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F497">
         <f t="shared" si="24"/>
         <v>2.6743710198406001</v>
@@ -19083,7 +18862,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="498" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="498" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F498">
         <f t="shared" si="24"/>
         <v>2.6743710198406001</v>
@@ -19097,7 +18876,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="499" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="499" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F499">
         <f t="shared" si="24"/>
         <v>2.6743710198406001</v>
@@ -19111,7 +18890,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="500" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="500" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F500">
         <f t="shared" si="24"/>
         <v>2.6743710198406001</v>
@@ -19125,7 +18904,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="501" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="501" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F501">
         <f t="shared" si="24"/>
         <v>2.6743710198406001</v>
@@ -19139,7 +18918,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="502" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="502" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F502">
         <f t="shared" si="24"/>
         <v>2.6743710198406001</v>
@@ -19153,7 +18932,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="503" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="503" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F503">
         <f t="shared" si="24"/>
         <v>2.6743710198406001</v>
@@ -19167,7 +18946,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="504" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="504" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F504">
         <f t="shared" si="24"/>
         <v>2.6743710198406001</v>
@@ -19181,7 +18960,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="505" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="505" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F505">
         <f t="shared" si="24"/>
         <v>2.6743710198406001</v>
@@ -19195,7 +18974,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="506" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="506" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F506">
         <f t="shared" si="24"/>
         <v>2.6743710198406001</v>
@@ -19209,7 +18988,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="507" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="507" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F507">
         <f t="shared" si="24"/>
         <v>2.6743710198406001</v>
@@ -19223,7 +19002,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="508" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="508" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F508">
         <f t="shared" si="24"/>
         <v>2.6743710198406001</v>
@@ -19237,7 +19016,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="509" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="509" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F509">
         <f t="shared" si="24"/>
         <v>2.6743710198406001</v>
@@ -19251,7 +19030,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="510" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="510" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F510">
         <f t="shared" si="24"/>
         <v>2.6743710198406001</v>
@@ -19265,7 +19044,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="511" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="511" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F511">
         <f t="shared" si="24"/>
         <v>2.6743710198406001</v>
@@ -19279,7 +19058,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="512" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="512" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F512">
         <f t="shared" si="24"/>
         <v>2.6743710198406001</v>
@@ -19293,7 +19072,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="513" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="513" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F513">
         <f t="shared" si="24"/>
         <v>2.6743710198406001</v>
@@ -19307,7 +19086,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="514" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="514" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F514">
         <f t="shared" si="24"/>
         <v>2.6743710198406001</v>
@@ -19321,7 +19100,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="515" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="515" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F515">
         <f t="shared" si="24"/>
         <v>2.6743710198406001</v>
@@ -19335,7 +19114,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="516" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="516" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F516">
         <f t="shared" si="24"/>
         <v>2.6743710198406001</v>
@@ -19349,7 +19128,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="517" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="517" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F517">
         <f t="shared" si="24"/>
         <v>2.6743710198406001</v>
@@ -19363,7 +19142,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="518" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="518" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F518">
         <f t="shared" si="24"/>
         <v>2.6743710198406001</v>
@@ -19377,7 +19156,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="519" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="519" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F519">
         <f t="shared" si="24"/>
         <v>2.6743710198406001</v>
@@ -19391,7 +19170,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="520" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="520" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F520">
         <f t="shared" si="24"/>
         <v>2.6743710198406001</v>
@@ -19405,7 +19184,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="521" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="521" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F521">
         <f t="shared" si="24"/>
         <v>2.6743710198406001</v>
@@ -19419,7 +19198,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="522" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="522" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F522">
         <f t="shared" si="24"/>
         <v>2.6743710198406001</v>
@@ -19433,7 +19212,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="523" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="523" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F523">
         <f t="shared" si="24"/>
         <v>2.6743710198406001</v>
@@ -19447,7 +19226,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="524" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="524" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F524">
         <f t="shared" si="24"/>
         <v>2.6743710198406001</v>
@@ -19461,7 +19240,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="525" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="525" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F525">
         <f t="shared" si="24"/>
         <v>2.6743710198406001</v>
@@ -19475,7 +19254,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="526" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="526" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F526">
         <f t="shared" si="24"/>
         <v>2.6743710198406001</v>
@@ -19489,7 +19268,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="527" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="527" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F527">
         <f t="shared" si="24"/>
         <v>2.6743710198406001</v>
@@ -19503,7 +19282,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="528" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="528" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F528">
         <f t="shared" si="24"/>
         <v>2.6743710198406001</v>
@@ -19517,7 +19296,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="529" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="529" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F529">
         <f t="shared" si="24"/>
         <v>2.6743710198406001</v>
@@ -19531,7 +19310,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="530" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="530" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F530">
         <f t="shared" si="24"/>
         <v>2.6743710198406001</v>
@@ -19545,7 +19324,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="531" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="531" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F531">
         <f t="shared" si="24"/>
         <v>2.6743710198406001</v>
@@ -19559,7 +19338,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="532" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="532" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F532">
         <f t="shared" si="24"/>
         <v>2.6743710198406001</v>
@@ -19573,7 +19352,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="533" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="533" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F533">
         <f t="shared" si="24"/>
         <v>2.6743710198406001</v>
@@ -19587,7 +19366,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="534" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="534" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F534">
         <f t="shared" si="24"/>
         <v>2.6743710198406001</v>
@@ -19601,7 +19380,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="535" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="535" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F535">
         <f t="shared" si="24"/>
         <v>2.6743710198406001</v>
@@ -19615,7 +19394,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="536" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="536" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F536">
         <f t="shared" si="24"/>
         <v>2.6743710198406001</v>
@@ -19629,7 +19408,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="537" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="537" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F537">
         <f t="shared" si="24"/>
         <v>2.6743710198406001</v>
@@ -19643,7 +19422,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="538" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="538" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F538">
         <f t="shared" si="24"/>
         <v>2.6743710198406001</v>
@@ -19657,7 +19436,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="539" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="539" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F539">
         <f t="shared" si="24"/>
         <v>2.6743710198406001</v>
@@ -19671,7 +19450,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="540" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="540" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F540">
         <f t="shared" ref="F540:F603" si="27">LN(G539*$B$9+H539)/$B$10</f>
         <v>2.6743710198406001</v>
@@ -19685,7 +19464,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="541" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="541" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F541">
         <f t="shared" si="27"/>
         <v>2.6743710198406001</v>
@@ -19699,7 +19478,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="542" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="542" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F542">
         <f t="shared" si="27"/>
         <v>2.6743710198406001</v>
@@ -19713,7 +19492,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="543" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="543" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F543">
         <f t="shared" si="27"/>
         <v>2.6743710198406001</v>
@@ -19727,7 +19506,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="544" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="544" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F544">
         <f t="shared" si="27"/>
         <v>2.6743710198406001</v>
@@ -19741,7 +19520,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="545" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="545" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F545">
         <f t="shared" si="27"/>
         <v>2.6743710198406001</v>
@@ -19755,7 +19534,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="546" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="546" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F546">
         <f t="shared" si="27"/>
         <v>2.6743710198406001</v>
@@ -19769,7 +19548,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="547" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="547" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F547">
         <f t="shared" si="27"/>
         <v>2.6743710198406001</v>
@@ -19783,7 +19562,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="548" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="548" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F548">
         <f t="shared" si="27"/>
         <v>2.6743710198406001</v>
@@ -19797,7 +19576,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="549" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="549" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F549">
         <f t="shared" si="27"/>
         <v>2.6743710198406001</v>
@@ -19811,7 +19590,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="550" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="550" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F550">
         <f t="shared" si="27"/>
         <v>2.6743710198406001</v>
@@ -19825,7 +19604,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="551" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="551" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F551">
         <f t="shared" si="27"/>
         <v>2.6743710198406001</v>
@@ -19839,7 +19618,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="552" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="552" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F552">
         <f t="shared" si="27"/>
         <v>2.6743710198406001</v>
@@ -19853,7 +19632,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="553" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="553" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F553">
         <f t="shared" si="27"/>
         <v>2.6743710198406001</v>
@@ -19867,7 +19646,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="554" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="554" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F554">
         <f t="shared" si="27"/>
         <v>2.6743710198406001</v>
@@ -19881,7 +19660,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="555" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="555" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F555">
         <f t="shared" si="27"/>
         <v>2.6743710198406001</v>
@@ -19895,7 +19674,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="556" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="556" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F556">
         <f t="shared" si="27"/>
         <v>2.6743710198406001</v>
@@ -19909,7 +19688,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="557" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="557" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F557">
         <f t="shared" si="27"/>
         <v>2.6743710198406001</v>
@@ -19923,7 +19702,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="558" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="558" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F558">
         <f t="shared" si="27"/>
         <v>2.6743710198406001</v>
@@ -19937,7 +19716,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="559" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="559" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F559">
         <f t="shared" si="27"/>
         <v>2.6743710198406001</v>
@@ -19951,7 +19730,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="560" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="560" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F560">
         <f t="shared" si="27"/>
         <v>2.6743710198406001</v>
@@ -19965,7 +19744,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="561" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="561" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F561">
         <f t="shared" si="27"/>
         <v>2.6743710198406001</v>
@@ -19979,7 +19758,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="562" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="562" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F562">
         <f t="shared" si="27"/>
         <v>2.6743710198406001</v>
@@ -19993,7 +19772,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="563" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="563" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F563">
         <f t="shared" si="27"/>
         <v>2.6743710198406001</v>
@@ -20007,7 +19786,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="564" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="564" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F564">
         <f t="shared" si="27"/>
         <v>2.6743710198406001</v>
@@ -20021,7 +19800,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="565" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="565" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F565">
         <f t="shared" si="27"/>
         <v>2.6743710198406001</v>
@@ -20035,7 +19814,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="566" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="566" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F566">
         <f t="shared" si="27"/>
         <v>2.6743710198406001</v>
@@ -20049,7 +19828,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="567" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="567" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F567">
         <f t="shared" si="27"/>
         <v>2.6743710198406001</v>
@@ -20063,7 +19842,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="568" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="568" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F568">
         <f t="shared" si="27"/>
         <v>2.6743710198406001</v>
@@ -20077,7 +19856,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="569" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="569" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F569">
         <f t="shared" si="27"/>
         <v>2.6743710198406001</v>
@@ -20091,7 +19870,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="570" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="570" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F570">
         <f t="shared" si="27"/>
         <v>2.6743710198406001</v>
@@ -20105,7 +19884,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="571" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="571" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F571">
         <f t="shared" si="27"/>
         <v>2.6743710198406001</v>
@@ -20119,7 +19898,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="572" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="572" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F572">
         <f t="shared" si="27"/>
         <v>2.6743710198406001</v>
@@ -20133,7 +19912,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="573" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="573" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F573">
         <f t="shared" si="27"/>
         <v>2.6743710198406001</v>
@@ -20147,7 +19926,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="574" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="574" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F574">
         <f t="shared" si="27"/>
         <v>2.6743710198406001</v>
@@ -20161,7 +19940,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="575" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="575" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F575">
         <f t="shared" si="27"/>
         <v>2.6743710198406001</v>
@@ -20175,7 +19954,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="576" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="576" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F576">
         <f t="shared" si="27"/>
         <v>2.6743710198406001</v>
@@ -20189,7 +19968,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="577" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="577" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F577">
         <f t="shared" si="27"/>
         <v>2.6743710198406001</v>
@@ -20203,7 +19982,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="578" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="578" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F578">
         <f t="shared" si="27"/>
         <v>2.6743710198406001</v>
@@ -20217,7 +19996,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="579" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="579" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F579">
         <f t="shared" si="27"/>
         <v>2.6743710198406001</v>
@@ -20231,7 +20010,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="580" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="580" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F580">
         <f t="shared" si="27"/>
         <v>2.6743710198406001</v>
@@ -20245,7 +20024,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="581" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="581" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F581">
         <f t="shared" si="27"/>
         <v>2.6743710198406001</v>
@@ -20259,7 +20038,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="582" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="582" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F582">
         <f t="shared" si="27"/>
         <v>2.6743710198406001</v>
@@ -20273,7 +20052,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="583" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="583" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F583">
         <f t="shared" si="27"/>
         <v>2.6743710198406001</v>
@@ -20287,7 +20066,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="584" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="584" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F584">
         <f t="shared" si="27"/>
         <v>2.6743710198406001</v>
@@ -20301,7 +20080,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="585" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="585" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F585">
         <f t="shared" si="27"/>
         <v>2.6743710198406001</v>
@@ -20315,7 +20094,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="586" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="586" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F586">
         <f t="shared" si="27"/>
         <v>2.6743710198406001</v>
@@ -20329,7 +20108,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="587" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="587" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F587">
         <f t="shared" si="27"/>
         <v>2.6743710198406001</v>
@@ -20343,7 +20122,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="588" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="588" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F588">
         <f t="shared" si="27"/>
         <v>2.6743710198406001</v>
@@ -20357,7 +20136,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="589" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="589" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F589">
         <f t="shared" si="27"/>
         <v>2.6743710198406001</v>
@@ -20371,7 +20150,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="590" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="590" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F590">
         <f t="shared" si="27"/>
         <v>2.6743710198406001</v>
@@ -20385,7 +20164,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="591" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="591" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F591">
         <f t="shared" si="27"/>
         <v>2.6743710198406001</v>
@@ -20399,7 +20178,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="592" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="592" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F592">
         <f t="shared" si="27"/>
         <v>2.6743710198406001</v>
@@ -20413,7 +20192,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="593" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="593" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F593">
         <f t="shared" si="27"/>
         <v>2.6743710198406001</v>
@@ -20427,7 +20206,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="594" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="594" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F594">
         <f t="shared" si="27"/>
         <v>2.6743710198406001</v>
@@ -20441,7 +20220,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="595" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="595" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F595">
         <f t="shared" si="27"/>
         <v>2.6743710198406001</v>
@@ -20455,7 +20234,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="596" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="596" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F596">
         <f t="shared" si="27"/>
         <v>2.6743710198406001</v>
@@ -20469,7 +20248,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="597" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="597" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F597">
         <f t="shared" si="27"/>
         <v>2.6743710198406001</v>
@@ -20483,7 +20262,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="598" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="598" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F598">
         <f t="shared" si="27"/>
         <v>2.6743710198406001</v>
@@ -20497,7 +20276,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="599" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="599" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F599">
         <f t="shared" si="27"/>
         <v>2.6743710198406001</v>
@@ -20511,7 +20290,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="600" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="600" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F600">
         <f t="shared" si="27"/>
         <v>2.6743710198406001</v>
@@ -20525,7 +20304,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="601" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="601" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F601">
         <f t="shared" si="27"/>
         <v>2.6743710198406001</v>
@@ -20539,7 +20318,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="602" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="602" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F602">
         <f t="shared" si="27"/>
         <v>2.6743710198406001</v>
@@ -20553,7 +20332,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="603" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="603" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F603">
         <f t="shared" si="27"/>
         <v>2.6743710198406001</v>
@@ -20567,7 +20346,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="604" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="604" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F604">
         <f t="shared" ref="F604:F654" si="30">LN(G603*$B$9+H603)/$B$10</f>
         <v>2.6743710198406001</v>
@@ -20581,7 +20360,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="605" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="605" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F605">
         <f t="shared" si="30"/>
         <v>2.6743710198406001</v>
@@ -20595,7 +20374,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="606" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="606" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F606">
         <f t="shared" si="30"/>
         <v>2.6743710198406001</v>
@@ -20609,7 +20388,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="607" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="607" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F607">
         <f t="shared" si="30"/>
         <v>2.6743710198406001</v>
@@ -20623,7 +20402,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="608" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="608" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F608">
         <f t="shared" si="30"/>
         <v>2.6743710198406001</v>
@@ -20637,7 +20416,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="609" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="609" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F609">
         <f t="shared" si="30"/>
         <v>2.6743710198406001</v>
@@ -20651,7 +20430,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="610" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="610" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F610">
         <f t="shared" si="30"/>
         <v>2.6743710198406001</v>
@@ -20665,7 +20444,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="611" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="611" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F611">
         <f t="shared" si="30"/>
         <v>2.6743710198406001</v>
@@ -20679,7 +20458,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="612" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="612" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F612">
         <f t="shared" si="30"/>
         <v>2.6743710198406001</v>
@@ -20693,7 +20472,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="613" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="613" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F613">
         <f t="shared" si="30"/>
         <v>2.6743710198406001</v>
@@ -20707,7 +20486,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="614" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="614" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F614">
         <f t="shared" si="30"/>
         <v>2.6743710198406001</v>
@@ -20721,7 +20500,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="615" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="615" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F615">
         <f t="shared" si="30"/>
         <v>2.6743710198406001</v>
@@ -20735,7 +20514,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="616" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="616" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F616">
         <f t="shared" si="30"/>
         <v>2.6743710198406001</v>
@@ -20749,7 +20528,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="617" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="617" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F617">
         <f t="shared" si="30"/>
         <v>2.6743710198406001</v>
@@ -20763,7 +20542,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="618" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="618" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F618">
         <f t="shared" si="30"/>
         <v>2.6743710198406001</v>
@@ -20777,7 +20556,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="619" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="619" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F619">
         <f t="shared" si="30"/>
         <v>2.6743710198406001</v>
@@ -20791,7 +20570,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="620" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="620" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F620">
         <f t="shared" si="30"/>
         <v>2.6743710198406001</v>
@@ -20805,7 +20584,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="621" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="621" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F621">
         <f t="shared" si="30"/>
         <v>2.6743710198406001</v>
@@ -20819,7 +20598,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="622" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="622" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F622">
         <f t="shared" si="30"/>
         <v>2.6743710198406001</v>
@@ -20833,7 +20612,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="623" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="623" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F623">
         <f t="shared" si="30"/>
         <v>2.6743710198406001</v>
@@ -20847,7 +20626,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="624" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="624" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F624">
         <f t="shared" si="30"/>
         <v>2.6743710198406001</v>
@@ -20861,7 +20640,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="625" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="625" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F625">
         <f t="shared" si="30"/>
         <v>2.6743710198406001</v>
@@ -20875,7 +20654,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="626" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="626" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F626">
         <f t="shared" si="30"/>
         <v>2.6743710198406001</v>
@@ -20889,7 +20668,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="627" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="627" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F627">
         <f t="shared" si="30"/>
         <v>2.6743710198406001</v>
@@ -20903,7 +20682,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="628" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="628" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F628">
         <f t="shared" si="30"/>
         <v>2.6743710198406001</v>
@@ -20917,7 +20696,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="629" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="629" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F629">
         <f t="shared" si="30"/>
         <v>2.6743710198406001</v>
@@ -20931,7 +20710,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="630" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="630" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F630">
         <f t="shared" si="30"/>
         <v>2.6743710198406001</v>
@@ -20945,7 +20724,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="631" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="631" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F631">
         <f t="shared" si="30"/>
         <v>2.6743710198406001</v>
@@ -20959,7 +20738,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="632" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="632" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F632">
         <f t="shared" si="30"/>
         <v>2.6743710198406001</v>
@@ -20973,7 +20752,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="633" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="633" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F633">
         <f t="shared" si="30"/>
         <v>2.6743710198406001</v>
@@ -20987,7 +20766,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="634" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="634" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F634">
         <f t="shared" si="30"/>
         <v>2.6743710198406001</v>
@@ -21001,7 +20780,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="635" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="635" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F635">
         <f t="shared" si="30"/>
         <v>2.6743710198406001</v>
@@ -21015,7 +20794,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="636" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="636" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F636">
         <f t="shared" si="30"/>
         <v>2.6743710198406001</v>
@@ -21029,7 +20808,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="637" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="637" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F637">
         <f t="shared" si="30"/>
         <v>2.6743710198406001</v>
@@ -21043,7 +20822,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="638" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="638" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F638">
         <f t="shared" si="30"/>
         <v>2.6743710198406001</v>
@@ -21057,7 +20836,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="639" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="639" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F639">
         <f t="shared" si="30"/>
         <v>2.6743710198406001</v>
@@ -21071,7 +20850,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="640" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="640" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F640">
         <f t="shared" si="30"/>
         <v>2.6743710198406001</v>
@@ -21085,7 +20864,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="641" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="641" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F641">
         <f t="shared" si="30"/>
         <v>2.6743710198406001</v>
@@ -21099,7 +20878,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="642" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="642" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F642">
         <f t="shared" si="30"/>
         <v>2.6743710198406001</v>
@@ -21113,7 +20892,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="643" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="643" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F643">
         <f t="shared" si="30"/>
         <v>2.6743710198406001</v>
@@ -21127,7 +20906,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="644" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="644" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F644">
         <f t="shared" si="30"/>
         <v>2.6743710198406001</v>
@@ -21141,7 +20920,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="645" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="645" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F645">
         <f t="shared" si="30"/>
         <v>2.6743710198406001</v>
@@ -21155,7 +20934,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="646" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="646" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F646">
         <f t="shared" si="30"/>
         <v>2.6743710198406001</v>
@@ -21169,7 +20948,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="647" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="647" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F647">
         <f t="shared" si="30"/>
         <v>2.6743710198406001</v>
@@ -21183,7 +20962,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="648" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="648" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F648">
         <f t="shared" si="30"/>
         <v>2.6743710198406001</v>
@@ -21197,7 +20976,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="649" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="649" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F649">
         <f t="shared" si="30"/>
         <v>2.6743710198406001</v>
@@ -21211,7 +20990,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="650" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="650" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F650">
         <f t="shared" si="30"/>
         <v>2.6743710198406001</v>
@@ -21225,7 +21004,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="651" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="651" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F651">
         <f t="shared" si="30"/>
         <v>2.6743710198406001</v>
@@ -21239,7 +21018,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="652" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="652" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F652">
         <f t="shared" si="30"/>
         <v>2.6743710198406001</v>
@@ -21253,7 +21032,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="653" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="653" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F653">
         <f t="shared" si="30"/>
         <v>2.6743710198406001</v>
@@ -21267,7 +21046,7 @@
         <v>2.9575586117556432</v>
       </c>
     </row>
-    <row r="654" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="654" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F654">
         <f t="shared" si="30"/>
         <v>2.6743710198406001</v>
@@ -21297,12 +21076,12 @@
       <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -21313,7 +21092,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>600</v>
       </c>
@@ -21324,7 +21103,7 @@
         <v>19.542286000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>400</v>
       </c>
@@ -21335,7 +21114,7 @@
         <v>19.559256999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>300</v>
       </c>
@@ -21346,7 +21125,7 @@
         <v>19.588958999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>200</v>
       </c>
@@ -21357,7 +21136,7 @@
         <v>19.726541000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>150</v>
       </c>
@@ -21368,7 +21147,7 @@
         <v>19.7942</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>100</v>
       </c>
@@ -21379,7 +21158,7 @@
         <v>20.250312999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>75</v>
       </c>
@@ -21390,7 +21169,7 @@
         <v>21.342282999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>50</v>
       </c>
@@ -21401,7 +21180,7 @@
         <v>22.851299000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="D14" s="11" t="s">
         <v>20</v>
       </c>
@@ -21410,7 +21189,7 @@
         <v>2.1366588524410277</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="D15" s="11" t="s">
         <v>19</v>
       </c>
@@ -21418,7 +21197,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>21</v>
       </c>
@@ -21427,7 +21206,7 @@
         <v>6.8329426220513856E-2</v>
       </c>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>7</v>
       </c>
@@ -21435,7 +21214,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>18</v>
       </c>
@@ -21444,7 +21223,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>8</v>
       </c>
@@ -21452,7 +21231,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>9</v>
       </c>
@@ -21461,7 +21240,7 @@
         <v>7.0712499999991962E-3</v>
       </c>
     </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>10</v>
       </c>
@@ -21480,21 +21259,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ADCF979-8E9B-4297-ACF4-8361D98B7E9B}">
   <dimension ref="A1:T232"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T4" sqref="T4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.21875" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="17" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -21520,8 +21299,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="25">
+    <row r="2" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="24">
         <v>35.911845</v>
       </c>
       <c r="B2">
@@ -21536,24 +21315,24 @@
         <f t="shared" ref="D2:D65" si="1">_xlfn.LOGNORM.DIST(A2,$G$2,$G$3,TRUE)</f>
         <v>0.78568553481319203</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="12">
         <f>AVERAGE(B$2:B$1048576)</f>
         <v>3.2785706920586115</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="12">
         <f>EXP(G2)</f>
         <v>26.537814870081345</v>
       </c>
-      <c r="N2" s="23" t="s">
+      <c r="N2" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="23"/>
+      <c r="O2" s="28"/>
       <c r="P2" s="11" t="s">
         <v>32</v>
       </c>
@@ -21561,7 +21340,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>33.538131</v>
       </c>
@@ -21577,17 +21356,17 @@
         <f t="shared" si="1"/>
         <v>0.72992949858748146</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="12">
         <f>_xlfn.STDEV.S(B$2:B$1048576)</f>
         <v>0.38216196836371663</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="12">
         <f>EXP(G3)</f>
         <v>1.4654494223569288</v>
       </c>
@@ -21612,7 +21391,7 @@
         <v>1.7410314093455416E-14</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>45.409543999999997</v>
       </c>
@@ -21663,7 +21442,7 @@
         <v>4.0767015885735395E-9</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>31.181342000000001</v>
       </c>
@@ -21714,7 +21493,7 @@
         <v>1.2738247342343602E-6</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>22.235628999999999</v>
       </c>
@@ -21750,9 +21529,9 @@
         <f t="shared" si="6"/>
         <v>3.8830865118047572E-5</v>
       </c>
-      <c r="T6" s="24"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T6" s="23"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>33.052174000000001</v>
       </c>
@@ -21788,9 +21567,9 @@
         <f t="shared" si="6"/>
         <v>3.7911981405098686E-4</v>
       </c>
-      <c r="T7" s="24"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T7" s="23"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>20.153106000000001</v>
       </c>
@@ -21827,7 +21606,7 @@
         <v>1.9229861999970116E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>24.885192</v>
       </c>
@@ -21864,7 +21643,7 @@
         <v>6.4383445501126737E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>11.398958</v>
       </c>
@@ -21901,7 +21680,7 @@
         <v>1.6268473400525871E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>46.799703000000001</v>
       </c>
@@ -21938,7 +21717,7 @@
         <v>3.3658683478279133E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>12.239124</v>
       </c>
@@ -21975,7 +21754,7 @@
         <v>6.0109708227070485E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>35.601605999999997</v>
       </c>
@@ -22012,7 +21791,7 @@
         <v>9.6039085813114919E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>48.155290000000001</v>
       </c>
@@ -22049,7 +21828,7 @@
         <v>0.14079062024314196</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>36.350883000000003</v>
       </c>
@@ -22086,7 +21865,7 @@
         <v>0.1928814530765435</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>34.882855999999997</v>
       </c>
@@ -22123,7 +21902,7 @@
         <v>0.25034349139619722</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>20.845967000000002</v>
       </c>
@@ -22160,7 +21939,7 @@
         <v>0.31105004737723613</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>21.578142</v>
       </c>
@@ -22197,7 +21976,7 @@
         <v>0.37296948889945825</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>19.546772000000001</v>
       </c>
@@ -22234,7 +22013,7 @@
         <v>0.43432920922875029</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>18.059199</v>
       </c>
@@ -22271,7 +22050,7 @@
         <v>0.49369821976116374</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
         <v>32.984647000000002</v>
       </c>
@@ -22308,7 +22087,7 @@
         <v>0.55000752725682767</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
         <v>18.109113000000001</v>
       </c>
@@ -22345,7 +22124,7 @@
         <v>0.60252919545017147</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
         <v>23.277153999999999</v>
       </c>
@@ -22382,7 +22161,7 @@
         <v>0.6508320885377965</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
         <v>28.887646</v>
       </c>
@@ -22419,7 +22198,7 @@
         <v>0.6947277732477346</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="10">
         <v>21.621769</v>
       </c>
@@ -22456,7 +22235,7 @@
         <v>0.73421559226695754</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
         <v>22.250857</v>
       </c>
@@ -22493,7 +22272,7 @@
         <v>0.76943225009619631</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
         <v>31.348423</v>
       </c>
@@ -22530,7 +22309,7 @@
         <v>0.80060855835952349</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
         <v>44.480060999999999</v>
       </c>
@@ -22567,7 +22346,7 @@
         <v>0.82803418609449086</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="10">
         <v>32.495100000000001</v>
       </c>
@@ -22604,7 +22383,7 @@
         <v>0.85203016557105682</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="10">
         <v>17.155498999999999</v>
       </c>
@@ -22641,7 +22420,7 @@
         <v>0.87292831827204642</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="10">
         <v>30.904755999999999</v>
       </c>
@@ -22678,7 +22457,7 @@
         <v>0.89105651922058438</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="10">
         <v>18.202268</v>
       </c>
@@ -22715,7 +22494,7 @@
         <v>0.90672868077545254</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="10">
         <v>25.029136000000001</v>
       </c>
@@ -22752,7 +22531,7 @@
         <v>0.92023841706004716</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="10">
         <v>22.332485999999999</v>
       </c>
@@ -22789,7 +22568,7 @@
         <v>0.93185548603425672</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="10">
         <v>14.588493</v>
       </c>
@@ -22826,7 +22605,7 @@
         <v>0.94182425969672667</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="10">
         <v>29.950793999999998</v>
       </c>
@@ -22863,7 +22642,7 @@
         <v>0.95036362205506753</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="10">
         <v>17.799004</v>
       </c>
@@ -22900,7 +22679,7 @@
         <v>0.95766782808649209</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="10">
         <v>14.732241999999999</v>
       </c>
@@ -22937,7 +22716,7 @@
         <v>0.96390797041119269</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="10">
         <v>16.728985000000002</v>
       </c>
@@ -22974,7 +22753,7 @@
         <v>0.96923379323812264</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="10">
         <v>10.730276</v>
       </c>
@@ -23011,7 +22790,7 @@
         <v>0.97377566685255112</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="10">
         <v>23.886614000000002</v>
       </c>
@@ -23048,7 +22827,7 @@
         <v>0.97764659299250167</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="10">
         <v>28.099174000000001</v>
       </c>
@@ -23085,7 +22864,7 @@
         <v>0.9809441546780524</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="10">
         <v>16.738831999999999</v>
       </c>
@@ -23122,7 +22901,7 @@
         <v>0.98375235608066713</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="10">
         <v>27.321501999999999</v>
       </c>
@@ -23159,7 +22938,7 @@
         <v>0.98614332122658288</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="10">
         <v>19.020061999999999</v>
       </c>
@@ -23196,7 +22975,7 @@
         <v>0.98817883673667684</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="10">
         <v>9.0347179999999998</v>
       </c>
@@ -23233,7 +23012,7 @@
         <v>0.98991173506980012</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="10">
         <v>47.533459999999998</v>
       </c>
@@ -23270,7 +23049,7 @@
         <v>0.99138712217899838</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="10">
         <v>33.553994000000003</v>
       </c>
@@ -23307,7 +23086,7 @@
         <v>0.99264345814393129</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="10">
         <v>25.883607000000001</v>
       </c>
@@ -23344,7 +23123,7 @@
         <v>0.99371350200203101</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="10">
         <v>51.731954999999999</v>
       </c>
@@ -23381,7 +23160,7 @@
         <v>0.99462513326542601</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="10">
         <v>23.088867</v>
       </c>
@@ -23418,7 +23197,7 @@
         <v>0.99540206292683187</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="10">
         <v>35.540362000000002</v>
       </c>
@@ -23455,7 +23234,7 @@
         <v>0.99606444645266501</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="10">
         <v>22.424316000000001</v>
       </c>
@@ -23492,7 +23271,7 @@
         <v>0.99662941057141885</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="10">
         <v>15.228737000000001</v>
       </c>
@@ -23529,7 +23308,7 @@
         <v>0.99711150475688826</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="10">
         <v>16.261927</v>
       </c>
@@ -23566,7 +23345,7 @@
         <v>0.99752308729480399</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="10">
         <v>20.857227000000002</v>
       </c>
@@ -23603,7 +23382,7 @@
         <v>0.99787465478585913</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="10">
         <v>15.379339</v>
       </c>
@@ -23640,7 +23419,7 @@
         <v>0.99817512292860033</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="10">
         <v>25.566827</v>
       </c>
@@ -23677,7 +23456,7 @@
         <v>0.9984320654733484</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="10">
         <v>36.613793000000001</v>
       </c>
@@ -23714,7 +23493,7 @@
         <v>0.9986519173606041</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="10">
         <v>15.154951000000001</v>
       </c>
@@ -23751,7 +23530,7 @@
         <v>0.99884014726227355</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="10">
         <v>28.147500999999998</v>
       </c>
@@ -23788,7 +23567,7 @@
         <v>0.99900140403319992</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="10">
         <v>33.918101999999998</v>
       </c>
@@ -23825,7 +23604,7 @@
         <v>0.99913964095153707</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="10">
         <v>11.582407</v>
       </c>
@@ -23862,7 +23641,7 @@
         <v>0.99925822107461837</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="10">
         <v>20.923143</v>
       </c>
@@ -23899,7 +23678,7 @@
         <v>0.99936000655595802</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="10">
         <v>33.626258999999997</v>
       </c>
@@ -23936,7 +23715,7 @@
         <v>0.99944743435209316</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="10">
         <v>44.833697000000001</v>
       </c>
@@ -23973,7 +23752,7 @@
         <v>0.99952258038822728</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="10">
         <v>29.639206999999999</v>
       </c>
@@ -24010,7 +23789,7 @@
         <v>0.99958721394241956</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="10">
         <v>59.045591999999999</v>
       </c>
@@ -24047,7 +23826,7 @@
         <v>0.99964284374310985</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="10">
         <v>46.981966999999997</v>
       </c>
@@ -24084,7 +23863,7 @@
         <v>0.99969075704835153</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="10">
         <v>16.328014</v>
       </c>
@@ -24121,7 +23900,7 @@
         <v>0.99973205278206834</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="10">
         <v>26.040944</v>
       </c>
@@ -24158,7 +23937,7 @@
         <v>0.99976766963833852</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="10">
         <v>18.168078999999999</v>
       </c>
@@ -24195,7 +23974,7 @@
         <v>0.9997984099250935</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="10">
         <v>19.396339000000001</v>
       </c>
@@ -24232,7 +24011,7 @@
         <v>0.99982495980012009</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="10">
         <v>19.478601000000001</v>
       </c>
@@ -24269,7 +24048,7 @@
         <v>0.99984790645180865</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="10">
         <v>26.125463</v>
       </c>
@@ -24306,7 +24085,7 @@
         <v>0.99986775269199879</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="10">
         <v>32.085858999999999</v>
       </c>
@@ -24343,7 +24122,7 @@
         <v>0.99988492935625617</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="10">
         <v>31.973735000000001</v>
       </c>
@@ -24380,7 +24159,7 @@
         <v>0.99989980584598603</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="10">
         <v>47.843372000000002</v>
       </c>
@@ -24417,7 +24196,7 @@
         <v>0.99991269909526659</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" s="10">
         <v>32.070613999999999</v>
       </c>
@@ -24454,7 +24233,7 @@
         <v>0.99992388120173115</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="10">
         <v>17.547602000000001</v>
       </c>
@@ -24491,7 +24270,7 @@
         <v>0.99993358592401271</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" s="10">
         <v>27.353572</v>
       </c>
@@ -24528,7 +24307,7 @@
         <v>0.99994201421715567</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" s="10">
         <v>25.651271999999999</v>
       </c>
@@ -24565,7 +24344,7 @@
         <v>0.99994933895110427</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" s="10">
         <v>33.406345000000002</v>
       </c>
@@ -24602,7 +24381,7 @@
         <v>0.99995570893515884</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" s="10">
         <v>44.249184</v>
       </c>
@@ -24639,7 +24418,7 @@
         <v>0.99996125235250888</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" s="10">
         <v>30.006246999999998</v>
       </c>
@@ -24676,7 +24455,7 @@
         <v>0.99996607969307427</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" s="10">
         <v>30.474647000000001</v>
       </c>
@@ -24713,7 +24492,7 @@
         <v>0.99997028625946338</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" s="10">
         <v>43.645477999999997</v>
       </c>
@@ -24750,7 +24529,7 @@
         <v>0.99997395430949898</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" s="10">
         <v>31.640215999999999</v>
       </c>
@@ -24787,7 +24566,7 @@
         <v>0.99997715488916006</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" s="10">
         <v>39.642234000000002</v>
       </c>
@@ -24824,7 +24603,7 @@
         <v>0.99997994940165758</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" s="10">
         <v>41.429096000000001</v>
       </c>
@@ -24857,7 +24636,7 @@
         <v>0.99998239095147656</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" s="10">
         <v>15.272474000000001</v>
       </c>
@@ -24890,7 +24669,7 @@
         <v>0.99998452549639227</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" s="10">
         <v>18.585694</v>
       </c>
@@ -24923,7 +24702,7 @@
         <v>0.99998639283552471</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" s="10">
         <v>30.100190000000001</v>
       </c>
@@ -24956,7 +24735,7 @@
         <v>0.99998802745731163</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" s="10">
         <v>18.152466</v>
       </c>
@@ -24989,7 +24768,7 @@
         <v>0.99998945926772642</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" s="10">
         <v>15.210998</v>
       </c>
@@ -25022,7 +24801,7 @@
         <v>0.99999071421605679</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" s="10">
         <v>35.524478000000002</v>
       </c>
@@ -25055,7 +24834,7 @@
         <v>0.99999181483300092</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" s="10">
         <v>59.711727000000003</v>
       </c>
@@ -25088,7 +24867,7 @@
         <v>0.99999278069366404</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" s="10">
         <v>30.034946999999999</v>
       </c>
@@ -25121,7 +24900,7 @@
         <v>0.99999362881619513</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" s="10">
         <v>30.752227999999999</v>
       </c>
@@ -25154,7 +24933,7 @@
         <v>0.99999437400522861</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" s="10">
         <v>31.663309999999999</v>
       </c>
@@ -25187,7 +24966,7 @@
         <v>0.99999502914796645</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" s="10">
         <v>45.357121999999997</v>
       </c>
@@ -25220,7 +24999,7 @@
         <v>0.99999560546959165</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" s="10">
         <v>32.453243999999998</v>
       </c>
@@ -25253,7 +25032,7 @@
         <v>0.99999611275374334</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103" s="10">
         <v>10.624014000000001</v>
       </c>
@@ -25286,7 +25065,7 @@
         <v>0.99999655953295141</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104" s="10">
         <v>27.340658999999999</v>
       </c>
@@ -25319,7 +25098,7 @@
         <v>0.99999695325323024</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105" s="10">
         <v>14.9664</v>
       </c>
@@ -25352,7 +25131,7 @@
         <v>0.99999730041642731</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106" s="10">
         <v>27.103231999999998</v>
       </c>
@@ -25385,7 +25164,7 @@
         <v>0.99999760670340998</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107" s="10">
         <v>31.566044999999999</v>
       </c>
@@ -25418,7 +25197,7 @@
         <v>0.99999787708073895</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A108" s="10">
         <v>31.109511999999999</v>
       </c>
@@ -25451,7 +25230,7 @@
         <v>0.99999811589309695</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A109" s="10">
         <v>25.354544000000001</v>
       </c>
@@ -25484,7 +25263,7 @@
         <v>0.99999832694342738</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A110" s="10">
         <v>21.223222</v>
       </c>
@@ -25517,7 +25296,7 @@
         <v>0.99999851356245795</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A111" s="10">
         <v>49.988799</v>
       </c>
@@ -25550,7 +25329,7 @@
         <v>0.9999986786690539</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A112" s="10">
         <v>27.297087000000001</v>
       </c>
@@ -25583,7 +25362,7 @@
         <v>0.9999988248226418</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113" s="10">
         <v>33.555169999999997</v>
       </c>
@@ -25616,7 +25395,7 @@
         <v>0.9999989542687735</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114" s="10">
         <v>14.568887</v>
       </c>
@@ -25649,7 +25428,7 @@
         <v>0.99999906897875179</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115" s="10">
         <v>41.502260999999997</v>
       </c>
@@ -25682,7 +25461,7 @@
         <v>0.99999917068411337</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116" s="10">
         <v>21.644832000000001</v>
       </c>
@@ -25715,7 +25494,7 @@
         <v>0.99999926090665248</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A117" s="10">
         <v>33.753211999999998</v>
       </c>
@@ -25748,7 +25527,7 @@
         <v>0.99999934098457965</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A118" s="10">
         <v>12.863089</v>
       </c>
@@ -25781,7 +25560,7 @@
         <v>0.99999941209532495</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A119" s="10">
         <v>30.868766999999998</v>
       </c>
@@ -25814,7 +25593,7 @@
         <v>0.99999947527542843</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A120" s="10">
         <v>11.706860000000001</v>
       </c>
@@ -25847,7 +25626,7 @@
         <v>0.99999953143790021</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A121" s="10">
         <v>23.814720000000001</v>
       </c>
@@ -25880,7 +25659,7 @@
         <v>0.9999995813873801</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A122" s="10">
         <v>24.345918999999999</v>
       </c>
@@ -25913,7 +25692,7 @@
         <v>0.99999962583338409</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A123" s="10">
         <v>33.571406000000003</v>
       </c>
@@ -25946,7 +25725,7 @@
         <v>0.99999966540188501</v>
       </c>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A124" s="10">
         <v>39.996746999999999</v>
       </c>
@@ -25979,7 +25758,7 @@
         <v>0.99999970064544341</v>
       </c>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A125" s="10">
         <v>29.612449000000002</v>
       </c>
@@ -26012,7 +25791,7 @@
         <v>0.99999973205207437</v>
       </c>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A126" s="10">
         <v>44.176752</v>
       </c>
@@ -26045,7 +25824,7 @@
         <v>0.99999976005301261</v>
       </c>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A127" s="10">
         <v>31.749929999999999</v>
       </c>
@@ -26078,7 +25857,7 @@
         <v>0.99999978502951681</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A128" s="10">
         <v>48.104211999999997</v>
       </c>
@@ -26111,7 +25890,7 @@
         <v>0.99999980731883464</v>
       </c>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A129" s="10">
         <v>13.144962</v>
       </c>
@@ -26144,7 +25923,7 @@
         <v>0.99999982721943625</v>
       </c>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A130" s="10">
         <v>18.307562000000001</v>
       </c>
@@ -26177,7 +25956,7 @@
         <v>0.99999984499560579</v>
       </c>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A131" s="10">
         <v>27.874880999999998</v>
       </c>
@@ -26210,7 +25989,7 @@
         <v>0.99999986088147552</v>
       </c>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A132" s="10">
         <v>22.328592</v>
       </c>
@@ -26243,7 +26022,7 @@
         <v>0.99999987508456856</v>
       </c>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A133" s="10">
         <v>28.780819999999999</v>
       </c>
@@ -26276,7 +26055,7 @@
         <v>0.99999988778891424</v>
       </c>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A134" s="10">
         <v>43.268377999999998</v>
       </c>
@@ -26309,7 +26088,7 @@
         <v>0.99999989915778786</v>
       </c>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A135" s="10">
         <v>24.843230999999999</v>
       </c>
@@ -26342,7 +26121,7 @@
         <v>0.9999999093361216</v>
       </c>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A136" s="10">
         <v>28.810628999999999</v>
       </c>
@@ -26375,7 +26154,7 @@
         <v>0.99999991845262737</v>
       </c>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A137" s="10">
         <v>38.063361</v>
       </c>
@@ -26408,7 +26187,7 @@
         <v>0.99999992662166681</v>
       </c>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A138" s="10">
         <v>45.782356</v>
       </c>
@@ -26441,7 +26220,7 @@
         <v>0.99999993394489939</v>
       </c>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A139" s="10">
         <v>23.522960000000001</v>
       </c>
@@ -26474,7 +26253,7 @@
         <v>0.99999994051273589</v>
       </c>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A140" s="10">
         <v>27.291405000000001</v>
       </c>
@@ -26507,7 +26286,7 @@
         <v>0.99999994640562073</v>
       </c>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A141" s="10">
         <v>27.457273000000001</v>
       </c>
@@ -26540,7 +26319,7 @@
         <v>0.99999995169516342</v>
       </c>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A142" s="10">
         <v>31.665610999999998</v>
       </c>
@@ -26573,7 +26352,7 @@
         <v>0.9999999564451385</v>
       </c>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A143" s="10">
         <v>34.104269000000002</v>
       </c>
@@ -26606,7 +26385,7 @@
         <v>0.99999996071236841</v>
       </c>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A144" s="10">
         <v>33.450623</v>
       </c>
@@ -26639,7 +26418,7 @@
         <v>0.99999996454750428</v>
       </c>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A145" s="10">
         <v>20.338287999999999</v>
       </c>
@@ -26672,7 +26451,7 @@
         <v>0.99999996799571678</v>
       </c>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A146" s="10">
         <v>27.619593999999999</v>
       </c>
@@ -26705,7 +26484,7 @@
         <v>0.99999997109730632</v>
       </c>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A147" s="10">
         <v>35.715656000000003</v>
       </c>
@@ -26738,7 +26517,7 @@
         <v>0.9999999738882448</v>
       </c>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A148" s="10">
         <v>25.865987000000001</v>
       </c>
@@ -26771,7 +26550,7 @@
         <v>0.99999997640065397</v>
       </c>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A149" s="10">
         <v>36.628163000000001</v>
       </c>
@@ -26804,7 +26583,7 @@
         <v>0.99999997866323032</v>
       </c>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A150" s="10">
         <v>16.072402</v>
       </c>
@@ -26837,7 +26616,7 @@
         <v>0.99999998070162133</v>
       </c>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A151" s="10">
         <v>18.736143999999999</v>
       </c>
@@ -26870,7 +26649,7 @@
         <v>0.99999998253875899</v>
       </c>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A152" s="10">
         <v>26.348875</v>
       </c>
@@ -26903,7 +26682,7 @@
         <v>0.99999998419515634</v>
       </c>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A153" s="10">
         <v>19.627265999999999</v>
       </c>
@@ -26936,7 +26715,7 @@
         <v>0.99999998568917015</v>
       </c>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A154" s="10">
         <v>23.625198999999999</v>
       </c>
@@ -26969,7 +26748,7 @@
         <v>0.99999998703723436</v>
       </c>
     </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A155" s="10">
         <v>37.342343</v>
       </c>
@@ -27002,7 +26781,7 @@
         <v>0.99999998825406788</v>
       </c>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A156" s="10">
         <v>37.879268000000003</v>
       </c>
@@ -27035,7 +26814,7 @@
         <v>0.99999998935285861</v>
       </c>
     </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A157" s="10">
         <v>8.9281919999999992</v>
       </c>
@@ -27068,7 +26847,7 @@
         <v>0.99999999034542786</v>
       </c>
     </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A158" s="10">
         <v>23.099402000000001</v>
       </c>
@@ -27101,7 +26880,7 @@
         <v>0.99999999124237604</v>
       </c>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A159" s="10">
         <v>51.094841000000002</v>
       </c>
@@ -27134,7 +26913,7 @@
         <v>0.99999999205321255</v>
       </c>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A160" s="10">
         <v>26.38832</v>
       </c>
@@ -27167,7 +26946,7 @@
         <v>0.99999999278647167</v>
       </c>
     </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A161" s="10">
         <v>40.713647000000002</v>
       </c>
@@ -27200,7 +26979,7 @@
         <v>0.99999999344981516</v>
       </c>
     </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A162" s="10">
         <v>32.669460999999998</v>
       </c>
@@ -27233,7 +27012,7 @@
         <v>0.99999999405012485</v>
       </c>
     </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A163" s="10">
         <v>20.55789</v>
       </c>
@@ -27266,7 +27045,7 @@
         <v>0.99999999459358357</v>
       </c>
     </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A164" s="10">
         <v>16.576803000000002</v>
       </c>
@@ -27299,7 +27078,7 @@
         <v>0.99999999508574922</v>
       </c>
     </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A165" s="10">
         <v>24.147587999999999</v>
       </c>
@@ -27332,7 +27111,7 @@
         <v>0.99999999553161889</v>
       </c>
     </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A166" s="10">
         <v>44.488239999999998</v>
       </c>
@@ -27365,7 +27144,7 @@
         <v>0.99999999593568789</v>
       </c>
     </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A167" s="10">
         <v>25.027336999999999</v>
       </c>
@@ -27398,7 +27177,7 @@
         <v>0.99999999630200154</v>
       </c>
     </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A168" s="10">
         <v>30.756350000000001</v>
       </c>
@@ -27431,7 +27210,7 @@
         <v>0.99999999663420125</v>
       </c>
     </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A169" s="10">
         <v>12.680446999999999</v>
       </c>
@@ -27464,7 +27243,7 @@
         <v>0.99999999693556629</v>
       </c>
     </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A170" s="10">
         <v>29.331904000000002</v>
       </c>
@@ -27481,7 +27260,7 @@
         <v>0.60331776301515228</v>
       </c>
     </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A171" s="10">
         <v>65.959841999999995</v>
       </c>
@@ -27498,7 +27277,7 @@
         <v>0.9914006769971998</v>
       </c>
     </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A172" s="10">
         <v>36.372075000000002</v>
       </c>
@@ -27515,7 +27294,7 @@
         <v>0.7952748299558543</v>
       </c>
     </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A173" s="10">
         <v>26.483654999999999</v>
       </c>
@@ -27532,7 +27311,7 @@
         <v>0.49786736501354339</v>
       </c>
     </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A174" s="10">
         <v>20.253837999999998</v>
       </c>
@@ -27549,7 +27328,7 @@
         <v>0.23975244622279562</v>
       </c>
     </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A175" s="10">
         <v>43.722330999999997</v>
       </c>
@@ -27566,7 +27345,7 @@
         <v>0.90430589800828254</v>
       </c>
     </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A176" s="10">
         <v>38.857835000000001</v>
       </c>
@@ -27583,7 +27362,7 @@
         <v>0.8408231359092404</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="10">
         <v>29.130763999999999</v>
       </c>
@@ -27600,7 +27379,7 @@
         <v>0.59636086418880552</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="10">
         <v>33.657193999999997</v>
       </c>
@@ -27617,7 +27396,7 @@
         <v>0.73298724141803728</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="10">
         <v>22.234867000000001</v>
       </c>
@@ -27634,7 +27413,7 @@
         <v>0.32171213922569974</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="10">
         <v>32.828063999999998</v>
       </c>
@@ -27651,7 +27430,7 @@
         <v>0.71110115710086552</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="10">
         <v>24.233466</v>
       </c>
@@ -27668,7 +27447,7 @@
         <v>0.40606072610320426</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="10">
         <v>31.856971999999999</v>
       </c>
@@ -27685,7 +27464,7 @@
         <v>0.68368620808897496</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="10">
         <v>25.623861999999999</v>
       </c>
@@ -27702,7 +27481,7 @@
         <v>0.46346569047654035</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="10">
         <v>24.795867999999999</v>
       </c>
@@ -27719,7 +27498,7 @@
         <v>0.4294962639199339</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="10">
         <v>16.616081000000001</v>
       </c>
@@ -27736,7 +27515,7 @@
         <v>0.11026231423619438</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="10">
         <v>37.333773000000001</v>
       </c>
@@ -27753,7 +27532,7 @@
         <v>0.81411136853017352</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="10">
         <v>33.216445999999998</v>
       </c>
@@ -27770,7 +27549,7 @@
         <v>0.72152584892519267</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="10">
         <v>23.855857</v>
       </c>
@@ -27787,7 +27566,7 @@
         <v>0.39020500965642668</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="10">
         <v>23.321197000000002</v>
       </c>
@@ -27804,7 +27583,7 @@
         <v>0.36764486070780544</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="10">
         <v>22.968553</v>
       </c>
@@ -27821,7 +27600,7 @@
         <v>0.3527274962526985</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="10">
         <v>15.307342</v>
       </c>
@@ -27838,7 +27617,7 @@
         <v>7.4961511509100076E-2</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="10">
         <v>22.620398999999999</v>
       </c>
@@ -27855,7 +27634,7 @@
         <v>0.33799758874354113</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="10">
         <v>41.628543999999998</v>
       </c>
@@ -27872,7 +27651,7 @@
         <v>0.88061661116244339</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="10">
         <v>24.902311999999998</v>
       </c>
@@ -27889,7 +27668,7 @@
         <v>0.43390225651502529</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="10">
         <v>35.081063999999998</v>
       </c>
@@ -27906,7 +27685,7 @@
         <v>0.7673949229283199</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="10">
         <v>22.069634000000001</v>
       </c>
@@ -27923,7 +27702,7 @@
         <v>0.31474871712401697</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="10">
         <v>38.804873999999998</v>
       </c>
@@ -27940,7 +27719,7 @@
         <v>0.83995618232153402</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="10">
         <v>37.013993999999997</v>
       </c>
@@ -27957,7 +27736,7 @@
         <v>0.80802453214545666</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="10">
         <v>23.738935000000001</v>
       </c>
@@ -27974,7 +27753,7 @@
         <v>0.38528049571679418</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="10">
         <v>36.545178</v>
       </c>
@@ -27991,7 +27770,7 @@
         <v>0.79878385923959438</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="10">
         <v>35.028616</v>
       </c>
@@ -28008,7 +27787,7 @@
         <v>0.76619693527446875</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="10">
         <v>16.14396</v>
       </c>
@@ -28025,7 +27804,7 @@
         <v>9.6704491903725834E-2</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="10">
         <v>19.204688000000001</v>
       </c>
@@ -28042,7 +27821,7 @@
         <v>0.19869810195501489</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="10">
         <v>38.35351</v>
       </c>
@@ -28059,7 +27838,7 @@
         <v>0.83239255019401315</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="10">
         <v>14.182283</v>
       </c>
@@ -28076,7 +27855,7 @@
         <v>5.0548422992814458E-2</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="10">
         <v>21.964670999999999</v>
       </c>
@@ -28093,7 +27872,7 @@
         <v>0.31033218285674324</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="10">
         <v>29.652508999999998</v>
       </c>
@@ -28110,7 +27889,7 @@
         <v>0.6142410898564743</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="10">
         <v>26.087478000000001</v>
       </c>
@@ -28127,7 +27906,7 @@
         <v>0.48213919549570611</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="10">
         <v>34.153379000000001</v>
       </c>
@@ -28144,7 +27923,7 @@
         <v>0.74542676294073562</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="10">
         <v>16.014607000000002</v>
       </c>
@@ -28161,7 +27940,7 @@
         <v>9.3148864676866144E-2</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="10">
         <v>28.678609999999999</v>
       </c>
@@ -28178,7 +27957,7 @@
         <v>0.58043450570495669</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="10">
         <v>38.639882999999998</v>
       </c>
@@ -28195,7 +27974,7 @@
         <v>0.83722787895281581</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="10">
         <v>21.656282999999998</v>
       </c>
@@ -28212,7 +27991,7 @@
         <v>0.29739480048217748</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="10">
         <v>15.317987</v>
       </c>
@@ -28229,7 +28008,7 @@
         <v>7.5219245999091841E-2</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="10">
         <v>28.364968999999999</v>
       </c>
@@ -28246,7 +28025,7 @@
         <v>0.56915777487569619</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="10">
         <v>36.280365000000003</v>
       </c>
@@ -28263,7 +28042,7 @@
         <v>0.79339424129896763</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="10">
         <v>31.123885999999999</v>
       </c>
@@ -28280,7 +28059,7 @@
         <v>0.66170226123548026</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="10">
         <v>57.092722999999999</v>
       </c>
@@ -28297,7 +28076,7 @@
         <v>0.9775004588646693</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="10">
         <v>33.227274000000001</v>
       </c>
@@ -28314,7 +28093,7 @@
         <v>0.72181210774916149</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="10">
         <v>18.988734999999998</v>
       </c>
@@ -28331,7 +28110,7 @@
         <v>0.19054994235859499</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="10">
         <v>23.373093000000001</v>
       </c>
@@ -28348,7 +28127,7 @@
         <v>0.3698385011412314</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="10">
         <v>37.613441999999999</v>
       </c>
@@ -28365,7 +28144,7 @@
         <v>0.81929402284721342</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="10">
         <v>18.797550999999999</v>
       </c>
@@ -28382,8 +28161,8 @@
         <v>0.18343531648848035</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A232" s="25"/>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/data/Calculs.xlsx
+++ b/data/Calculs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benda\OneDrive\Documents\GitHub\MEC8211DEV3\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A102B912-5192-43BB-85BE-A4E5F8FD5A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE73E1BD-ACBE-4CF7-A6ED-0EDF7FF18362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -476,13 +476,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -10875,8 +10875,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3314700" y="7434262"/>
-              <a:ext cx="4495800" cy="2743200"/>
+              <a:off x="3329940" y="7434262"/>
+              <a:ext cx="4511040" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -11246,13 +11246,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X44"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
@@ -11600,7 +11601,7 @@
         <v>8.4288208200514667</v>
       </c>
       <c r="K24" s="17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L24" s="18">
         <f>($D$25^2+G24^2+$T$25^2)^0.5</f>
@@ -11627,7 +11628,7 @@
         <v>12.352010601894481</v>
       </c>
       <c r="K25" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L25" s="16">
         <f>($D$25^2+G25^2+$T$25^2)^0.5</f>
@@ -11731,7 +11732,7 @@
     <row r="33" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
       <c r="D33" s="17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E33" s="18">
         <f>L24</f>
@@ -11742,7 +11743,7 @@
     <row r="34" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
       <c r="D34" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E34" s="18">
         <f>L25</f>
@@ -11762,11 +11763,11 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
-      <c r="C36" s="27" t="s">
+      <c r="C36" s="28" t="s">
         <v>44</v>
       </c>
       <c r="D36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E36">
         <f>E35*E34</f>
@@ -11776,9 +11777,9 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
-      <c r="C37" s="27"/>
+      <c r="C37" s="28"/>
       <c r="D37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E37">
         <f>E35*E33</f>
@@ -11792,10 +11793,18 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
+      <c r="E39">
+        <f>E32+E36</f>
+        <v>-10.764976306277958</v>
+      </c>
       <c r="Q39" s="5"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
+      <c r="E40">
+        <f>E32-E37</f>
+        <v>-93.413684656095455</v>
+      </c>
       <c r="Q40" s="5"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
@@ -11906,11 +11915,11 @@
         <f t="shared" ref="H3:H27" si="1">$B$6^F3</f>
         <v>2.5109168651691092</v>
       </c>
-      <c r="L3" s="28" t="s">
+      <c r="L3" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F4">
@@ -21259,7 +21268,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ADCF979-8E9B-4297-ACF4-8361D98B7E9B}">
   <dimension ref="A1:T232"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
@@ -21315,7 +21324,7 @@
         <f t="shared" ref="D2:D65" si="1">_xlfn.LOGNORM.DIST(A2,$G$2,$G$3,TRUE)</f>
         <v>0.78568553481319203</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="27" t="s">
         <v>25</v>
       </c>
       <c r="G2" s="12">
@@ -21329,10 +21338,10 @@
         <f>EXP(G2)</f>
         <v>26.537814870081345</v>
       </c>
-      <c r="N2" s="28" t="s">
+      <c r="N2" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="28"/>
+      <c r="O2" s="29"/>
       <c r="P2" s="11" t="s">
         <v>32</v>
       </c>
@@ -21356,7 +21365,7 @@
         <f t="shared" si="1"/>
         <v>0.72992949858748146</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="27" t="s">
         <v>26</v>
       </c>
       <c r="G3" s="12">

--- a/data/Calculs.xlsx
+++ b/data/Calculs.xlsx
@@ -8,18 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\picco\Desktop\POLYMTL - H2024\MEC8211\DEVOIR 3\MEC8211DEV3\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4502953F-5891-4248-A2D6-1518B5E55EFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA15E4A-7963-45C5-A2F1-F956C04DA24E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Calculs" sheetId="1" r:id="rId1"/>
-    <sheet name="Données" sheetId="2" r:id="rId2"/>
-    <sheet name="Monte-Carlo" sheetId="3" r:id="rId3"/>
+    <sheet name="Monte-Carlo" sheetId="3" r:id="rId2"/>
+    <sheet name="Données" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">'Monte-Carlo'!$A$1</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">'Monte-Carlo'!$A$2:$A$223</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Monte-Carlo'!$A$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Monte-Carlo'!$A$2:$A$223</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="55">
   <si>
     <t>Seed</t>
   </si>
@@ -87,9 +89,6 @@
   </si>
   <si>
     <t>incertitude sur les mesures</t>
-  </si>
-  <si>
-    <t>sr</t>
   </si>
   <si>
     <t>Ud</t>
@@ -198,6 +197,18 @@
   </si>
   <si>
     <t>k=</t>
+  </si>
+  <si>
+    <t>k*uval-</t>
+  </si>
+  <si>
+    <t>k*uval+</t>
+  </si>
+  <si>
+    <t>aleatoire</t>
+  </si>
+  <si>
+    <t>s_r</t>
   </si>
 </sst>
 </file>
@@ -359,7 +370,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -389,7 +400,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1656,37 +1668,15 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Convergence</a:t>
+              <a:t>Incertitude sur </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> de la permeabilite en fonction de </a:t>
+              <a:rPr lang="el-GR"/>
+              <a:t>δ</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="el-GR" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Δ</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>x </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> </a:t>
+              <a:rPr lang="en-CA" sz="1000"/>
+              <a:t>model</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1731,7 +1721,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>k</c:v>
+            <c:v>E=S-D</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -1755,68 +1745,77 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Données!$B$2:$B$9</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>3.3333332999999999E-7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.9999999999999998E-7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.6666667000000002E-7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.9999999999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.3333333000000001E-6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.9999999999999999E-6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.6666667000000001E-6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.9999999999999998E-6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdDev"/>
+            <c:noEndCap val="0"/>
+            <c:val val="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Calculs!$D$37</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>39.351498826031808</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Calculs!$D$39</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>43.297217483647891</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:yVal>
             <c:numRef>
-              <c:f>Données!$C$2:$C$9</c:f>
+              <c:f>Calculs!$D$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>19.542286000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>19.559256999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>19.588958999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>19.726541000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>19.7942</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>20.250312999999998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>21.342282999999998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>22.851299000000001</c:v>
+                  <c:v>-54.062185129918646</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1824,7 +1823,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-CDAF-40FD-82AC-4C7900BE6A5A}"/>
+              <c16:uniqueId val="{00000000-0EA5-4ED2-ACEF-65A127DBAD81}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1836,15 +1835,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="936366911"/>
-        <c:axId val="936369311"/>
+        <c:axId val="1632011967"/>
+        <c:axId val="1632014847"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="936366911"/>
+        <c:axId val="1632011967"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1860,109 +1859,15 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="el-GR"/>
-                  <a:t>Δ</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>x [m]</a:t>
-                </a:r>
-                <a:endParaRPr lang="fr-CA"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="936369311"/>
+        <c:crossAx val="1632014847"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="936369311"/>
+        <c:axId val="1632014847"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2002,16 +1907,8 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>k[</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="el-GR"/>
-                  <a:t>μ</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>m^2]</a:t>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>E=S-D</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2046,7 +1943,7 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -2082,7 +1979,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="936366911"/>
+        <c:crossAx val="1632011967"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3572,6 +3469,113 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" dirty="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>k</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" dirty="0">
+                    <a:solidFill>
+                      <a:prstClr val="black">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:prstClr>
+                    </a:solidFill>
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>[</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" dirty="0">
+                    <a:solidFill>
+                      <a:prstClr val="black">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:prstClr>
+                    </a:solidFill>
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>𝜇𝑚^</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" dirty="0">
+                    <a:solidFill>
+                      <a:prstClr val="black">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:prstClr>
+                    </a:solidFill>
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>2]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" dirty="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3634,6 +3638,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Probability Density</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-CA" baseline="0"/>
+                  <a:t> Funciton</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-CA"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -7676,23 +7740,567 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Convergence</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> de la permeabilite en fonction de </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="el-GR" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Δ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>x </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>k</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Données!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3.3333332999999999E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9999999999999998E-7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.6666667000000002E-7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3333333000000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.6666667000000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.9999999999999998E-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Données!$C$2:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>19.542286000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.559256999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.588958999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.726541000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.7942</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.250312999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21.342282999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22.851299000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CDAF-40FD-82AC-4C7900BE6A5A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="936366911"/>
+        <c:axId val="936369311"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="936366911"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="el-GR"/>
+                  <a:t>Δ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>x [m]</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-CA"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="936369311"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="936369311"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>k[</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="el-GR"/>
+                  <a:t>μ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>m^2]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="936366911"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
   <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Distribution log-normale de k</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Distribution log-normale de k</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
     <cx:plotArea>
       <cx:plotAreaRegion>
         <cx:series layoutId="clusteredColumn" uniqueId="{82D24D9B-3640-48EE-8AD4-D82317D9EF9A}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v>k</cx:v>
             </cx:txData>
           </cx:tx>
@@ -7917,6 +8525,46 @@
 </file>
 
 <file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -11044,6 +11692,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -11118,36 +12282,29 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Graphique 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{228416B4-BB62-4075-B8CB-FF367754B402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14D55073-6759-D9EF-5BDD-307AD1136631}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -11155,7 +12312,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -11164,7 +12321,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -11354,6 +12511,49 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{228416B4-BB62-4075-B8CB-FF367754B402}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -11625,10 +12825,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD34"/>
+  <dimension ref="A1:AD52"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z18" sqref="Z18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11684,7 +12884,7 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W2" s="5"/>
       <c r="X2" s="4"/>
@@ -11693,7 +12893,7 @@
     <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3">
         <v>600</v>
@@ -11739,7 +12939,7 @@
     <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5">
         <v>300</v>
@@ -11786,7 +12986,7 @@
     <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7">
         <v>150</v>
@@ -11824,6 +13024,9 @@
       <c r="X8" s="4"/>
       <c r="Y8" t="s">
         <v>14</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>53</v>
       </c>
       <c r="AD8" s="5"/>
     </row>
@@ -11876,7 +13079,7 @@
       <c r="W12" s="5"/>
       <c r="X12" s="4"/>
       <c r="Y12" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="Z12">
         <v>14.7</v>
@@ -11936,7 +13139,7 @@
         <v>6.8329426220513856E-2</v>
       </c>
       <c r="F18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="W18" s="5"/>
       <c r="X18" s="4"/>
@@ -11994,14 +13197,14 @@
     <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="F24" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G24" s="9">
         <f>'Monte-Carlo'!I2-'Monte-Carlo'!I5</f>
         <v>8.4288208200514667</v>
       </c>
       <c r="K24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L24" s="15">
         <f>($D$25^2+G24^2+$Z$25^2)^0.5</f>
@@ -12021,14 +13224,14 @@
         <v>9.7235416666663355E-3</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G25" s="9">
         <f>'Monte-Carlo'!I4-'Monte-Carlo'!I2</f>
         <v>12.352010601894481</v>
       </c>
       <c r="K25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L25" s="15">
         <f>($D$25^2+G25^2+$Z$25^2)^0.5</f>
@@ -12037,7 +13240,7 @@
       <c r="W25" s="5"/>
       <c r="X25" s="4"/>
       <c r="Y25" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Z25" s="9">
         <f>(Z5^2+Z12^2)^0.5</f>
@@ -12077,52 +13280,873 @@
       <c r="AC26" s="7"/>
       <c r="AD26" s="8"/>
     </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="2"/>
+      <c r="AA27" s="2"/>
+      <c r="AB27" s="2"/>
+      <c r="AC27" s="2"/>
+      <c r="AD27" s="3"/>
+    </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="C28" t="s">
+      <c r="A28" s="4"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="22">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="21">
-        <v>80.599999999999994</v>
-      </c>
-      <c r="H28" t="s">
-        <v>50</v>
-      </c>
-      <c r="J28" s="21">
+      <c r="I28" s="21"/>
+      <c r="J28" s="22">
         <f>D32-D34*L24</f>
         <v>-93.413683955950461</v>
       </c>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="21"/>
+      <c r="R28" s="21"/>
+      <c r="S28" s="21"/>
+      <c r="T28" s="21"/>
+      <c r="U28" s="21"/>
+      <c r="V28" s="21"/>
+      <c r="W28" s="21"/>
+      <c r="X28" s="21"/>
+      <c r="Y28" s="21"/>
+      <c r="Z28" s="21"/>
+      <c r="AA28" s="21"/>
+      <c r="AB28" s="21"/>
+      <c r="AC28" s="21"/>
+      <c r="AD28" s="5"/>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="J29" s="21">
+      <c r="A29" s="4"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="22">
         <f>D32+D34*L25</f>
         <v>-10.764967646270755</v>
       </c>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="21"/>
+      <c r="Q29" s="21"/>
+      <c r="R29" s="21"/>
+      <c r="S29" s="21"/>
+      <c r="T29" s="21"/>
+      <c r="U29" s="21"/>
+      <c r="V29" s="21"/>
+      <c r="W29" s="21"/>
+      <c r="X29" s="21"/>
+      <c r="Y29" s="21"/>
+      <c r="Z29" s="21"/>
+      <c r="AA29" s="21"/>
+      <c r="AB29" s="21"/>
+      <c r="AC29" s="21"/>
+      <c r="AD29" s="5"/>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="C30" t="s">
-        <v>48</v>
-      </c>
-      <c r="D30" s="21">
+      <c r="A30" s="4"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="22">
         <f>'Monte-Carlo'!I2</f>
         <v>26.537814870081345</v>
       </c>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="21"/>
+      <c r="Q30" s="21"/>
+      <c r="R30" s="21"/>
+      <c r="S30" s="21"/>
+      <c r="T30" s="21"/>
+      <c r="U30" s="21"/>
+      <c r="V30" s="21"/>
+      <c r="W30" s="21"/>
+      <c r="X30" s="21"/>
+      <c r="Y30" s="21"/>
+      <c r="Z30" s="21"/>
+      <c r="AA30" s="21"/>
+      <c r="AB30" s="21"/>
+      <c r="AC30" s="21"/>
+      <c r="AD30" s="5"/>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A31" s="4"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="21"/>
+      <c r="Q31" s="21"/>
+      <c r="R31" s="21"/>
+      <c r="S31" s="21"/>
+      <c r="T31" s="21"/>
+      <c r="U31" s="21"/>
+      <c r="V31" s="21"/>
+      <c r="W31" s="21"/>
+      <c r="X31" s="21"/>
+      <c r="Y31" s="21"/>
+      <c r="Z31" s="21"/>
+      <c r="AA31" s="21"/>
+      <c r="AB31" s="21"/>
+      <c r="AC31" s="21"/>
+      <c r="AD31" s="5"/>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="C32" t="s">
-        <v>47</v>
-      </c>
-      <c r="D32" s="21">
+      <c r="A32" s="4"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="22">
         <f>D30-D28</f>
         <v>-54.062185129918646</v>
       </c>
-    </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C34" t="s">
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="21"/>
+      <c r="O32" s="21"/>
+      <c r="P32" s="21"/>
+      <c r="Q32" s="21"/>
+      <c r="R32" s="21"/>
+      <c r="S32" s="21"/>
+      <c r="T32" s="21"/>
+      <c r="U32" s="21"/>
+      <c r="V32" s="21"/>
+      <c r="W32" s="21"/>
+      <c r="X32" s="21"/>
+      <c r="Y32" s="21"/>
+      <c r="Z32" s="21"/>
+      <c r="AA32" s="21"/>
+      <c r="AB32" s="21"/>
+      <c r="AC32" s="21"/>
+      <c r="AD32" s="5"/>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A33" s="4"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="21"/>
+      <c r="O33" s="21"/>
+      <c r="P33" s="21"/>
+      <c r="Q33" s="21"/>
+      <c r="R33" s="21"/>
+      <c r="S33" s="21"/>
+      <c r="T33" s="21"/>
+      <c r="U33" s="21"/>
+      <c r="V33" s="21"/>
+      <c r="W33" s="21"/>
+      <c r="X33" s="21"/>
+      <c r="Y33" s="21"/>
+      <c r="Z33" s="21"/>
+      <c r="AA33" s="21"/>
+      <c r="AB33" s="21"/>
+      <c r="AC33" s="21"/>
+      <c r="AD33" s="5"/>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A34" s="4"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" s="22">
+        <v>2</v>
+      </c>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="21"/>
+      <c r="O34" s="21"/>
+      <c r="P34" s="21"/>
+      <c r="Q34" s="21"/>
+      <c r="R34" s="21"/>
+      <c r="S34" s="21"/>
+      <c r="T34" s="21"/>
+      <c r="U34" s="21"/>
+      <c r="V34" s="21"/>
+      <c r="W34" s="21"/>
+      <c r="X34" s="21"/>
+      <c r="Y34" s="21"/>
+      <c r="Z34" s="21"/>
+      <c r="AA34" s="21"/>
+      <c r="AB34" s="21"/>
+      <c r="AC34" s="21"/>
+      <c r="AD34" s="5"/>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A35" s="4"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="21"/>
+      <c r="O35" s="21"/>
+      <c r="P35" s="21"/>
+      <c r="Q35" s="21"/>
+      <c r="R35" s="21"/>
+      <c r="S35" s="21"/>
+      <c r="T35" s="21"/>
+      <c r="U35" s="21"/>
+      <c r="V35" s="21"/>
+      <c r="W35" s="21"/>
+      <c r="X35" s="21"/>
+      <c r="Y35" s="21"/>
+      <c r="Z35" s="21"/>
+      <c r="AA35" s="21"/>
+      <c r="AB35" s="21"/>
+      <c r="AC35" s="21"/>
+      <c r="AD35" s="5"/>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A36" s="4"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="21"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="21"/>
+      <c r="O36" s="21"/>
+      <c r="P36" s="21"/>
+      <c r="Q36" s="21"/>
+      <c r="R36" s="21"/>
+      <c r="S36" s="21"/>
+      <c r="T36" s="21"/>
+      <c r="U36" s="21"/>
+      <c r="V36" s="21"/>
+      <c r="W36" s="21"/>
+      <c r="X36" s="21"/>
+      <c r="Y36" s="21"/>
+      <c r="Z36" s="21"/>
+      <c r="AA36" s="21"/>
+      <c r="AB36" s="21"/>
+      <c r="AC36" s="21"/>
+      <c r="AD36" s="5"/>
+    </row>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A37" s="4"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="D34" s="21">
-        <v>2</v>
-      </c>
+      <c r="D37" s="21">
+        <f>D34*L24</f>
+        <v>39.351498826031808</v>
+      </c>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="21"/>
+      <c r="M37" s="21"/>
+      <c r="N37" s="21"/>
+      <c r="O37" s="21"/>
+      <c r="P37" s="21"/>
+      <c r="Q37" s="21"/>
+      <c r="R37" s="21"/>
+      <c r="S37" s="21"/>
+      <c r="T37" s="21"/>
+      <c r="U37" s="21"/>
+      <c r="V37" s="21"/>
+      <c r="W37" s="21"/>
+      <c r="X37" s="21"/>
+      <c r="Y37" s="21"/>
+      <c r="Z37" s="21"/>
+      <c r="AA37" s="21"/>
+      <c r="AB37" s="21"/>
+      <c r="AC37" s="21"/>
+      <c r="AD37" s="5"/>
+    </row>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A38" s="4"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="21"/>
+      <c r="M38" s="21"/>
+      <c r="N38" s="21"/>
+      <c r="O38" s="21"/>
+      <c r="P38" s="21"/>
+      <c r="Q38" s="21"/>
+      <c r="R38" s="21"/>
+      <c r="S38" s="21"/>
+      <c r="T38" s="21"/>
+      <c r="U38" s="21"/>
+      <c r="V38" s="21"/>
+      <c r="W38" s="21"/>
+      <c r="X38" s="21"/>
+      <c r="Y38" s="21"/>
+      <c r="Z38" s="21"/>
+      <c r="AA38" s="21"/>
+      <c r="AB38" s="21"/>
+      <c r="AC38" s="21"/>
+      <c r="AD38" s="5"/>
+    </row>
+    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A39" s="4"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D39" s="21">
+        <f>D34*L25</f>
+        <v>43.297217483647891</v>
+      </c>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="21"/>
+      <c r="M39" s="21"/>
+      <c r="N39" s="21"/>
+      <c r="O39" s="21"/>
+      <c r="P39" s="21"/>
+      <c r="Q39" s="21"/>
+      <c r="R39" s="21"/>
+      <c r="S39" s="21"/>
+      <c r="T39" s="21"/>
+      <c r="U39" s="21"/>
+      <c r="V39" s="21"/>
+      <c r="W39" s="21"/>
+      <c r="X39" s="21"/>
+      <c r="Y39" s="21"/>
+      <c r="Z39" s="21"/>
+      <c r="AA39" s="21"/>
+      <c r="AB39" s="21"/>
+      <c r="AC39" s="21"/>
+      <c r="AD39" s="5"/>
+    </row>
+    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A40" s="4"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="21"/>
+      <c r="L40" s="21"/>
+      <c r="M40" s="21"/>
+      <c r="N40" s="21"/>
+      <c r="O40" s="21"/>
+      <c r="P40" s="21"/>
+      <c r="Q40" s="21"/>
+      <c r="R40" s="21"/>
+      <c r="S40" s="21"/>
+      <c r="T40" s="21"/>
+      <c r="U40" s="21"/>
+      <c r="V40" s="21"/>
+      <c r="W40" s="21"/>
+      <c r="X40" s="21"/>
+      <c r="Y40" s="21"/>
+      <c r="Z40" s="21"/>
+      <c r="AA40" s="21"/>
+      <c r="AB40" s="21"/>
+      <c r="AC40" s="21"/>
+      <c r="AD40" s="5"/>
+    </row>
+    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A41" s="4"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="21"/>
+      <c r="M41" s="21"/>
+      <c r="N41" s="21"/>
+      <c r="O41" s="21"/>
+      <c r="P41" s="21"/>
+      <c r="Q41" s="21"/>
+      <c r="R41" s="21"/>
+      <c r="S41" s="21"/>
+      <c r="T41" s="21"/>
+      <c r="U41" s="21"/>
+      <c r="V41" s="21"/>
+      <c r="W41" s="21"/>
+      <c r="X41" s="21"/>
+      <c r="Y41" s="21"/>
+      <c r="Z41" s="21"/>
+      <c r="AA41" s="21"/>
+      <c r="AB41" s="21"/>
+      <c r="AC41" s="21"/>
+      <c r="AD41" s="5"/>
+    </row>
+    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A42" s="4"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="21"/>
+      <c r="J42" s="21"/>
+      <c r="K42" s="21"/>
+      <c r="L42" s="21"/>
+      <c r="M42" s="21"/>
+      <c r="N42" s="21"/>
+      <c r="O42" s="21"/>
+      <c r="P42" s="21"/>
+      <c r="Q42" s="21"/>
+      <c r="R42" s="21"/>
+      <c r="S42" s="21"/>
+      <c r="T42" s="21"/>
+      <c r="U42" s="21"/>
+      <c r="V42" s="21"/>
+      <c r="W42" s="21"/>
+      <c r="X42" s="21"/>
+      <c r="Y42" s="21"/>
+      <c r="Z42" s="21"/>
+      <c r="AA42" s="21"/>
+      <c r="AB42" s="21"/>
+      <c r="AC42" s="21"/>
+      <c r="AD42" s="5"/>
+    </row>
+    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A43" s="4"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="21"/>
+      <c r="L43" s="21"/>
+      <c r="M43" s="21"/>
+      <c r="N43" s="21"/>
+      <c r="O43" s="21"/>
+      <c r="P43" s="21"/>
+      <c r="Q43" s="21"/>
+      <c r="R43" s="21"/>
+      <c r="S43" s="21"/>
+      <c r="T43" s="21"/>
+      <c r="U43" s="21"/>
+      <c r="V43" s="21"/>
+      <c r="W43" s="21"/>
+      <c r="X43" s="21"/>
+      <c r="Y43" s="21"/>
+      <c r="Z43" s="21"/>
+      <c r="AA43" s="21"/>
+      <c r="AB43" s="21"/>
+      <c r="AC43" s="21"/>
+      <c r="AD43" s="5"/>
+    </row>
+    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A44" s="4"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="21"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="21"/>
+      <c r="L44" s="21"/>
+      <c r="M44" s="21"/>
+      <c r="N44" s="21"/>
+      <c r="O44" s="21"/>
+      <c r="P44" s="21"/>
+      <c r="Q44" s="21"/>
+      <c r="R44" s="21"/>
+      <c r="S44" s="21"/>
+      <c r="T44" s="21"/>
+      <c r="U44" s="21"/>
+      <c r="V44" s="21"/>
+      <c r="W44" s="21"/>
+      <c r="X44" s="21"/>
+      <c r="Y44" s="21"/>
+      <c r="Z44" s="21"/>
+      <c r="AA44" s="21"/>
+      <c r="AB44" s="21"/>
+      <c r="AC44" s="21"/>
+      <c r="AD44" s="5"/>
+    </row>
+    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A45" s="4"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="21"/>
+      <c r="L45" s="21"/>
+      <c r="M45" s="21"/>
+      <c r="N45" s="21"/>
+      <c r="O45" s="21"/>
+      <c r="P45" s="21"/>
+      <c r="Q45" s="21"/>
+      <c r="R45" s="21"/>
+      <c r="S45" s="21"/>
+      <c r="T45" s="21"/>
+      <c r="U45" s="21"/>
+      <c r="V45" s="21"/>
+      <c r="W45" s="21"/>
+      <c r="X45" s="21"/>
+      <c r="Y45" s="21"/>
+      <c r="Z45" s="21"/>
+      <c r="AA45" s="21"/>
+      <c r="AB45" s="21"/>
+      <c r="AC45" s="21"/>
+      <c r="AD45" s="5"/>
+    </row>
+    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A46" s="4"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="21"/>
+      <c r="J46" s="21"/>
+      <c r="K46" s="21"/>
+      <c r="L46" s="21"/>
+      <c r="M46" s="21"/>
+      <c r="N46" s="21"/>
+      <c r="O46" s="21"/>
+      <c r="P46" s="21"/>
+      <c r="Q46" s="21"/>
+      <c r="R46" s="21"/>
+      <c r="S46" s="21"/>
+      <c r="T46" s="21"/>
+      <c r="U46" s="21"/>
+      <c r="V46" s="21"/>
+      <c r="W46" s="21"/>
+      <c r="X46" s="21"/>
+      <c r="Y46" s="21"/>
+      <c r="Z46" s="21"/>
+      <c r="AA46" s="21"/>
+      <c r="AB46" s="21"/>
+      <c r="AC46" s="21"/>
+      <c r="AD46" s="5"/>
+    </row>
+    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A47" s="4"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="21"/>
+      <c r="J47" s="21"/>
+      <c r="K47" s="21"/>
+      <c r="L47" s="21"/>
+      <c r="M47" s="21"/>
+      <c r="N47" s="21"/>
+      <c r="O47" s="21"/>
+      <c r="P47" s="21"/>
+      <c r="Q47" s="21"/>
+      <c r="R47" s="21"/>
+      <c r="S47" s="21"/>
+      <c r="T47" s="21"/>
+      <c r="U47" s="21"/>
+      <c r="V47" s="21"/>
+      <c r="W47" s="21"/>
+      <c r="X47" s="21"/>
+      <c r="Y47" s="21"/>
+      <c r="Z47" s="21"/>
+      <c r="AA47" s="21"/>
+      <c r="AB47" s="21"/>
+      <c r="AC47" s="21"/>
+      <c r="AD47" s="5"/>
+    </row>
+    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A48" s="4"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="21"/>
+      <c r="J48" s="21"/>
+      <c r="K48" s="21"/>
+      <c r="L48" s="21"/>
+      <c r="M48" s="21"/>
+      <c r="N48" s="21"/>
+      <c r="O48" s="21"/>
+      <c r="P48" s="21"/>
+      <c r="Q48" s="21"/>
+      <c r="R48" s="21"/>
+      <c r="S48" s="21"/>
+      <c r="T48" s="21"/>
+      <c r="U48" s="21"/>
+      <c r="V48" s="21"/>
+      <c r="W48" s="21"/>
+      <c r="X48" s="21"/>
+      <c r="Y48" s="21"/>
+      <c r="Z48" s="21"/>
+      <c r="AA48" s="21"/>
+      <c r="AB48" s="21"/>
+      <c r="AC48" s="21"/>
+      <c r="AD48" s="5"/>
+    </row>
+    <row r="49" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A49" s="4"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="21"/>
+      <c r="K49" s="21"/>
+      <c r="L49" s="21"/>
+      <c r="M49" s="21"/>
+      <c r="N49" s="21"/>
+      <c r="O49" s="21"/>
+      <c r="P49" s="21"/>
+      <c r="Q49" s="21"/>
+      <c r="R49" s="21"/>
+      <c r="S49" s="21"/>
+      <c r="T49" s="21"/>
+      <c r="U49" s="21"/>
+      <c r="V49" s="21"/>
+      <c r="W49" s="21"/>
+      <c r="X49" s="21"/>
+      <c r="Y49" s="21"/>
+      <c r="Z49" s="21"/>
+      <c r="AA49" s="21"/>
+      <c r="AB49" s="21"/>
+      <c r="AC49" s="21"/>
+      <c r="AD49" s="5"/>
+    </row>
+    <row r="50" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A50" s="4"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="21"/>
+      <c r="I50" s="21"/>
+      <c r="J50" s="21"/>
+      <c r="K50" s="21"/>
+      <c r="L50" s="21"/>
+      <c r="M50" s="21"/>
+      <c r="N50" s="21"/>
+      <c r="O50" s="21"/>
+      <c r="P50" s="21"/>
+      <c r="Q50" s="21"/>
+      <c r="R50" s="21"/>
+      <c r="S50" s="21"/>
+      <c r="T50" s="21"/>
+      <c r="U50" s="21"/>
+      <c r="V50" s="21"/>
+      <c r="W50" s="21"/>
+      <c r="X50" s="21"/>
+      <c r="Y50" s="21"/>
+      <c r="Z50" s="21"/>
+      <c r="AA50" s="21"/>
+      <c r="AB50" s="21"/>
+      <c r="AC50" s="21"/>
+      <c r="AD50" s="5"/>
+    </row>
+    <row r="51" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A51" s="4"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="21"/>
+      <c r="J51" s="21"/>
+      <c r="K51" s="21"/>
+      <c r="L51" s="21"/>
+      <c r="M51" s="21"/>
+      <c r="N51" s="21"/>
+      <c r="O51" s="21"/>
+      <c r="P51" s="21"/>
+      <c r="Q51" s="21"/>
+      <c r="R51" s="21"/>
+      <c r="S51" s="21"/>
+      <c r="T51" s="21"/>
+      <c r="U51" s="21"/>
+      <c r="V51" s="21"/>
+      <c r="W51" s="21"/>
+      <c r="X51" s="21"/>
+      <c r="Y51" s="21"/>
+      <c r="Z51" s="21"/>
+      <c r="AA51" s="21"/>
+      <c r="AB51" s="21"/>
+      <c r="AC51" s="21"/>
+      <c r="AD51" s="5"/>
+    </row>
+    <row r="52" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="6"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="7"/>
+      <c r="N52" s="7"/>
+      <c r="O52" s="7"/>
+      <c r="P52" s="7"/>
+      <c r="Q52" s="7"/>
+      <c r="R52" s="7"/>
+      <c r="S52" s="7"/>
+      <c r="T52" s="7"/>
+      <c r="U52" s="7"/>
+      <c r="V52" s="7"/>
+      <c r="W52" s="7"/>
+      <c r="X52" s="7"/>
+      <c r="Y52" s="7"/>
+      <c r="Z52" s="7"/>
+      <c r="AA52" s="7"/>
+      <c r="AB52" s="7"/>
+      <c r="AC52" s="7"/>
+      <c r="AD52" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12131,198 +14155,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC78AAC4-D1E3-4EE4-8A9E-B4DBED4ACCA1}">
-  <dimension ref="A1:E21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="4" max="4" width="13.109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>600</v>
-      </c>
-      <c r="B2" s="10">
-        <v>3.3333332999999999E-7</v>
-      </c>
-      <c r="C2">
-        <v>19.542286000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>400</v>
-      </c>
-      <c r="B3" s="10">
-        <v>4.9999999999999998E-7</v>
-      </c>
-      <c r="C3">
-        <v>19.559256999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>300</v>
-      </c>
-      <c r="B4" s="10">
-        <v>6.6666667000000002E-7</v>
-      </c>
-      <c r="C4">
-        <v>19.588958999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>200</v>
-      </c>
-      <c r="B5" s="10">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="C5">
-        <v>19.726541000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>150</v>
-      </c>
-      <c r="B6" s="10">
-        <v>1.3333333000000001E-6</v>
-      </c>
-      <c r="C6">
-        <v>19.7942</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>100</v>
-      </c>
-      <c r="B7" s="10">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="C7">
-        <v>20.250312999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>75</v>
-      </c>
-      <c r="B8" s="10">
-        <v>2.6666667000000001E-6</v>
-      </c>
-      <c r="C8">
-        <v>21.342282999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>50</v>
-      </c>
-      <c r="B9" s="10">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="C9">
-        <v>22.851299000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="D14" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <f>LN((C6-C4)/(C4-C2))/LN(E15)</f>
-        <v>2.1366588524410277</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="D15" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="13">
-        <f>(E14-E15)/E15</f>
-        <v>6.8329426220513856E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D17" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18">
-        <f>E15</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20">
-        <f>E17/((E19^E18)-1)*ABS(C4-C2)</f>
-        <v>1.9447083333332671E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21">
-        <f>E20/2</f>
-        <v>9.7235416666663355E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ADCF979-8E9B-4297-ACF4-8361D98B7E9B}">
   <dimension ref="A1:Q223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12340,28 +14177,28 @@
         <v>3</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M1" s="17" t="s">
         <v>3</v>
       </c>
       <c r="N1" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="17" t="s">
-        <v>30</v>
-      </c>
       <c r="P1" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q1" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
@@ -12381,14 +14218,14 @@
         <v>0.78568553481319203</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G2" s="17">
         <f>AVERAGE(B$2:B$1048576)</f>
         <v>3.2785706920586115</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I2" s="17">
         <f>EXP(G2)</f>
@@ -12396,14 +14233,14 @@
       </c>
       <c r="M2" s="17"/>
       <c r="N2" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O2" s="20"/>
       <c r="P2" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="19" t="s">
         <v>32</v>
-      </c>
-      <c r="Q2" s="19" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
@@ -12423,14 +14260,14 @@
         <v>0.72992949858748146</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G3" s="17">
         <f>_xlfn.STDEV.S(B$2:B$1048576)</f>
         <v>0.38216196836371663</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I3" s="17">
         <f>EXP(G3)</f>
@@ -12474,14 +14311,14 @@
         <v>0.92007260314073447</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G4" s="17">
         <f>G2+G3</f>
         <v>3.6607326604223283</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I4" s="17">
         <f>EXP(G2+G3)</f>
@@ -12525,14 +14362,14 @@
         <v>0.66346539325171217</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G5" s="17">
         <f>G2-G3</f>
         <v>2.8964087236948948</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I5" s="17">
         <f>EXP(G2-G3)</f>
@@ -12613,7 +14450,7 @@
         <v>0.71715391662570138</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G7">
         <f>I2-I2/I3</f>
@@ -12657,7 +14494,7 @@
         <v>0.23571766762587726</v>
       </c>
       <c r="F8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G8">
         <f>I2*I3-I2</f>
@@ -19326,4 +21163,191 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC78AAC4-D1E3-4EE4-8A9E-B4DBED4ACCA1}">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="13.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>600</v>
+      </c>
+      <c r="B2" s="10">
+        <v>3.3333332999999999E-7</v>
+      </c>
+      <c r="C2">
+        <v>19.542286000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>400</v>
+      </c>
+      <c r="B3" s="10">
+        <v>4.9999999999999998E-7</v>
+      </c>
+      <c r="C3">
+        <v>19.559256999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>300</v>
+      </c>
+      <c r="B4" s="10">
+        <v>6.6666667000000002E-7</v>
+      </c>
+      <c r="C4">
+        <v>19.588958999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>200</v>
+      </c>
+      <c r="B5" s="10">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C5">
+        <v>19.726541000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>150</v>
+      </c>
+      <c r="B6" s="10">
+        <v>1.3333333000000001E-6</v>
+      </c>
+      <c r="C6">
+        <v>19.7942</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>100</v>
+      </c>
+      <c r="B7" s="10">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="C7">
+        <v>20.250312999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>75</v>
+      </c>
+      <c r="B8" s="10">
+        <v>2.6666667000000001E-6</v>
+      </c>
+      <c r="C8">
+        <v>21.342282999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>50</v>
+      </c>
+      <c r="B9" s="10">
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="C9">
+        <v>22.851299000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D14" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14">
+        <f>LN((C6-C4)/(C4-C2))/LN(E15)</f>
+        <v>2.1366588524410277</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="13">
+        <f>(E14-E15)/E15</f>
+        <v>6.8329426220513856E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18">
+        <f>E15</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20">
+        <f>E17/((E19^E18)-1)*ABS(C4-C2)</f>
+        <v>1.9447083333332671E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21">
+        <f>E20/2</f>
+        <v>9.7235416666663355E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>